--- a/dataset/isi_f5.xlsx
+++ b/dataset/isi_f5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Sistem Persekutuan </t>
+          <t xml:space="preserve">Bab Kedaulatan Negara </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">di Negara Kita </t>
+          <t xml:space="preserve">  Konsep Kedaulatan </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>41 latar belakang sistem persekutuan di negara kita malaysia merupakan sebuah negara yang pembentukan sistem persekutuan mengamalkan sistem persekutuan persekutuan di malaysia bermaksud penyatuan beberapa buah negeri sistem persekutuan di negara kita mempunyai dan membentuk sebuah negara bersekutu latar belakang sejarah tersendiri iaitu bermula antara unsur penting dalam sebuah negara pada tahun 1896 hingga tahun 1963 persekutuan termasuklah wujudnya kerajaan persekutuan kerajaan pusat dan kerajaan persekutuan 1896 negeri serta pembahagian kuasa dalam sistem pentadbiran berikutan peluasan pengaruh british sebuah persekutuan yang terdiri daripada empat buah negeri melayu ditubuhkan berdasarkan perjanjian persekutuan 1895 44 informasi persekutuan berkuat kuasa pada tahun bbaabb 1896 dan dikenali sebagai nnmb sejarah pembentukan konfederasi persekutuan tersebut tidak mempunyai negeri sembilan 1895 agihan kuasa dan fungsi khusus antara pada tahun 1889 luak tampin kerajaan persekutuan dengan kerajaan rembau dan seri menanti disatukan sebagai konfederasi seri menanti dan negeri bersetuju menerima seorang residen banyak keputusan pentadbiran dibuat british oleh residen jeneral di kuala lumpur pada tahun 1895 satu perjanjian sebagai pusat pentadbiran nnmb ditandatangani antara yamtuan besar seri menanti dengan undang johol sungai ujong jelebu rembau dan tunku besar tampin untuk menubuhkan sebuah konfederasi yang lebih besar dikenali sebagai negeri u sembilan siam mereka juga bersetuju menerima residen british bagi membantu sultan idris sultan ahmad pentadbiran konfederasi tersebut murshidul almuazzam yamtuan besar seri menanti tuanku adzam shah shah perak muhammad ibni tuanku antah kemudiannya dilantik sebagai yang pahang dipertuan besar negeri sembilan selangor ylainstge rp eprutalam da iplaandati kta hseubna 1g8a9i8 r mesaidrteinn selat nseemgebriilan melaka yang pertama di negeri sembilan sultan abdul tuanku sumatera samad ibni muhammad raja abdullah ibni tuanku antah rajaraja melayu yang menandatangani perjanjian konfederasi ialah gabungan antara negeri persekutuan 1895 yang berdaulat dalam satu ikatan yang longgar kuasa negeri dikekalkan dan sumber disesuaikan daripada cheah boon kheng ed 2006 early modern history 1800 1940 kuala lumpur kedaulatan negeri terpelihara archipelago press dan didier millet 6666kesatuan malaya 1946 persekutuan tanah melayu malayan union 1948 pada tahun 1946 british satu gabungan sembilan buah majlis mesyuarat berusaha untuk menyatukan negeri melayu dan dua buah persekutuan 1927 pentadbiran semua negeri nns yang dikenali sebagai majlis ini distruktur semula melayu serta pulau persekutuan tanah melayu pada tahun 1927 untuk pinang dan melaka untuk terbentuk melalui perjanjian memperkemas tadbir membentuk sebuah kerajaan persekutuan tanah melayu urus persekutuan dan berbentuk kesatuan yang 1948 mengukuhkan kedudukan dinamakan kesatuan malaya perjanjian persekutuan tanah british di negeri melayu 1946 atau malayan union melayu 1948 menetapkan konsep kesatuan yang kuasa kerajaan persekutuan diperkenalkan di bawah dan kerajaan negeri malayan union ini turut pengagihan kuasa peringkat membayangkan pembentukan persekutuan dan negeri bab sebuah kerajaan pusat yang menandakan bermula era rajaraja melayu dan kuat di bawah kuasa gabenor moden amalan persekutuan 4 pembesar bergambar selepas british di negara kita pesuruhjaya menandatangani perjanjian malayan union dilaksanakan tinggi british dilantik sebagai penstrukturan semula majlis dalam tempoh masa yang ketua persekutuan rajaraja mesyuarat persekutuan pada terhad dan gagal diteruskan melayu memerintah negeri tahun 1927 setelah mendapat bantahan mengikut perlembagaan negeri sumber arkib negara malaysia daripada rajaraja melayu masingmasing dan orang melayu persekutuan malaysia 1963 pada 16 september 1963 berdasarkan persekutuan tanah melayu 1957 perjanjian malaysia maka lahir sebuah pada 31 ogos 1957 muncul persekutuan persekutuan yang terdiri daripada tanah melayu yang merdeka 11 buah negeri tanah melayu persekutuan yang berasaskan perjanjian singapura dan dua buah negeri persekutuan tanah melayu 1957 mewujudkan borneo iaitu sarawak dan sabah sebuah kerajaan persekutuan yang kuat bagi persekutuan ini dinamakan malaysia melicinkan pentadbiran negara yang berdaulat jawatan yang dipertuan agong diwujudkan sebagai ketua persekutuan konsep persekutuan diperkukuh dengan sistem raja poskad hari berperlembagaan dan demokrasi berparlimen merdeka 1957 melalui peruntukan perlembagaan persekutuan sumber arkib tanah melayu 1957 negara malaysia pembentukan sistem persekutuan di negara kita merupakan penerusan tradisi sejarah sistem tersebut berakar umbi daripada pemerintahan beraja dan berkait rapat dengan peluasan pengaruh british dalam pentadbiran negeri melayu 67</t>
+          <t>11 konsep kedaulatan 11 bab bbaabb kedaulatan ditakrifkan sebagai kekuasaan tertinggi dan kewibawaan sesebuah negara yang bebas 1 serta mempunyai hak untuk melaksanakan pemerintahan dan pentadbiran negara kedaulatan negara kita dapat dilihat dengan lebih jelas sejak zaman kesultanan melayu melaka kemerdekaan tanah melayu pada 31 ogos 1957 dan pembentukan malaysia pada 16 september 1963 pula mengukuhkan serta memantapkan negara bangsa kita yang bebas dan berdaulat takrif kedaulatan takrif kedaulatan mengikut bahasa adalah seperti yang berikut bahasa yunani kedaulatan ialah supernuus atau superanus yang bermaksud agung atau tertinggi perkataan ini merujuk negara yang bebas dan merdeka bahasa inggeris dalam bahasa inggeris kedaulatan ialah sovereignty yang bermaksud negara mempunyai kuasa penuh terhadap pemerintahan takrif kedaulatan bahasa arab perkataan kedaulatan dalam bahasa arab berasal daripada kata daulah yang bermaksud kuasa pemerintahan sesebuah kerajaan bahasa melayu informasi kedaulatan merujuk perkataan daulat yang bermaksud kekuasaan tertinggi terhadap tamadun yunani merujuk pemerintahan negara tamadun greek tamadun ini berkembang antara tahun 1000 sebelum masihi hingga 800 sebelum masihi greek merupakan salah satu wilayah greece pada masa ini kesimpulannya kedaulatan merujuk kuasa tertinggi sesebuah kerajaan bagi menjalankan pemerintahan negara yang bebas dan merdeka apakah takrif kedaulatan dalam bahasa arab dan bahasa yunani 444pandangan tokoh 1 bbaabb beberapa orang tokoh memberikan tafsiran mereka tentang kedaulatan yang sesuai dengan zamannya bab 11 kedaulatan merupakan kuasa tertinggi dalam sistem pemerintahan sesebuah negara kedaulatan merujuk kerajaan yang terikat oleh undangundang jonathan barnes 2015 aristotle pengenalan ringkas kuala lumpur institut terjemahan dan buku malaysia aristotle ahli falsafah yunani kedaulatan merupakan kekuatan dan kekuasaan sesebuah negara berasaskan semangat kekitaan bangsanya kekuatan semangat kekitaan yang diiringi dengan kekuatan semangat beragama menyebabkan sesuatu bangsa rela untuk berkorban demi mencapai citacita yang sama mohammad abdullah enan 2014 ibnu khaldun riwayat hidup dan karyanya kuala lumpur institut terjemahan dan buku malaysia ibnu khaldun ilmuwan islam kedaulatan merupakan kuasa tertinggi dalam sesebuah negara kedaulatan mempunyai sifat kekal dan mempunyai kuasa tidak terbatas untuk membuat undangundang mentafsir dan melaksanakannya julian h franklin ed 1992 jean bodin on sovereignty cambridge cambridge university press jean bodin ahli falsafah politik perancis kedaulatan dibina berdasarkan prinsip kebebasan dan keadilan yang sentiasa memperjuangkan kebajikan dan kesejahteraan rakyat tunku abdul rahman putra alhaj 1987 political awakening petaling jaya pelanduk publications sdn bhd tunku abdul rahman putra alhaj perdana menteri malaysia pertama kedaulatan merupakan asas negara yang merdeka memiliki kebebasan pada peringkat antarabangsa bersama dengan hak dan kuasa untuk mengatur urusan dalam negeri tanpa telunjuk asing tun mohd salleh abas 2015 prinsip perlembagaan dan pemerintahan di malaysia edisi baharu dikemas kini oleh haji salleh buang kuala lumpur dewan bahasa dan pustaka tun dr mohamed salleh abas mantan ketua hakim negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara merdeka untuk menjalankan pemerintahan serta melaksanakan undangundang kedaulatan penting demi kesejahteraan rakyat dan kemakmuran negara kedaulatan ini diterima dan diiktiraf oleh negara lain 555jenis kedaulatan 11 bab bbaabb kedaulatan berbeza mengikut bentuk pemerintahan yang diamalkan oleh sesebuah negara setiap negara mempunyai hak untuk menentukan bentuk dan jenis kedaulatan yang diamalkannya 1 terdapat beberapa jenis kedaulatan seperti kedaulatan tradisional kedaulatan moden kedaulatan undangundang dan kedaulatan antarabangsa kedaulatan tradisional kedaulatan tradisional merujuk sistem pemerintahan berkuasa mutlak yang menguasai sepenuhnya segala urusan negara kedaulatan ini wujud sejak tamadun awal manusia kedaulatan negara kita pula berpaksi pada kedaulatan rajaraja melayu kedaulatan terletak pada kekuasaan dan kewibawaan raja raja merupakan pemerintah yang mempunyai kuasa tertinggi kedudukan dan kedaulatan raja diperkukuh oleh taat setia rakyat replika istana kesultanan melayu melaka di melaka sumber dewan bahasa dan pustaka kedaulatan moden kedaulatan moden dikaitkan dengan idea kemunculan negara bangsa selepas revolusi keagungan di england dan revolusi perancis kedaulatan juga dikaitkan dengan hak rakyat dan kerajaan berperlembagaan selepas perang dunia pertama kedaulatan dikaitkan dengan nasionalisme yang menggunakan unsur persamaan rumpun bangsa dan bahasa untuk membentuk negara bangsa masingmasing kedaulatan negara kita sebagai sebuah negara bangsa pula lahir hasil gabungan negeri yang dikenali sebagai persekutuan tanah melayu 1957 dan persekutuan malaysia 1963 istana negara di kuala lumpur sumber istana negara 66kedaulatan undangundang 1 bbaabb kedaulatan undangundang bermaksud kerajaan bab dan rakyat terikat oleh undangundang yang perlu 11 dipatuhi kedaulatan undangundang menjamin keadilan dalam kehidupan bermasyarakat serta menjadikan negara aman stabil dan makmur badan kehakiman yang bebas dan berwibawa diwujudkan untuk memelihara dan melaksanakan kedaulatan undangundang kedaulatan undangundang menjadi prinsip keempat dalam rukun negara istana kehakiman di putrajaya kedaulatan antarabangsa kedaulatan antarabangsa merujuk pengiktirafan pertubuhan bangsabangsa bersatu pbb terhadap sesebuah negara yang tidak boleh dicabuli oleh negara lain deklarasi hubungan persahabatan pbb 1970 mengesahkan prinsip persamaan kedaulatan dari segi undangundang antarabangsa keanggotaan negara kita dalam pbb membuktikan bahawa dunia mengiktiraf negara kita sebagai negara yang bebas merdeka dan berdaulat dr ismail abdul rahman kiri ismail ali dan tunku jaafar sedang mendengar ucapan pembukaan di perhimpunan agung pbb ke12 sewaktu persekutuan tanah melayu diterima sebagai anggota ke82 badan dunia itu pada 17 september 1957 sumber arkib negara malaysia pada hakikatnya setiap negara yang berdaulat mempunyai kekuasaan penuh untuk mengatur segala hal yang ada dalam wilayah tanpa campur tangan kuasa asing pemahaman terhadap konsep kedaulatan ini memberikan kesedaran tentang cabaran bagi mempertahankan negara oleh hal yang demikian rakyat perlu menggunakan kebijaksanaan bagi menghadapi cabaran demi mengekalkan kedaulatan nyatakan jenis kedaulatan yang negara kita berkaitan dengan sesebuah negara 77</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Sistem Persekutuan </t>
+          <t xml:space="preserve">Bab Kedaulatan Negara </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kerajaan Negeri </t>
+          <t xml:space="preserve"> Ciri Negara yang Berdaulat </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42 kuasa kerajaan persekutuan dan kerajaan negeri pentadbiran kerajaan malaysia dibahagikan kepada tiga peringkat iaitu kerajaan persekutuan kerajaan negeri dan kerajaan tempatan pembahagian kuasa perlembagaan persekutuan memperuntukkan kuasa yang khusus antara kerajaan persekutuan dengan kerajaan negeri yang meliputi kuasa perundangan dan kuasa pemerintahan pembahagian kuasa antara kerajaan persekutuan dengan kerajaan negeri bertujuan melicinkan perjalanan sistem persekutuan serta mengelakkan kompleks perdana putra 44 permasalahan antara keduadua peringkat kerajaan bbaabb peruntukan kuasa lebih besar diberikan pada peringkat persekutuan untuk mewujudkan kerajaan persekutuan yang kuat bagi menjamin kestabilan dan kemajuan negara tiada peruntukan kuasa khusus kepada kerajaan tempatan sebaliknya kerajaan tempatan diletakkan di bawah kuasa kerajaan negeri masjid putra informasi pusat pentadbiran kerajaan persekutuan kerajaan persekutuan memindahkan pusat pentadbirannya istana kehakiman dari kuala lumpur ke putrajaya pada tahun 1999 putrajaya diisytiharkan oleh tun dr mahathir mohamad perdana menteri malaysia keempat 1981 2003 penubuhan ini untuk mewujudkan sebuah pusat pentadbiran kerajaan persekutuan yang lebih sistematik berikutan keadaan kuala lumpur yang semakin sesak dengan pembangunan dan pertambahan penduduk pada tahun 2000 kerajaan negeri selangor dan kerajaan persekutuan menandatangani perjanjian untuk kementerian kewangan menjadikan putrajaya sebuah wilayah persekutuan nama putrajaya diambil bersempena dengan nama tunku abdul rahman putra alhaj perdana menteri malaysia pertama kementerian luar negeri 6688kuasa kerajaan persekutuan pada peringkat persekutuan institusi yang mempunyai kuasa untuk membuat undangundang bagi seluruh malaysia ialah parlimen kuasa pemerintahan kerajaan persekutuan meliputi perkara yang termaktub dalam perlembagaan persekutuan sebagai senarai persekutuan senarai persekutuan menjelaskan kuasa kerajaan persekutuan yang luas meliputi skop kepentingan nasional dan merangkumi semua aspek perkhidmatan berhubung dengan pentadbiran negara antara yang terkandung dalam senarai persekutuan termasuklah hal ehwal luar negeri pertahanan keselamatan dalam negeri pentadbiran keadilan kewarganegaraan bbaabb kewangan kompleks seri perdana kediaman perhubungan dan pengangkutan 44 rasmi perdana menteri pelajaran perubatan dan kesihatan istana melawati istana yang dipertuan agong jambatan seri wawasan mengapakah perlembagaan persekutuan memperuntukkan pusat konvensyen antarabangsa kuasa yang lebih banyak kompleks setia perdana putrajaya kepada kerajaan persekutuan 6699kuasa kerajaan negeri setiap negeri di malaysia mempunyai dewan antara perkara yang terkandung dalam undangan negeri dun yang mempunyai kuasa senarai negeri termasuklah untuk menggubal undangundang bagi negerinya undangundang islam kuasa pemerintahan kerajaan negeri meliputi tanah perkara yang termaktub dalam perlembagaan pertanian dan perhutanan persekutuan sebagai senarai negeri kerajaan tempatan hari kelepasan negeri senarai bersama senarai bersama ialah perkara yang antara perkara yang terkandung dalam senarai bersama membolehkan parlimen dan dun termasuklah menggubal undangundang untuk kebajikan awam 44 bbaabb perkara yang sama biasiswa sekiranya ada percanggahan bagi perlindungan haiwan liar dan taman negara perkara di bawah senarai bersama perancangan bandar dan luar bandar undangundang yang diluluskan oleh kesihatan awam kebersihan dan pencegahan parlimen harus dipatuhi penyakit kebudayaan dan sukan perumahan peruntukan tambahan bagi sarawak dan sabah kerajaan negeri sarawak dan antara tambahan kepada senarai bersama bagi sarawak sabah diberi kuasa tambahan dan sabah termasuklah bagi menyesuaikan kemasukan undangundang diri berhubung dengan perkahwinan negeri berkenaan ke dalam penceraian penjagaan anak nafkah dan sebagainya persekutuan malaysia berkaitan dengan undangundang keluarga penyelidikan pertanian dan perhutanan pengawalan antara tambahan kepada senarai makhluk perosak dan pencegahan penyakit tumbuhan negeri bagi sarawak dan sabah pilihan raya bagi dewan negeri termasuklah undangundang dan adat di bawah akta imigresen 1963 kerajaan negeri anak negeri sarawak dan sabah diberi kuasa untuk mengekalkan mahkamah anak negeri kuasa kawalan kemasukan dan kediaman di negerinegeri kereta api di sabah berkenaan mengapakah peruntukan tambahan diberikan senarai persekutuan dalam senarai negeri dan senarai bersama senarai negeri bagi sarawak dan sabah senarai bersama 7700peranan kerajaan tempatan kerajaan tempatan merupakan kerajaan peringkat ketiga yang diberi kuasa untuk mentadbir dan melaksanakan tanggungjawab dalam sesebuah kawasan tempatan atau daerah kecil yang diwartakan kerajaan tempatan lebih dikenali sebagai pihak berkuasa tempatan pbt dan berada di bawah bidang kuasa kerajaan negeri kerajaan tempatan merupakan perantara antara kerajaan negeri dengan rakyat serta berperanan memberikan perkhidmatan kepada penduduk setempat fungsi kerajaan tempatan digariskan oleh akta kerajaan tempatan 1976 akta 171 merangkumi semua jenis kerajaan tempatan seperti majlis bandaraya majlis perbandaran dan majlis daerah bbaabb menyediakan perkhidmatan mengeluarkan lesen membangunkan pembersihan dan kawalan penjaja perumahan awam 44 menyediakan kemudahan sukan dan kebudayaan antara fungsi menjaga kesihatan awam kerajaan tempatan pihak berkuasa tempatan menyediakan pasukan bantuan dan penyelamat mengindahkan kawasan menyediakan perkhidmatan menyenggara menyenggara menyediakan kecemasan sistem saliran jalan raya kemudahan awam pembahagian kuasa dalam sistem persekutuan menggambarkan meneroka bukti kepentingan mewujudkan pentadbiran yang sistematik bagi melicinkan tadbir urus negara setiap peringkat kerajaan dalam kerajaan tempatan merupakan persekutuan mempunyai peranan untuk membentuk pentadbiran kerajaan yang paling rapat yang berwibawa bagi kemajuan bangsa dan negara dengan rakyat buktikan 7711</t>
+          <t>12 ciri negara yang berdaulat 11 bab bbaabb setiap negara yang bebas dan merdeka mempunyai ciri tertentu bagi menentukan kedaulatannya 1 negara kita turut mempunyai ciri yang menjadi identitinya ciri negara yang berdaulat ialah mempunyai pemerintahan mempunyai sempadan mempunyai perundangan dan mempunyai rakyat yang menjadikan negara kita sebagai sebuah negara bebas dan berdaulat mempunyai pemerintahan pemerintahan negara berdaulat diwujudkan untuk menjaga kestabilan politik keamanan pertahanan dan ekonomi pemerintahan ini dijalankan secara teratur malaysia sebagai sebuah negara persekutuan mengamalkan sistem raja berperlembagaan dan demokrasi berparlimen ketua utama negara ialah yang kebawah duli yang maha mulia seri paduka dipertuan agong ketua kerajaan ialah perdana baginda yang dipertuan agong xvi dan kebawah menteri yang dibantu oleh jemaah menteri duli yang maha mulia seri paduka baginda raja permaisuri agong bersemayam di atas singgahsana sumber jabatan penerangan malaysia mempunyai sempadan sempadan merupakan garis pemisah antara negeri atau negara malaysia merupakan negara yang berkongsi sempadan darat air dan udara dengan negara jiran iaitu singapura thailand indonesia brunei dan filipina sempadan malaysia diakui oleh masyarakat antarabangsa khasnya pbb penetapan sempadan memudahkan urusan pemerintahan pentadbiran pertahanan dan pembangunan ekonomi negara kita filipina informasi thailand raja berperlembagaan laut china selatan raja berperlembagaan bermaksud pemerintahan beraja mengikut brunei darussalam peruntukan perlembagaan persekutuan m a l a y s i a terdapat tiga institusi beraja yang disebut dalam perlembagaan singapura persekutuan iaitu yang dipertuan agong pada peringkat persekutuan i n d o n e s i a institusi beraja pada peringkat negeri dan petunjuk majlis rajaraja sempadan antarabangsa demokrasi berparlimen demokrasi berparlimen bermaksud peta menunjukkan sempadan malaysia dengan negara jiran demokrasi yang dijalankan secara di asia tenggara perwakilan melalui proses pilihan raya sumber dewan bahasa dan pustaka 888mempunyai perundangan 1 bbbaaabbb bab sistem perundangan menjadi asas kepada 111 peraturan negara sistem perundangan penting untuk memelihara kesejahteraan menjamin keadilan dan melindungi rakyat asas kepada sistem perundangan negara kita berpandukan perlembagaan persekutuan parlimen bertanggungjawab menggubal dan menentukan sistem perundangan negara kita istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia mempunyai rakyat rakyat merupakan penduduk di sesebuah negara rakyat terikat kepada undangundang dan peraturan yang dikuatkuasakan oleh pemerintah rakyat negara ini terdiri daripada pelbagai kaum agama dan adat resam mereka disatukan melalui satu bahasa dan kebudayaan rukun negara serta identiti nasional yang sama setem kenangan berkaitan dengan keunikan rakyat malaysia yang terdiri daripada pelbagai kaum sumber pos malaysia berhad kerusi panas hot seat ciri negara berdaulat menjadikan malaysia kedaulatan sesebuah negara berkait rapat dengan sebuah negara yang mempunyai identiti ciri yang diamalkan dan perlu dipertahankan yang unik kita perlu memahami betapa 1 secara berkumpulan atau individu buat kajian atau bacaan tentang topik ini pentingnya menjiwai dan mempertahankan 2 seorang murid dipilih tampil ke hadapan kelas identiti negara agar negara luar menghormati 3 murid ini akan duduk di kerusi yang disediakan kedaulatan malaysia dan menjadi pakar yang bertindak menyatakan pandangannya 4 murid lain boleh bertanyakan soalan dan pakar akan menjawab semua soalan yang dilontarkan 99</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Sistem Persekutuan </t>
+          <t xml:space="preserve">Bab Kedaulatan Negara </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">dan Kerajaan Negeri </t>
+          <t xml:space="preserve"> Kepentingan Mewujudkan Negara Berdaulat </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>43 kerjasama kerajaan persekutuan dan kerajaan negeri kerjasama antara kerajaan persekutuan dengan kerajaan negeri penting untuk memastikan segala usaha pembangunan dapat memberikan manfaat demi kesejahteraan rakyat di seluruh negara kerjasama ini antaranya meliputi aspek pembangunan sosioekonomi pemeliharaan khazanah negara perumahan dan keselamatan kerjasama pembangunan sosioekonomi bagi menjayakan pembangunan sosioekonomi kerajaan persekutuan menubuhkan agensi yang dapat memberikan bantuan kewangan dan kepakaran kepada kerajaan negeri kerajaan negeri pula menyediakan tanah untuk tujuan pembangunan kerana tanah di bawah bidang kuasa kerajaan negeri pembangunan tanah pada peringkat awal kemerdekaan kerjasama sosioekonomi 44 bbaabb tertumpu pada pembukaan tanah baharu dan pembangunan insitu pada tahun 1956 kerajaan persekutuan menubuhkan federal land development authority felda atau lembaga kemajuan tanah persekutuan untuk mengurus dan menyalurkan bantuan kewangan kepada kerajaan negeri dalam usaha melaksanakan rancangan pembangunan tanah baharu kejayaan felda mendorong kerajaan persekutuan pembukaan felda endau mersing menubuhkan federal land consolidation and rehabilitation pada tahun 1959 authority felcra atau lembaga penyatuan dan sumber arkib negara malaysia pemulihan tanah persekutuan pada tahun 1966 untuk menyatukan memulihkan dan membangunkan tanah kerajaan negeri yang terbiar di seluruh negara segitiga jengka ialah ilham tun abdul razak hussein informasi segitiga jengka merupakan rancangan pembangunan wilayah pertama diusahakan oleh felda pada tahun 1966 yang merangkumi tiga daerah iaitu temerloh jerantut dan maran pahang pembangunan insitu menekankan pembangunan fizikal desa seperti penyediaan kemudahan asas rumah rakyat dan pusat pertumbuhan ekonomi desa tun abdul razak hussein perdana menteri malaysia kedua melawat membuat interpretasi segitiga jengka pahang sumber rokiah talib 2010 raja setem pos mencatatkan tun abdul razak muhammad alias arkitek felda bangi hussein sebagai bapa pembangunan penerbit universiti kebangsaan malaysia berikan justifikasi anda mengapakah tun abdul razak hussein diberi gelaran sedemikian 7722pembangunan wilayah selepas tahun 1970 kerjasama sosioekonomi diperluas kepada pembangunan wilayah berdasarkan pembangunan kawasan kerajaan persekutuan membuka kawasan lebih luas di beberapa buah negeri untuk membangunkan wilayah baharu lembaga kemajuan lembaga u agensi pembangunan kelantan selatan kemajuan di sarawak thailand kesedar wilayah kedah lembaga keda keda kemajuan tanah lembaga sarawak lkts perda kemajuan kesedar lembaga lembaga terengganu penyatuan kemajuan ketengah tengah wilayah ketengah pemuliharaan pulau pinang tanah sarawak bbaabb perda salcra dara lembaga agensi pembangunan 44 lembaga kemajuan di sabah kemajuan pahang lembaga johor tenggara kejora tenggara kemajuan tanah kejora dara sabah sldb pembangunan koridor wilayah selepas tahun 2005 kerjasama sosioekonomi dilaksanakan melalui pembangunan koridor jadual 41 rancangan pembangunan koridor wilayah berlandaskan projek pembangunan wilayah pembangunan koridor wilayah merupakan rancangan pembangunan wilayah liputan perancangan strategik jangka panjang yang koridor wilayah 2006 memberikan tumpuan kepada pembangunan rancangan pembangunan di negeri dan wilayah yang kurang pesat untuk iskandar atau south johor selatan joh or economic region sjer mewujudkan keseimbangan pembangunan 2007 negeri dan wilayah wilayah ekonomi koridor utara perlis keda h atau northern corridor pulau pinan g utara perak economic region ncer 2007 pahang terengganu wilayah ekonomi pantai kelantan d aerah mers ing timur atau east coast johor economic region ecer 2008koridor tenaga diperbaharui sarawak atau sarawak wilayah ten gah saraw ak corridor of renewable energy score 2008 koridor pembangunan sabah seluruh sa bah atau sabah development pelan projek wilayah pembangunan iskandar yang corridor sdc dikenali sebagai iskandar malaysia rancangan pembangunan iskandar mengapakah negeri di pantai barat semenanjung sumber malaysia 2007 50 tahun pendakian ke puncak malaysia tidak termasuk dalam rancangan emas kuala lumpur jabatan penerangan malaysia pembangunan koridor wilayah 7733kerjasama pemuliharaan khazanah negara malaysia merupakan negara yang terkenal dengan kekayaan flora dan fauna bagi mengekalkan warisan biodiversiti untuk kepentingan generasi kini dan akan datang kerajaan pada setiap peringkat bekerjasama mewujudkan rangkaian kawasan perlindungan seperti taman negara dan taman laut pengurusan taman negara berdasarkan perlembagaan persekutuan pengurusan hidupan liar dan taman negara merupakan tanggungjawab bersama antara kerajaan persekutuan dengan kerajaan negeri bagi mengukuhkan kerjasama ini akta perlindungan hidupan liar 1972 akta 76 diwujudkan pada tahun 1972 pada tahun 2010 akta ini digantikan dengan akta pemuliharaan hidupan liar 2010 yang dikenali sebagai akta 716 antara tahun 1972 hingga tahun 1978 kerajaan persekutuan mengambil alih pentadbiran semua jabatan mergastua negeri di semenanjung malaysia jabatan mergastua kemudiannya dinamakan sebagai jabatan perlindungan hidupan liar dan taman negara perhilitan semenanjung malaysia 4 pengurusan taman negara di sarawak terletak di bawah pengurusan perbadanan perhutanan bab sarawak manakala taman negara di sabah terletak di bawah jabatan hidupan liar sabah thailand u perak kelantan taman negeri royal belum terengganu taman negara pahang pahang taman hidupan liar krau taman negara kinabalu sabah petunjuk johor diisytiharkan sebagai tapak warisan taman hidupan liar taman dunia unesco pertama di malaysia negara dan taman negara johor endau pada tahun 2000 rompin peta menunjukkan antara kawasan perlindungan hidupan liar dan taman negara di semenanjung malaysia sumber malaysia 2018 laporan tahunan 2018 annual report kuala lumpur jabatan perhilitan semenanjung malaysia informasi rafflesia azlanii spesies rafflesia azlanii merupakan spesies asli semenanjung malaysia dan mula ditemukan di hutan simpan royal belum di negeri perak taman negara mulu sarawak diiktiraf pada tahun 2003 bagi memperingati penemuan sebagai tapak warisan dunia unesco ini rafflesia tersebut dinamakan bersempena pada tahun 2000 dengan nama sultan perak sultan azlan sumber muhibbuddin shah ibni almarhum sultan worldheritagesite dicapai pada 19 julai yusuff izzuddin shah ghafarullahulah 2020 7744litupan karang hidup yang sihat program restorasi karang di taman di perairan taman laut malaysia laut malaysia oleh jabatan perikanan malaysia sumber jabatan perikanan malaysia sumber jabatan perikanan malaysia aktiviti pembersihan dasar laut pengurusan taman laut di taman laut malaysia oleh jabatan perikanan malaysia bagi memulihara khazanah laut di negara kita 42 buah pulau sumber jabatan perikanan malaysia di perairan kedah terengganu pahang johor sabah dan labuan diwartakan sebagai taman laut sejak tahun 1994 kerajaan persekutuan membentuk dasar berkaitan dengan taman laut kerajaan negeri berkuasa terhadap bab pembangunan pulau penyelarasan pentadbiran taman laut dibuat melalui 4 mesyuarat majlis penasihat kebangsaan taman laut dan jabatan taman laut malaysia rizab laut yang dianggotai oleh kerajaan persekutuan dan menjalankan rondaan dan kerajaan negeri pengawalseliaan di perairan jabatan taman laut malaysia ditubuhkan pada tahun 2007 taman laut sebagai agensi kerajaan persekutuan yang bertanggungjawab sumber jabatan perikanan malaysia secara keseluruhan dalam dasar pengurusan taman laut di malaysia pada tahun 2018 pengurusan taman laut informasi dipindahkan ke jabatan perikanan malaysia kawasan perlindungan marin di perairan sabah pula di bawah taman laut di bawah tanggungjawab kerajaan negeri melalui agensinya iaitu pengurusan tamantaman tamantaman sabah sabah1 taman tunku abdul rahman kota kinabalu terengganu 2 taman pulau tiga kuala penyu 3 taman pulaupulau penyu wilayah sandakan kedah pahang persekutuan 4 taman marin tun sakaran labuan semporna 5 taman pulau sipadan semporna u thailand 6 taman tun mustapha kudat perlis johor kedah ppuinlaanug kelantan sabah hidupan laut terengganu brunei perak darussalam empat daripada spesies penyu pahang dunia boleh dijumpai di perairan selangor malaysia dua daripadanya ialah mel nsaeekmgaebrilianjohor sarawak petunjuk penyu karah eretmochelys insdumoanteesraia singapura taman laut imbricata dan penyu hijau chelonia mydas peta lokasi pulaupulau taman peta lokasi laut malaysia pulaupulau sumber jabatan perikanan malaysia taman laut malaysia 7755kerjasama penyediaan perumahan rakyat perumahan terletak di bawah kuasa bersama kerajaan persekutuan dan kerajaan negeri pelbagai strategi dan langkah kerjasama diambil oleh kerajaan untuk memastikan rakyat dapat memiliki rumah sendiri perumahan awal kemerdekaan pada awal kemerdekaan kerajaan persekutuan dan kerajaan negeri bekerjasama menyediakan perumahan kos rendah terutamanya di kawasan bandar kerajaan persekutuan menubuhkan kementerian kerajaan negeri menyediakan kerajaan tempatan dan perumahan pada tahun tanah yang dijual pada harga rendah 1964 untuk menggiatkan usaha menyediakan kepada kerajaan persekutuan untuk perumahan kos rendah membina rumah 4 bab pembinaan perumahan di petaling jaya selangor pada tahun 1950an sumber arkib negara malaysia 76perumahan untuk mengatasi masalah kemiskinan selepas tahun 1970 kerajaan persekutuan bekerjasama dengan kerajaan negeri bagi membina rumah untuk rakyat berpendapatan rendah kerajaan mengenal pasti penyediaan perumahan bukan sahaja untuk menyelesaikan masalah kekurangan rumah tetapi juga sebagai langkah menghapuskan kemiskinan kerajaan persekutuan melaksanakan program perumahan rakyat ppr pada tahun 1997 untuk membina perumahan awam di seluruh negara kerajaan negeri menubuhkan agensi pembangunan negeri seperti perbadanan kemajuan negeri selangor pkns dan bab perbadanan kemajuan ekonomi negeri perak untuk membina rumah bagi rakyat 4 berpendapatan rendah kerajaan negeri juga memperkenalkan program perumahan flat jalan pekeliling di jalan tun razak kuala lumpur awam kos rendah pakr melalui dibina untuk golongan berpendapatan rendah peruntukan kewangan yang diterima sumber dasar perumahan negara 20182025 jabatan daripada kerajaan persekutuan perumahan negara kementerian perumahan dan kerajaan tempatan perumahan mampu milik pada tahun 2014 majlis perumahan negara ditubuhkan untuk merangka strategi menyediakan perumahan mampu milik kerajaan persekutuan dan kerajaan negeri menubuhkan pelbagai agensi serta memperkenalkan program khusus untuk membolehkan golongan pertengahan memiliki rumah antara program peringkat persekutuan termasuklah perbadanan perumahan 1malaysia pr1ma rumah mesra rakyat di bawah kementerian perumahan dan kerajaan tempatan antara program peringkat negeri termasuklah rumah selangorku selangor rumah mampu milik johor johor rumah pr1ma merupakan projek rumah mampu milik sumber dewan bahasa dan pustaka 77kerjasama menjamin keselamatan dan kedaulatan negara keselamatan dan pertahanan negara adalah di bawah kuasa kerajaan persekutuan pada umumnya keselamatan dalam negeri dan ketenteraman awam di bawah tanggungjawab kementerian dalam negeri kdn manakala pertahanan negara di bawah kementerian pertahanan kementah keduadua aspek tersebut diselaraskan oleh majlis keselamatan negara mkn namun begitu kerajaan persekutuan mengadakan kerjasama erat dengan kerajaan negeri untuk memastikan keselamatan rakyat dan kedaulatan negara terpelihara seperti mewujudkan kawasan keselamatan khas di sarawak dan sabah pemerintahan keselamatan daerah rajang di sarawak berikutan dengan ancaman komunis yang semakin meningkat di sarawak tun abdul razak hussein perdana menteri 44 malaysia kedua yang juga merupakan bbaabb pengerusi majlis keselamatan negara mengisytiharkan bahagian ketiga sarawak sebagai rajang area security command rascom atau pemerintahan keselamatan kawasan rajang pada 26 mac 1972 ketua menteri sarawak dilantik sebagai pengarah operasi negeri dalam rascom beliau bertanggungjawab sidang akhbar oleh datuk patinggi abdul rahman yakub ketua menyelaraskan fungsi dan aktiviti menteri sarawak berkaitan dengan komunis di sarawak pada pasukan keselamatan dengan pejabat bulan mac 1974 awam dalam kawasan rascom sumber arkib negara malaysia jawatankuasa utama dalam rascom jawatankuasa pengerusi bidang tugas jawatankuasa ketua pegawai eksekutif menggubal dasar berkaitan rascom pegawai tadbir kanan dengan aktiviti harian negeri sarawak organisasi rascom jawatankuasa panglima pasukan merancang gerakan perancang keselamatan rascom di kawasan rascom gerakan jawatankuasa ketua pegawai turus merancang dan perang awam melaksanakan segala saraf kegiatan gerak saraf kerjasama kerajaan persekutuan dan kerajaan membuat interpretasi negeri melalui rascom merupakan strategi yang berjaya memulihkan serta mengekalkan keselamatan dan keamanan rascom merupakan sebuah di bahagian tengah sarawak pada tahun 1995 rascom organisasi pentadbiran yang unik dibubarkan dan semua operasi keselamatan di sarawak berikan ulasan anda diselaraskan di bawah mkn 7788kawasan keselamatan khas pantai timur sabah kerajaan persekutuan dengan kerajaan negeri menubuhkan eastern sabah security command esscom atau kawasan keselamatan khas pantai timur sabah ekoran pencerobohan pengganas dari kepulauan sulu di kampung tanduo lahad datu sabah pada 12 februari 2013 misi esscom untuk meningkatkan keselamatan kawasan timur sabah daripada sebarang ancaman melalui kerjasama strategik antara agensi kerajaan esscom bertanggungjawab mengawasi keselamatan 10 daerah di pantai timur sabah yang dikenali sebagai eastern sabah security zone esszone atau zon keselamatan timur sabah latar belakang penubuhan esscom 12 februari 2013 pencerobohan pengganas pengerusi jawatankuasa pemantau esscom kepulauan sulu di lahad datu perdana menteri malaysia 5 mac 2013 ops daulat dilancarkan 7 mac 2013 perdana menteri malaysia pengerusi jawatankuasa esszone mengumumkan pembentukan ketua menteri sabah bab kawasan keselamatan khas di pantai timur sabah 4 27 mac 2013 pengisytiharan zon keselamatan timur sabah ketua pegawai eksekutif komander esscom esscom esszone 1 april 2013 kawasan keselamatan khas pengurusan tertinggi dalam struktur organisasi pantai timur sabah esscom esscom ditubuhkan sumber dicapai pada 22 mac 2020 petunjuk kudat esszone pitas kota u peta menunjukkan marudu 10 daerah di pantai beluran timur sabah yang terlibat dalam sandakan pengawalan kinabatangan esscom lahad datu sumber kunak esscomgovmy tawau semporna dicapai pada 22 mac 2020 kewujudan esscom untuk menambah baik esscom mengintegrasikan kerjasama agensi aspek keselamatan membuktikan komitmen keselamatan seperti angkatan tentera malaysia kerajaan pada setiap peringkat dalam usaha atm polis diraja malaysia pdrm dan agensi mengembalikan semula ketenteraman demi penguatkuasaan maritim malaysia apmm kesejahteraan rakyat sabah sumber malaysia 2018 bagus bah esscom kementerian komunikasi dan multimedia malaysia kerjasama kerajaan persekutuan dan kerajaan negeri dalam pelbagai bentuk memperlihatkan usaha ke arah kesejahteraan rakyat kerjasama bandingkan cabaran rascom ini memberikan iktibar kepada kita tentang dengan esscom dalam usaha kepentingan menggembleng fikiran tenaga memelihara keselamatan dan dan usaha untuk membangunkan negara kedaulatan negara 7799</t>
+          <t>13 kepentingan mewujudkan negara berdaulat 11 bab bbaabb kedaulatan negara penting bagi mewujudkan keberkesanan pentadbiran kemakmuran ekonomi 1 kesejahteraan sosial dan kecemerlangan hubungan luar negara selain itu negara diiktiraf setaraf dengan negara lain keberkesanan pentadbiran kedaulatan memberikan kebebasan kepada negara untuk menjalankan urusan pentadbiran tanpa campur tangan pihak luar dasar pentadbiran negara dilaksanakan dengan berkesan melalui jemaah menteri dan kementerian yang berkaitan kerjasama kerajaan persekutuan dan kerajaan negeri yang dilakukan melalui pengagihan kuasa mewujudkan keberkesanan pentadbiran sistem pentadbiran juga diperkukuh melalui peruntukan undangundang mesyuarat jemaah menteri diadakan pada tahun 1990 dipengerusikan oleh tun dr mahathir mohamad lima dari dalam perlembagaan persekutuan kiri keberkesanan pentadbiran melalui sistem jemaah menteri masih kekal diamalkan hingga hari ini sumber arkib negara malaysia kemakmuran ekonomi kedaulatan penting untuk negara melaksanakan dasar kemakmuran ekonomi selepas negara mencapai kemerdekaan pelbagai usaha dilakukan untuk memajukan dan meningkatkan taraf hidup rakyat berbilang kaum di malaysia pembangunan ekonomi meliputi bidang pertanian perindustrian dan perdagangan yang diperkenalkan melalui dasar pembangunan ekonomi negara tun abdul razak hussein depan perdana menteri malaysia kedua melawat kawasan luar bandar bagi memantau pelaksanaan program pertanian sumber arkib negara malaysia 1100kesejahteraan sosial 1 bbaabb kedaulatan penting untuk negara bab melaksanakan dasar sosial bagi 11 kesejahteraan rakyat negara dapat melahirkan generasi yang berilmu dan berkemahiran melalui pendidikan oleh itu mereka dapat memberikan sumbangan untuk pembangunan negara beberapa perkara berkaitan dengan bahasa kebangsaan kebudayaan sukan dan pasukan bola sepak kebangsaan yang berjaya melayakkan diri rukun negara diperkenalkan untuk ke sukan olimpik 1972 pasukan ini diwakili oleh pemain memupuk perasaan muhibah dan berbilang kaum semangat perpaduan dalam kalangan sumber arkib negara malaysia rakyat berbilang kaum di malaysia kecemerlangan hubungan luar negara kedaulatan penting bagi memberikan hak kepada negara untuk menjalinkan hubungan dengan negara lain hubungan ini dibentuk melalui penggubalan dasar luar negara kita selain dapat menjalinkan hubungan diplomatik dan persahabatan dengan negara lain negara juga dapat mengadakan perjanjian dan kerjasama dalam pelbagai bidang kesannya malaysia menikmati pelbagai faedah dan kelebihan dalam usaha mempertahankan kedaulatan keanggotaan malaysia dalam pertubuhan serantau dan antarabangsa pula meningkatkan imej negara masyarakat antarabangsa mengakui peranan dan kebolehan negara kita setaraf dengan negara lain di dunia jelaskan kepentingan mewujudkan negara berdaulat tun hussein onn perdana menteri malaysia ketiga kanan bertemu dengan anwar sadat presiden mesir kiri di mesir pada tahun 1977 untuk mengukuhkan hubungan diplomatik hasilkan peta pemikiran yang sesuai antara malaysia dengan mesir berkaitan dengan kepentingan sumber universiti tun hussein onn 2009 tun hussein onn mewujudkan negara berdaulat permata menara gading batu pahat penerbit uthm membuat rasionalisasi kedaulatan dapat mewujudkan kesejahteraan dan kemakmuran kepada rakyat sebagai rakyat malaysia rasionalkan kepentingan kedaulatan kita perlu memahami pentingnya mengekalkan dalam menentukan bentuk sistem kedaulatan negara yang diperoleh pada masa ini pentadbiran negara pada masa ini 1111</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Sistem Persekutuan </t>
+          <t xml:space="preserve">Bab Kedaulatan Negara </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faktor yang Mengukuhkan Sistem Persekutuan </t>
+          <t xml:space="preserve"> Langkah Mempertahankan Kedaulatan </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>44 faktor yang mengukuhkan sistem persekutuan kekukuhan sistem persekutuan di negara kita berkait rapat dengan konsep keluhuran perlembagaan persekutuan serta penyelarasan yang baik antara kerajaan persekutuan dengan kerajaan negeri keluhuran perlembagaan mengukuhkan persekutuan sejak negara mencapai kemerdekaan perlembagaan persekutuan diangkat sebagai undangundang tertinggi bagi mentakrifkan prinsip persekutuan dan pentadbiran negara undangundang yang digubal oleh parlimen dan dun tidak boleh bertentangan dengan peruntukan perlembagaan persekutuan parlimen dan dun tidak boleh menggubal undangundang yang bercanggah antara satu sama lain perlembagaan persekutuan menjadi rujukan utama apabila berlaku ketidakselarasan antara undangundang persekutuan dengan undangundang negeri perkara 75 perlembagaan persekutuan menyebutkan bahawa jika manamana undang 4 undang negeri tidak selaras dengan sesuatu undangundang persekutuan maka undangundang bab persekutuan hendaklah mengatasi undangundang negeri prinsip keluhuran perlembagaan yang dijunjung ini mengukuhkan sistem persekutuan di negara kita penyelarasan kerajaan persekutuan dengan kerajaan negeri penyelarasan pentadbiran dibuat antara kerajaan persekutuan dengan kerajaan negeri melalui mesyuarat menteri besar dan ketua menteri serta majlis khas mesyuarat menteri besar dan ketua menteri mesyuarat dipengerusikan oleh perdana menteri serta dihadiri oleh menteri besar dan ketua menteri mesyuarat membincangkan pelaksanaan sesuatu dasar yang diputuskan oleh kerajaan tan sri dato haji muhyiddin mohd yassin perdana menteri malaysia kelapan tiga dari kiri mempengerusikan mesyuarat khas menteri besar dan ketua menteri pada 17 mac 2020 untuk menyelaras perintah kawalan pergerakan pkp di seluruh negara bagi mengawal wabak coronavirus atau covid19 80majlis yang termaktub dalam majlis kewangan negara perlembagaan persekutuan mentadbir hal ehwal berkaitan dengan kewangan seperti pemberian perlembagaan persekutuan memperuntukkan wang bayaran cukai dan pinjaman penubuhan majlis negara untuk menyelaraskan kerajaan persekutuan kepada pentadbiran kerajaan persekutuan dengan kerajaan kerajaan negeri negeri iaitu majlis kewangan negara majlis tanah negara majlis tanah negara membentuk dasar dan mengawal majlis negara bagi kerajaan tempatan penggunaan tanah untuk kegiatan pertanian perlombongan perhutanan majlis yang ditubuhkan oleh kerajaan dan sebagainya perhubungan antara kerajaan persekutuan dengan majlis negara bagi kerajaan kerajaan negeri juga dibuat melalui majlis yang ditubuhkan oleh kerajaan seperti yang berikut tempatan bab perundingan kerajaan persekutuan majlis keselamatan negara majlis air negara dan juga kerajaan negeri untuk 4 membangunkan kerajaan tempatan majlis perumahan negara keberkesanan penyelarasan dan hubungan antara kerajaan persekutuan dengan kerajaan negeri dapat menjamin sistem informasi persekutuan beroperasi dengan berkesan hal ini membuktikan kepentingan setiausaha persekutuan bagi sarawak dan bermusyawarah dalam membuat keputusan sabah untuk kemajuan negara jawatan setiausaha persekutuan bagi sarawak dan sabah diwujudkan pada tahun 1963 tanggungjawab utama adalah untuk sistem persekutuan di negara kita terbentuk mengeratkan hubungan antara kerajaan berdasarkan landasan sejarah tersendiri persekutuan dengan kerajaan negeri sejak merdeka prinsip persekutuan jawatan tersebut dihapuskan pada tahun menyumbang kepada kestabilan hubungan 1982 dan diwujudkan semula pada tahun antara negeri dan memberikan manfaat 1990 berikutan dengan keputusan jemaah kepada kesejahteraan negara menteri pada tahun 1989 pembahagian kuasa pemerintahan antara kerajaan persekutuan dengan kerajaan negeri mewujudkan kerjasama kajian kes untuk mencapai kemajuan dalam pelbagai 1 dengan merujuk pelbagai sumber kenal pasti bidang pembahagian kuasa merupakan majlis yang ditubuhkan untuk mengukuhkan pendekatan terbaik untuk menjamin sistem persekutuan kekuatan kekuasaan dan kestabilan negara 2 sediakan laporan berdasarkan aspek yang rakyat dan pemimpin pada semua berikut peringkat perlu menunaikan tanggungjawab a nama majlis masingmasing untuk memastikan sistem b tarikh ditubuhkan persekutuan membawa kemakmuran c peranan majlis 3 bentangkan dapatan anda di dalam kelas kepada negara 8811imbas kembali sistem persekutuan latalar tbaerl abkealankga snigs tseimst epmer pseerksuetukuatnu an di 1 di nneeggaarara k kitiata pempebmenbteunktaunk asni ssteismte pme rpseerksuetkuuatnu adni mdi amlaaylsaiyasia 44 bbaabb kuasa kerajaan persekutuan dan kerajaan negleartiar belakang sistem persekutuan di 2 penmbeaghaagriaan k kiutaasa kupaesma bkeenrtaujkaaann pseisrtseemku ptuearsnekutuan di malaysia kuasa kerajaan negeri peranan kerajaan tempatan kerjasama kerajaan persekutuan dan kerlaajataanr bneelgaekraing sistem persekutuan di 3 kenrjaesagmaar pae mkbitaangunan sosioekonomi keprjeamsabmean tpuekmanu lsihisatreaman p kerhsaezkauntuaahn n deig maraalaysia kerjasama penyediaan perumahan rakyat kerjasama menjamin keselamatan dan kedaulatan negara faktor yang mengukuhkan sistem latar belakang sistem persekutuan di persekutuan 4 negara kita keluhuran perlembagaan mengukuhkan persekutuan pembentukan sistem persekutuan di malaysia penyelarasan kerajaan persekutuan dengan kerajaan negeri 8822pembelajaran abad ke21 aktiviti 1 saya lihat saya fikir saya tanya i see i think i wonder arahan1 senaraikan perkara yang anda lihat 2 fikirkan perkara yang dilihat 3 bertanyakan soalan yang relevan gambar yang berikut berkaitan dengan wang kertas malaysia siri keempat yang dikeluarkan oleh bank negara malaysia dengan tema keunikan malaysia wang kertas tersebut memaparkan kekayaan warisan di negara kita abad ke21 h h bab o o t t n n o o c c 4 h h o o nt nt o o c c h h o o t t n n o o c c ho h t o n t o n c oc ho h t o n t o n c oc ho h t o n t o n c oc mata wang malaysia memaparkan keunikan warisan malaysia sumber dewan bahasa dan pustaka secara berkumpulan bincangkan dan lakukan aktiviti yang berikut 1 ceritakan keunikan yang anda lihat dalam gambar di atas 2 mengapakah keunikan tersebut dipaparkan pada mata wang malaysia 3 jelaskan keunikan lain yang ada di negara kita 4 bincangkan langkah yang boleh diambil oleh kerajaan persekutuan dan kerajaan negeri untuk memelihara keunikan tersebut sebagai warisan khazanah negara 5 bentangkan hasil perbincangan anda di hadapan kelas 8833pembelajaran abad ke21 aktiviti 2 jalan galeri gallery walk arahanmurid bergerak dan berjalan di dalam kelas untuk melakukan aktiviti yang berikut 1 melihat dan membaca hasil yang dipaparkan 2 berfikir tentang hasil tugasan tersebut 3 berbincang dengan rakan kumpulan tajuk pembentukan jata negara kita maklumat yang berikut berkaitan dengan pembentukan dan perubahan jata di negara kita 1895 1948 1963 1965 4 bab persekutuan terdiri persekutuan terdiri persekutuan persekutuan terdiri daripada empat buah daripada sembilan menggabungkan daripada gabungan negeri melayu iaitu buah negeri melayu negeri di tanah melayu negeri di semenanjung perak selangor negeri dan dua negeri selat dengan singapura malaysia dengan sembilan dan pahang iaitu pulau pinang dan sarawak dan sabah sarawak dan sabah melaka moto dipelihara allah moto bersekutu simbol singapura moto bersekutu bertambah mutu digantikan dengan bertambah mutu lambang bunga raya moto bersekutu bertambah mutu berdasarkan maklumat di atas lakukan aktiviti yang berikut 1 murid dibahagikan kepada empat kumpulan kumpulan 1895 kumpulan 1948 kumpulan 1963 dan kumpulan 1965 setiap kumpulan berbincang dan mencatatkan maklumat berkaitan dengan perkara yang berikut a mentafsir jata di negara kita dari aspek simbol warna dan moto b menghubungkaitkan jata tersebut dengan pembentukan persekutuan di negara kita 2 tampalkan maklumat hasil perbincangan di dalam kelas 3 setiap kumpulan bergerak dan meneliti maklumat hasil perbincangan kumpulan 4 guru sebagai pemudah cara meminta murid membuat rumusan tentang pembentukan jata dan hubung kait dengan pembentukan sistem persekutuan di negara kita sehingga hari ini 8844pemahaman dan pemikiran kritis 1 rajah yang berikut menunjukkan pembahagian pentadbiran dalam sistem persekutuan di negara kita kerajaan persekutuan kerajaan negeri kerajaan tempatan a senaraikan empat kuasa kerajaan persekutuan bab b nyatakan tiga perkara di bawah kuasa kerajaan negeri c kerajaan manakah yang paling hampir dengan rakyat berikan ulasan anda 4 d sistem persekutuan berjaya mewujudkan pentadbiran yang kukuh dan stabil di negara kita buktikan 2 peta yang berikut menunjukkan rancangan pembangunan koridor wilayah yang melibatkan kerjasama kerajaan persekutuan dan kerajaan negeri wilayah ekonomi wilayah ekonomi pantai koridor pembangunan koridor utara ncer timur ecer sabah sdc laut china selatan brunei darussalam selat melaka singapura iskandar malaysia im koridor tenaga diperbaharui sarawak score a namakan negeri dan wilayah yang terlibat dalam rancangan pembangunan wilayah ekonomi koridor utara ncer b mengapakah rancangan pembangunan koridor wilayah diwujudkan di seluruh malaysia c berdasarkan pengetahuan sejarah anda mengapakah negerinegeri di pantai barat semenanjung malaysia tidak terlibat dalam rancangan pembangunan koridor wilayah 8855pemahaman dan pemikiran kritis 1 maklumat yang berikut berkaitan dengan pembahagian kuasa dalam perlembagaan persekutuan senarai persekutuan senarai negeri senarai bersama antara yang berikut perkara manakah terletak di bawah senarai persekutuan i pertahanan ii pendidikan iii hal ehwal tanah iv undangundang islam a i dan ii b i dan iv 4 c ii dan iii bab d iii dan iv 2 jadual yang berikut berkaitan dengan kerjasama kerajaan persekutuan dengan kerajaan negeri untuk kesejahteraan rakyat program kerajaan persekutuan program kerajaan negeri perbadanan perumahan 1malaysia pr1ma rumah selangorku selangor rumah mesra rakyat rumah mampu milik johor johor mengapakah kerjasama tersebut dilakukan a mengatasi masalah setinggan di bandar b meningkatkan taraf hidup rakyat luar bandar c menyelesaikan masalah perumahan golongan miskin d membantu golongan pertengahan memiliki kediaman 3 struktur organisasi yang berikut berkaitan dengan pentadbiran kawasan keselamatan khas di sabah mengapakah pentadbiran tersebut diperkenalkan pengerusi jawatankuasa pemantau esscom a mewujudkan majlis keselamatan negara perdana menteri malaysia b menghapuskan ancaman pengganas komunis c melaksanakan pembangunan koridor wilayah pengerusi jawatankuasa esszone d meningkatkan kerjasama bagi menjamin ketua menteri sabah keselamatan ketua pegawai eksekutif komander esscom esscom 8866cakna dan cerminan sejarah nilai patriotisme dan iktibar sistem persekutuan yang diamalkan sejak merdeka berjaya mewujudkan kestabilan politik kemakmuran ekonomi dan kesejahteraan sosial sistem persekutuan merupakan sistem terbaik untuk mentadbir negara yang terdiri daripada gabungan negeri yang berdaulat usaha kerajaan pada setiap peringkat untuk mewujudkan kesejahteraan rakyat dan kemakmuran negara wajar dihargai kita hendaklah sentiasa menyokong dan melibatkan diri dalam usaha kerajaan persekutuan dan kerajaan negeri bagi memakmurkan negara diri dan keluarga setiap ahli keluarga daripada semua peringkat mempunyai tanggungjawab dan peranan untuk bab membina kejayaan institusi keluarga yang boleh menjadi contoh kepada masyarakat sekeliling 4 negara kepimpinan berwibawa berupaya untuk mewujudkan pemerintahan dan pentadbiran yang adil serta berintegriti untuk kemajuan bangsa dan negara perdana menteri malaysia pertama hingga kelapan kerjasama pemimpin menjamin keutuhan sistem persekutuan sumber dewan bahasa dan pustaka 8877bab 5 pembentukan malaysia sinopsis pembentukan malaysia pada peringkat awalnya terdiri daripada persekutuan tanah melayu sarawak sabah dan singapura pembentukan ini merupakan peristiwa penting dalam sejarah negara pembentukan malaysia menimbulkan pelbagai reaksi daripada penduduk tempatan dan negara jiran oleh itu beberapa langkah dibuat untuk menjayakan usaha pembentukan malaysia termasuklah menangani konfrontasi 5 bab 8888inti pati pembelajaran 1 konsep gagasan malaysia 2 perkembangan idea dan usaha pembentukan malaysia 3 reaksi tempatan dan negara jiran terhadap pembentukan malaysia 4 langkah pembentukan malaysia 5 perjanjian julai 1963 dan peristiwa pengisytiharan malaysia 6 konfrontasi dan usaha menangani bab elemen kewarganegaraan dan nilai sivik 5 1 kepentingan berfikiran strategik untuk berjaya dalam kehidupan 2 kepentingan kesepakatan untuk kestabilan negara 3 sikap menerima dan meraikan idea serta pandangan yang berbeza 4 kepentingan sikap berwaspada terhadap anasir luar kemahiran pemikiran sejarah 1 memahami kronologi tentang idea pembentukan malaysia 2 meneroka bukti reaksi tempatan dan negara jiran terhadap pembentukan malaysia 3 membuat interpretasi kandungan perjanjian malaysia 1963 dan pengisytiharan malaysia 1963 4 membuat imaginasi langkah pembentukan malaysia 5 membuat rasionalisasi tentang usaha menangani konfrontasi tunku abdul rahman putra alhaj melaungkan merdeka sebanyak tujuh kali pada pemasyhuran malaysia sumber arkib negara malaysia 8899</t>
+          <t>14 langkah mempertahankan kedaulatan 11 bab bbaabb pemerintah dan rakyat memainkan peranan penting bagi mempertahankan kedaulatan negara 1 oleh itu pemerintah dan rakyat perlu bekerjasama untuk mewujudkan kestabilan politik serta kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme dan mengukuhkan pertahanan negara kerjasama ini penting bagi memastikan kedaulatan dapat dipertahankan demi kemajuan dan kesejahteraan negara mewujudkan kestabilan politik dan kemakmuran ekonomi pemerintah dan rakyat mempunyai peranan yang sama untuk menjamin kestabilan politik dan kemakmuran ekonomi pemerintah melaksanakan pentadbiran dengan cekap dan menjalankan pelbagai usaha serta program bagi memajukan ekonomi rakyat pula memberikan kerjasama sepenuhnya untuk menjayakan semua usaha dan program yang dilaksanakan oleh pemerintah pemerintah mewujudkan pentadbiran yang cekap mengelakkan amalan rasuah dalam pentadbiran memastikan agihan sumber kekayaan negara secara adil kepada semua kaum melalui dasar pembangunan ekonomi melaksanakan undangundang negara menurut perlembagaan secara berkesan membuat interpretasi menurut dr tan chee khoon kami kenal pasti bahawa perhatian utama harus diberikan terhadap kelemahan ekonomi kaum bumiputera masalah mereka memerlukan rakyat pendekatan khas untuk diselesaikan mereka perlu dilindungi daripada eksploitasi dan memberikan kesetiaan kepada raja dan negara dibantu secara asas untuk bersaing dengan menyokong segala usaha dan dasar kerajaan kaum lain dalam perniagaan perdagangan bagi mewujudkan kestabilan politik dan pekerjaan memupuk kerjasama dengan semua kaum sumber raj vasil 1987 tan chee khoon supaya agihan kekayaan negara dinikmati an elder statesman petaling jaya pelanduk oleh semua publications m sdn bhd mematuhi undangundang negara 1 mengapakah beliau menyarankan agar kaum bumiputera dibantu dari segi kemakmuran ekonomi 2 huraikan langkah yang diambil untuk meningkatkan ekonomi setiap kaum 1122mengekalkan perpaduan kaum 1 bbaabb bab sejak awal kemerdekaan pemerintah dan rakyat berusaha untuk mengekalkan perpaduan kaum perpaduan penting dalam usaha kita mengekalkan kedaulatan negara beberapa 11 langkah dilaksanakan untuk memupuk perpaduan dalam kalangan rakyat pemerintah menggubal dasar dan undangundang berkaitan dengan perpaduan kaum serta integrasi nasional memastikan keberkesanan pelaksanaan dasar berkaitan dengan bahasa pendidikan dan kebudayaan oleh kementerian serta agensi berkaitan merangka program serta kempen ke arah memupuk perpaduan kaum sampul surat hari pertama pos malaysia dan integrasi nasional berkaitan dengan kepelbagaian budaya dan memperuntukkan perbelanjaan yang adat resam kaum di malaysia mencukupi untuk program memupuk sumber pos malaysia berhad perpaduan kaum meneroka bukti fahami titah di bawah rakyat menggunakan bahasa kebangsaan bab dan menghayati prinsip rukun negara 1 yang dapat menjamin perpaduan kaum memahami dan menghormati agama serta budaya pelbagai kaum mengamalkan semangat perkongsian bertoleransi dan saling menghormati kedaulatan negara bergantung pada sesama rakyat malaysia warganya yang bersatu melibatkan diri dalam program titah duli yang maha mulia paduka seri kemasyarakatan yang dapat memupuk sultan perak darul ridzuan sultan nazrin kerjasama antara kaum muizzuddin shah ibni almarhum sultan azlan muhibbuddin shah almaghfurlah sumber berita harian 10 november 2018 kedaulatan negara bergantung pada warganya yang bersatu buktikan 1133memupuk patriotisme 11 bab patriotisme ialah perasaan cinta yang mendalam terhadap negara serta sanggup mempertahankan bbaabb sejarah bahasa undangundang warisan dan budaya patriotisme merupakan nadi kepada 1 kebebasan kestabilan dan kemajuan sesebuah negara semangat ini juga penting untuk melahirkan pemimpin dan rakyat yang taat setia serta sanggup berkorban demi negara meja bulat serentak simultaneous round table pemerintah dalam kumpulan murid menulis pendapat di atas kertas tentang soalan yang dikemukakan menganjurkan sambutan hari kebangsaan dan di bawah catatan diedarkan kepada rakan hari pahlawan untuk menimbulkan kecintaan lain dalam kumpulan mengikut pusingan terhadap negara jam setiap ahli diberi peluang untuk mewajibkan mata pelajaran sejarah sebagai menuliskan pendapat soalan yang diberikan mata pelajaran teras di sekolah bagi melahirkan berkaitan dengan lagu patriotik keranamu generasi yang peka terhadap sejarah negara malaysia menganjurkan kempen dan menerbitkan filem 1 apakah maksud yang terkandung dalam atau rencana untuk memupuk patriotisme lirik lagu ini melalui pelbagai media 2 nyatakan keistimewaan rakyat berbilang memberikan pengiktirafan kepada rakyat kaum yang dinyatakan dalam lagu ini malaysia yang berjasa kepada negara dengan 3 bagaimanakah anda memainkan peranan mengabadikan nama mereka pada bangunan untuk mempertahankan negara dan jalan lirik lagu keranamu malaysia buruh nelayan dan juga petani gaya hidup kini dah berubah anakanak terasuh mindanya lahir generasi bijak pandai pakar it pakar ekonomi jaguh sukan dan juga jutawan berkereta jenama negara megah menyusur di jalan raya rakyat alam siber teknologi terkini kejayaan semakin hampiri biar di kota ataupun desa menghormati lambang negara seperti bendera kita semua pasti merasa bangga jalur gemilang jata negara dan lagu negaraku keranamu kami mendakap tuah menyanjungi dan menghargai adat dan keranamu kami bangsa berjaya warisan negara keranamu kami hidup selesa limpah budi kemakmuran negara meningkatkan imej negara dengan melakar keranamu kami bebas merdeka kejayaan dalam bidang pendidikan sukan keranamu nyawa dipertaruhkan dan ekonomi keranamu kami rela berjuang menghargai tokoh pelbagai kaum yang berjuang demi bangsa kedaulatan negara untuk kemerdekaan dan kedaulatan negara ulang dari mula keranamu negara malaysia malaysiaterima kasih malaysia l a g u dato suhaimi mohd zain lirik siso kopratasa sumber kementerian komunikasi dan multimedia malaysia 1144mengukuhkan pertahanan negara 1 bbaabb pemerintah dan rakyat mempunyai tanggungjawab untuk mempertahankan negara daripada bab ancaman musuh pertahanan negara penting untuk mengekalkan kedaulatan negara kita 11 pemerintah rakyat menggubal dasar dan undangundang peka terhadap isu keselamatan negara untuk melindungi keselamatan negara contohnya memberikan maklumat tentang mengadakan perjanjian pertahanan pencerobohan sempadan negara serta latihan ketenteraan bersamasama mengelakkan kolaborasi dengan pihak luar negara serantau dan antarabangsa yang boleh mengancam keselamatan dan memodenkan aset ketenteraan untuk kedaulatan negara mengukuhkan pasukan pertahanan menganggotai pasukan keselamatan dan negara pasukan sukarelawan untuk mempertahankan memastikan pasukan keselamatan negara sentiasa bersiap siaga menghadapi sanggup berkorban demi mempertahankan cabaran semasa kedaulatan negara kerjasama antara pemerintah dengan rakyat dalam melaksanakan langkah mengekalkan kedaulatan telah berjaya menghasilkan keamanan dan kesejahteraan sebagai rakyat malaysia amat penting untuk kita menghormati kepelbagaian budaya dan agama dalam usaha mengukuhkan perpaduan bangsa malaysia perpaduan dan kerjasama kaum menjadi teras kepada kemakmuran kelangsungan serta kedaulatan negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara yang membolehkan kerajaan melaksanakan kawalan pemerintahan dan pentadbiran ciri negara berdaulat menjadikan negara kita sebuah negara yang stabil dan kukuh pelbagai langkah dilaksanakan untuk memastikan kedaulatan negara tetap terpelihara kedaulatan negara meneroka bukti diperkukuh melalui pemerintahan dan pentadbiran yang berlandaskan perlembagaan buktikan hubungan pemerintah dan rakyat mampu mengekalkan kedaulatan negara 1155imbas kembali 11 bab bbaabb kedaulatan negara 1 1 konsep takrif kedaulatan kedaulatan pandangan tokoh jenis kedaulatan 2 ciri negara mempunyai yang berdaulat pemerintahan mempunyai sempadan mempunyai perundangan mempunyai rakyat 3 kepentingan keberkesanan mewujudkan pentadbiran negara kemakmuran ekonomi berdaulat kesejahteraan sosial kecemerlangan hubungan luar negara 4 langkah mewujudkan mempertahankan kestabilan politik kedaulatan dan kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme mengukuhkan pertahanan negara 1166pembelajaran abad ke21 1 bbaabb bab 11 aktiviti fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki membina ayat berpandukan isu yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakan atau pasangan 3 murid berkongsi maklumat hasil perbincangan dengan pasangankumpulankelas lain abad ke21 cabaran mengekalkan kedaulatan negara isu cabaran kesan tindakan keselamatan perpaduan kaum kestabilan politik ekonomi pencerobohan pelarian dadah rasuah berdasarkan tajuk di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a cabaran yang dihadapi huraikan cabaran yang dihadapi berkaitan dengan aspek yang disenaraikan dengan terperinci b isu atau permasalahan jelaskan kesan terhadap malaysia akibat cabaran yang dihadapi c keberkesanan strategi sejauh manakah malaysia berjaya mengatasi masalah ini dengan mengambil tindakan yang sewajarnya 2 aktiviti kumpulan bentukkan kumpulan kecil dengan pasangan lain kemudian kongsikan maklumat yang diperoleh 1177pemahaman dan pemikiran kritis 11 bab bbaabb 1 apakah takrif kedaulatan dalam bahasa arab 1 a negara yang bebas dan merdeka b kuasa pemerintahan sesebuah kerajaan c kekuasaan tertinggi terhadap pemerintahan negara d negara mempunyai kuasa yang penuh terhadap pemerintahan 2 mengapakah kedaulatan penting bagi sesebuah negara a menjadi kuasa politik unggul di dunia b menunjukkan kekuatan angkatan tentera c mewujudkan keberkesanan sistem pentadbiran d membuktikan dasar luar mengikut situasi semasa 3 gambar di bawah berkaitan dengan ciri negara berdaulat gambar 1 gambar 2 kebawah duli yang maha mulia seri paduka baginda bangunan parlimen malaysia yang dipertuan agong xvi dan kebawah duli yang maha mulia seri paduka baginda raja permaisuri agong a jelaskan ciri negara berdaulat b huraikan langkah yang dilaksanakan untuk mempertahankan kedaulatan negara 4 peta menunjukkan kedudukan malaysia yang bersempadan dengan negara jiran filipina di asia tenggara a mengapakah hubungan baik dengan thailand negara jiran perlu dipertahankan laut china selatan b setiap warganegara malaysia mempunyai tanggungjawab untuk darbursusnaeli am mempertahankan kedaulatan perairan m a l a y s i a singapura negara bincangkan i n d o n e s i a petunjuk sempadan antarabangsa 1188cakna dan cerminan sejarah 1 bbbaaabbb bab nilai patriotisme dan iktibar 111 pemahaman terhadap ciri negara yang berdaulat wajar dipertingkatkan untuk melahirkan rakyat malaysia yang berbangga dengan identiti negara kepentingan mempertahankan kedaulatan negara bagi melahirkan masyarakat yang berganding bahu untuk membangunkan negara dan menjamin kesejahteraan rakyat pemerintah dan rakyat saling bekerjasama bersefahaman serta bermuafakat bagi mempertahankan kedaulatan negara diri dan keluarga menyokong dan melibatkan diri dalam proses pembangunan negara dan berusaha gigih untuk memajukan diri negara perpaduan rakyat berbilang kaum dan semangat rela berkorban merupakan keunikan negara kita untuk mempertahankan kedaulatannya angkatan tentera malaysia menjaga kedaulatan negara kita sumber kementerian pertahanan malaysia 1199bab 2 perlembagaan persekutuan 2 bab sinopsis perlembagaan persekutuan merupakan dokumen undangundang bertulis yang menjadi teras pada sistem pemerintahan negara perlembagaan digubal berasaskan undangundang negeri melayu yang sedia ada dan juga tambahan unsur baharu perlembagaan persekutuan malaysia mempunyai ciri tradisional dan moden yang menjadikan perlembagaan di negara kita unik perlembagaan persekutuan berkuat kuasa seiring dengan kemerdekaan pada 31 ogos 1957 selepas itu perlembagaan dipinda bagi menyesuaikannya dengan keperluan semasa negara 2200inti pati pembelajaran 1 latar belakang sejarah perlembagaan persekutuan bab 2 sejarah penggubalan perlembagaan persekutuan 3 ciri utama perlembagaan persekutuan 2 4 pindaan perlembagaan persekutuan 1963 dan 1965 elemen kewarganegaraan dan nilai sivik 1 kepentingan mendaulatkan perlembagaan persekutuan 2 kepentingan mematuhi undangundang dalam kehidupan 3 kepentingan tanggungjawab rakyat bagi memelihara perlembagaan persekutuan 4 kepentingan menjiwai semangat perlembagaan persekutuan kemahiran pemikiran sejarah 1 memahami kronologi penggubalan perlembagaan persekutuan 2 meneroka bukti kewujudan undangundang adat sebelum kedatangan british 3 membuat interpretasi ciri utama perlembagaan persekutuan 4 membuat imaginasi struktur mahkamah atasan di negara kita 5 membuat rasionalisasi pindaan perlembagaan persekutuan istana kehakiman putrajaya sumber dewan bahasa dan pustaka 2211</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t xml:space="preserve">Bab Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Konsep Gagasan Malaysia </t>
+          <t xml:space="preserve">Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51 konsep gagasan malaysia kemerdekaan persekutuan tanah melayu kemudiannya disusuli oleh pembentukan malaysia melahirkan negara ini sebagai sebuah negara yang berdaulat pembentukan malaysia memperlihatkan kerjasama tokoh dari persekutuan tanah melayu sarawak sabah dan singapura dalam rundingan dengan kerajaan british kesepakatan antara semua pihak ini menzahirkan pembentukan malaysia dan kemudiannya terbentuklah perlembagaan persekutuan malaysia 1963 idea gagasan malaysia idea gagasan malaysia ialah konsep yang menggabungkan beberapa bekas tanah jajahan british di asia tenggara antara idea lain yang pernah dilahirkan termasuklah melayu raya oleh gerakan nasionalis sebelum perang dunia kedua yang mahu mendapatkan kemerdekaan wilayah alam melayu daripada kuasa penjajah british belanda dan amerika syarikat walau bagaimanapun idea ini tidak berjaya dilaksanakan bagi pihak pegawai british mereka mengemukakan idea penyatuan wilayah penguasaan british di asia tenggara dalam satu sistem pentadbiran dan ekonomi langkah ini bertujuan memudahkan pentadbiran pihak british 55 idea gagasan malaysia yang dicadangkan oleh tunku abdul rahman putra alhaj ialah bbaabb penggabungan persekutuan tanah melayu dengan sarawak sabah singapura dan brunei untuk merdeka dalam satu sistem kerajaan persekutuan petunjuk negeri yang menyertai malaysia 1963 thailand laut china selatan sabah persekutuan tanah melayu sarawak singapura peta negeri yang menyertai malaysia 1963 sumber dewan bahasa dan pustaka peta negara dalam gugusan malaysia 1961 9900</t>
+          <t>21 latar belakang sejarah perlembagaan persekutuan perlembagaan merupakan undangundang tertinggi sebagai teras pemerintahan sesebuah negara sebelum kedatangan british negara kita diperintah berdasarkan pemerintahan beraja raja memerintah berdasarkan undangundang dan peraturan yang digubal pada zaman british raja terus 22 diterima sebagai pemerintah berdaulat apabila merdeka negara kita mempunyai perlembagaan bbaabb yang merupakan unsur penting dalam sesebuah negara asas pembentukan perlembagaan perlembagaan persekutuan berasaskan nilai tradisi kesultanan melayu dan kemudiannya beberapa prinsip undangundang inggeris disesuaikan dengan nilai tempatan undangundang negeri melayu raja sebagai pemerintah rakyat memberikan ketaatsetiaan undangundang dan sistem pemerintahan ditentukan oleh raja undangundang yang wujud pada zaman kesultanan melayu melaka seperti hukum kanun melaka dan undangundang laut melaka mempengaruhi kandungan undangundang bertulis di negeri melayu yang lain antara undangundang bertulis di negerinegeri melayu termasuklah hukum kanun pahang undangundang kedah undangundang johor dan undangundang 99 perak sebelum kedatangan kuasa barat negara kita sudah mempunyai undangundang dan adat melayu yang digunakan sebagai asas perlembagaan undangundang ini menjadi panduan serta kawalan kepada raja dan pembesar dalam proses pemerintahan negara senaraikan undangundang bertulis yang terdapat di negara kita sebelum hukum kanun melaka kedatangan british sumber perpustakaan negara malaysia 2222undangundang di negerinegeri melayu mengalami perubahan demi perubahan selaras dengan perkembangan masyarakat sehingga kemunculan dan pengenalan undangundang dari barat sekitar awal abad kel9 bbbaaabbb 222 undangundang 99 perak sumber perpustakaan negara malaysia hukum kanun pahang sumber yaakub isa penyl 2003 hukum kanun pahang manuskrip agung negeri pahang pahang lembaga muzium negeri pahang undangundang inggeris british memperkenalkan undangundang di negerinegeri selat nns yang dikenali sebagai charter of justice diambil daripada undangundang yang digubal di england piagam terpilih yang bersesuaian dengan kegunaan nns sahaja diguna pakai contohnya charter of justice 1807 di sarawak pula terdapat the sarawak app l i c ation of laws ordinance 1949 yang menggunakan the common law of englanmdasukkan piagam diraja syarikat berpiagam di sabah terdapat undangundang yang sam18a 8d1i sbeabguit ssaabbaahh baapwpalhic taatjiuokn uofn ldaanwgs undang ordinance 1951 inggeris proclamation of sarawak constitution sumber muzium sarawak 2233pada zaman pentadbiran british nns iaitu melaka pulau pinang dan singapura memperkenalkan undangundang yang diambil dari england iaitu charter of justice matlamatnya adalah untuk melindungi penduduk asal daripada penindasan dan ketidakadilan 22 bbaabb charter of justice i 1807 mewujudkan mahkamah di pulau pinang charter of justice ii 1826 charter of justice menyatukan mahkamah di singapura di negerinegeri melaka dan pulau pinang selat charter of justice iii 1855 mewujudkan mahkamah singapura dan melaka pulau pinang pada bulan ogos 1956 perlembagaan sarawak memberikan kuasa kepada badan membuat undangundang iaitu council negri majlis negeri yang mengandungi 45 orang ahli dan dipengerusikan oleh ketua setiausaha majlis tertinggi pula dipengerusikan oleh gabenor yang turut dianggotai oleh ketua setiausaha setiausaha kewangan dan peguam negara perlembagaan sarawak pada tahun 1959 memberikan kuasa pentadbiran negeri kepada majlis tertinggi dan council negri di sabah pula ditubuhkan majlis undangan dan majlis kerja pada tahun 1950 majlis undangan memberikan kuasa kepada gabenor untuk menggubal undangundang dalam pemerintahannya institusi pemerintahan beraja diteruskan apabila tanah melayu mencapai kemerdekaan walaupun begitu beberapa pindaan disesuaikan dengan konsep raja berperlembagaan dan demokrasi berparlimen perlembagaan persekutuan tanah melayu 1957 diperkenalkan dan menjadi asas kepada perlembagaan negara kita pada hari ini perlembagaan inilah menjadi asas kepada sistem raja berperlembagaan dan demokrasi berparlimen 24</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t xml:space="preserve">Bab Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pembentukan Malaysia </t>
+          <t xml:space="preserve">Persekutuan </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52 perkembangan idea dan usaha pembentukan malaysia idea pembentukan malaysia dikemukakan pada akhir abad ke19 yang melibatkan pihak british dan penduduk tempatan idea pegawai british cadangan terawal dikemukakan oleh lord brassey pengarah syarikat berpiagam 1887 borneo utara di dewan parlimen britain pada tahun 1887 beliau mencadangkan penggabungan sarawak sabah negeri melayu dan nns supaya menjadi tanah jajahan yang besar cadangan ini dikemukakan kerana pegawai british melihat potensi ekonomi melalui penggabungan wilayah ini setelah tamat perang dunia kedua sir malcolm 1951 macdonald gabenor jeneral british di asia tenggara mencadangkan penggabungan tanah jajahan british di asia tenggara bagi membentuk satu entiti politik dan ekonomi langkah ini bertujuan bbaabb menyesuaikannya dengan rancangan dekolonisasi pada tahun 1951 sir malcolm macdonald 55 mengadakan perbincangan dengan dato onn jaafar pemimpin united malays national organisation umno dan ahli majlis perundangan persekutuan berkaitan dengan usaha menggabungkan tanah sir malcolm macdonald melayu singapura dan wilayah borneo sumber com dicapai pada 23 november 2020 sir gerald templer pesuruhjaya tinggi british 1952 di tanah melayu meminta penggabungan wilayah ini disegerakan bagi tujuan keselamatan pada dekolonisasi januari 1960 mesyuarat pegawai tinggi british proses ke arah berkerajaan sendiri di borneo bersetuju dengan cadangan pertahanan dan keselamatan informasi pesuruhjaya tinggi ialah nama gelaran jawatan yang disandang sir geofroy tory pesuruhjaya 1960 oleh ketua perwakilan negara tinggi british di persekutuan dalam kalangan negara tanah melayu mencadangkan komanwel jawatan ini setara penyatuan singapura dan dengan duta persekutuan tanah melayu atas kepentingan ekonomi sir geofroy tory cadangan ini mendapat sumber sokongan pejabat kolonial mengapakah pegawai british oldedwardiansorguk dicapai pada mahu menggabungkan tanah 23 november 2020 jajahan di asia tenggara 9911idea penduduk tempatan 1906 majalah alimam menggesa penyatuan raja dan orang melayu dalam pendidikan dan pembangunan ekonomi di alam melayu majalah alimam konsep melayu raya diperjuangkan oleh nasionalis 1938 tanah melayu antaranya termasuklah ibrahim haji yaakob harun aminurrashid ahmad boestamam ishak haji muhammad pak sako dan dr burhanuddin alhelmi sejak sebelum perang dunia kedua idea mereka untuk menggabungkan tanah melayu dengan indonesia idea ini tidak berhasil apabila presiden soekarno mengisytiharkan kemerdekaan indonesia pada tahun 1945 tanpa melibatkan tanah melayu 55 dr burhanuddin alhelmi bbaabb tunku abdul rahman putra alhaj dalam ucapan 1955 di persidangan agung umno pada bulan oktober 1955 mencadangkan singapura sarawak sabah dan brunei menyertai persekutuan tanah melayu tunku abdul rahman putra alhaj datu mustapha datu harun pemimpin sabah 1958 dalam satu pertemuan dengan tunku abdul rahman putra alhaj di kuala lumpur pada tahun 1958 menyatakan minat untuk membawa sabah bergabung dengan persekutuan tanah melayu datu mustapha datu harun sumber arkib negara malaysia tunku abdul rahman putra alhaj memaklumi lord perth pada 10 jun 1960 1960 bahawa beliau berminat untuk bergabung dengan sarawak sabah brunei dan singapura 9922rasional idea pembentukan malaysia rancangan pembentukan malaysia mula berjalan apabila tunku abdul rahman putra alhaj memberikan komitmen terhadap rancangan penggabungan semua wilayah yang terlibat dan mendapat sokongan kerajaan british terdapat beberapa faktor pembentukan malaysia iaitu keselamatan keseimbangan komposisi penduduk mempercepat kemerdekaan dan pembangunan wilayah keselamatan ancaman komunis di singapura ancaman komunis di negeri ini telah menggugat keselamatan persekutuan tanah melayu tunku abdul rahman putra alhaj menganggap singapura akan menjadi pusat kegiatan komunis oleh itu langkah penyatuan dengan singapura ini dapat memberikan kuasa kepada kerajaan persekutuan dalam bidang keselamatan dan pertahanan bagi membendung ancaman komunis di singapura perkembangan di sarawak sarawak berhadapan dengan ancaman komunis melalui gerakan clandestine communist organization cco dengan penyertaan sarawak kerajaan british berharap dapat membendung ancaman komunis keseimbangan komposisi penduduk bbaabb keputusan untuk menerima singapura dalam persekutuan akan mewujudkan ketidakseimbangan komposisi penduduk antara orang melayu dengan orang cina perkara ini dibimbangi oleh 55 tunku abdul rahman putra alhaj dan pemimpin umno penggabungan sarawak sabah dan brunei akan menyeimbangkan komposisi antara kaum mempercepat kemerdekaan bagi pihak british pembentukan malaysia dapat merealisasikan rancangan dekolonisasi serta mempercepat kemerdekaan wilayah borneo terutamanya sarawak dan sabah walau bagaimanapun kerajaan british perlu memastikan usaha ini mendapat sokongan penduduk di wilayah ini pembangunan wilayah cadangan penyertaan persekutuan tanah melayu sarawak sabah singapura dan brunei membentuk sebuah negara bertujuan agar wilayah ini dapat bersatu dalam usaha mempercepat pelbagai bidang pembangunan pembentukan malaysia boleh meningkatkan taraf hidup peribumi dalam pelbagai aspek seperti infrastruktur sosial dan ekonomi yang lebih seimbang penduduk tempatan turut memainkan peranan dalam usaha menyatupadukan negara pembentukan hasilkan satu peta pemikiran yang malaysia membuktikan pemimpin dan rakyat sesuai bagi menggambarkan rasional mempunyai fikiran yang jauh untuk merancang idea pembentukan malaysia masa hadapan yang baik pembentukan malaysia juga sekali gus dapat mengekang anasir komunis memahami kronologi yang boleh mengancam keamanan negara untuk mewujudkan keamanan serantau galurkan idea pembentukan malaysia 9933</t>
+          <t>22 sejarah penggubalan perlembagaan persekutuan sejarah penggubalan perlembagaan persekutuan bermula pada tahun 1877 hingga tahun 1957 pembentukan undangundang dalam sesebuah negara dilakukan oleh badan yang sah dalam perundangan di malaysia badan perundangan dinamakan parlimen yang berkuasa penuh bbaabb membentuk undangundang negara sejak negara mencapai kemerdekaan ahli parlimen memainkan peranan meminda perlembagaan bagi menegakkan kedaulatan negara sebagai rakyat kita perlu 22 menghargai jasa pemimpin yang berusaha untuk mengekalkan kedaulatan negara di nns terdapat charter of justice untuk melindungi penduduk sementara itu pembentukan undangundang di negeri melayu pula dimulai oleh majlis negeri perak 1 1877 mesyuarat pertama majlis negeri perak pada tahun 1877 yang dipengerusikan oleh raja muda yusuf menjadi titik tolak kepada pembentukan undangundang negara charter of justice iii 1855 majlis negeri perak berperanan untuk menggubal undangundang bagi negeri perak mewujudkan mahkamah kemudiannya peranan yang sama ini dimainkan oleh semua majlis negeri di negeri singapura dan melaka melayu yang lain pulau pinang raja muda yusuf duduk di tengah bersamasama sir hugh low berdiri di depan di kuala kangsar perak pada tahun 1880 sumber arkib negara malaysia membuat interpretasi setiap rakyat memiliki hak yang sama dari segi undangundanginterpretasikan maksud petikan tersebut 22552 1946 undangundang di nns digubal oleh majlis undangan negeri manakala undang 22 undang di negerinegeri bbaabb melayu bersekutu nnmb digubal oleh majlis persekutuan sementara itu undangundang di negerinegeri melayu tidak bersekutu nnmtb pula digubal oleh majlis negeri akta dan ordinan negeri negeri selat 1886 buku the laws of the federated malay states sumber cornell university library 3 1948 perjanjian persekutuan tanah melayu 1948 merupakan titik penting pembentukan sebuah persekutuan yang terdiri daripada negerinegeri melayu melaka dan pulau pinang antara kandungan yang terdapat dalam persekutuan tanah melayu termasuklah pentadbiran kuasa raja melayu perundangan dan kewarganegaraan rajaraja melayu bersamasama jeneral sir gerald walter robert templer pesuruhjaya tinggi british di persekutuan tanah melayu semasa mesyuarat majlis rajaraja ke25 sumber arkib negara malaysia 22664 1957 suruhanjaya perlembagaan ini dikenali sebagai suruhanjaya perlembagaan persekutuan tanah melayu atau suruhanjaya reid perlembagaan persekutuan tanah melayu 1957 disesuaikan dengan model westminster yang diambil dari britain perlembagaan ini berkuat kuasa sejurus selepas kemerdekaan pada 31 ogos 1957 perlembagaan ini juga menjadi asas kepada perlembagaan negara bbaabb kita pada hari ini 22 informasi lima perkara terma rujukan utama dalam perjanjian persekutuan 1957 kerajaan persekutuan yang kukuh menjamin kedudukan rajaraja melayu menjamin kedudukan istimewa orang melayu dan kepentingan sah kaum lain parlimen hendaklah mengandungi dua dewan iaitu dewan rakyat dan dewan negara laporan suruhanjaya kewarganegaraan yang sama perlembagaan persekutuan tanah melayu 1957 memahami kronologi sumber arkib negara malaysia galurkan sejarah penggubalan perlembagaan persekutuan meja bulat round table perlembagaan negara merupakan elemen penting dalam sesebuah negara dan perlu dipertahankan 1 secara berkumpulan bincangkan bangunan parlimen malaysia topik ini sumber dewan bahasa dan pustaka 2 ahli bergilirgilir mencatatkan idea perlembagaan persekutuan tanah melayu 1957 tentang kepentingan perlembagaan bermodelkan westminster memandangkan persekutuan negara kita mempunyai asas sistem perundangan 3 hasil perbincangan dibentangkan di hadapan kelas bertulis maka hal ini banyak membantu malaysia 4 seorang wakil kumpulan akan menggubal sebuah perlembagaan bertulis tampil di hadapan kelas dan membentangkan dapatan kajian 5 murid lain boleh bertanyakan laporan suruhanjaya perlembagaan soalan kepada wakil kumpulan ini persekutuan tanah melayu 1957 2277</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t xml:space="preserve">Bab Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">terhadap Pembentukan Malaysia </t>
+          <t xml:space="preserve"> Ciri Utama Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>53 reaksi tempatan dan negara jiran terhadap pembentukan malaysia tunku abdul rahman putra alhaj mengumumkan pembentukan malaysia pada 27 mei 1961 pembentukan malaysia mendapat reaksi daripada pelbagai pihak terdapat pihak yang menerima baik cadangan pembentukan dan ada juga pihak yang menentang reaksi tempatan terdiri daripada penduduk dan pemimpin persekutuan tanah melayu sarawak sabah singapura dan brunei reaksi negara jiran pula daripada indonesia filipina dan thailand reaksi awal terhadap gagasan malaysia tempatan negara jiran persekutuan tanah melayu indonesia 55 sarawak filipina bbaabb sabah thailand singapurabrunei informasi brunei dan singapura dikategorikan dalam reaksi tempatan kerana membincangkan konsep malaysia yang sama tunku abdul rahman putra alhaj berucap kepada wartawan asing di hotel adelphi singapura pada 27 mei 1961 mengumumkan cadangan pembentukan malaysia sumber arkib negara malaysia 9944reaksi tempatan pembentukan malaysia mendapat reaksi daripada pemimpin dan penduduk di persekutuan tanah melayu sarawak sabah singapura dan brunei persekutuan tanah melayu pada umumnya rancangan pembentukan malaysia mendapat sambutan baik daripada penduduk dan parti politik di persekutuan tanah melayu parti politik secara prinsipnya bersetuju dan menerima cadangan pembentukan malaysia walaupun wujud perbezaan pendapat dalam melaksanakannya tunku abdul rahman putra alhaj mendapat sokongan umno berkaitan dengan rancangan pembentukan malaysia sarawak di sarawak pula terdapat pelbagai reaksi daripada pemimpin dan penduduk terhadap rancangan pembentukan malaysia menyokong barjasa yang dipimpin oleh datuk patinggi abdul rahman yakub dan datu tuanku haji bujang tuanku othman menyokong pembentukan malaysia sementara itu panas yang dipimpin oleh datu bandar abang haji mustapha pesaka pimpinan temenggung jugah anak barieng dan sca turut menyokong malaysia bbaabb menentang 55 pada peringkat awal supp yang dipimpin oleh ong kee hui dan snap yang diketuai oleh stephen kalong ningkan menentang cadangan pembentukan malaysia menentang kemudian menyokong pada peringkat awal snap turut menentang rancangan pembentukan malaysia walau bagaimanapun snap kemudiannya menyokong berdasarkan cadangan jawatankuasa setia kawan malaysia jskm informasi parti politik yang ditubuhkan di sarawak pada bulan oktober 1962 panas snap barjasa parti politik tahun penubuhan sca dan pesaka bergabung sarawak united peoples party supp 1959 membentuk parti perikatan sarawak untuk menyokong parti negara sarawak panas 1960 malaysia parti politik sarawak sarawak national party snap 1961 menubuhkan gabungan barisan rakyat jati sarawak barjasa 1961 menyokong malaysia yang dinamakan sarawak alliance sarawak chinese association sca 1962 pada bulan januari 1963 parti pesaka anak sarawak pesaka 1962 senaraikan tokoh di sarawak dan sabah yang menyokong pembentukan malaysia 9955sabah penduduk di sabah turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia pada peringkat awal penduduk sabah berasa curiga dan bimbang ketika itu sabah sedang berkembang dalam kegiatan perdagangan manakala sistem perkhidmatan awam semakin baik penduduk pula bebas menjalankan kegiatan harian mereka sementara itu kehadiran pasukan tentera british menjamin keselamatan mereka oleh itu penduduk berpendapat bahawa tiada keperluan untuk bergabung menyokong menjelang pembentukan malaysia terdapat parti politik utama ditubuhkan antaranya termasuklah unko usno pasok momogun dan sabah chinese association sca usno yang dipimpin oleh datu mustapha datu harun menyokong idea pembentukan malaysia sejak awal lagi parti politik di sabah menubuhkan gabungan menyokong malaysia yang dinamakan sabah alliance pada bulan oktober 1962 parti gabungan ini terdiri daripada unko usno united pasok momogun upko democratic party dan sabah indian congress menentang cadangan pembentukan malaysia mengejutkan pemimpin dan penduduk di sabah mereka 5 bab melahirkan keinginan untuk mendapatkan kemerdekaan secara berasingan atau membentuk sebuah kesatuan negerinegeri borneo yang merdeka kebanyakan penduduk di sabah menganggap tanah melayu terasing seperti indonesia dan filipina mereka mempersoalkan keadaan pemimpin tempatan yang perlu menyesuaikan diri dengan kegiatan politik pilihan raya dan berkerajaan sendiri yang sudah diamalkan di singapura dan persekutuan tanah melayu pada masa yang sama jarak antara sarawak sabah dengan kuala lumpur yang jauh juga menimbulkan masalah disebabkan oleh kebimbangan tersebut para pemimpin di borneo membentuk barisan bersatu united front pada 9 ogos 1961 untuk mencabar rancangan pembentukan malaysia barisan bersatu ini dianggotai oleh ong kee hui pengerusi supp am azahari parti rakyat brunei dan donald stephens fuad stephens daripada unko walau bagaimanapun unko kemudiannya menyokong pembentukan malaysia parti politik di sabah menjelang pembentukan malaysia informasi parti politik tahun penubuhan the united national kadazan namakan parti politik organization unko 1961 yang menubuhkan sabah democratic party 1961 alliance united sabah national organization usno 1961 united national pasok momogun 1962 meneroka bukti united party 1962 pada awalnya penduduk borneo utara national party bunap gabungan democratic party dan sabah berasa curiga dengan united party 1962 pembentukan malaysia buktikan 9966singapura pemimpin dan penduduk singapura turut memberikan reaksi terhadap pembentukan malaysia menyokong peoples action party pap yang dipimpin oleh lee kuan yew menyambut baik rancangan ini bagi golongan pedagang dan pengusaha industri pula mereka menyokong pembentukan malaysia kerana membuka peluang pasaran yang lebih besar kepada industri mereka parti lain seperti parti buruh singapura pada hakikatnya bersetuju tetapi menganggap gabungan ini sebagai suatu usaha yang sukar untuk dilaksanakan menentang parti rakyat singapura menentang gagasan malaysia barisan sosialis juga menentang penggabungan kerana menganggap pembentukan malaysia sebagai penjajahan baharu mereka mencadangkan agar pandangan rakyat diperoleh sebelum singapura menyertai malaysia brunei terdapat pelbagai reaksi daripada penduduk brunei terhadap pembentukan malaysia menyokong sultan brunei iaitu sultan omar ali saifuddin mengalualukan cadangan pembentukan malaysia rakyat brunei juga pada peringkat awalnya berminat untuk menyertai gabungan ini namun begitu mereka ingin mencapai kemerdekaan terlebih dahulu bbaabb menentang 55 parti rakyat brunei yang dipimpin oleh am azahari menentang cadangan tersebut kerana beliau lebih berminat untuk menggabungkan brunei sarawak sabah dan kalimantan utara dalam satu kesatuan am azahari berpendapat bahawa pembentukan malaysia merupakan satu cara kerajaan british untuk mengekalkan pengaruh agar dapat menguasai ekonomi dan menjamin keselamatan selain itu mereka juga khuatir brunei akan kehilangan sebahagian besar kekayaan sekiranya menyertai gabungan ini reaksi negara jiran negara jiran seperti indonesia filipina dan thailand turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia indonesia filipina thailand pada peringkat awal rancangan presiden diosdado pangan kerajaan thailand memberikan pembentukan malaysia kerajaan macapagal macapagal reaksi positif dan menerima indonesia tidak menentang dari filipina menentang idea pembentukan malaysia dr mohammad hatta iaitu pembentukan malaysia kerana pembentukan malaysia naib presiden indonesia dan menuntut wilayah sabah dianggap memperkuat usaha dr subandrio menteri luar walau bagaimanapun bagi ke arah keamanan di rantau indonesia mengalualukan kerajaan persekutuan tanah asia tenggara idea pembentukan malaysia melayu tuntutan ini adalah di bawah urusan kerajaan british pembentukan malaysia mendapat reaksi mengapakah am azahari menentang daripada penduduk tempatan dan juga cadangan pembentukan malaysia negara jiran walaupun terdapat penentangan pada pendapat anda mengapakah pedagang pembentukan ini tetap diteruskan demi dan pengusaha industri di singapura kebaikan rakyat menyokong pembentukan malaysia 9977</t>
+          <t>23 ciri utama perlembagaan persekutuan perlembagaan merupakan peraturan tertinggi dan panduan dalam sistem pemerintahan negara perlembagaan mempunyai dua ciri utama iaitu tradisional dan moden yang diperlukan bagi kestabilan serta kemajuan negara 222 bbbaaabbb ciri tradisional 1 kesultanan atau pemerintahan beraja sejak berabadabad negeri melayu diperintah berdasarkan pemerintahan beraja sultan merupakan pemerintah berdaulat dan memiliki kuasa penuh di negeri masingmasing setelah negara kita mencapai kemerdekaan pemerintahan beraja diteruskan dan disesuaikan dengan konsep demokrasi berparlimen yang dipertuan agong diperuntukkan melalui perlembagaan kuasa pemerintahan sebagai pemerintah tertinggi negara kuasa yang dipertuan agong termasuklah kuasa mengampun dan menangguhkan hukuman orang yang disabitkan kesalahan oleh mahkamah baginda juga mempunyai kuasa membuat pelantikan bagi jawatan utama negara pada peringkat negeri raja merupakan ketua negeri pada baginda terletak kuasa eksekutif yang dilaksanakan melalui nasihat majlis mesyuarat negeri raja mempunyai kuasa mengampun dan menangguhkan hukuman kepada mereka yang disabitkan kesalahan oleh mahkamah serta pelantikan jawatan utama negeri raja dikenali sebagai tonggak kehormatan dan keadilan yang membolehkan baginda mengurniakan anugerah penghormatan dan bintang kehormat kepada individu yang terpilih ciri moden 1 kerajaan persekutuan antara perkara utama yang disebut dalam perlembagaan ciri persekutuan termasuklah mewujudkan satu sistem kerajaan moden persekutuan laporan suruhanjaya perlembagaan persekutuan tanah melayu menyarankan kerajaan persekutuan dan kerajaan negeri diberi kuasa dalam bidang tertentu apabila malaysia dibentuk sarawak dan sabah diberi beberapa autonomi 3 kewarganegaraan kewarganegaraan persekutuan mula diperkenalkan pada tahun 1948 melalui perjanjian persekutuan tanah melayu sebelum itu tidak terdapat satu kewarganegaraan yang sama bagi seluruh 1 jelaskan kuasa yang dipertuan negara rakyat dikategorikan sebagai rakyat raja dan terdapat agong dalam perlembagaan juga penduduk yang mendapat kerakyatan british sekiranya persekutuan dilahirkan di melaka atau pulau pinang kemerdekaan 2 nyatakan ciri moden dalam tanah melayu dan pembentukan malaysia melahirkan taraf perlembagaan persekutuan kewarganegaraan yang sama kepada rakyatnya 22882 agama islam peruntukan perlembagaan berkaitan dengan agama islam merupakan antara ciri tradisional pada zaman british raja di negeri melayu tidak perlu menerima nasihat daripada penasihat british berkaitan dengan hak dan kedaulatan raja adat istiadat orang melayu dan agama islam selepas merdeka agama islam bagi negeri melayu terletak di bawah kuasa raja di negeri masingmasing bagi wilayah persekutuan dan negeri tidak beraja perkara bbaabb ini terletak di bawah kuasa yang dipertuan agong 22 3 bahasa melayu sejak zaman kesultanan melayu melaka bahasa melayu digunakan dalam pemerintahan bahasa melayu menjadi lingua franca dan memainkan peranan sebagai bahasa ilmu kini bahasa melayu ciri menjadi bahasa kebangsaan dan bahasa rasmi di negara kita tradisional 4 kedudukan orang melayu dan bumiputera sebelum merdeka kedudukan orang melayu dan bumiputera adalah di bawah kuasa raja dan ketua peribumi apabila negara kita merdeka yang dipertuan agong diberi tanggungjawab memelihara kedudukan istimewa orang melayu dan bumiputera sarawak dan sabah serta kepentingan sah kaum lain 2 sistem demokrasi berparlimen perlembagaan persekutuan memperuntukkan sistem demokrasi di malaysia asas kepada demokrasi ialah pilihan raya umum pada tahun 1955 tujuan utama pilihan raya adalah untuk memberikan kebebasan kepada rakyat memilih wakil pemimpin dan menubuhkan kerajaan bagi menentukan pilihan raya dapat dijalankan dengan adil maka ditubuhkan suruhanjaya pilihan raya badan ini bertanggungjawab sepenuhnya untuk menjalankan pilihan raya informasi pilihan raya persekutuan memilih wakil bagi membentuk kerajaan persekutuan sebelum pembentukan malaysia pilihan raya negeri pula memilih wakil untuk membentuk sarawak dan sabah mempunyai kerajaan negeri sistem pemilihan secara tidak langsung sistem pemilihan melalui pilihan raya di sarawak perlembagaan persekutuan mempunyai keunikan kerana diadakan mulai tahun 1969 sabah menggantikan sistem mengandungi ciri tradisional dan moden di samping itu ini pada tahun 1967 sistem undangundang yang terkandung dalam perlembagaan negara ini membolehkan pembubaran kita pula bertujuan agar rakyat mematuhi peraturan yang telah dewan undangan negeri ditetapkan oleh itu rakyat perlu mematuhi undangundang pada tahun 1967 dan diadakan bagi menjamin keamanan negara dan kesejahteraan hidup pemilihan secara pilihan raya 2299</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t xml:space="preserve">Bab Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Langkah Pembentukan Malaysia </t>
+          <t xml:space="preserve"> dan  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>54 langkah pembentukan malaysia usul pembentukan malaysia dibentangkan di dewan rakyat pada 16 oktober 1961 dan mendapat sokongan majoriti ahli dewan sokongan ini membolehkan kerajaan persekutuan tanah melayu menggerakkan usaha membentuk malaysia pelbagai cara dilakukan untuk merealisasikan pembentukan malaysia antaranya termasuklah mengadakan lawatan ke negeri yang terlibat penubuhan jawatankuasa setia kawan malaysia jskm referendum singapura rundingan london suruhanjaya cobbold dan jawatankuasa antara kerajaan jak fail kerajaan british berkaitan siri lawatan dengan pembentukan malaysia sumber national archive united kingdom julai 1961 tunku abdul rahman putra alhaj mengadakan lawatan ke sarawak kerajaan persekutuan tanah melayu mengatur dan brunei lawatan ini untuk meninjau lawatan pemimpin sarawak dan sabah dan bertemu dengan pemimpin ke persekutuan tanah melayu pada bulan 55 bbaabb tempatan bagi menerangkan rancangan ogos 1962 datu bandar abang haji mustapha pembentukan malaysia temenggung jugah anak barieng donald stephens dan datu mustapha datu harun mengadakan lawatan untuk meninjau kemajuan di persekutuan tanah melayu november 1962 lawatan tunku abdul rahman putra alhaj ke sarawak dan sabah lawatan rombongan dr burhanuddin alhelmi dan ghafar baba ke sarawak dan sabah lawatan ini menunjukkan terdapat kesepakatan dalam kalangan ahli politik di tanah melayu untuk menjelaskan gambaran sebenar tentang rancangan malaysia kepada penduduk sarawak dan sabah penyata suruhanjaya apakah kepentingan siri lawatan penyiasat borneo utara dan sarawak para pemimpin negara dalam proses pembentukan malaysia sumber arkib negara malaysia 9988jawatankuasa setia kawan malaysia jskm malaysia solidarity consultative committee mscc atau dikenali sebagai jawatankuasa setia kawan malaysia jskm ditubuhkan ketika persidangan ahliahli parlimen komanwel di singapura pada 23 julai 1961 mesyuarat jskm diadakan sebanyak empat kali iaitu di jesselton kuching kuala lumpur dan singapura tujuan penubuhan 1 meyakinkan penduduk sarawak dan sabah tentang pembentukan malaysia 2 menyediakan ruang perbincangan bagi mendapatkan kata sepakat terhadap pembentukan malaysia 3 mengumpulkan pandangan tentang pembentukan malaysia 4 menyebarkan maklumat berkaitan dengan malaysia 5 memupuk aktiviti penghebahan dan mempercepat pembentukan malaysia aktiviti penghebahan seperti mendedahkan perkembangan kemajuan dalam bidang pentadbiran serta projek pembangunan di persekutuan tanah melayu jawatankuasa ini terdiri daripada wakil pemimpin dari persekutuan tanah melayu singapura sarawak dan sabah donald stephens dilantik menjadi pengerusi jskm dalam mesyuarat kedua jskm membuat keputusan menyokong rancangan malaysia jawatankuasa ini memainkan peranan bbaabb penting dalam memberikan kefahaman kepada pemimpin tempatan dan mendapatkan sokongan terhadap pembentukan malaysia 55 sebahagian ahli jskm sumber arkib negara malaysia sebahagian teks dalam dokumen parliamentary debates sumber parliamentary debates dewan rakyat 14 ogos 1962 informasi jskm turut dikenali sebagai jawatankuasa perundingan ahli jskm bermesyuarat di kuala lumpur pada 67 januari 1962 perpaduan malaysia jppm sumber arkib negara malaysia 9999referendum singapura rundingan antara kerajaan persekutuan tanah melayu dengan singapura yang diadakan pada bulan ogos 1962 hingga bulan september 1962 menghasilkan persetujuan penyertaan singapura ke dalam malaysia satu referendum diadakan di singapura pada awal bulan september 1962 menyatakan bentuk pilihan singapura menyertai malaysia keputusan referendum mendapati rakyat singapura bersetuju untuk bergabung membentuk malaysia seperti syarat yang ditetapkan oleh kerajaan singapura dan persekutuan tanah melayu keputusan ini membolehkan singapura menyertai malaysia rundingan london pada bulan november 1961 rundingan berhubung dengan pembentukan malaysia diadakan di london antara kerajaan persekutuan tanah melayu dengan kerajaan british keduadua kerajaan bersetuju agar ditubuhkan sebuah suruhanjaya bagi meninjau reaksi penduduk di sarawak dan sabah 55 bbaabb suruhanjaya cobbold suruhanjaya ini dibentuk secara rasmi pada bulan januari 1962 suruhanjaya cobbold mengandungi wakil yang dilantik oleh kerajaan british dan persekutuan tanah melayu lord cobbold dilantik menjadi pengerusi ahliahli terdiri daripada sir anthony abell sir david watherston muhammad ghazali shafie dan wong pow nee suruhanjaya ini melawat 35 pusat lawatan 20 pusat lawatan di sarawak dan 15 pusat lawatan di sabah menjelang bulan jun 1962 suruhanjaya cobbold menyerahkan laporan kepada kerajaan british dan persekutuan tanah melayu antara laporan tersebut termasuklah menyatakan dua pertiga penduduk menyokong pembentukan malaysia mengesyorkan agar perlembagaan persekutuan tanah melayu 1957 dijadikan asas perlembagaan persekutuan yang baharu mencadangkan kuasa autonomi dan jaminan khas diberi kepada sarawak dan sabah yang tidak boleh dipinda atau dibatalkan oleh kerajaan persekutuan tanpa mendapat persetujuan daripada kerajaan negeri berkenaan referendumpungutan suara rakyat berhubung dengan sesuatu dasar politik dan sebagainya 110000antara persatuan dari sarawak yang bbaabb memberikan maklum balas kepada surat tunku abdul rahman putra alhaj kepada lord suruhanjaya cobbold lansdowne pada september 1962 55 sumber national archive united kingdom sumber national archive united kingdom ahli suruhanjaya cobbold dari kiri muhammad ghazali shafie wong pow nee lord cobbold pengerusi sir david watherston dan sir anthony abell sumber arkib negara malaysia 2015 memorial negarawan kuala lumpur arkib negara malaysia tandatangan maklum balas persatuan dengan menggunakan pelbagai sumber kaji dari sarawak dan surat tunku abdul laporan suruhanjaya cobbold nyatakan rahman putra alhaj kepentingan suruhanjaya ini dalam menjayakan usaha pembentukan malaysia 110011pembentukan jawatankuasa antara kerajaan jak kerajaan british dan persekutuan tanah melayu mengumumkan penubuhan intergovernmental committee atau dikenali sebagai jawatankuasa antara kerajaan jak pada bulan ogos 1962 jawatankuasa ini diwakili oleh kerajaan british persekutuan tanah melayu sarawak dan sabah penubuhan jak bertujuan menyediakan rangka perlembagaan dan membentuk keperluan melindungi kepentingan sarawak dan sabah jawatankuasa ini dipengerusikan oleh lord jak mempunyai lima jawatankuasa lansdowne menteri tanah jajahan kecil timbalan pengerusi ialah tun abdul razak 1 perlembagaan hussein 2 kewangan wakil sarawak ialah ketua setiausaha 3 perkhidmatan awam peguam negeri setiausaha kewangan datu 4 perundangan dan kehakiman bandar abang haji mustapha temenggong 5 organisasi jabatan jugah anak barieng pengarah montegrai ling jawatankuasa ini telah mengadakan beng siew dan chia chin sin m esyuarat pertama di jesselton kota wakil sabah terdiri daripada ketua setiausaha kinabalu sabah pada 30 ogos 1962 peguam negeri setiausaha kewangan datu mesyuarat terakhir diadakan di kuala mustapha datu harun donald stephens dan lumpur pada 18 20 september 1962 5 koo siak chiew bab jawatankuasa ini mengusulkan 18 perkara bagi sarawak dan 20 perkara bagi sabah yang perlu dimasukkan ke dalam perlembagaan persekutuan untuk menjamin hak serta kepentingan rakyat sarawak dan sabah antara perkara yang menjadi teras utama dalam perlembagaan termasuklah islam ialah agama persekutuan malaysia tetapi dikecualikan kepada sarawak dan sabah bahasa melayu ialah bahasa rasmi persekutuan malaysia tetapi bahasa inggeris juga digunakan sebagai bahasa rasmi di sarawak dan sabah sistem pendidikan dikekalkan di bawah kawalan kerajaan persekutuan kecuali di sarawak dan sabah sistem pendidikan di sarawak dan sabah kekal di bawah kawalan kerajaan negeri sehingga majlis jawatankuasa antara kerajaan negeri membuat pindaan berkaitan dengan malaysia dalam parlimen malaysia sebanyak 24 kerusi hendaklah sumber arkib negara malaysia diperuntukkan kepada sarawak 16 kerusi kepada sabah dan 15 kerusi kepada singapura kuasa imigresen terletak di bawah kerajaan persekutuan tetapi sarawak dan sabah diberi kuasa nyatakan jawatankuasa tersendiri untuk mengendalikan hal ehwal imigresen kecil yang ditubuhkan di bawah jawatankuasa antara kerajaan jak pelbagai langkah diambil bagi merealisasikan pembentukan malaysia langkah ini melibatkan semua pihak sama ada pemimpin 23 perkara mahupun rakyat sikap toleransi yang ditunjukkan perlu diamalkan laporan jak oleh generasi muda bagi menjamin kesejahteraan negara 110022</t>
+          <t>24 pindaan perlembagaan persekutuan 1963 dan 1965 perlembagaan tanah melayu 1957 menjadi asas kepada perlembagaan persekutuan malaysia 1963 hal ini berlaku apabila terjadi penggabungan persekutuan tanah melayu sarawak sabah dan singapura pindaan perlembagaan yang dilakukan bertujuan menyesuaikan peruntukan negeri 22 bbaabb baharu ke dalam perlembagaan tanpa mengubah kedudukan negeri yang sedia ada terdapat beberapa pindaan perlembagaan yang utama dilakukan pada tahun 1963 dan 1965 melibatkan struktur mahkamah atasan dan pemisahan singapura pindaan perlembagaan 1963 perlembagaan persekutuan tanah melayu 1957 dipinda selepas pembentukan malaysia pindaan yang dibuat adalah dengan cara memasukkan klausa baharu pada bahagian tertentu bagi menyesuaikannya dengan keperluan semasa terdapat tiga perkara utama yang berlaku dalam pindaan perlembagaan 1963 iaitu struktur mahkamah atasan pembentukan mahkamah tinggi borneo dan jawatan yang dipertua negeri 1 struktur mahkamah atasan perlembagaan persekutuan tanah melayu 1957 menetapkan struktur mahkamah atasan mengikut model mahkamah tertinggi england yang membahagikannya kepada mahkamah atasan dan mahkamah rayuan apabila malaysia dibentuk mahkamah atasan diwujudkan iaitu mahkamah persekutuan tiga buah mahkamah atasan diwujudkan iaitu di persekutuan tanah melayu di sarawak dan sabah serta di singapura mahkamah persekutuan boleh mendengar manamana persoalan perlembagaan dan pertikaian antara kerajaan persekutuan dengan kerajaan negeri 2 pembentukan mahkamah tinggi borneo informasi perlembagaan malaysia mengekalkan 1 sabah dikenali sebagai north kedudukan mahkamah tinggi malaya dan borneo sebelum pembentukan pada masa yang sama diwujudkan mahkamah malaysia tinggi borneo mahkamah tinggi borneo ini 2 pesuruhjaya kehakiman yang berperanan untuk menguruskan soal kehakiman bertauliah dilantik di north di sarawak dan sabah pada tahun 1963 jawatan borneo pada tahun 1912 ketua hakim borneo diwujudkan dengan jawatan ini kemudian dikenali berpusat di kuching sarawak menjelang tahun sebagai ketua hakim north 1994 nama jawatan ini diubah kepada ketua borneo sarawak pula mula menerima pesuruhjaya hakim sarawak dan sabah kehakiman bertauliah pada tahun 1928 33003 jawatan yang dipertua negeri apabila malaysia dibentuk sarawak dan sabah diketuai oleh yang dipertua negeri yang dilantik oleh yang dipertuan agong dalam menjalankan tugasnya yang dipertua negeri perlu mengikut nasihat majlis tertinggi bagi sarawak dan kabinet negeri bagi sabah bbaabb 22 pindaan perlembagaan 1965 tunku abdul rahman putra alhaj selaku perdana menteri malaysia pertama membawa usul pindaan perlembagaan yang dinamakan pindaan singapura di parlimen pada 7 ogos 1965 parlimen meluluskan usul ini yang membolehkan singapura keluar daripada malaysia oleh itu semua perkara berkaitan dengan singapura dimansuhkan dalam perlembagaan malaysia pindaan 1965 contohnya dari segi imigresen kewangan hubungan luar negara dan pertahanan tunku abdul rahman putra alhaj tiga dari kiri menghadiri persidangan akhbar bagi menerangkan kepada wartawan tentang perkara yang menyebabkan pemisahan singapura daripada malaysia di bangunan parlimen kuala lumpur pada 9 ogos 1965 sumber arkib negara malaysia perlembagaan merupakan undangundang tertinggi dalam sesebuah negara perlembagaan menjadi panduan penting sikap tidak peka akan sejarah bagi negara yang menjelaskan kuasa dalam setiap perkara menjadi cabaran malaysia negara kita juga mengalami pindaan perlembagaan pada bagi mengekalkan keluhuran tahun 1963 dan 1965 perlembagaan negara ulaskan pernyataan ini malaysia sebuah negara unik yang mempunyai perlembagaan berasaskan ciri tradisional dan moden keduadua ciri ini saling melengkapi antara satu sama lain apabila malaysia dibentuk pada tahun 1963 pindaan perlembagaan dilakukan bagi menyesuaikannya dengan sarawak dan sabah pindaan perlembagaan yang dilakukan pada tahun 1965 menyaksikan pemisahan singapura daripada malaysia sebagai rakyat malaysia kita bertanggungjawab mempertahankan perlembagaan demi kedaulatan negara 31imbas kembali perlembagaan persekutuan 2 bab latar belakang sejarah perlembagaan persekutuan 1 asas pembentukan perlembagaan sejarah penggubalan perlembagaan 2 persekutuan sejarah penggubalan perlembagaan persekutuan 1877 1957 3 ciri utama perlembagaan persekutuan ciri tradisional ciri moden pindaan perlembagaan persekutuan 1963 dan 1965 4 pindaan perlembagaan 1963 pindaan perlembagaan 1965 3322pembelajaran abad ke21 aktiviti 1 3 stray 1 stay bab arahan1 murid berada dalam kumpulan masingmasing dan mencatatkan idea pada kertas sebak 2 kumpulan disusun mengikut kronologi sejarah daripada kumpulan 1 hingga kumpulan 4 2 hasil kerja ditampalkan 3 seorang ahli kumpulan akan berada di situ stay untuk memberikan penerangan kepada ahli kumpulan lain 4 tiga ahli lain boleh bergerak stray ke kumpulan lain untuk melihat dan menyoal hasil kumpulan lain sejarah perkembangan perlembagaan persekutuan cari dan catatkan maklumat berkaitan dengan perkara yang berikut kumpulan 1 1887 mesyuarat pertama majlis negeri perak dan penggubalan undangundang bagi negeri perak kumpulan 2 1946 undangundang bagi negerinegeri selat negerinegeri melayu bersekutu dan negerinegeri melayu tidak bersekutu kumpulan 3 1948 perjanjian persekutuan tanah melayu 1948 kumpulan 4 1957 perjanjian persekutuan tanah melayu 1957 pada akhir sesi guru atau murid merumuskan secara kronologi perkembangan perlembagaan persekutuan 3333pemahaman dan pemikiran kritis 1 pernyataan di bawah berkaitan dengan penubuhan majlis di sabah x memberikan kuasa kepada gabenor untuk membuat undangundang apakah x 2 bab a majlis kerja b majlis negeri c majlis tertinggi d majlis undangan 2 ciri tradisional dalam perkembangan perlembagaan ialah a bahasa melayu b kewarganegaraan c kerajaan persekutuan d sistem demokrasi berparlimen 3 nyatakan usaha yang boleh dilakukan oleh kerajaan bagi membolehkan rakyat menghormati perlembagaan persekutuan 4 perlembagaan penting bagi menjamin kedaulatan negara kita bincangkan 5 apakah maksud perlembagaan persekutuan mungkin telah ada dalam fikiran pencipta perlembagaan itu bahawa unsurunsur tradisional ini diperlukan untuk kestabilan serta kemajuan negara dan memainkan peranan penting dalam perjalanan perlembagaan tun mohd salleh abas 1985 unsurunsur tradisi dalam perlembagaan malaysia kuala lumpur dewan bahasa dan pustaka 6 berdasarkan petikan di atas jawab soalan yang berikut soalan 1 nyatakan ciri tradisional dalam perlembagaan persekutuan soalan 2 bagaimanakah pemerintahan beraja dapat memainkan peranan untuk kestabilan dan kemakmuran negara soalan 3 huraikan peranan rakyat untuk mempertahankan pemerintahan beraja 7 perlembagaan persekutuan memperuntukkan kedudukan bahasa melayu sebagai bahasa kebangsaan negara badan yang dipertanggungjawabkan menjaga kedudukan dan membuat kajian berkaitan dengan bahasa melayu ialah dewan bahasa dan pustaka soalan 1 berdasarkan pelbagai sumber jelaskan peranan dewan bahasa dan pustaka dalam menjaga kedudukan bahasa melayu soalan 2 pada pendapat anda apakah peranan rakyat untuk menjadikan bahasa melayu sebagai bahasa perpaduan 3344cakna dan cerminan sejarah nilai patriotisme dan iktibar penerokaan bukti warisan tradisional dalam kerajaan melayu wajar dihayati bagi memupuk semangat kesetiaan kepada raja dan negara bab keunggulan pemerintahan beraja sebelum kedatangan barat yang diwarisi dan diamalkan berperanan mengukuhkan keharmonian kaum dan kedaulatan negara 2 hubungan antara raja dengan rakyat yang diwarisi sejak zaman kesultanan melayu melaka penting untuk kesejahteraan penduduk dan negara diri dan keluarga sebagai ahli dalam keluarga sikap menghormati golongan yang lebih tua dalam kalangan keluarga dapat mengukuhkan institusi keluarga dan menyumbang kepada kesejahteraan masyarakat negara perpaduan dalam masyarakat pelbagai kaum budaya dan agama menjadi asas penting untuk menjamin keluhuran perlembagaan negara kita ahli parlimen memainkan peranan penting bagi menjaga keluhuran perlembagaan dan kedaulatan negara 3355</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengisytiharan Malaysia </t>
+          <t xml:space="preserve"> Berparlimen </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55 perjanjian julai 1963 dan peristiwa pengisytiharan malaysia perjanjian julai 1963 yang turut dikenali sebagai perjanjian malaysia atau malaysia agreement ma63 ialah sebuah dokumen yang ditandatangani oleh kerajaan british persekutuan tanah melayu sarawak sabah dan singapura perjanjian ini ditandatangani pada 9 julai 1963 di london kandungan perjanjian ini adalah seperti yang dikemukakan oleh jak prinsip utama perjanjian ini mengiktiraf hak yang sama kepada semua negeri dalam malaysia inti pati perjanjian malaysia antara inti pati perjanjian malaysia termasuklah 1 tarikh pembentukan malaysia adalah pada 31 ogos 1963 2 sarawak sabah dan singapura akan menjadi ahli dalam persekutuan malaysia bersamasama persekutuan tanah melayu 3 kerajaan british akan mengiktiraf kedaulatan sarawak sabah dan singapura dalam malaysia 4 memberikan kelebihan kepada sarawak dan sabah menubuhkan kabinet negeri 5 memperuntukkan tempoh masa peralihan contohnya dalam bidang pentadbiran awam serta pendidikan kepada sarawak dan sabah bab 6 kerusi parlimen diberikan kepada singapura sebanyak 15 kerusi sarawak 24 kerusi dan sabah 5 16 kerusi 7 penduduk bumiputera di sarawak dan sabah mendapat pengiktirafan sama seperti orang melayu dalam perlembagaan persekutuan informasi sabah bersetuju mengiktiraf bahasa melayu sebagai bahasa kebangsaan dan sebagai balasan dibenarkan menggunakan bahasa inggeris dalam tempoh 10 tahun selepas tahun 1963 pada tahun 1970 datu mustapha datu harun menjadikan bahasa melayu sebagai bahasa pengantar pendidikan sebagaimana mengikut dasar pendidikan kebangsaan pada tahun 1971 dewan undangan sabah meluluskan untuk menjadikan bahasa melayu sebagai bahasa dalam urusan rasmi negeri sabah tunku abdul rahman putra alhaj mengadakan sidang akhbar pada 6 julai 1963 di kuala lumpur mengumumkan akan ke london bagi menghadiri majlis menandatangani perjanjian pembentukan huraikan kepentingan perjanjian malaysia 1963 malaysia sumber arkib negara malaysia meneroka bukti pembentukan malaysia berasaskan rundingan inti pati memorandum dan keputusan bersama penduduk yang terlibat 20 perkara buktikan 110033misi pertubuhan bangsabangsa bersatu pbb indonesia membuat bantahan rasmi pembentukan malaysia di pertubuhan bangsabangsa bersatu pbb oleh itu u thant setiausaha agung pbb mengumumkan penubuhan sebuah jawatankuasa iaitu united nations malaysia mission unmm pada 12 ogos 1963 untuk menilai dan membuat laporan laurence michelmore duta amerika syarikat di pbb mengetuai rombongan melakukan tinjauan di sarawak dan sabah pembentukan malaysia yang sepatutnya diisytiharkan pada 31 ogos 1963 ditangguhkan kerana laporan setiausaha pertubuhan bangsabangsa bersatu hanya dapat disiapkan pada 14 september 1963 pada 14 september 1963 misi ini menerbitkan laporan penduduk sarawak dan sabah yang menerima pembentukan malaysia peristiwa pengisytiharan malaysia malaysia diisytiharkan pada 16 september 1963 istiadat pengisytiharan diadakan serentak di kuala lumpur sarawak dan sabah sarawak datu abang haji openg abang sapiee mengangkat sumpah jawatan yang dipertua kuala lumpur negeri sarawak pengisytiharan malaysia yang dipertuan agong membacakan dibaca oleh khir johari wakil kerajaan pengisytiharan malaysia di stadium persekutuan di kuching sarawak turut 55 merdeka dan disaksikan oleh tunku hadir ialah anggota kabinet negeri bbaabb abdul rahman putra alhaj peristiwa pengisytiharan malaysia di kuala lumpur sarawak dan sabah sumber arkib negara malaysia informasi stephen kalong ningkan dilantik menjadi ketua menteri sarawak pada 22 julai 1963 tarikh 22 julai diisytiharkan sebagai hari sarawak dan cuti umum negeri ini 110044laporan suruhanjaya pbb tentang malaysia sumber koleksi penulis sabah datu mustapha datu harun mengumumkan pengisytiharan malaysia di kota kinabalu sabah serta menandatangani surat sumpah jawatan sebagai yang dipertua negeri sabah yang pertama tun abdul razak hussein bab mewakili kerajaan persekutuan 5 dokumen pemasyhuran malaysia sumber arkib negara malaysia aktiviti drama drama activity arahan1 secara berkumpulan murid membuat perbincangan untuk mempersembahkan drama bertajuk rundingan ke arah pembentukan malaysia 2 murid perlu mencari maklumat tentang perkara yang berikut untuk menulis skrip a tokohtokoh yang terlibat dalam rundingan b bandar diadakan mesyuarat c hasil cadangan jskm 3 berdasarkan maklumat yang pembentukan malaysia dilakukan dengan cara diperoleh tulis skrip dan buat yang teratur melibatkan semua pihak penduduk latihan sebelum dipersembahkan yang terlibat diberi peluang untuk menyuarakan dalam bentuk drama pandangan mereka bagi menjaga kepentingan bersama 4 rakamkan drama tersebut untuk oleh itu kita perlu menjaga kepentingan kesepakatan tujuan dokumentasi untuk memastikan kestabilan negara terpelihara 110055</t>
+          <t>bab 3 raja berperlembagaan dan demokrasi berparlimen 3 sinopsis bab sistem raja berperlembagaan dan demokrasi berparlimen berkait rapat dengan latar belakang sejarah pemerintahan beraja di negara kita majlis rajaraja yang wujud seiring dengan pemerintahan beraja menjadi sebahagian daripada institusi raja berperlembagaan dan mempunyai kedudukan dalam pemerintahan sebagai raja berperlembagaan kedudukan yang dipertuan agong dan raja ditentukan oleh perlembagaan persekutuan dan undangundang tubuh kerajaan negeri ciri demokrasi dan pengasingan kuasa dilaksanakan pada peringkat kerajaan persekutuan dan kerajaan negeri melalui sistem demokrasi berparlimen demokrasi berparlimen di negara kita mempunyai keunikan kerana dilaksanakan berdasarkan keperluan tempatan 3366 36inti pati pembelajaran 1 latar belakang pemerintahan beraja dan demokrasi berparlimen 2 sejarah dan kedudukan institusi majlis rajaraja 3 yang dipertuan agong dan raja dalam perlembagaan persekutuan 4 amalan demokrasi dan pengasingan kuasa 5 keunikan amalan demokrasi berparlimen di negara kita bab 3 elemen kewarganegaraan dan nilai sivik 1 peranan raja bagi memakmurkan negara 2 kepentingan taat setia rakyat kepada pemerintah 3 kepentingan elemen utama demokrasi sebagai asas pemerintahan negara 4 kepentingan pengasingan kuasa dalam sistem demokrasi kemahiran pemikiran sejarah 1 memahami kronologi perkembangan pemerintahan beraja di negara kita 2 meneroka bukti amalan demokrasi dalam pemerintahan negara 3 membuat imaginasi keunikan amalan demokrasi berparlimen di negara kita 4 membuat interpretasi kedudukan yang dipertuan agong sebagai tonggak pemerintahan negara 5 membuat rasionalisasi mempertahankan sistem raja berperlembagaan dan demokrasi berparlimen istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia 3377</t>
         </is>
       </c>
     </row>
@@ -686,710 +686,643 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Konfrontasi dan Usaha Menangani </t>
+          <t xml:space="preserve">Demokrasi Berparlimen </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>56 konfrontasi dan usaha menangani kerajaan indonesia tidak menentang pada peringkat awal rancangan pembentukan malaysia penentangan mula muncul selepas pemberontakan brunei 7 disember 1962 apabila tunku abdul rahman putra alhaj membuat kenyataan bahawa indonesia terlibat membantu pemberontakan partai komunis indonesia menggunakan kesempatan ini menyelar rancangan malaysia sebagai penerusan dasar neokolonialisme yang dirancang oleh kerajaan british konfrontasi peristiwa penentangan pada 20 januari 1963 dr subandrio menteri luar indonesia mengumumkan indon esia dasar konfrontasi terhadap malaysia 20 januari 1963 dengan alasan mengancam kedudukan melancarkan dasar konfrontasi indonesia terhadap tanah melayu ganyang malaysia 16 januari 1963 27 mac 1963 55 tentera indonesia melancarkan bbaabb serangan gerila di sarawak ogos disember 1964 pendaratan gerila di johor keratan akhbar berkaitan dengan konfrontasi sumber arkib negara malaysia poster mengingatkan rakyat agar tidak terpengaruh dengan khabar angin sumber arkib negara malaysia fail kerajaan british tentang sikap kerajaan indonesia terhadap malaysia sumber national archive united kingdom neokolonialisme ialah peluasan pengaruh politik oleh sesebuah kuasa besar terhadap negara lain 110066anggota keselamatan malaysia bersamasama komando tun abdul razak hussein sedang memberikan marin british meronda di sepanjang sungai di serudong taklimat kepada penduduk di sabak bernam sabah semasa konfrontasi selangor tentang konfrontasi sumber arkib negara malaysia sumber arkib negara malaysia tindakan ketenteraan terawal berlaku apabila pendaratan tentera dan separa tentera indonesia di tebedu sarawak pada 12 april 1963 bbaabb pada 29 disember 1963 berlaku peristiwa berbalas tembakan antara tentera malaysia dengan indonesia di kalabakan sabah 55 pada 2 september 1964 berlaku peristiwa pendaratan seramai 30 orang gerila indonesia di labis johor gerila indonesia yang masuk ke johor ditahan oleh pasukan tentera malaysia dr ismail abdul rahman membawa isu serangan ini ke dalam majlis keselamatan pbb kaedah provokasi tidak mengubah pendirian malaysia untuk bertindak selain cara diplomatik dr ismail abdul rahman duduk di depan dan omar ong yoke lin di belakang dalam majlis keselamatan pbb untuk membentangkan aduan tentang konfrontasi sumber arkib negara malaysia 107langkah menamatkan konfrontasi malaysia menggunakan pendekatan diplomatik dalam usaha menangani konfrontasi tanggungjawab menyusun strategi diserahkan kepada kementerian luar negeri yang diketuai oleh muhammad ghazali shafie tugas utama kementerian ini adalah untuk mematahkan kempen propaganda dan mendapatkan sokongan negara luar 1 usaha awal menamatkan 2 3 konfrontasi dilakukan oleh u thant setiausaha agung presiden macapagal tunku abdul rahman putra alhaj pbb beliau mengutus menganjurkan rundingan menerima undangan presiden soekarno wakilnya cv narasimhan peringkat pegawai untuk bertemu di tokyo pada 1963 pada bulan februari 1963 di manila pada 9 april 1963 dalam pertemuan ini tunku abdul untuk berunding dengan rahman putra alhaj menerangkan negara kita diwakili oleh pemimpin kerajaan tujuan pembentukan malaysia muhammad ghazali shafie indonesia dan persekutuan tanah melayu 55 bbaabb 1963 1964 4 5 tun abdul razak hussein tunku abdul rahman putra alhaj menghadiri mesyuarat peringkat menghadiri mesyuarat bersamasama menteri luar di manila pada presiden soekarno dan presiden macapagal 7 11 jun 1963 bagi mencari di manila pada 31 julai 5 ogos 1963 hasil penyelesaian konfrontasi penting ialah penerimaan kerajaan indonesia dr subandrio menteri luar dan filipina terhadap pembentukan malaysia indonesia hadir bagi pihak selepas penilaian dibuat oleh pbb terhadap negaranya sarawak dan sabah 6 rundingan malaysia indonesia dan filipina berlangsung pada tahun 1964 melibatkan dua persidangan peringkat menteri di bangkok dan satu sidang kemuncak di tokyo peranan utama dimainkan oleh thanat khoman menteri luar thailand yang menganjurkan pertemuan dengan menteri luar indonesia muhammad ghazali shafie menyambut kedatangan jeneral ali moertopo kiri di lapangan terbang antarabangsa subang sumber arkib negara malaysia 1100887 peralihan kepimpinan di indonesia pada 8 30 september 1965 menamatkan konfrontasi jeneral suharto melantik jeneral ali kerajaan indonesia moertopo dan adam malik untuk berunding mengumumkan penamatan menamatkan konfrontasi konfrontasi pada 4 ogos 1966 1965 1966 9 tun abdul razak hussein menandatangani perjanjian persetujuan normalisasi hubungan indonesia malaysia di jakarta pada 11 ogos 1966 bbaabb perjanjian bangkok 55 dan persetujuan majlis menandatangani perjanjian persetujuan normalisasi hubungan normalisasi hubungan indonesiamalaysia oleh tun abdul razak hussein duduk di kiri indonesia malaysia dan adam malik duduk di kanan disaksikan oleh jeneral suharto yang diadakan di jakarta indonesia sumber arkib negara malaysia 1 nyatakan faktor yang konfrontasi memberikan pengalaman kepada negara kita untuk menyebabkan indonesia mengurus krisis pada peringkat serantau dan antarabangsa menentang pembentukan komitmen tinggi yang diberikan oleh pemimpin dan pegawai malaysia kerajaan berjaya mengelakkan masalah ini menjadi konflik 2 huraikan usaha yang yang lebih besar oleh itu penting bagi rakyat malaysia bersatu dilakukan oleh malaysia padu untuk memastikan kestabilan negara dan mengelakkan bagi menghadapi konfrontasi ancaman luar indonesia pembentukan malaysia merupakan usaha menggabungkan persekutuan tanah melayu sarawak sabah dan singapura dalam persekutuan malaysia usaha pembentukan malaysia menghadapi cabaran terbesar untuk mendapatkan sokongan dan kerjasama daripada semua rakyat pembentukan malaysia turut menghadapi cabaran pada peringkat antarabangsa apabila negara jiran iaitu indonesia dan filipina menentang pembentukan ini sokongan yang diberikan oleh rakyat membolehkan pembentukan malaysia diisytiharkan dengan jayanya keterlibatan pemimpin pegawai kerajaan dan masyarakat tempatan menghasilkan satu persetujuan melalui perjanjian malaysia 1963 malaysia berjaya diisytiharkan pada 16 september 1963 pengajaran utama yang boleh diambil daripada pembentukan malaysia ialah kepentingan kesepakatan untuk kestabilan negara 110099imbas kembali pembentukan malaysia konsep gagasan idea gagasan malaysia malaysia perkembangan idea dan idea pegawai british usaha pembentukan idea penduduk tempatan malaysia rasional idea pembentukan malaysia 55 reaksi tempatan dan reaksi awal terhadap gagasan malaysia bbaabb negara jiran terhadap reaksi tempatan pembentukan malaysia reaksi negara jiran siri lawatan jawatankuasa setia kawan malaysia jskm langkah pembentukan referendum singapura malaysia rundingan london suruhanjaya cobbold pembentukan jawatankuasa antara kerajaan jak perjanjian julai inti pati perjanjian malaysia 1963 dan peristiwa misi pertubuhan bangsabangsa bersatu pbb pengisytiharan malaysia peristiwa pengisytiharan malaysia konfrontasi dan konfrontasi peristiwa penentangan usaha menangani langkah menamatkan konfrontasi 111100pembelajaran abad ke21 aktiviti fail edar travelling file arahan1 murid dikehendaki berada dalam kumpulan setiap kumpulan diberi satu fail yang mengandungi soalan untuk dibincangkan dan dicatatkan 2 setelah 15 20 minit soalan dan catatan jawapan dimasukkan semula ke dalam fail lalu diedarkan kepada kumpulan lain 3 setiap kumpulan yang mendapat fail baharu daripada kumpulan lain akan membaca jawapan yang diberikan mereka boleh menambah membaiki atau menyatakan pandangan pada jawapan dalam fail 4 setiap kumpulan akan memberikan maklum balas pada jawapan dan guru akan mengadakan perbincangan serta membuat rumusan bab 5 gambar 1 jawatankuasa setia kawan malaysia jskm gambar 2 suruhanjaya cobbold soalan1 nyatakan peranan keduadua jawatankuasa ini 2 mengapakah jawatankuasa setia kawan malaysia dan suruhanjaya cobbold penting dalam menjayakan pembentukan malaysia 3 mengapakah amalan muafakat penting dalam menjayakan sesuatu misi 111111pemahaman dan pemikiran kritis 1 apakah matlamat malcolm macdonald mencadangkan penggabungan semua tanah jajahan british di asia tenggara a memajukan ekonomi b memudahkan pentadbiran c melaksanakan dekolonisasi d mengelakkan ancaman komunis 2 mengapakah indonesia melancarkan konfrontasi a menuntut wilayah sabah b mengancam kedudukan indonesia c mengurangkan kuasa politik melayu d menggagalkan gagasan melayu raya 3 faktor yang menamatkan konfrontasi indonesia dan malaysia ialah a penubuhan asean b resolusi majlis keselamatan pbb c peralihan kepimpinan di indonesia 5 d amaran amerika syarikat kepada indonesia bab 4 gambar menunjukkan ahli rombongan mewakili sarawak yang menandatangani perjanjian malaysia berdasarkan gambar ini jawab soalan yang berikut sumber the borneo post a apakah peranan penting yang dimainkan oleh wakil dari sarawak b nyatakan inti pati utama perjanjian malaysia 1963 c jelaskan kepentingan perjanjian malaysia 1963 111122cakna dan cerminan sejarah nilai patriotisme dan iktibar kepentingan untuk berfikiran strategik bagi mencapai kejayaan dalam kehidupan kesepakatan adalah penting bagi mewujudkan kestabilan negara sikap menerima dan meraikan idea serta pandangan yang berbeza penting bagi kesejahteraan negara sikap sentiasa berwaspada kepada anasir luar penting bagi menjaga keselamatan dan kedaulatan negara diri dan keluarga kita hendaklah sentiasa berfikiran positif dan menerima pandangan yang membina bagi membolehkan kita mencapai citacita negara kemerdekaan dan bebas daripada kuasa luar membolehkan proses pembangunan dan pemodenan dilakukan dengan jayanya bbaabb 55 bangunan pencakar langit yang menghiasi bandar raya kota kinabalu sabah 111133bab 6 cabaran selepas pembentukan malaysia sinopsis pembentukan malaysia memberikan kesan besar terhadap proses pembinaan negara bangsa selepas pembentukan malaysia negara menghadapi pelbagai cabaran antara cabaran utama termasuklah pemisahan singapura ancaman komunis isu pembangunan dan ekonomi serta tragedi hubungan antara kaum 114inti pati pembelajaran 1 cabaran dalaman malaysia 2 pemisahan singapura 3 menangani ancaman komunis 4 isu pembangunan dan ekonomi 5 tragedi hubungan antara kaum elemen kewarganegaraan dan nilai sivik 1 kepentingan menyelesaikan konflik secara rundingan 2 kewibawaan pemimpin dalam memperjuangkan maruah bangsa 3 kepentingan kestabilan politik dalam mengekalkan keamanan negara 4 kepentingan menjaga keharmonian kaum kemahiran pemikiran sejarah 1 memahami kronologi pemisahan singapura daripada malaysia 2 meneroka bukti cabaran pembentukan malaysia 3 membuat interpretasi keberkesanan perang saraf 4 membuat imaginasi langkah mengatasi isu pembangunan dan ekonomi 5 membuat rasionalisasi usaha memulihkan hubungan antara kaum dokumen singapura keluar daripada malaysia sumber arkib negara malaysia 115</t>
+          <t>31 latar belakang pemerintahan beraja dan demokrasi berparlimen pemerintahan beraja merupakan tradisi yang berakar umbi dan menjadi teras kewujudan kerajaan melayu raja memerintah dengan kuasa yang penuh dan berdaulat cabaran terhadap pemerintahan beraja berlaku selepas pentadbiran tempatan dikuasai oleh british dan jepun walau bagaimanapun pemerintahan beraja tidak terhapus pemerintahan beraja berkembang sejajar dengan peredaran masa sehingga diiktiraf sebagai raja berperlembagaan seiring dengan konsep demokrasi berparlimen dalam pemerintahan negara kita pada hari ini 33 pemerintahan beraja kesultanan melayu melaka bbaabb kesultanan melayu melaka memperlihatkan pemerintahan beraja yang berwibawa raja ialah pemerintah yang berkuasa mutlak pada baginda terletak semua kuasa pemerintahan termasuk kuasa pentadbiran perundangan dan kehakiman pemerintahan pula berdasarkan undangundang iaitu hukum kanun melaka dan undangundang laut melaka keadaan ini membuktikan bahawa kehidupan bernegara dan ciri sistem berperlembagaan terserlah pada zaman kesultanan melayu melaka pemerintahan kesultanan ini diperkukuh dengan konsep islam konsep ini sekali gus menjadikan raja sebagai ketua agama islam pemerintahan kesultanan melayu melaka mempunyai pengaruh yang besar bagi membina tradisi dan adat istiadat yang diwarisi oleh kesultanan melayu yang muncul kemudiannya kesultanan melayu merujuk kerajaan yang mempunyai pertalian dengan kesultanan melayu melaka sama ada dari segi keturunan mahupun pernah menjadi naungan atau jajahan takluk kesultanan ini secara tradisinya rajaraja melayu dianggap sebagai sumber undangundang ketua kerajaan dan ketua agama baginda bertanggungjawab mempertahankan adat dan struktur masyarakat dalam kerajaan melayu keabsahan bagi semua tindakan terletak pada kedaulatan rajaraja melayu informasi kesultanan melayu selepas kesultanan melayu melaka legasi kesultanan melayu melaka diteruskan secara langsung oleh kesultanan johor riau pahang dan perak kesultanan terengganu dan selangor merupakan ilustrasi bertajuk kesinambungan daripada kesultanan johor riau kemegahan kesultanan kelantan negeri sembilan dan perlis diraja menghiasi diasaskan setelah berakhirnya kesultanan melayu muka hadapan melaka laporan tahunan kesultanan kedah merupakan kerajaan terawal yang badan kehakiman diasaskan di negara kita kesultanan ini mengakui malaysia tahun 2014 pertuanan kesultanan melayu melaka sumber jabatan kehakiman the membuat interpretasi malaysian judiciary yearbook 2014 putrajaya jabatan tafsirkan ilustrasi pada muka hadapan laporan tahunan badan kehakiman kehakiman malaysia tahun 2014 3388sebelum perang dunia kedua semasa peluasan pengaruh british pemerintahan beraja menjadi penghalang yang menyukarkan british melakukan penjajahan di negeri melayu british sekadar berupaya memperkenalkan sistem residen di nnmb dan sistem penasihat di nnmtb rajaraja melayu memerintah dengan campur tangan british dalam pentadbiran tempatan yang dimeterai melalui perjanjian atau surat perisytiharan daripada rajaraja melayu sultan perak sultan idris bagi nnmb british hanya mengambil alih pentadbiran pada murshidul adzam shah peringkat pembesar negeri rajaraja melayu kekal sebagai bbaabb duduk di bawah payung pemerintah berdaulat walaupun dikehendaki menerima nasihat pada tahun 1897 daripada pegawai british yang dilantik sebagai residen 33 bagi nnmtb kedudukan raja yang memerintah adalah lebih kukuh british menempatkan penasihat british namun pentadbiran negeri tetap dilaksanakan oleh pembesar yang dilantik oleh raja penggubalan undangundang tubuh kerajaan johor 1895 dan undangundang bagi diri kerajaan terengganu 1911 menyerlahkan ciri pemerintahan raja berperlembagaan dalam kesultanan johor dan terengganu yang dipertuan besar negeri penggubalan undangundang tersebut berkait rapat dengan sembilan tuanku muhammad usaha raja pembesar dan rakyat untuk menghalang peluasan ibni tuanku antah duduk di tengah pada tahun 1897 pengaruh british dan mengekalkan kedaulatan negeri kebijaksanaan diplomasi rajaraja melayu membolehkan pemerintahan beraja dipertahankan raja sebagai ketua negeri yang mengesahkan undangundang membuktikan kedaulatan raja dalam struktur pentadbiran negeri melayu perjanjian antara rajaraja melayu dengan british sebelum perang dunia kedua tidak memindahkan kedaulatan negeri melayu kepada british negeri melayu hanya menjadi negeri naungan british sultan pahang sultan ahmad almuadzam shah duduk di bawah payung pada tahun 1897 sumber arkib negara malaysia kebijaksanaan diplomasi dan perjanjian antara rajaraja melayu sultan selangor sultan abdul samad duduk di bawah payung pada tahun 1870 3399semasa pendudukan jepun semasa pendudukan jepun rajaraja melayu diiktiraf sebagai ketua dalam hal ehwal agama islam rajaraja melayu juga memperoleh pendapatan seperti sebelum perang dunia kedua pengiktirafan tersebut diisytiharkan semasa persidangan rajaraja tanah melayu dan sumatera dengan pemerintah tentera jepun di singapura pada bulan januari 1943 kedudukan rajaraja melayu di negeri masingmasing diletakkan di bawah 333 rajaraja melayu dan tentera jepun di singapura bbbaaabbb pengawasan gabenor jepun di tanah melayu sumber arkib negara malaysia selepas perang dunia kedua pemerintahan beraja menerima cabaran apabila malayan union diperkenalkan pada tahun 1946 rajaraja melayu kehilangan kuasa sebagai pemerintah negeri kerana kuasa pemerintahan diambil oleh raja england british memerintah malayan union secara langsung melalui gabenor yang dilantik oleh kerajaan british kesepakatan rajaraja melayu menentang malayan union dengan sokongan orang melayu menyebabkan british menggantikan malayan union dengan persekutuan tanah melayu 1948 kedaulatan rajaraja melayu yang diwarisi daripada kesultanan melayu melaka dikembalikan seperti sebelum perang dunia kedua melalui perjanjian persekutuan tanah melayu 1948 sultan pahang sultan abu bakar undangundang tubuh digubal oleh rajaraja melayu sedang menandatangani perjanjian bagi negeri masingmasing dan diguna pakai sehingga hari ini persekutuan tanah melayu 1948 mengangkat rajaraja melayu sebagai raja berperlembagaan di kings house kuala lumpur pada tahun 1948 sumber arkib negara malaysia mengapakah pentadbiran tentera jepun mengekalkan pemerintahan beraja di tanah melayu membuat rasionalisasi rasionalkan kepentingan undang undangundang tubuh kerajaan pahang dan undang undang tubuh yang digubal untuk undang perlembagaan tubuh kerajaan kelantan negeri melayu sumber portal diraja pahang dan kerajaan negeri kelantan 4400raja berperlembagaan dan demokrasi berparlimen selepas merdeka kemerdekaan tanah melayu pada tahun 1957 diperoleh melalui perundingan dan persetujuan rajaraja melayu pemerintahan beraja diteruskan dalam perlembagaan persekutuan dan beberapa pindaan dibuat supaya sesuai dengan konsep demokrasi jawatan yang dipertuan agong diwujudkan sebagai ketua utama negara kedudukan kuasa dan tugas yang dipertuan agong termaktub dalam perlembagaan persekutuan ciri raja berperlembagaan dan demokrasi berparlimen dalam perlembagaan persekutuan bbaabb mengiktiraf raja sebagai pemerintah tertinggi negara sementara itu rakyat diberi hak memilih 33 wakil mereka melalui pilihan raya untuk membentuk kerajaan istiadat mengangkat sumpah yang dipertuan agong pertama tuanku abdul rahman ibni almarhum tuanku muhammad sumber arkib negara malaysia muzium diraja muzium diraja terletak di jalan istana kuala lumpur muzium ini sebelumnya ialah istana negara tempat bersemayam seri paduka baginda yang tunku abdul rahman putra alhaj berdiri berbaju dipertuan agong dan raja permaisuri agong hitam mengangkat sumpah sebagai perdana menteri persekutuan tanah melayu di hadapan yang pertama hingga ke13 19572011 apabila yang dipertuan agong duduk di sebelah kiri istana negara baharu di jalan tuanku abdul halim dan disaksikan oleh rajaraja melayu pada beroperasi pada tahun 2011 bangunan istana negara 31 ogos 1957 lama dijadikan muzium diraja dan mula dibuka sumber arkib negara malaysia kepada orang ramai mulai tahun 2013 pemerintahan beraja merupakan aktiviti kesinambungan sejarah dan warisan 1 lawat galeri istana negara dan balairung seri 2 siapkan tugasan yang berikut negara yang kekal peranannya sehingga a nyatakan objektif visi dan misi muzium hari ini pemerintahan beraja menjadi diraja punca dan identiti kedaulatan negara b senaraikan ruangan rasmi di galeri pembinaan negara bangsa menuju istana negara sebagai mercu tanda raja raja berperlembagaan dan demokrasi berperlembagaan berparlimen merupakan proses yang c jelaskan upacara dan istiadat rasmi oleh seri bersandarkan muafakat sistem tersebut paduka baginda yang dipertuan agong mesti dipertahankan sebagai tonggak dan raja permaisuri agong yang dijalankan kestabilan dan teras perpaduan untuk di balairung seri kemakmuran negara 3 bentangkan dapatan anda 4411</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sejarah dan Kedudukan Institusi Majlis RajaRaja </t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>jenis kedaulatan 11 bab bbaabb kedaulatan berbeza mengikut bentuk pemerintahan yang diamalkan oleh sesebuah negara setiap negara mempunyai hak untuk menentukan bentuk dan jenis kedaulatan yang diamalkannya 1 terdapat beberapa jenis kedaulatan seperti kedaulatan tradisional kedaulatan moden kedaulatan undangundang dan kedaulatan antarabangsa kedaulatan tradisional kedaulatan tradisional merujuk sistem pemerintahan berkuasa mutlak yang menguasai sepenuhnya segala urusan negara kedaulatan ini wujud sejak tamadun awal manusia kedaulatan negara kita pula berpaksi pada kedaulatan rajaraja melayu kedaulatan terletak pada kekuasaan dan kewibawaan raja raja merupakan pemerintah yang mempunyai kuasa tertinggi kedudukan dan kedaulatan raja diperkukuh oleh taat setia rakyat replika istana kesultanan melayu melaka di melaka sumber dewan bahasa dan pustaka kedaulatan moden kedaulatan moden dikaitkan dengan idea kemunculan negara bangsa selepas revolusi keagungan di england dan revolusi perancis kedaulatan juga dikaitkan dengan hak rakyat dan kerajaan berperlembagaan selepas perang dunia pertama kedaulatan dikaitkan dengan nasionalisme yang menggunakan unsur persamaan rumpun bangsa dan bahasa untuk membentuk negara bangsa masingmasing kedaulatan negara kita sebagai sebuah negara bangsa pula lahir hasil gabungan negeri yang dikenali sebagai persekutuan tanah melayu 1957 dan persekutuan malaysia 1963 istana negara di kuala lumpur sumber istana negara 66kedaulatan undangundang 1 bbaabb kedaulatan undangundang bermaksud kerajaan bab dan rakyat terikat oleh undangundang yang perlu 11 dipatuhi kedaulatan undangundang menjamin keadilan dalam kehidupan bermasyarakat serta menjadikan negara aman stabil dan makmur badan kehakiman yang bebas dan berwibawa diwujudkan untuk memelihara dan melaksanakan kedaulatan undangundang kedaulatan undangundang menjadi prinsip keempat dalam rukun negara istana kehakiman di putrajaya kedaulatan antarabangsa kedaulatan antarabangsa merujuk pengiktirafan pertubuhan bangsabangsa bersatu pbb terhadap sesebuah negara yang tidak boleh dicabuli oleh negara lain deklarasi hubungan persahabatan pbb 1970 mengesahkan prinsip persamaan kedaulatan dari segi undangundang antarabangsa keanggotaan negara kita dalam pbb membuktikan bahawa dunia mengiktiraf negara kita sebagai negara yang bebas merdeka dan berdaulat dr ismail abdul rahman kiri ismail ali dan tunku jaafar sedang mendengar ucapan pembukaan di perhimpunan agung pbb ke12 sewaktu persekutuan tanah melayu diterima sebagai anggota ke82 badan dunia itu pada 17 september 1957 sumber arkib negara malaysia pada hakikatnya setiap negara yang berdaulat mempunyai kekuasaan penuh untuk mengatur segala hal yang ada dalam wilayah tanpa campur tangan kuasa asing pemahaman terhadap konsep kedaulatan ini memberikan kesedaran tentang cabaran bagi mempertahankan negara oleh hal yang demikian rakyat perlu menggunakan kebijaksanaan bagi menghadapi cabaran demi mengekalkan kedaulatan nyatakan jenis kedaulatan yang negara kita berkaitan dengan sesebuah negara 7712 ciri negara yang berdaulat 11 bab bbaabb setiap negara yang bebas dan merdeka mempunyai ciri tertentu bagi menentukan kedaulatannya 1 negara kita turut mempunyai ciri yang menjadi identitinya ciri negara yang berdaulat ialah mempunyai pemerintahan mempunyai sempadan mempunyai perundangan dan mempunyai rakyat yang menjadikan negara kita sebagai sebuah negara bebas dan berdaulat mempunyai pemerintahan pemerintahan negara berdaulat diwujudkan untuk menjaga kestabilan politik keamanan pertahanan dan ekonomi pemerintahan ini dijalankan secara teratur malaysia sebagai sebuah negara persekutuan mengamalkan sistem raja berperlembagaan dan demokrasi berparlimen ketua utama negara ialah yang kebawah duli yang maha mulia seri paduka dipertuan agong ketua kerajaan ialah perdana baginda yang dipertuan agong xvi dan kebawah menteri yang dibantu oleh jemaah menteri duli yang maha mulia seri paduka baginda raja permaisuri agong bersemayam di atas singgahsana sumber jabatan penerangan malaysia mempunyai sempadan sempadan merupakan garis pemisah antara negeri atau negara malaysia merupakan negara yang berkongsi sempadan darat air dan udara dengan negara jiran iaitu singapura thailand indonesia brunei dan filipina sempadan malaysia diakui oleh masyarakat antarabangsa khasnya pbb penetapan sempadan memudahkan urusan pemerintahan pentadbiran pertahanan dan pembangunan ekonomi negara kita filipina informasi thailand raja berperlembagaan laut china selatan raja berperlembagaan bermaksud pemerintahan beraja mengikut brunei darussalam peruntukan perlembagaan persekutuan m a l a y s i a terdapat tiga institusi beraja yang disebut dalam perlembagaan singapura persekutuan iaitu yang dipertuan agong pada peringkat persekutuan i n d o n e s i a institusi beraja pada peringkat negeri dan petunjuk majlis rajaraja sempadan antarabangsa demokrasi berparlimen demokrasi berparlimen bermaksud peta menunjukkan sempadan malaysia dengan negara jiran demokrasi yang dijalankan secara di asia tenggara perwakilan melalui proses pilihan raya sumber dewan bahasa dan pustaka 888mempunyai perundangan 1 bbbaaabbb bab sistem perundangan menjadi asas kepada 111 peraturan negara sistem perundangan penting untuk memelihara kesejahteraan menjamin keadilan dan melindungi rakyat asas kepada sistem perundangan negara kita berpandukan perlembagaan persekutuan parlimen bertanggungjawab menggubal dan menentukan sistem perundangan negara kita istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia mempunyai rakyat rakyat merupakan penduduk di sesebuah negara rakyat terikat kepada undangundang dan peraturan yang dikuatkuasakan oleh pemerintah rakyat negara ini terdiri daripada pelbagai kaum agama dan adat resam mereka disatukan melalui satu bahasa dan kebudayaan rukun negara serta identiti nasional yang sama setem kenangan berkaitan dengan keunikan rakyat malaysia yang terdiri daripada pelbagai kaum sumber pos malaysia berhad kerusi panas hot seat ciri negara berdaulat menjadikan malaysia kedaulatan sesebuah negara berkait rapat dengan sebuah negara yang mempunyai identiti ciri yang diamalkan dan perlu dipertahankan yang unik kita perlu memahami betapa 1 secara berkumpulan atau individu buat kajian atau bacaan tentang topik ini pentingnya menjiwai dan mempertahankan 2 seorang murid dipilih tampil ke hadapan kelas identiti negara agar negara luar menghormati 3 murid ini akan duduk di kerusi yang disediakan kedaulatan malaysia dan menjadi pakar yang bertindak menyatakan pandangannya 4 murid lain boleh bertanyakan soalan dan pakar akan menjawab semua soalan yang dilontarkan 9913 kepentingan mewujudkan negara berdaulat 11 bab bbaabb kedaulatan negara penting bagi mewujudkan keberkesanan pentadbiran kemakmuran ekonomi 1 kesejahteraan sosial dan kecemerlangan hubungan luar negara selain itu negara diiktiraf setaraf dengan negara lain keberkesanan pentadbiran kedaulatan memberikan kebebasan kepada negara untuk menjalankan urusan pentadbiran tanpa campur tangan pihak luar dasar pentadbiran negara dilaksanakan dengan berkesan melalui jemaah menteri dan kementerian yang berkaitan kerjasama kerajaan persekutuan dan kerajaan negeri yang dilakukan melalui pengagihan kuasa mewujudkan keberkesanan pentadbiran sistem pentadbiran juga diperkukuh melalui peruntukan undangundang mesyuarat jemaah menteri diadakan pada tahun 1990 dipengerusikan oleh tun dr mahathir mohamad lima dari dalam perlembagaan persekutuan kiri keberkesanan pentadbiran melalui sistem jemaah menteri masih kekal diamalkan hingga hari ini sumber arkib negara malaysia kemakmuran ekonomi kedaulatan penting untuk negara melaksanakan dasar kemakmuran ekonomi selepas negara mencapai kemerdekaan pelbagai usaha dilakukan untuk memajukan dan meningkatkan taraf hidup rakyat berbilang kaum di malaysia pembangunan ekonomi meliputi bidang pertanian perindustrian dan perdagangan yang diperkenalkan melalui dasar pembangunan ekonomi negara tun abdul razak hussein depan perdana menteri malaysia kedua melawat kawasan luar bandar bagi memantau pelaksanaan program pertanian sumber arkib negara malaysia 1100kesejahteraan sosial 1 bbaabb kedaulatan penting untuk negara bab melaksanakan dasar sosial bagi 11 kesejahteraan rakyat negara dapat melahirkan generasi yang berilmu dan berkemahiran melalui pendidikan oleh itu mereka dapat memberikan sumbangan untuk pembangunan negara beberapa perkara berkaitan dengan bahasa kebangsaan kebudayaan sukan dan pasukan bola sepak kebangsaan yang berjaya melayakkan diri rukun negara diperkenalkan untuk ke sukan olimpik 1972 pasukan ini diwakili oleh pemain memupuk perasaan muhibah dan berbilang kaum semangat perpaduan dalam kalangan sumber arkib negara malaysia rakyat berbilang kaum di malaysia kecemerlangan hubungan luar negara kedaulatan penting bagi memberikan hak kepada negara untuk menjalinkan hubungan dengan negara lain hubungan ini dibentuk melalui penggubalan dasar luar negara kita selain dapat menjalinkan hubungan diplomatik dan persahabatan dengan negara lain negara juga dapat mengadakan perjanjian dan kerjasama dalam pelbagai bidang kesannya malaysia menikmati pelbagai faedah dan kelebihan dalam usaha mempertahankan kedaulatan keanggotaan malaysia dalam pertubuhan serantau dan antarabangsa pula meningkatkan imej negara masyarakat antarabangsa mengakui peranan dan kebolehan negara kita setaraf dengan negara lain di dunia jelaskan kepentingan mewujudkan negara berdaulat tun hussein onn perdana menteri malaysia ketiga kanan bertemu dengan anwar sadat presiden mesir kiri di mesir pada tahun 1977 untuk mengukuhkan hubungan diplomatik hasilkan peta pemikiran yang sesuai antara malaysia dengan mesir berkaitan dengan kepentingan sumber universiti tun hussein onn 2009 tun hussein onn mewujudkan negara berdaulat permata menara gading batu pahat penerbit uthm membuat rasionalisasi kedaulatan dapat mewujudkan kesejahteraan dan kemakmuran kepada rakyat sebagai rakyat malaysia rasionalkan kepentingan kedaulatan kita perlu memahami pentingnya mengekalkan dalam menentukan bentuk sistem kedaulatan negara yang diperoleh pada masa ini pentadbiran negara pada masa ini 111114 langkah mempertahankan kedaulatan 11 bab bbaabb pemerintah dan rakyat memainkan peranan penting bagi mempertahankan kedaulatan negara 1 oleh itu pemerintah dan rakyat perlu bekerjasama untuk mewujudkan kestabilan politik serta kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme dan mengukuhkan pertahanan negara kerjasama ini penting bagi memastikan kedaulatan dapat dipertahankan demi kemajuan dan kesejahteraan negara mewujudkan kestabilan politik dan kemakmuran ekonomi pemerintah dan rakyat mempunyai peranan yang sama untuk menjamin kestabilan politik dan kemakmuran ekonomi pemerintah melaksanakan pentadbiran dengan cekap dan menjalankan pelbagai usaha serta program bagi memajukan ekonomi rakyat pula memberikan kerjasama sepenuhnya untuk menjayakan semua usaha dan program yang dilaksanakan oleh pemerintah pemerintah mewujudkan pentadbiran yang cekap mengelakkan amalan rasuah dalam pentadbiran memastikan agihan sumber kekayaan negara secara adil kepada semua kaum melalui dasar pembangunan ekonomi melaksanakan undangundang negara menurut perlembagaan secara berkesan membuat interpretasi menurut dr tan chee khoon kami kenal pasti bahawa perhatian utama harus diberikan terhadap kelemahan ekonomi kaum bumiputera masalah mereka memerlukan rakyat pendekatan khas untuk diselesaikan mereka perlu dilindungi daripada eksploitasi dan memberikan kesetiaan kepada raja dan negara dibantu secara asas untuk bersaing dengan menyokong segala usaha dan dasar kerajaan kaum lain dalam perniagaan perdagangan bagi mewujudkan kestabilan politik dan pekerjaan memupuk kerjasama dengan semua kaum sumber raj vasil 1987 tan chee khoon supaya agihan kekayaan negara dinikmati an elder statesman petaling jaya pelanduk oleh semua publications m sdn bhd mematuhi undangundang negara 1 mengapakah beliau menyarankan agar kaum bumiputera dibantu dari segi kemakmuran ekonomi 2 huraikan langkah yang diambil untuk meningkatkan ekonomi setiap kaum 1122mengekalkan perpaduan kaum 1 bbaabb bab sejak awal kemerdekaan pemerintah dan rakyat berusaha untuk mengekalkan perpaduan kaum perpaduan penting dalam usaha kita mengekalkan kedaulatan negara beberapa 11 langkah dilaksanakan untuk memupuk perpaduan dalam kalangan rakyat pemerintah menggubal dasar dan undangundang berkaitan dengan perpaduan kaum serta integrasi nasional memastikan keberkesanan pelaksanaan dasar berkaitan dengan bahasa pendidikan dan kebudayaan oleh kementerian serta agensi berkaitan merangka program serta kempen ke arah memupuk perpaduan kaum sampul surat hari pertama pos malaysia dan integrasi nasional berkaitan dengan kepelbagaian budaya dan memperuntukkan perbelanjaan yang adat resam kaum di malaysia mencukupi untuk program memupuk sumber pos malaysia berhad perpaduan kaum meneroka bukti fahami titah di bawah rakyat menggunakan bahasa kebangsaan bab dan menghayati prinsip rukun negara 1 yang dapat menjamin perpaduan kaum memahami dan menghormati agama serta budaya pelbagai kaum mengamalkan semangat perkongsian bertoleransi dan saling menghormati kedaulatan negara bergantung pada sesama rakyat malaysia warganya yang bersatu melibatkan diri dalam program titah duli yang maha mulia paduka seri kemasyarakatan yang dapat memupuk sultan perak darul ridzuan sultan nazrin kerjasama antara kaum muizzuddin shah ibni almarhum sultan azlan muhibbuddin shah almaghfurlah sumber berita harian 10 november 2018 kedaulatan negara bergantung pada warganya yang bersatu buktikan 1133memupuk patriotisme 11 bab patriotisme ialah perasaan cinta yang mendalam terhadap negara serta sanggup mempertahankan bbaabb sejarah bahasa undangundang warisan dan budaya patriotisme merupakan nadi kepada 1 kebebasan kestabilan dan kemajuan sesebuah negara semangat ini juga penting untuk melahirkan pemimpin dan rakyat yang taat setia serta sanggup berkorban demi negara meja bulat serentak simultaneous round table pemerintah dalam kumpulan murid menulis pendapat di atas kertas tentang soalan yang dikemukakan menganjurkan sambutan hari kebangsaan dan di bawah catatan diedarkan kepada rakan hari pahlawan untuk menimbulkan kecintaan lain dalam kumpulan mengikut pusingan terhadap negara jam setiap ahli diberi peluang untuk mewajibkan mata pelajaran sejarah sebagai menuliskan pendapat soalan yang diberikan mata pelajaran teras di sekolah bagi melahirkan berkaitan dengan lagu patriotik keranamu generasi yang peka terhadap sejarah negara malaysia menganjurkan kempen dan menerbitkan filem 1 apakah maksud yang terkandung dalam atau rencana untuk memupuk patriotisme lirik lagu ini melalui pelbagai media 2 nyatakan keistimewaan rakyat berbilang memberikan pengiktirafan kepada rakyat kaum yang dinyatakan dalam lagu ini malaysia yang berjasa kepada negara dengan 3 bagaimanakah anda memainkan peranan mengabadikan nama mereka pada bangunan untuk mempertahankan negara dan jalan lirik lagu keranamu malaysia buruh nelayan dan juga petani gaya hidup kini dah berubah anakanak terasuh mindanya lahir generasi bijak pandai pakar it pakar ekonomi jaguh sukan dan juga jutawan berkereta jenama negara megah menyusur di jalan raya rakyat alam siber teknologi terkini kejayaan semakin hampiri biar di kota ataupun desa menghormati lambang negara seperti bendera kita semua pasti merasa bangga jalur gemilang jata negara dan lagu negaraku keranamu kami mendakap tuah menyanjungi dan menghargai adat dan keranamu kami bangsa berjaya warisan negara keranamu kami hidup selesa limpah budi kemakmuran negara meningkatkan imej negara dengan melakar keranamu kami bebas merdeka kejayaan dalam bidang pendidikan sukan keranamu nyawa dipertaruhkan dan ekonomi keranamu kami rela berjuang menghargai tokoh pelbagai kaum yang berjuang demi bangsa kedaulatan negara untuk kemerdekaan dan kedaulatan negara ulang dari mula keranamu negara malaysia malaysiaterima kasih malaysia l a g u dato suhaimi mohd zain lirik siso kopratasa sumber kementerian komunikasi dan multimedia malaysia 1144mengukuhkan pertahanan negara 1 bbaabb pemerintah dan rakyat mempunyai tanggungjawab untuk mempertahankan negara daripada bab ancaman musuh pertahanan negara penting untuk mengekalkan kedaulatan negara kita 11 pemerintah rakyat menggubal dasar dan undangundang peka terhadap isu keselamatan negara untuk melindungi keselamatan negara contohnya memberikan maklumat tentang mengadakan perjanjian pertahanan pencerobohan sempadan negara serta latihan ketenteraan bersamasama mengelakkan kolaborasi dengan pihak luar negara serantau dan antarabangsa yang boleh mengancam keselamatan dan memodenkan aset ketenteraan untuk kedaulatan negara mengukuhkan pasukan pertahanan menganggotai pasukan keselamatan dan negara pasukan sukarelawan untuk mempertahankan memastikan pasukan keselamatan negara sentiasa bersiap siaga menghadapi sanggup berkorban demi mempertahankan cabaran semasa kedaulatan negara kerjasama antara pemerintah dengan rakyat dalam melaksanakan langkah mengekalkan kedaulatan telah berjaya menghasilkan keamanan dan kesejahteraan sebagai rakyat malaysia amat penting untuk kita menghormati kepelbagaian budaya dan agama dalam usaha mengukuhkan perpaduan bangsa malaysia perpaduan dan kerjasama kaum menjadi teras kepada kemakmuran kelangsungan serta kedaulatan negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara yang membolehkan kerajaan melaksanakan kawalan pemerintahan dan pentadbiran ciri negara berdaulat menjadikan negara kita sebuah negara yang stabil dan kukuh pelbagai langkah dilaksanakan untuk memastikan kedaulatan negara tetap terpelihara kedaulatan negara meneroka bukti diperkukuh melalui pemerintahan dan pentadbiran yang berlandaskan perlembagaan buktikan hubungan pemerintah dan rakyat mampu mengekalkan kedaulatan negara 1155imbas kembali 11 bab bbaabb kedaulatan negara 1 1 konsep takrif kedaulatan kedaulatan pandangan tokoh jenis kedaulatan 2 ciri negara mempunyai yang berdaulat pemerintahan mempunyai sempadan mempunyai perundangan mempunyai rakyat 3 kepentingan keberkesanan mewujudkan pentadbiran negara kemakmuran ekonomi berdaulat kesejahteraan sosial kecemerlangan hubungan luar negara 4 langkah mewujudkan mempertahankan kestabilan politik kedaulatan dan kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme mengukuhkan pertahanan negara 1166pembelajaran abad ke21 1 bbaabb bab 11 aktiviti fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki membina ayat berpandukan isu yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakan atau pasangan 3 murid berkongsi maklumat hasil perbincangan dengan pasangankumpulankelas lain abad ke21 cabaran mengekalkan kedaulatan negara isu cabaran kesan tindakan keselamatan perpaduan kaum kestabilan politik ekonomi pencerobohan pelarian dadah rasuah berdasarkan tajuk di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a cabaran yang dihadapi huraikan cabaran yang dihadapi berkaitan dengan aspek yang disenaraikan dengan terperinci b isu atau permasalahan jelaskan kesan terhadap malaysia akibat cabaran yang dihadapi c keberkesanan strategi sejauh manakah malaysia berjaya mengatasi masalah ini dengan mengambil tindakan yang sewajarnya 2 aktiviti kumpulan bentukkan kumpulan kecil dengan pasangan lain kemudian kongsikan maklumat yang diperoleh 1177pemahaman dan pemikiran kritis 11 bab bbaabb 1 apakah takrif kedaulatan dalam bahasa arab 1 a negara yang bebas dan merdeka b kuasa pemerintahan sesebuah kerajaan c kekuasaan tertinggi terhadap pemerintahan negara d negara mempunyai kuasa yang penuh terhadap pemerintahan 2 mengapakah kedaulatan penting bagi sesebuah negara a menjadi kuasa politik unggul di dunia b menunjukkan kekuatan angkatan tentera c mewujudkan keberkesanan sistem pentadbiran d membuktikan dasar luar mengikut situasi semasa 3 gambar di bawah berkaitan dengan ciri negara berdaulat gambar 1 gambar 2 kebawah duli yang maha mulia seri paduka baginda bangunan parlimen malaysia yang dipertuan agong xvi dan kebawah duli yang maha mulia seri paduka baginda raja permaisuri agong a jelaskan ciri negara berdaulat b huraikan langkah yang dilaksanakan untuk mempertahankan kedaulatan negara 4 peta menunjukkan kedudukan malaysia yang bersempadan dengan negara jiran filipina di asia tenggara a mengapakah hubungan baik dengan thailand negara jiran perlu dipertahankan laut china selatan b setiap warganegara malaysia mempunyai tanggungjawab untuk darbursusnaeli am mempertahankan kedaulatan perairan m a l a y s i a singapura negara bincangkan i n d o n e s i a petunjuk sempadan antarabangsa 1188cakna dan cerminan sejarah 1 bbbaaabbb bab nilai patriotisme dan iktibar 111 pemahaman terhadap ciri negara yang berdaulat wajar dipertingkatkan untuk melahirkan rakyat malaysia yang berbangga dengan identiti negara kepentingan mempertahankan kedaulatan negara bagi melahirkan masyarakat yang berganding bahu untuk membangunkan negara dan menjamin kesejahteraan rakyat pemerintah dan rakyat saling bekerjasama bersefahaman serta bermuafakat bagi mempertahankan kedaulatan negara diri dan keluarga menyokong dan melibatkan diri dalam proses pembangunan negara dan berusaha gigih untuk memajukan diri negara perpaduan rakyat berbilang kaum dan semangat rela berkorban merupakan keunikan negara kita untuk mempertahankan kedaulatannya angkatan tentera malaysia menjaga kedaulatan negara kita sumber kementerian pertahanan malaysia 1199bab 2 perlembagaan persekutuan 2 bab sinopsis perlembagaan persekutuan merupakan dokumen undangundang bertulis yang menjadi teras pada sistem pemerintahan negara perlembagaan digubal berasaskan undangundang negeri melayu yang sedia ada dan juga tambahan unsur baharu perlembagaan persekutuan malaysia mempunyai ciri tradisional dan moden yang menjadikan perlembagaan di negara kita unik perlembagaan persekutuan berkuat kuasa seiring dengan kemerdekaan pada 31 ogos 1957 selepas itu perlembagaan dipinda bagi menyesuaikannya dengan keperluan semasa negara 2200inti pati pembelajaran 1 latar belakang sejarah perlembagaan persekutuan bab 2 sejarah penggubalan perlembagaan persekutuan 3 ciri utama perlembagaan persekutuan 2 4 pindaan perlembagaan persekutuan 1963 dan 1965 elemen kewarganegaraan dan nilai sivik 1 kepentingan mendaulatkan perlembagaan persekutuan 2 kepentingan mematuhi undangundang dalam kehidupan 3 kepentingan tanggungjawab rakyat bagi memelihara perlembagaan persekutuan 4 kepentingan menjiwai semangat perlembagaan persekutuan kemahiran pemikiran sejarah 1 memahami kronologi penggubalan perlembagaan persekutuan 2 meneroka bukti kewujudan undangundang adat sebelum kedatangan british 3 membuat interpretasi ciri utama perlembagaan persekutuan 4 membuat imaginasi struktur mahkamah atasan di negara kita 5 membuat rasionalisasi pindaan perlembagaan persekutuan istana kehakiman putrajaya sumber dewan bahasa dan pustaka 221121 latar belakang sejarah perlembagaan persekutuan perlembagaan merupakan undangundang tertinggi sebagai teras pemerintahan sesebuah negara sebelum kedatangan british negara kita diperintah berdasarkan pemerintahan beraja raja memerintah berdasarkan undangundang dan peraturan yang digubal pada zaman british raja terus 22 diterima sebagai pemerintah berdaulat apabila merdeka negara kita mempunyai perlembagaan bbaabb yang merupakan unsur penting dalam sesebuah negara asas pembentukan perlembagaan perlembagaan persekutuan berasaskan nilai tradisi kesultanan melayu dan kemudiannya beberapa prinsip undangundang inggeris disesuaikan dengan nilai tempatan undangundang negeri melayu raja sebagai pemerintah rakyat memberikan ketaatsetiaan undangundang dan sistem pemerintahan ditentukan oleh raja undangundang yang wujud pada zaman kesultanan melayu melaka seperti hukum kanun melaka dan undangundang laut melaka mempengaruhi kandungan undangundang bertulis di negeri melayu yang lain antara undangundang bertulis di negerinegeri melayu termasuklah hukum kanun pahang undangundang kedah undangundang johor dan undangundang 99 perak sebelum kedatangan kuasa barat negara kita sudah mempunyai undangundang dan adat melayu yang digunakan sebagai asas perlembagaan undangundang ini menjadi panduan serta kawalan kepada raja dan pembesar dalam proses pemerintahan negara senaraikan undangundang bertulis yang terdapat di negara kita sebelum hukum kanun melaka kedatangan british sumber perpustakaan negara malaysia 2222undangundang di negerinegeri melayu mengalami perubahan demi perubahan selaras dengan perkembangan masyarakat sehingga kemunculan dan pengenalan undangundang dari barat sekitar awal abad kel9 bbbaaabbb 222 undangundang 99 perak sumber perpustakaan negara malaysia hukum kanun pahang sumber yaakub isa penyl 2003 hukum kanun pahang manuskrip agung negeri pahang pahang lembaga muzium negeri pahang undangundang inggeris british memperkenalkan undangundang di negerinegeri selat nns yang dikenali sebagai charter of justice diambil daripada undangundang yang digubal di england piagam terpilih yang bersesuaian dengan kegunaan nns sahaja diguna pakai contohnya charter of justice 1807 di sarawak pula terdapat the sarawak app l i c ation of laws ordinance 1949 yang menggunakan the common law of englanmdasukkan piagam diraja syarikat berpiagam di sabah terdapat undangundang yang sam18a 8d1i sbeabguit ssaabbaahh baapwpalhic taatjiuokn uofn ldaanwgs undang ordinance 1951 inggeris proclamation of sarawak constitution sumber muzium sarawak 2233pada zaman pentadbiran british nns iaitu melaka pulau pinang dan singapura memperkenalkan undangundang yang diambil dari england iaitu charter of justice matlamatnya adalah untuk melindungi penduduk asal daripada penindasan dan ketidakadilan 22 bbaabb charter of justice i 1807 mewujudkan mahkamah di pulau pinang charter of justice ii 1826 charter of justice menyatukan mahkamah di singapura di negerinegeri melaka dan pulau pinang selat charter of justice iii 1855 mewujudkan mahkamah singapura dan melaka pulau pinang pada bulan ogos 1956 perlembagaan sarawak memberikan kuasa kepada badan membuat undangundang iaitu council negri majlis negeri yang mengandungi 45 orang ahli dan dipengerusikan oleh ketua setiausaha majlis tertinggi pula dipengerusikan oleh gabenor yang turut dianggotai oleh ketua setiausaha setiausaha kewangan dan peguam negara perlembagaan sarawak pada tahun 1959 memberikan kuasa pentadbiran negeri kepada majlis tertinggi dan council negri di sabah pula ditubuhkan majlis undangan dan majlis kerja pada tahun 1950 majlis undangan memberikan kuasa kepada gabenor untuk menggubal undangundang dalam pemerintahannya institusi pemerintahan beraja diteruskan apabila tanah melayu mencapai kemerdekaan walaupun begitu beberapa pindaan disesuaikan dengan konsep raja berperlembagaan dan demokrasi berparlimen perlembagaan persekutuan tanah melayu 1957 diperkenalkan dan menjadi asas kepada perlembagaan negara kita pada hari ini perlembagaan inilah menjadi asas kepada sistem raja berperlembagaan dan demokrasi berparlimen 2422 sejarah penggubalan perlembagaan persekutuan sejarah penggubalan perlembagaan persekutuan bermula pada tahun 1877 hingga tahun 1957 pembentukan undangundang dalam sesebuah negara dilakukan oleh badan yang sah dalam perundangan di malaysia badan perundangan dinamakan parlimen yang berkuasa penuh bbaabb membentuk undangundang negara sejak negara mencapai kemerdekaan ahli parlimen memainkan peranan meminda perlembagaan bagi menegakkan kedaulatan negara sebagai rakyat kita perlu 22 menghargai jasa pemimpin yang berusaha untuk mengekalkan kedaulatan negara di nns terdapat charter of justice untuk melindungi penduduk sementara itu pembentukan undangundang di negeri melayu pula dimulai oleh majlis negeri perak 1 1877 mesyuarat pertama majlis negeri perak pada tahun 1877 yang dipengerusikan oleh raja muda yusuf menjadi titik tolak kepada pembentukan undangundang negara charter of justice iii 1855 majlis negeri perak berperanan untuk menggubal undangundang bagi negeri perak mewujudkan mahkamah kemudiannya peranan yang sama ini dimainkan oleh semua majlis negeri di negeri singapura dan melaka melayu yang lain pulau pinang raja muda yusuf duduk di tengah bersamasama sir hugh low berdiri di depan di kuala kangsar perak pada tahun 1880 sumber arkib negara malaysia membuat interpretasi setiap rakyat memiliki hak yang sama dari segi undangundanginterpretasikan maksud petikan tersebut 22552 1946 undangundang di nns digubal oleh majlis undangan negeri manakala undang 22 undang di negerinegeri bbaabb melayu bersekutu nnmb digubal oleh majlis persekutuan sementara itu undangundang di negerinegeri melayu tidak bersekutu nnmtb pula digubal oleh majlis negeri akta dan ordinan negeri negeri selat 1886 buku the laws of the federated malay states sumber cornell university library 3 1948 perjanjian persekutuan tanah melayu 1948 merupakan titik penting pembentukan sebuah persekutuan yang terdiri daripada negerinegeri melayu melaka dan pulau pinang antara kandungan yang terdapat dalam persekutuan tanah melayu termasuklah pentadbiran kuasa raja melayu perundangan dan kewarganegaraan rajaraja melayu bersamasama jeneral sir gerald walter robert templer pesuruhjaya tinggi british di persekutuan tanah melayu semasa mesyuarat majlis rajaraja ke25 sumber arkib negara malaysia 22664 1957 suruhanjaya perlembagaan ini dikenali sebagai suruhanjaya perlembagaan persekutuan tanah melayu atau suruhanjaya reid perlembagaan persekutuan tanah melayu 1957 disesuaikan dengan model westminster yang diambil dari britain perlembagaan ini berkuat kuasa sejurus selepas kemerdekaan pada 31 ogos 1957 perlembagaan ini juga menjadi asas kepada perlembagaan negara bbaabb kita pada hari ini 22 informasi lima perkara terma rujukan utama dalam perjanjian persekutuan 1957 kerajaan persekutuan yang kukuh menjamin kedudukan rajaraja melayu menjamin kedudukan istimewa orang melayu dan kepentingan sah kaum lain parlimen hendaklah mengandungi dua dewan iaitu dewan rakyat dan dewan negara laporan suruhanjaya kewarganegaraan yang sama perlembagaan persekutuan tanah melayu 1957 memahami kronologi sumber arkib negara malaysia galurkan sejarah penggubalan perlembagaan persekutuan meja bulat round table perlembagaan negara merupakan elemen penting dalam sesebuah negara dan perlu dipertahankan 1 secara berkumpulan bincangkan bangunan parlimen malaysia topik ini sumber dewan bahasa dan pustaka 2 ahli bergilirgilir mencatatkan idea perlembagaan persekutuan tanah melayu 1957 tentang kepentingan perlembagaan bermodelkan westminster memandangkan persekutuan negara kita mempunyai asas sistem perundangan 3 hasil perbincangan dibentangkan di hadapan kelas bertulis maka hal ini banyak membantu malaysia 4 seorang wakil kumpulan akan menggubal sebuah perlembagaan bertulis tampil di hadapan kelas dan membentangkan dapatan kajian 5 murid lain boleh bertanyakan laporan suruhanjaya perlembagaan soalan kepada wakil kumpulan ini persekutuan tanah melayu 1957 227723 ciri utama perlembagaan persekutuan perlembagaan merupakan peraturan tertinggi dan panduan dalam sistem pemerintahan negara perlembagaan mempunyai dua ciri utama iaitu tradisional dan moden yang diperlukan bagi kestabilan serta kemajuan negara 222 bbbaaabbb ciri tradisional 1 kesultanan atau pemerintahan beraja sejak berabadabad negeri melayu diperintah berdasarkan pemerintahan beraja sultan merupakan pemerintah berdaulat dan memiliki kuasa penuh di negeri masingmasing setelah negara kita mencapai kemerdekaan pemerintahan beraja diteruskan dan disesuaikan dengan konsep demokrasi berparlimen yang dipertuan agong diperuntukkan melalui perlembagaan kuasa pemerintahan sebagai pemerintah tertinggi negara kuasa yang dipertuan agong termasuklah kuasa mengampun dan menangguhkan hukuman orang yang disabitkan kesalahan oleh mahkamah baginda juga mempunyai kuasa membuat pelantikan bagi jawatan utama negara pada peringkat negeri raja merupakan ketua negeri pada baginda terletak kuasa eksekutif yang dilaksanakan melalui nasihat majlis mesyuarat negeri raja mempunyai kuasa mengampun dan menangguhkan hukuman kepada mereka yang disabitkan kesalahan oleh mahkamah serta pelantikan jawatan utama negeri raja dikenali sebagai tonggak kehormatan dan keadilan yang membolehkan baginda mengurniakan anugerah penghormatan dan bintang kehormat kepada individu yang terpilih ciri moden 1 kerajaan persekutuan antara perkara utama yang disebut dalam perlembagaan ciri persekutuan termasuklah mewujudkan satu sistem kerajaan moden persekutuan laporan suruhanjaya perlembagaan persekutuan tanah melayu menyarankan kerajaan persekutuan dan ker</t>
+          <t>32 sejarah dan kedudukan institusi majlis rajaraja majlis rajaraja yang bermula dengan pembentukan durbar merupakan sebahagian daripada institusi raja berperlembagaan di negara kita majlis rajaraja mempunyai kedudukan dan peranan dalam pemerintahan negara berdasarkan perlembagaan persekutuan pembentukan durbar negerinegeri melayu bersekutu nnmb durbar dibentuk pada tahun 1897 seiring dengan penubuhan nnmb durbar dalam negerinegeri ini berperanan sebagai sebuah majlis persidangan bagi rajaraja melayu negeri perak selangor 33 bbaabb pahang dan negeri sembilan untuk membincangkan hal ehwal pentadbiran kerajaan persekutuan dengan pihak british majlis jamuan teh semasa persidangan durbar pertama di kuala kangsar perak pada tahun 1897 sumber arkib negara malaysia informasi durbar membawa maksud perjumpaan atau persidangan umum yang diadakan oleh raja melayu dengan british keahlian durbar nnmb durbar dipengerusikan oleh pesuruhjaya tinggi british ahlinya terdiri daripada rajaraja melayu perak selangor negeri sembilan dan pahang residen british di nnmb persidangan durbar pertama di kuala kangsar perak pada tahun 1897 setiausaha nnmb sumber arkib negara malaysia 4422majlis sultansultan semasa malayan union informasi perlembagaan malayan union 1946 memperuntukkan penubuhan majlis sultansultan the council of sultans keanggotaan majlis sultan di bawah the malayan union order in council 1946 sultan malayan union majlis sultansultan dipengerusikan oleh gabenor malayan gabenor malayan union union ahli majlis terdiri daripada sembilan orang raja pengerusi sembilan orang raja melayu melayu dan tiga pegawai kanan british ketua setiausaha malayan antara fungsi majlis sultansultan termasuklah union penasihat undang membincangkan undangundang berkaitan dengan agama undang dan setiausaha islam dan menasihati gabenor tentang perkara yang bbaabb kewangan dibangkitkan oleh rajaraja melayu walau bagaimanapun majlis tersebut tidak pernah 33 diwujudkan dalam tempoh malayan union kerana rajaraja melayu menentang pelaksanaan malayan union majlis rajaraja semasa persekutuan tanah melayu 1948 majlis rajaraja ditubuhkan secara rasmi pada tahun 1948 apabila persekutuan tanah melayu dibentuk menggantikan malayan union berdasarkan perjanjian persekutuan tanah melayu 1948 majlis rajaraja menjadi institusi yang dilengkapi dengan kuasa dan sekretariat sesuai dengan kedudukan dan peranannya majlis rajaraja diurus sepenuhnya oleh rajaraja melayu pengerusi mesyuarat ditentukan oleh rajaraja melayu dalam kalangan sembilan orang raja melayu persidangan majlis rajaraja perlu disertai oleh penyimpan mohor besar rajaraja untuk memeterai keputusan persidangan rajaraja melayu diberi hak dan kuasa untuk mendapat penerangan daripada pesuruhjaya tinggi british tentang penggubalan undangundang dan dasar kerajaan persekutuan dengan menggunakan pelbagai sumber cari maklumat berkaitan dengan durbar membuat interpretasi rajaraja melayu bergambar semasa majlis menandatangani mengapakah majlis rajaraja perjanjian persekutuan tanah melayu 1948 dalam persekutuan tanah melayu sumber arkib negara malaysia 1948 menjadi institusi khas untuk rajaraja melayu 4433majlis rajaraja selepas merdeka selepas persekutuan tanah melayu mencapai kemerdekaan pada 31 ogos 1957 peranan majlis rajaraja dikekalkan namun keanggotaannya mengalami perubahan yang dipertua negeri melaka dan pulau pinang turut menjadi ahli majlis rajaraja selepas persekutuan malaysia dibentuk pada tahun 1963 yang dipertua negeri sarawak dan sabah turut menjadi ahli majlis rajaraja yang dipertua negeri tidak turut serta dalam mesyuarat khas melibatkan institusi beraja seperti pemilihan yang dipertuan agong dan timbalan yang dipertuan agong 33 kedudukan majlis rajaraja dalam bbaabb perlembagaan persekutuan informasi mohor besar rajaraja berdasarkan peruntukan perlembagaan mohor besar rajaraja melambangkan persekutuan majlis rajaraja mempunyai kuasa kekuasaan dan kedaulatan rajaraja melayu dan fungsi dalam sistem raja berperlembagaan mohor ini disimpan oleh penyimpan mohor majlis rajaraja boleh bertindak menggunakan besar rajaraja yang juga merupakan budi bicara bagi melaksanakan fungsinya setiausaha majlis rajaraja antara fungsi majlis rajaraja termasuklah dokumen rasmi yang dikeluarkan oleh seperti yang berikut majlis rajaraja diturunkan dengan cap mohor besar diikuti dengan tandatangan penyimpan mohor besar rajaraja 1 memilih yang dipertuan agong dan timbalan yang dipertuan agong 7memperkenankan pindaan perlembagaan bagi perkara perkara tertentu fungsi majlis rajaraja permukaan mohor besar rajaraja 6 mengandungi jata memperkenankan perubahan kerajaan sembilan persempadanan negeri setelah negeri melayu serta mendapat perkenan raja negeri tertulis perkataan mohor berkenaan besar rajaraja negeri melayu dalam tulisan jawi mesyuarat majlis rajaraja pada 31 ogos 1948 bersetuju menerima corak pada 5 mohor besar rajaraja yang digunakan menjadi lembaga sehingga hari ini pengampunan bagi sumber laman web rasmi pejabat penyimpan keskes tertentu mohor besar rajaraja 4444bbaabb 33 mesyuarat majlis rajaraja khas sempena istiadat melafaz sumpah jawatan dan menandatangani surat sumpah jawatan dan surat perisytiharan seri paduka baginda yang dipertuan agong xvi di istana negara kuala lumpur pada januari 2019 sumber istana negara 2 bersetuju atau tidak bersetuju sebarang undangundang yang memerlukan persetujuan majlis rajaraja informasi 3 antara pelantikan yang memerlukan rundingan memberikan nasihat berkaitan dengan majlis rajaraja termasuklah pelantikan dengan pelantikan jawatan ketua audit negara ketua hakim negara tertentu hakim mahkamah atasan pengerusi dan ahli suruhanjaya pilihan raya 4 menjadi rujukan dalam perubahan dasar berhubung dengan kedudukan istimewa orang melayu bumiputera di sarawak dan sabah dan kepentingan sah kaum lain majlis rajaraja merupakan institusi beraja di malaysia berdasarkan peruntukan perlembagaan persekutuan majlis rajaraja melaksanakan peranan sebagai pengimbang dalam sistem demokrasi melalui dua cara iaitu hak untuk dirundingi dalam beberapa pelantikan penting dan hak untuk membincangkan hal berhubung dengan dasar negara kita sewajarnya menghargai peranan majlis rajaraja dalam memakmurkan negara sebagai rakyat malaysia kita perlu berbangga dengan institusi ini kerana tidak wujud institusi sepertinya pada hari ini di negara lain 4455</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pemisahan Singapura </t>
+          <t xml:space="preserve">Perlembagaan Persekutuan </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>62 pemisahan singapura pemisahan singapura menjadi cabaran utama selepas pembentukan malaysia masalah hubungan antara pemimpin persekutuan dengan singapura disebabkan faktor politik ekonomi dan sosial yang telah ada sebelum singapura menyertai malaysia faktor pemisahan pernyataan politik tunku abdul rahman putra alhaj tentang lee kuan yew tidak berpuas hati dengan peranan konsep malaysian kerajaan singapura yang terhad malaysia konflik antara pemimpin pap dengan perikatan sumber berita harian 10 ogos kempen malaysian malaysia oleh lee 1965 kuan yew menuntut hak sama rata untuk semua kaum menimbulkan keresahan dalam kalangan penduduk 6 ekonomi bab bab 6 singapura menuntut pembukaan pasaran bersama common market disegerakan singapura tidak berpuas hati dengan cadangan tambahan cukai yang perlu diberikan kepada kerajaan persekutuan singapura juga mahu mengenakan kadar faedah terhadap sebahagian daripada pinjaman sebanyak rm150 juta kepada kerajaan persekutuan untuk pernyataan tunku abdul rahman putra alhaj terhadap sikap kerajaan pembangunan sarawak dan sabah singapura memberikan pinjaman sumber berita harian 10 ogos 1965 masalah perkauman nyatakan faktor ekonomi yang mendorong pemisahan telah berlaku rusuhan kaum di singapura pada singapura daripada malaysia 21 julai 1964 yang menimbulkan ketegangan antara kaum rusuhan ini berlaku ekoran daripada usaha menuntut persamaan hak yang sama rata bagi pasaran bersama ialah beberapa negara yang semua kaum perkara ini menjadi isu antara kaum menghapuskan cukai antara mereka dan mengenakan cukai import yang sama terhadap negara lain 119pemisahan singapura daripada malaysia 29 jun 1965 1 julai 1965 kegagalan rundingan tun abdul razak hussein dengan lee kuan yew setelah rundingan tidak berjaya tunku abdul rahman putra alhaj mengarahkan tun abdul razak hussein bermesyuarat dengan beberapa menteri seperti dr ismail abdul rahman tan siew sin dan vt sambanthan untuk berbincang tentang pemisahan awal ogos 1965 mesyuarat khas kabinet malaysia bersetuju dengan rancangan pemisahan 7 ogos 1965 tunku abdul rahman putra alhaj 6 dan lee kuan yew menandatangani bab 9 ogos 1965 bab persetujuan untuk singapura keluar daripada malaysia 6 tunku abdul rahman putra alhaj membawa usul pemisahan singapura ke dalam parlimen malaysia parlimen meluluskan rang undangundang pemisahan singapura menurut tunku abdul rahman putra alhaj pemisahan singapura merupakan perkara yang tidak dapat dielakkan so it does seem completely impossible to arrive at a solution whereby we can hope to pull along together and to work together in the interest and for the common good of our beloved country ucapan tunku abdul rahman putra alhaj dalam penyata perbahasan di dewan rakyat 9 ogos 1965 pemisahan singapura daripada malaysia tidak dapat dielakkan kerajaan mengambil langkah mengeluarkan singapura daripada malaysia bagi menjaga kepentingan keduadua negara dan kemakmuran rakyat keduadua negara membuat rasionalisasi menggunakan saluran rundingan untuk menyelesaikan isu ini sebagai warganegara yang merdeka kita perlu mengelakkan rasionalkan tindakan tunku abdul unsur kekerasan dalam menyelesaikan sebarang konflik rahman putra alhaj memisahkan singapura daripada malaysia 120</t>
+          <t>33 yang dipertuan agong dan raja dalam perlembagaan persekutuan raja berperlembagaan merupakan sebahagian daripada pentadbiran negara apabila perlembagaan persekutuan mengiktiraf kedudukan dan peranan institusi beraja institusi beraja ini terdiri daripada institusi majlis rajaraja institusi beraja di negerinegeri dan institusi yang dipertuan agong pada peringkat persekutuan institusi yang dipertuan agong 33 jawatan yang dipertuan agong diwujudkan selepas negara mencapai kemerdekaan pada tahun bbaabb 1957 yang dipertuan agong dipilih dalam kalangan raja yang memerintah di sembilan buah negeri dalam persekutuan iaitu perlis kedah perak selangor negeri sembilan johor pahang terengganu dan kelantan pemilihan yang dipertuan agong dilaksanakan oleh majlis rajaraja menurut kaedah yang ditetapkan dalam perlembagaan persekutuan dan peraturanperaturan majlis rajaraja seiring dengan kewujudan jawatan yang dipertuan agong turut diperkenalkan jawatan timbalan yang dipertuan agong berdasarkan perlembagaan persekutuan yang nama seri paduka baginda yang yang nama seri paduka baginda dipertuan dipertuan agong dipertuan yang dipertuan agong agong agong pertama almarhum tuanku abdul rahman ibni kesepuluh almarhum tuanku jaafar ibni almarhum negeri sembilan almarhum tuanku muhammad negeri sembilan tuanku abdul rahman 31 ogos 1957 1 april 1960 26 april 1994 25 april 1999 kedua almarhum sultan hisamuddin alam kesebelas almarhum sultan salahuddin abdul aziz shah selangor shah ibni almarhum sultan alaiddin selangor alhaj ibni almarhum sultan hisamuddin alam sulaiman shah shah alhaj 14 april 1960 1 september 1960 26 april 1999 21 november 2001 ketiga almarhum tuanku syed putra alhaj ibni kedua belas tuanku syed sirajuddin ibni almarhum perlis almarhum syed hassan jamalullail perlis tuanku syed putra jamalullail 21 september 1960 20 september 1965 13 disember 2001 12 disember 2006 keempat almarhum sultan ismail nasiruddin shah ketiga belas alwathiqu billah sultan mizan zainal abidin terengganu ibni almarhum sultan zainal abidin terengganu ibni almarhum sultan mahmud almuktafi 21 september 1965 20 september 1970 billah shah 13 disember 2006 12 disember 2011 kelima almarhum sultan abdul halim muadzam kedah shah ibni almarhum sultan badlishah keempat belas almarhum almutasimu billahi muhibbuddin 21 september 1970 20 september 1975 kedah tuanku alhaj abdul halim muadzam shah ibni almarhum sultan badlishah keenam almarhum sultan yahya petra 13 disember 2011 12 disember 2016 kelantan ibni almarhum sultan ibrahim 21 september 1975 29 mac 1979 kelima belas kebawah duli yang maha mulia seri paduka kelantan baginda yang dipertuan agong sultan muhammad v ketujuh almarhum sultan haji ahmad shah al 13 disember 2016 6 januari 2019 pahang mustain billah ibni almarhum sultan abu bakar riayatuddin almuadzam shah 26 april 1979 25 april 1984 keenam belas kebawah duli yang maha mulia seri paduka pahang baginda yang dipertuan agong alsultan abdullah riayatuddin almustafa billah shah kelapan almarhum sultan iskandar ibni ibni almarhum sultan haji ahmad shah johor almarhum sultan ismail almustain billah 26 april 1984 25 april 1989 mulai 31 januari 2019 almarhum sultan azlan muhibbuddin shah kesembilan ibni almarhum sultan yussuf izzuddin shah perak ghafarullahulah senarai dan 26 april 1989 25 april 1994 gambar yang senarai seri paduka baginda yang dipertuan agong yang pertama hingga ke16 dipertuan sumber laman web rasmi pejabat penyimpan mohor besar rajaraja agong 46kedudukan yang dipertuan agong informasi kedudukan yang dipertuan agong sebagai negara melakar sejarah apabila ketua utama negara termaktub dalam perkara 32 tuanku abdul halim muadzam perlembagaan persekutuan sebagai ketua utama shah ibni almarhum sultan negara yang dipertuan agong menjadi punca badlishah ditabal menjadi yang kedaulatan ketaatan perpaduan kebesaran dan dipertuan agong v 19701975 kemuliaan negara dan yang dipertuan agong xiv 20112016 perlembagaan persekutuan bahagian iv persekutuan bbaabb bab 1ketua utama negara perkara 32 ketua utama negara bagi persekutuan dan isterinya 33 1 maka hendaklah ada seorang ketua utama negara bagi persekutuan digelar yang dipertuan agong yang hendaklah diberi keutamaan daripada segala orang di dalam persekutuan dan yang tidak boleh dikenakan apaapa jua pun prosiding di dalam manamana mahkamah kecuali di dalam mahkamah khas yang ditubuhkan di bawah bahagian xv 2 isteri yang dipertuan agong digelar raja permaisuri agong hendaklah diberi keutamaan daripada segala orang lain di dalam persekutuan selepas yang dipertuan agong seri paduka baginda yang dipertuan agong v 21 september 1970 3 yang dipertuan agong hendaklah dipilih oleh majlis raja 20 september 1975 raja bagi tempoh lima tahun tetapi boleh pada bilabila masa meletakkan jawatannya melalui surat yang ditandatangani sendiri olehnya yang ditujukan kepada majlis rajaraja atau boleh dipecat daripada jawatannya oleh majlis rajaraja dan hendaklah berhenti memegang jawatan apabila terhenti menjadi raja perkara 32 perlembagaan persekutuan yang memperuntukkan kedudukan yang dipertuan agong sumber lembaga penyelidikan undangundang 2019 perlembagaan persekutuan petaling jaya international law book services keutamaan kedudukan dalam persekutuan 1 yang dipertuan agong 2 raja permaisuri agong 3 rajaraja dan pemangku raja seri paduka baginda yang dipertuan 4 yang dipertua bagi negerinegeri agong xiv 13 disember 2011 5 bekas raja permaisuri agong yang menerima 12 disember 2016 saraan diraja daripada kerajaan persekutuan sumber istana negara 6 perdana menteri 7 timbalan perdana menteri bagaimanakah yang dipertuan institusi beraja merupakan penaung rakyat agong dipilih melangkaui semua agama bangsa budaya dan fahaman politik sebagai rakyat malaysia menjadi tanggungjawab kita untuk memartabatkan institusi beraja kerana institusi ini menjadi lambang bincangkan cara menunjukkan kedaulatan negara kesetiaan kepada raja dan negara 4477kuasa yang dipertuan agong yang dipertuan agong mempunyai kuasa atau peranan yang luas dalam pemerintahan negara meliputi kuasa eksekutif perundangan dan kehakiman kuasa eksekutif yang dipertuan agong bertindak mengikut nasihat jemaah menteri 33 melantik perdana menteri dan jemaah menteri bbaabb yang dipertuan agong melantik seorang ahli dewan rakyat yang pada budi bicara baginda mendapat kepercayaan sebilangan besar ahli dewan rakyat sebagai perdana menteri baginda dengan nasihat perdana menteri melantik menterimenteri timbalantimbalan menteri daripada ahli dewan rakyat atau dewan negara pelantikan jawatan penting yang dipertuan agong melantik peguam negara panglima angkatan tentera dan ketua audit negara baginda juga melantik ahli suruhanjaya pilihan raya ahli suruhanjaya polis dan sejumlah ahli dalam majlis angkatan tentera ketenteraan yang dipertuan agong ialah pemerintah tertinggi seluruh angkatan tentera malaysia baginda dibantu oleh majlis angkatan tentera yang bertanggungjawab di bawah kuasa baginda bagi pemerintahan tatatertib dan pentadbiran angkatan tentera serta perkara yang bersangkutan dengan gerakan tentera diplomatik yang dipertuan agong melantik diplomat malaysia ke luar negara baginda juga menerima menghadap diplomat asing sebelum mereka mula menjalankan tugas di malaysia mengapakah perkataan urusan seri paduka baginda tercatat pada sampul surat urusan perlembagaan persekutuan kerajaan berkaitan dengan bahagian v negerinegeri 4488kuasa dan peranan yang dipertuan agong kuasa perundangan kuasa kehakiman yang dipertuan agong memperkenankan yang dipertuan agong melantik sesuatu rang undangundang yang melalui hakim mahkamah atasan atas proses pembentangan di dewan rakyat dan nasihat perdana menteri setelah bbaabb dewan negara dipertimbangkan oleh suruhanjaya pelantikan kehakiman dan persidangan parlimen 33 berunding dengan majlis rajaraja yang dipertuan agong mempunyai kuasa hakim mahkamah atasan terdiri memanggil parlimen bersidang daripada ketua hakim negara baginda juga berkuasa memberhentikan dan presiden mahkamah rayuan membubarkan parlimen hakim besar mahkamah tinggi agama malaya hakim besar mahkamah tinggi sarawak dan sabah yang dipertuan agong merupakan ketua hakim mahkamah persekutuan agama islam di negeri baginda sendiri wilayah hakim mahkamah rayuan dan persekutuan melaka pulau pinang sarawak hakim mahkamah tinggi dan sabah ketua agama islam di negerinegeri lain ialah sultan atau raja yang memerintah di negeri kuasa pengampunan masingmasing dalam hal jenayah di wilayah hak dan keistimewaan persekutuan seseorang yang sudah dihukum boleh memohon yang dipertuan agong bertanggungjawab keampunan daripada yang menjaga serta melindungi kedudukan istimewa dipertuan agong orang melayu dan bumiputera di sarawak baginda akan bertindak atas dan sabah nasihat lembaga pengampunan baginda juga bertanggungjawab melindungi baginda berkuasa mengampunkan kepentingan sah kaum lain di malaysia menangguhkan dan meringankan hukuman yang dijatuhkan oleh pengisytiharan darurat mahkamah tentera mahkamah yang dipertuan agong boleh membuat syariah di melaka pulau pinang pengisytiharan darurat sabah sarawak dan wilayah pengisytiharan darurat dibuat setelah baginda persekutuan memastikan kebenaran wujudnya keadaan yang mengancam keselamatan awam dan ekonomi negara kesetiaan kepada raja dan negara merupakan prinsip kedua rukun negara sebagai warganegara yang patriotik kita mesti mengamalkan prinsip tersebut bagi menzahirkan taat setia kepada yang dipertuan agong tonggak pemerintahan negara 4499</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Menangani Ancaman Komunis </t>
+          <t xml:space="preserve"> Amalan Demokrasi dan Pengasingan Kuasa </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>63 menangani ancaman komunis kegiatan komunis menjadi ancaman kepada keselamatan negara sejak sebelum merdeka antara kegiatan yang dilakukan oleh komunis termasuklah melakukan serangan bersenjata terhadap anggota pasukan keselamatan menyerap masuk ideologi komunis dan melakukan kegiatan sabotaj terhadap kemudahan awam kerajaan mengambil langkah yang serius untuk membanteras kegiatan komunis di negara kita ancaman keselamatan di sarawak gerakan komunis di sarawak bermula sejak pendudukan jepun oleh cco bahagian pertama dan ketiga di sarawak menjadi sasaran utama komunis komunis melakukan kegiatan serangan dan subversif terhadap orang awam bentuk ancaman komunis melakukan ancaman melalui gerakan politik dan serangan bersenjata gerakan politik gerakan komunis juga terlibat dalam politik mereka menentang gagasan malaysia pelibatan mereka menyebabkan kerajaan sarawak memburu dan menangkap ahli yang terlibat mereka melarikan diri ke kalimantan dan membentuk parti komunis kalimantan utara pkku pkku meneruskan penentangan melalui pasukan rakyat kalimantan utara paraku dan pasukan gerila rakyat sarawak pgrs untuk membentuk republik komunis di sarawak 6 bab bab serangan bersenjata pada 5 ogos 1952 komunis menyerang kawasan batu kitang kuching sarawak yang 6 menandakan permulaan serangan komunis terhadap orang awam usaha mengatasi kerajaan melaksanakan dua kaedah iaitu gerakan perang saraf dan operasi ketenteraan bagi mengatasi ancaman komunis a perang saraf pihak berkuasa mengambil langkah yang berikut mengadakan perhimpunan awam dengan memberikan kesedaran tentang bahayanya ancaman komunis menyebarkan risalah untuk menyampaikan maklumat tentang bahaya ancaman komunis dan menanamkan kebencian terhadap komunis mengisytiharkan kawasan putih yang bebas daripada ancaman komunis tawaran program pengampunan kepada anggota komunis pembangunan infrastruktur dengan menyediakan kemudahan perhubungan meneroka bukti yang lebih baik kepada penduduk buktikan usaha kerajaan dalam menangani ancaman komunis selepas pembentukan malaysia 121b petunjuk operasi ketenteraan bahagian pertama brunei sabah bahagian kedua laut beberapa operasi ketenteraan bahagian ketiga china u dijalankan iaitu operasi hammer selatan 1965 di bahagian pertama operasi oleh rascom pula dilaksanakan di bahagian ketiga seterusnya bintulu mukah operasi sri aman dilancarkan kapit di bahagian kedua semua operasi sibu s a r a w a k sarikei ini berjaya melemahkan gerakan betong komunis di sarawak kuching samarahan sriasmri aanman kalimantan serian indonesia operasi ketenteraan di bahagian pertama bahagian kedua dan bahagian ketiga di sarawak operasi hammer sarawak sumber disesuaikan daripada arkib negara malaysia ancaman komunis di sarawak membangkitkan semangat penentangan daripada penduduk tempatan penentangan berlaku kerana komunis membunuh orang awam kerajaan bermula pada bulan julai 1965 rancangan ini menggunakan kaedah sama yang diguna pakai dilaksanakan dengan mendirikan petempatan dalam rancangan briggs untuk dilaksanakan baharu untuk seramai lebih kurang 7500 orang di sarawak rancangan berbentuk memenangi dalam tempoh tiga hari seramai 1200 keluarga hati rakyat ini dinamakan operasi hammer yang kebanyakannya berketurunan hakka diarahkan 6 bab berpindah ke tiga kawasan petempatan baharu bab sepanjang jalan kuchingserian petempatan ini 6 dikawal sepanjang masa dan dikenakan perintah peraturan operasi hammer berkurung dalam tempoh 24 jam sehari bagi melindungi penduduk daripada ancaman komunis informasi 1 menurut vernon l porritt nama operasi hammer diambil bersempena dengan ucapan ketua polis malaysia sir claude fenner operasi hammer menyebabkan gerakan komunis well hammer them let the operation be called di sarawak mulai goyah langkah pembanterasan operation hammer yang berterusan menyebabkan komunis ditangkap 2 antara usaha penting menghalang komunis operasi hammer tamat pada tahun 1970 operasi termasuklah rancangan penempatan goodsir jala raja pula dilancarkan di nonok asajaya di yang dijalankan pada 30 jun 1965 nama bahagian pertama pada awal tahun 1970 operasi ini diambil bersempena dengan nama david goodsir pemangku komisioner polis sarawak 3 menjelang akhir tahun 1965 kerajaan membuka kawasan petempatan semula pada 13 oktober 1973 bong kee chok pemimpin penduduk sarawak di siburan beratok komunis menulis surat kepada datuk patinggi dan tapah abdul rahman yakub ketua menteri sarawak 4 kerajaan juga melancarkan operasi bagi menyatakan hasrat untuk berunding selepas harapan tunku abdul rahman putra alhaj beberapa hari seramai lebih kurang 500 anggota menawarkan pengampunan kepada anggota komunis walau bagaimanapun hanya komunis keluar dari hutan dan menyerah diri 41 orang yang menyerah diri 112222langkah membanteras ancaman komunis operasi hammer dilancarkan tiga kampung baru dibuka 6 julai 1965 di bahagian pertama operasi besarbesaran rampasan senjata di bahagian 8 ogos 1969 ketiga 24 februari 1970 operasi jala raja di nonok asajaya bahagian pertama 8 ogos 1971 operasi ngayau dilancarkan di bahagian ketiga rajang area security command rascom dibentuk 26 mac 1972 di bahagian ketiga 21 oktober 1973 operasi sri aman dilancarkan 6 bab operasi sri aman ditamatkan anggota komunis menyerah bab 4 julai 1974 diri 6 perjanjian damai menamatkan ancaman komunis yang 17 oktober 1990 diadakan antara pihak komunis dengan kerajaan sarawak langkah membanteras komunis melalui usaha memenangi hati rakyat menyebabkan informasi komunis tidak mendapat sokongan penduduk 1 selain operasi hammer terdapat operasi letter pada 21 oktober 1973 datuk patinggi abdul box yang dilancarkan pada 22 julai 1965 untuk rahman yakub selaku ketua menteri sarawak mendapatkan maklumat tentang pergerakan menandatangani memorandum persefahaman komunis pada 26 mac 1972 tun abdul razak di rumah sri aman anggota komunis cco hussein mengisytiharkan bahagian ketiga sebagai rascom bagi mempercepat usaha menyerah diri peristiwa ini membawa kepada membanteras ancaman komunis kawasan berakhirnya ancaman komunis di sarawak tumpuan ialah sibu mukah kanowit sarikei kerajaan malaysia bersetuju untuk membatalkan binatang bintangor dan julau sekatan keselamatan di kawasan operasi 2 operasi sri aman pula diadakan pada bulan hammer di kuchingserian pada 5 mac 1980 oktober 1973 bertujuan membanteras ancaman komunis di sri aman sarawak operasi ini melibatkan pasukan keselamatan termasuk tentera dan polis pergerakan komunis telah disekat menyebabkan komunis mengalami kesukaran untuk bergerak 1122332 ancaman keselamatan di semenanjung malaysia parti komunis malaya pkm meneruskan kegiatan mengancam keselamatan di semenanjung malaysia pkm bertindak agresif dengan menyerang anggota keselamatan dan orang awam serta memusnahkan kemudahan awam a pembunuhan anggota keselamatan dan orang awam komunis melakukan serang hendap terhadap pasukan keselamatan kemuncak ancaman komunis ialah pembunuhan pegawai kanan polis pada 17 jun 1968 pkm telah melakukan serang hendap terhadap pasukan keselamatan di kroh perak yang mengorbankan seramai 16 anggota keselamatan pada 7 jun 1974 menembak mati ketua polis negara tan sri abdul rahman hashim di kuala lumpur pada 13 november 1975 menembak mati ketua polis negeri perak tan sri khoo chong kong dan pemandunya di ipoh selain itu orang awam dan kemudahan awam turut menjadi sasaran komunis serangan komunis terhadap pekerja pada bulan julai 1969 seorang wanita diseksa sehingga mati jabatan kerja raya di sintok kedah periuk api dipasang di sepanjang jalan changlun kedah jalan raya dan jambatan kereta api diletupkan 6 bab bab muzium tentera darat 6 muzium tentera darat terletak di port dickson negeri sembilan muzium tentera darat merupakan muzium tentera yang terbesar di malaysia muzium tan sri abdul rahman hashim ini setanding dengan muzium tentera di luar negara sumber utusan malaysia 8 jun 1974 berdasarkan kelengkapan infrastruktur dan bahan pengisian di dalam muzium ini cadangan mewujudkan muzium tentera darat diilhamkan oleh panglima tentera darat jeneral tan sri md hashim bin hussein arahan1 murid diagihkan kepada beberapa kumpulan kecil untuk membuat kajian yang berikut di dua galeri utama a penubuhan askar melayu b sumbangan tentera darat 2 setiap kumpulan dikehendaki menyiapkan tugasan yang diberikan 3 selepas lawatan setiap kumpulan dikehendaki tan sri khoo chong kong membentangkan dapatan masingmasing sumber muzium polis diraja malaysia 124b pengeboman tugu negara pada pagi 26 ogos 1975 pkm meletupkan tugu negara di kuala lumpur tindakan mengebom tempat awam menimbulkan kemarahan rakyat terhadap komunis dan menuntut kerajaan mengambil tindakan tegas termasuklah mengenakan akta keselamatan dalam negeri pihak keselamatan telah mengambil langkah memperkuat perkhidmatan perisikan untuk mengawasi kegiatan komunis muhammad ghazali shafie bersamasama ketua polis kuala lumpur mohd amin osman melihat kemusnahan tugu yang dibom oleh pkm usaha mengatasi sumber utusan malaysia 1975 terdapat pelbagai langkah yang diambil bagi melindungi rakyat dan orang awam daripada ancaman komunis antara langkah yang diambil termasuklah 1 strategi counterinsurgency coin langkah ini merupakan usaha keselamatan dan pembangunan untuk memenangi hati dan fikiran rakyat bagi menyokong agenda dan dasar kerajaan memerangi komunis strategi yang digunakan ialah kerjasama antara pasukan keselamatan ahli politik dan agensi kerajaan untuk menjalankan strategi coin yang berkesan 2 perjanjian kerjasama sempadan usaha membanteras komunis menghadapi masalah kerana mereka membina khemah di luar sempadan negara oleh itu langkah utama yang diambil seperti mengadakan persefahaman 6 bab antara kerajaan malaysia dengan kerajaan thailand melalui perjanjian kerjasama sempadan bab memerangi komunis 1976 di thailand antara langkah yang dijalankan termasuklah membina 6 pagar sempadan dan operasi bersama perjanjian hat yai pula diadakan pada 2 disember 1989 di hat yai thailand antara pkm malaysia dan thailand pkm bersetuju membubarkan unit bersenjata serta memusnahkan segala senjata api bahan membuat rasionalisasi letupan dan jerangkap samar kerajaan malaysia bersungguhsungguh menangani ancaman komunis pada akta keselamatan dalam negeri pendapat anda wajarkah tindakan ini informasi kerajaan melaksanakan usaha yang serius bagi menjamin keselamatan negara usaha ini berjaya dilakukan melalui tun abdul razak hussein mengarahkan pengorbanan yang diberikan oleh anggota keselamatan agar kutipan derma diadakan bagi rakyat juga memberikan kerjasama terhadap usaha yang menampung perbelanjaan memperbaik dilakukan oleh kerajaan dengan termeterainya perjanjian tugu negara kerja membaik pulih hat yai maka tamatlah gerakan bersenjata pkm untuk tugu negara telah disiapkan pada 11 april 1977 oleh christopher b merampas kuasa serta menubuhkan sebuah negara carney pensyarah fakulti seni lukis republik komunis sebagai rakyat malaysia kita perlu dan seni reka institut teknologi berbangga dan bersyukur kerana usaha menghapuskan mara beberapa model rakyat tempatan ancaman komunis telah berjaya dan mengembalikan digunakan sebagai wajah baharu pada negara dalam keadaan aman dan makmur tugu negara 125</t>
+          <t>34 amalan demokrasi dan pengasingan kuasa demokrasi berparlimen diterima sebagai sistem pentadbiran negara ciri demokrasi seperti amalan pilihan raya jaminan kepada kebebasan asasi serta pembahagian kuasa pada peringkat persekutuan dan negeri dinyatakan secara jelas dalam perlembagaan persekutuan amalan pilihan raya pilihan raya ialah elemen penting yang menandakan wujudnya amalan demokrasi di negara kita pada asasnya pilihan raya umum diadakan dalam tempoh lima tahun pilihan raya diadakan 33 sejak negara kita mencapai kemerdekaan membuktikan amalan demokrasi dilaksanakan bbaabb di malaysia sehingga hari ini antara parti politik yang kempen pilihan raya membolehkan rakyat menyemak nama pada terlibat dalam pilihan raya rakyat mengenali calon dan daftar pemilih sebelum mengundi bagi memperoleh mandat memahami manifesto parti yang daripada rakyat untuk bertanding memerintah sumber arkib negara malaysia sumber dicapai pada 27 november 2020 informasi undi ialah rahsia dan merupakan bukti keabsahan kerajaan yang undian dilakukan dengan dipilih rakyat poster jom kita mengundi menggunakan prosedur yang yang dikeluarkan oleh jabatan telus dan sistematik sumber arkib negara malaysia penerangan malaysia untuk menggalakkan orang ramai sebagai rakyat dalam sebuah negara menunaikan tanggungjawab demokrasi kita sewajarnya memahami mengundi kepentingan pilihan raya yang memberikan mandat untuk membentuk kerajaan membuat interpretasi warganegara yang layak mengundi perlu parti politik yang menunaikan hak dan tanggungjawab melalui tafsirkan undi anda penentu berdaftar dengan pilihan raya untuk memilih pemimpin masa depan negara dalam suruhanjaya pilihan berwibawa bagi mencorakkan pemerintahan raya sehingga poster tersebut 1 september 2020 demi kemakmuran negara 5500kebebasan asasi kebebasan asasi atau hak asasi merupakan hak yang dimiliki oleh seseorang individu di sisi undangundang perlembagaan persekutuan menggariskan peruntukan berkaitan dengan kebebasan asasi antaranya termasuklah kebebasan diri kebebasan beragama hak berkenaan dengan pendidikan serta kebebasan bersuara berhimpun dan berpersatuan kebebasan diri tiada seorang pun boleh diambil nyawanya atau dilucutkan kebebasan dirinya kecuali mengikut undangundang bbaabb kebebasan beragama 33 islam ialah agama persekutuan penganut agama lain boleh mengamalkan agama kebebasan asasi masingmasing berdasarkan perlembagaan hak berkenaan dengan pendidikan persekutuan tidak boleh ada diskriminasi terhadap warganegara atas alasan agama ras keturunan atau tempat lahir kebebasan bersuara berhimpun dan berpersatuan setiap warganegara berhak kepada kebebasan bersuara berhimpun secara aman dan membentuk persatuan kebebasan asasi yang diperuntukkan dalam perlembagaan tidak bersifat mutlak tetapi tertakluk informasi pada sekatan yang ditentukan oleh undangundang yang digubal oleh parlimen malaysia sekatan tersebut bertujuan memastikan ketenteraman dan kesejahteraan suhakam awam terjamin dalam masyarakat yang demokratik suruhanjaya hak asasi manusia malaysia suhakam merupakan institusi hak asasi kebangsaan yang ditubuhkan di bawah akta suruhanjaya hak asasi manusia malaysia 1999 akta 597 suhakam berperanan bagi mempromosikan dan melindungi kebebasan bersuara hak asasi semua orang di negara ini termasuklah kebebasan media yang dikawal perlembagaan persekutuan oleh akta hasutan 1948 berkaitan dengan kebebasan serta akta mesin cetak asasi dan penerbitan 1984 5511pengasingan kuasa dalam pemerintahan pengasingan kuasa diamalkan sejak negara mencapai kemerdekaan hingga hari ini kuasa pemerintahan di negara kita dibahagikan kepada tiga badan iaitu badan perundangan legislatif eksekutif pelaksana dan kehakiman judisiari kuasa badan tersebut ditentukan oleh perlembagaan persekutuan yang dipertuan agong sebagai ketua utama negara merupakan punca kuasa kepada ketigatiga badan ini yang dipertuan agong 33 bbaabb majlis rajaraja badan badan badan perundangan eksekutif kehakiman ketua hakim parlimen perdana menteri negara mahkamah jemaah menteri atasan mahkamah dewan negara dewan rakyat kementerian bawahan struktur pentadbiran persekutuan persidangan pertama parlimen kabinet jemaah menteri selepas the lord high chancellor britain persekutuan tanah melayu pada merdeka diketuai oleh perdana berdiri di tengah bersamasama bulan september 1959 menteri tunku abdul rahman hakim tanah melayu selepas sumber portal rasmi parlimen putra alhaj duduk di tengah mesyuarat khas di mahkamah malaysia sumber arkib negara malaysia agung kuala lumpur sejurus kemerdekaan 5522badan perundangan badan perundangan berfungsi menggubal undangundang badan perundangan pada peringkat kerajaan persekutuan ialah parlimen badan perundangan pada peringkat kerajaan negeri pula ialah dewan undangan negeri dun parlimen parlimen ialah badan perundangan tertinggi di malaysia parlimen terdiri daripada tiga komponen iaitu yang dipertuan agong dewan rakyat dan dewan negara parlimen merupakan lambang demokrasi dan mencerminkan aspirasi rakyat melalui perwakilan yang dipilih parlimen berkuasa menggubal undangundang selain itu parlimen juga boleh membuat pindaan undangundang persekutuan sedia ada menyemak dasar kerajaan meluluskan perbelanjaan bbaabb kerajaan dan sistem cukai yang baharu 33 yang dipertuan dewan negara atau senat agong dewan tertinggi dalam sistem perundangan negara salah satu membahaskan rang undangundang yang diluluskan komponen oleh dewan rakyat dengan lebih teliti dalam badan perundangan ilustrasi bangunan parlimen menunjukkan lokasi dewan negara dan dewan rakyat dewan rakyat atau perwakilan dewan yang ahlinya dipilih oleh rakyat melalui pilihan raya menggubal dan meluluskan undangundang pada peringkat dewan rakyat dewan undangan negeri dun di malaysia terdapat dun di setiap negeri kecuali bagi wilayah persekutuan kuala lumpur labuan dan putrajaya ketigatiga wilayah tersebut hanya mempunyai ahli parlimen mengapakah parlimen dewan ini terdiri daripada sultan atau mempunyai dua dewan yang dipertua negeri selaku ketua negeri speaker dewan undangan dewan dan ahli dewan undangan negeri adun keahlian negeri sarawak yang dipilih melalui pilihan raya peringkat negeri dewan negara keahlian dun berfungsi untuk menggubal undangundang dewan rakyat bagi negeri masingmasing 5533badan eksekutif badan eksekutif ialah badan pemerintah yang melaksanakan kuasa eksekutif mengikut perlembagaan persekutuan badan eksekutif peringkat kerajaan persekutuan ialah jemaah menteri manakala badan eksekutif peringkat kerajaan negeri ialah majlis mesyuarat kerajaan negeri jemaah menteri kabinet jemaah menteri terdiri daripada perdana menteri dan menteri seperti menteri kewangan menteri pendidikan dan menteri kesihatan tugas utama jemaah menteri menggubal dasar negara dan melaksanakan pembangunan perdana menteri mengetuai jemaah menteri memimpin kerajaan dan menjalankan 33 pentadbiran pada peringkat kerajaan persekutuan bbaabb menteri mengetuai kementerian untuk melaksanakan dasar kerajaan yang diputuskan oleh jemaah menteri anggota jemaah menteri berpegang pada prinsip tanggungjawab bersama secara kolektif kepada parlimen setiap menteri mesti mempertahankan keputusan yang dibuat oleh jemaah menteri sekiranya seseorang menteri tidak bersetuju dengan dasar kerajaan beliau hendaklah meletakkan jawatan sebagai ahli jemaah menteri informasi sistem jemaah menteri kesultanan melayu kelantan pada abad ke19 sultan muhammad ii membentuk sistem jemaah menteri bagi melicinkan pemerintahan kesultanan melayu kelantan lapan badan jemaah menteri ditubuhkan dan setiap satunya dianggotai oleh empat orang pembesar jemaah menteri tersebut istiadat mengangkat sumpah jawatan dan setia serta terdiri daripada sumpah simpan rahsia sebagai perdana menteri jemaah penasihat raja sumber istana negara jemaah menteri istana jemaah menteri keadilan dan majlis mesyuarat kerajaan negeri kehakiman jemaah menteri dalam negeri pada peringkat negeri kuasa eksekutif jemaah menteri luar terletak pada sultan atau raja atau jemaah menteri perbendaharaan yang dipertua negeri jemaah menteri peperangan bagi negeri di semenanjung malaysia kuasa jemaah menteri pentadbiran dan eksekutif ini dilaksanakan oleh majlis pengimarahan negeri mesyuarat kerajaan negeri atau exco executive council di sarawak dan sabah badan eksekutif negeri dikenali mengapakah jemaah menteri berpegang sebagai kabinet negeri pada prinsip tanggungjawab bersama pentadbiran kerajaan negeri diketuai oleh menteri besar atau ketua menteri 5544badan kehakiman badan kehakiman ialah badan yang bertanggungjawab mentafsirkan dan melaksanakan undang undang serta mempertahankan perlembagaan persekutuan badan kehakiman diketuai oleh ketua hakim negara kuasa badan kehakiman dilaksanakan oleh mahkamah hakim dilantik untuk memastikan sistem kehakiman dan keadilan mahkamah ditegakkan di negara kita persekutuan mahkamah peranan badan kehakiman adalah untuk atasan bbaabb mengadili pertikaian antara pemerintah mahkamah rayuan dbkeoanndgflaanikn krkeahkearyakajitam m anaan h ujeupggueanr ims e desananym ekale rsraaakijykaaaatnn nsgagbi tinmgaghi kmaamlaayha msaarhakwaamk adh atni ah 33 n e mahkamahbawahan persekutuan mahkamah sesyen fungsi badan kehakiman bergantung pada status mahkamah yang terdiri mahkamah majistret daripada mahkamah atasan dan mahkamah bawahan serta mahkamah khas selain itu terdapat mahkamah pada hierarki badan kehakiman di malaysia peringkat negeri iaitu mahkamah sumber syariah serta mahkamah anak negeri mahkamahmahkamahtinggilatarbelakang dicapai pada 16 julai 2020 di sarawak dan sabah hakim mestilah bebas daripada pengaruh politik bagi memastikan badan kehakiman sebagai institusi keadilan hal informasi ini dapat menjamin integriti badan kehakiman sebagai badan yang bertanggungjawab menjamin keadilan sosial demi mahkamah khas kesejahteraan rakyat sebagai individu yang mempunyai hak tidak terletak dalam hierarki yang dijamin oleh perlembagaan kita sewajarnya memahami mahkamah biasa antaranya kepentingan menjunjung prinsip keluhuran perlembagaan mahkamah khas rajaraja dan kedaulatan undangundang seperti yang tersurat dalam mahkamah tentera rukun negara dengan merujuk pelbagai sumber bandingkan bidang pengasingan kuasa dalam pemerintahan negara penting kuasa mahkamah tinggi dengan untuk mewujudkan pemerintahan yang adil dan saksama mahkamah sesyen dan mahkamah pengasingan kuasa dapat membentuk konsep semak dan majistret imbang dalam pemerintahan supaya kuasa pemerintahan bentangkan dapatan anda tidak dikuasai oleh seseorang atau sesebuah institusi di hadapan kelas 5555</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Isu Pembangunan dan Ekonomi </t>
+          <t xml:space="preserve">di Negara Kita </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>64 isu pembangunan dan ekonomi kerajaan telah membentuk rancangan pembangunan lima tahun bagi memastikan usaha pembangunan dan ekonomi nasional dapat dilaksanakan di semua negeri kerajaan persekutuan meneruskan usaha ini dengan melibatkan sarawak dan sabah dalam rancangan pembangunan lima tahun malaysia sebaikbaik sahaja pembentukan malaysia 6 bab bab rancangan malaysia pertama 19661970 sumber arkib negara malaysia 6 di bawah rancangan felda rumah peneroka turut dibina tun abdul razak hussein berdiri di kanan di sebuah rumah di lurah bilut pahang sumber arkib negara malaysia mengapakah usaha pembangunan pengumuman rancangan malaysia pertama oleh tun abdul razak negara menjadi agenda utama hussein duduk di tengah dalam persidangan akhbar di bilik kerajaan pada awal pembentukan gerakan pembangunan negara malaysia sumber arkib negara malaysia 126rancangan malaysia pertama dalam usaha menangani isu pembangunan dan ekonomi negara kerajaan memperkenalkan rancangan malaysia pertama antara isu yang dihadapi termasuklah kedudukan sosioekonomi penduduk berpendapatan rendah serta taraf pendidikan yang masih rendah pelbagai usaha dilaksanakan oleh kerajaan bagi meningkatkan taraf hidup ekonomi rakyat melalui rancangan ini isu pembangunan ekonomi terdapat pelbagai isu yang perlu ditangani oleh kerajaan dalam usaha meningkatkan taraf hidup penduduk antaranya termasuklah kurangnya penyediaan bantuan kewangan oleh institusi kewangan bagi pengusaha bumiputera dalam kegiatan mereka selain itu kemudahan pengangkutan dan perhubungan terutama di kawasan luar bandar juga perlu ditambah baik isu terlalu bergantung pada eksport getah tun abdul razak hussein timbalan perdana dan bijih timah menteri merangkap menteri pembangunan kejatuhan harga bahan mentah negara dan luar bandar sedang berucap penduduk yang terlibat dalam bidang dalam satu mesyuarat tentang usul rancangan 6 pertanian masih ketinggalan terutama malaysia pertama yang diadakan di bilik bab bab penggunaan teknologi dan peralatan gerakan pembangunan negara kuala lumpur petani masih merupakan golongan sumber arkib negara malaysia 6 berpendapatan rendah pertanian komersial lain masih kurang diusahakan oleh petani usaha mengatasi mempelbagaikan kegiatan ekonomi pertanian dan industri pemprosesan mencari pasaran baharu bagi getah dan bijih timah mempelbagaikan bidang pertanian terutama kelapa sawit dan koko mempelbagaikan pengeluaran komoditi negara setem kenangan malaysia berkaitan dengan rancangan pembangunan 19661970 sumber arkib negara malaysia 127isu isu taraf hidup yang berbeza peluang pekerjaan yang terhad kadar pengangguran meningkat usaha mengatasi usaha mengatasi melancarkan program pembangunan menubuhkan pusat latihan vokasional negara berasaskan satu rancangan dan teknikal bersepadu meluaskan peluang pekerjaan kepada menggerakkan aktiviti perkilangan dan penduduk pembuatan negara dengan membuka kawasan baharu mempercepat integrasi dalam kalangan penduduk dan negeri di malaysia mendapatkan bantuan bank dunia isu masalah kesihatan dan sosial keperluan asas dan hak wanita dari 6 segi kehamilan yang terhad untuk bab bab memperoleh kesihatan terbaik kurangnya kemudahan perkhidmatan 6 kesihatan profesional kepada ibuibu yang mengandung kadar kelahiran tidak normal dan kematian yang tinggi usaha mengatasi mengurangkan kadar kelahiran memperkenalkan program perancang buku dasar pembangunan luar bandar keluarga sumber kementerian pembangunan luar bandar menambah baik perkhidmatan kesihatan di kawasan luar bandar kandungan buku dasar pembangunan luar bandar kerajaan melaksanakan pelbagai program dalam usaha mengatasi isu pembangunan dan ekonomi kepimpinan dan kerjasama yang diberikan oleh ahli masyarakat telah membantu mencapai matlamat yang disusun oleh kerajaan bagi mencapai matlamat ini negara perlu sentiasa berada dalam situasi aman dan makmur oleh itu adalah penting bagi rakyat menjaga kestabilan politik dalam mengekalkan keamanan negara 128</t>
+          <t>5 keunikan amalan demokrasi berparlimen di negara kita 3 keunikan amalan demokrasi berparlimen dapat dilihat dari aspek gabungan unsur tradisional dan moden mekanisme semak dan imbang kuasa budi bicara raja serta kerjasama politik gabungan unsur tradisional dan moden dalam pentadbiran keunikan pemerintahan di malaysia teradun antara unsur tradisional dengan moden unsur tradisional terletak pada kedudukan raja sebagai warisan sosiopolitik 33 masyarakat melayu unsur moden pula ialah demokrasi berparlimen berdasarkan bbaabb model westminster england kombinasi raja berperlembagaan dan demokrasi berparlimen merupakan kaedah terbaik untuk mengimbangi amalan demokrasi dalam persekitaran sosiopolitik di negara kita yang mempunyai kepelbagaian bangsa agama dan budaya mekanisme semak dan imbang dalam pentadbiran kajian kes sistem raja berperlembagaan dan demokrasi unsur tradisional dalam pentadbiran berparlimen mewujudkan mekanisme teliti gambar yang berikut dan jawab semua semak dan imbang dalam pemerintahan soalan di bawah di negara kita pemerintahan beraja berperanan bagi mengimbangi pemerintahan demokrasi kerana raja berkecuali dalam hal politik ekonomi dan dasar negara kuasa pengimbang yang ada pada raja mampu meredakan konflik yang berlaku dalam demokrasi seperti pertikaian parti politik yang pelbagai ideologi dan perselisihan antara kaum mekanisme semak dan imbang juga berlaku melalui pengasingan kuasa iaitu badan perundangan eksekutif dan kehakiman badan perundangan diberi peranan 1 apakah unsur tradisional yang terdapat pada menggubal undangundang yang akan ketigatiga gambar di atas dilaksanakan oleh badan eksekutif sekiranya 2 senaraikan perkara lain yang mengandungi timbul konflik dan kekeliruan penyelesaian elemen unsur tradisional dalam urusan rasmi dibuat melalui badan kehakiman 3 jelaskan kepentingan unsur tradisional dalam pentadbiran 4 bagaimanakah unsur tradisional dapat memupuk persefahaman ke arah perpaduan 5566kuasa budi bicara raja secara umumnya kuasa budi bicara raja ialah kuasa yang boleh dilaksanakan oleh baginda tanpa mendengar atau menurut nasihat ketua kerajaan dalam perkara tertentu perlembagaan persekutuan memperuntukkan kuasa budi bicara kepada yang dipertuan agong dalam soal pelantikan ketua kerajaan persekutuan iaitu perdana menteri raja dan yang dipertua negeri mempunyai kuasa budi bicara melantik ketua kerajaan negeri iaitu menteri besar dan ketua menteri yang dipertuan agong juga mempunyai kuasa budi bicara untuk tidak memperkenankan permintaan pembubaran parlimen raja dan yang dipertua negeri pula mempunyai kuasa budi bicara tidak memperkenankan pembubaran dun bbaabb kerjasama politik informasi 33 kerjasama politik menekankan soal perkongsian kuasa antara kaum berdasarkan prinsip tolak kerjasama politik di malaysia ansur perundingan dan pengorbanan bagi tahun kerjasama memastikan suara setiap kaum diwakili pembentukan politik permuafakatan pelbagai parti politik 1954 parti perikatan dalam satu gabungan membolehkan parti 1962 parti perikatan sarawak politik membentuk kerajaan dan berkongsi parti perikatan sabah kuasa dalam pemerintahan di negara kita 1974 parti perikatan menukar nama sejak pilihan raya pada tahun 1955 kepada barisan nasional bn gabungan parti berasaskan kaum dibentuk 1990 angkatan perpaduan ummah atas nama parti perikatan gabungan ini apu kemudiannya dikenali sebagai barisan 1999 barisan alternatif ba nasional parti ini memenangi 13 kali pilihan 2008 pakatan rakyat pr raya umum untuk membentuk kerajaan 2015 pakatan harapan ph persekutuan 2018 gabungan parti sarawak gps pada pilihan raya umum ke14 tahun gabungan bersatu sabah gbs 2018 kerjasama politik telah membolehkan pakatan harapan memenangi pilihan raya pada bulan februari 2020 perikatan nasional menerajui negara kita menggantikan pakatan untuk membentuk kerajaan persekutuan harapan kita perlu memahami demokrasi sebagai salah satu asas pemerintahan negara malaysia mengamalkan prinsip demokrasi dengan mengambil kira kepentingan nilai tempatan dan warisan budaya bangsa demokrasi berparlimen dilaksanakan di negara kita dengan cara tersendiri yang mengutamakan kestabilan politik dan kesejahteraan rakyat demokrasi berparlimen pada asasnya memberikan hak sama rata kepada setiap warganegara dikawal dan diseimbangkan dengan kedaulatan raja berperlembagaan malaysia mempunyai bentuk pemerintahan yang unik dengan ciri tersendiri kombinasi raja berperlembagaan dan demokrasi berparlimen membentuk pentadbiran yang sistematik dan unggul sistem raja berperlembagaan dan demokrasi berparlimen berjaya mewujudkan kestabilan hal ini membawa kemajuan dalam pelbagai bidang sejak merdeka hingga hari ini sebagai rakyat malaysia yang cinta akan negara kita sewajarnya menyedari kepentingan taat setia kepada pemerintah demi kemakmuran bangsa dan negara 57imbas kembali raja berperlembagaan dan demokrasi berparlimen pemerintahan beraja kesultanan melayu melaka latar belakang sebelum perang dunia kedua pemerintahan beraja semasa pendudukan jepun dan demokrasi selepas perang dunia kedua 33 berparlimen raja berperlembagaan dan demokrasi berparlimen bbaabb selepas merdeka pembentukan durbar negerinegeri melayu bersekutu sejarah dan nnmb kedudukan majlis sultansultan semasa malayan union majlis rajaraja semasa persekutuan tanah melayu 1948 institusi majlis majlis rajaraja selepas merdeka rajaraja kedudukan majlis rajaraja dalam perlembagaan persekutuan yang dipertuan agong dan institusi yang dipertuan agong raja dalam kedudukan yang dipertuan agong perlembagaan kuasa yang dipertuan agong persekutuan amalan demokrasi amalan pilihan raya kebebasan asasi dan pengasingan pengasingan kuasa dalam pemerintahan kuasa keunikan amalan gabungan unsur tradisional dan moden dalam pentadbiran demokrasi mekanisme semak dan imbang dalam pentadbiran kuasa budi bicara raja berparlimen kerjasama politik di negara kita 5588pembelajaran abad ke21 aktiviti 1 perbincangan bebas free discussion arahanperbincangan murid dalam kumpulan kecil dan seterusnya dalam kumpulan besar murid dibahagikan kepada beberapa kumpulan kecil dan membincangkan tugasan yang diberikan semasa sesi perbincangan lantik seorang murid sebagai pemudah cara bab 1 maklumat yang berikut ialah petikan sebahagian daripada kandungan akta lambang dan nama mencegah penggunaan tidak wajar 1963 3 larangan mengguna lambang nama dan rupaan gambar dengan tidak wajar 3 1 walau apa pun apaapa jua yang terkandung dalam manamana undangundang yang sedang berkuat kuasa tiada seorang pun boleh kecuali dengan kebenaran bertulis menteri a mengguna apaapa nama ternyata atau lambang ternyata atau apaapa tiruan serupa mengenainya bagi maksud apaapa perdagangan perniagaan pekerjaan atau profesion b mengguna bagi maksud atau memperagakan sebagai suatu iklan bagi apaapa perniagaan perdagangan pekerjaan atau profesion atau menjual apaapa fotograf lukisan atau rupaan lain gambar yang dipertuan agong atau raja permaisuri agong berdasarkan maklumat di atas lakukan aktiviti yang berikut i perbincangan murid dalam kumpulan kecil a apakah yang dimaksudkan nama ternyata atau lambang ternyata dalam perkara 31 a dalam akta tersebut b mengapakah larangan 31 b dikuatkuasakan c bagaimanakah cara menghormati lambang negara dan institusi yang dipertuan agong ii perbincangan dalam kumpulan besar dengan bimbingan guru sebagai pemudah cara kongsikan maklumat hasil perbincangan dengan kumpulan lain dalam bentuk perbincangan bebas 5599pembelajaran abad ke21 aktiviti 2 fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki memikirkan tajuksoalan yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakanpasangan 3 murid seterusnya berkongsi maklumathasil perbincangan dengan pasangan lain kumpulankelas 3 tajuk kerjasama politik di negara kita bab carta alir yang berikut berkaitan dengan perkembangan kerjasama politik dalam amalan demokrasi di negara kita 1954 1962 1974 parti perikatan parti perikatan sarawak parti perikatan menukar umnomcamic dan parti perikatan nama kepada barisan ditubuhkan sabah dibentuk nasional bn 1999 2008 2015 barisan alternatif ba pakatan rakyat pakatan harapan diwujudkan pr dibentuk ph ditubuhkan 2018 gabungan parti sarawak gps dibentuk gabungan bersatu sabah gbs dibentuk berdasarkan maklumat di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a ciri kerjasama politik jelaskan ciri kerjasama politik b faktor perkembangan mengapakah kerjasama politik berkembang dalam amalan demokrasi di negara kita hingga hari ini c nilai dan patriotisme sebagai rakyat dalam negara yang masyarakatnya berbilang kaum apakah sikap yang perlu kita amalkan untuk menjamin kestabilan politik 2 aktiviti berpasangan secara berpasangan kongsikan maklumat yang diperoleh dan dibuat penambahbaikan serta pamerkan di sudut maklumat hasil perbincangan keseluruhan 3 aktiviti berkumpulan bentukkan kumpulan kecil dengan rakan pasangan lain kongsikan maklumat yang diperoleh 6600pemahaman dan pemikiran kritis 1 petikan yang berikut merupakan sebahagian titah kebawah duli yang maha mulia seri paduka baginda yang dipertuan agong xvi alsultan abdullah riayatuddin almustafa billah shah ibni almarhum sultan haji ahmad shah almustain billah bersempena dengan istiadat pembukaan mesyuarat pertama penggal ketiga parlimen malaysia pada 18 mei 2020 ahliahli yang berhormat sesungguhnya beta telah menggalas amanah dengan telus dan adil selaras dengan konsep raja berperlembagaan bab dan demokrasi berparlimen yang menjadi tunjang amalan negara kita pada masa yang sama beta juga 3 menghargai kematangan dan kerjasama semua ahliahli yang berhormat dan rakyat jelata yang telah memainkan peranan dengan penuh berhemah dan beretika sehingga membolehkan beta menggalas amanah ini sumber koleksititahydpagong dicapai pada 16 julai 2020 a apakah maksud raja berperlembagaan b siapakah ahliahli yang berhormat c bagaimanakah ahliahli yang berhormat berperanan dalam sistem pemerintahan di negara kita d mengapakah sistem raja berperlembagaan dan demokrasi berparlimen perlu dipertahankan 2 maklumat yang berikut merupakan petikan berita daripada akhbar tempatan dewan negara lulus pindaan perlembagaan turunkan umur mengundi kepada 18 tahun kuala lumpur selepas 10 hari rang undangundang ruu perlembagaan pindaan 2019 diluluskan di dewan rakyat ia diluluskan di dewan negara hari ini dengan majoriti dua pertiga dengan kelulusan pindaan terhadap perlembagaan persekutuan ini pilihan raya pada masa hadapan akan menyaksikan pengundi berumur 18 tahun dibenarkan mengundi dan menjadi calon berbanding umur 21 tahun sebelum ini selain pendaftaran pengundi akan dilakukan secara automatik sumber berita harian khamis 25 julai 2019 berdasarkan petikan berita di atas parlimen malaysia meluluskan pindaan perlembagaan persekutuan berkaitan dengan had umur mengundi dan menjadi calon dalam pilihan raya di negara kita a bilakah had umur mengundi diturunkan kepada 18 tahun b apakah rasional umur kelayakan mengundi diturunkan daripada 21 tahun kepada 18 tahun c sejauh manakah golongan belia dapat memberikan sumbangan kepada demokrasi di negara ini melalui penurunan had umur mengundi kepada 18 tahun 6611pemahaman dan pemikiran kritis 1 gambar yang berikut berkaitan dengan cap mohor besar rajaraja 3 bab apakah kepentingan cap mohor tersebut a mengiktiraf kerajaan yang dipilih rakyat b mengesahkan pelantikan jemaah menteri c melambangkan kedaulatan rajaraja melayu d meluluskan undangundang yang digubal parlimen 2 rajah yang berikut berkaitan dengan pembahagian kuasa dalam sistem pemerintahan negara kita yang dipertuan agong majlis rajaraja badan badan x perundangan eksekutif yang manakah antara berikut kuasa badan x a mentafsir perlembagaan b meluluskan undangundang c menggubal dasardasar negara d membahaskan perbelanjaan kerajaan 3 pernyataan yang berikut berkaitan dengan badan eksekutif pada peringkat kerajaan persekutuan jemaah menteri terdiri daripada perdana menteri dan menterimenteri yang memegang portfolio tertentu apakah peranan badan tersebut a meluluskan sistem cukai baharu b melaksanakan dasardasar negara c menggubal undangundang negara d mengadili pertikaian antara pemerintah dengan rakyat 6622cakna dan cerminan sejarah nilai patriotisme dan iktibar pemerintahan negara yang berakar umbi daripada tradisi budaya mesti dipelihara untuk mengekalkan jati diri bangsa sistem raja berperlembagaan dan demokrasi berparlimen terbukti berjaya mewujudkan kestabilan politik kemakmuran ekonomi dan kesejahteraan sosial sebagai rakyat berjiwa patriotik prinsip kesetiaan kepada raja dan negara dalam rukun negara mesti diterjemahkan dalam amalan kehidupan harian bab diri dan keluarga setiap ahli keluarga perlu mengamalkan sifat mentaati ketua keluarga untuk mewujudkan keluarga 3 yang aman dan harmoni negara keunggulan sistem pemerintahan mesti dipertahankan sebagai lambang kedaulatan dan jaminan demi kesejahteraan rakyat raja dan rakyat berpisah tiada kebawah duli yang maha mulia seri paduka baginda yang dipertuan agong xvi alsultan abdullah riayatuddin almustafa billah shah ibni almarhum sultan haji ahmad shah almustain billah bersamasama rakyat sumber portal rasmi istana negara 6633</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tragedi Hubungan antara Kaum </t>
+          <t xml:space="preserve">iiiiiiBab Sistem Persekutuan </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>65 tragedi hubungan antara kaum peristiwa rusuhan antara kaum berlaku pada 13 mei 1969 bermula beberapa hari setelah diadakan pilihan raya umum ketiga keputusan pilihan raya menyebabkan berlakunya ketegangan antara penyokong parti politik yang memprovokasikan keadaan situasi ini mencetuskan rusuhan antara kaum di negara kita rusuhan yang berlaku lebih tertumpu di kuala lumpur selangor dan kawasan di sekitarnya 1 rusuhan kaum terdapat beberapa faktor yang menyebabkan berlakunya rusuhan kaum di negara kita antaranya termasuklah kesan daripada ketidakseimbangan dalam ekonomi dan sosial di negara kita keadaan dan keputusan pilihan raya umum ketiga 1969 merupakan sebab utama tercetusnya peristiwa ini ketegangan bermula dengan kempen pilihan raya terdapat parti politik mengeksploitasi isu yang menyentuh sensitiviti sesuatu kaum semasa berkempen pkm mengambil kesempatan semasa pilihan raya untuk mempengaruhi penduduk supaya bermusuhan antara kaum parti yang bertanding telah berkempen menggunakan sentimen perkauman dan keagamaan untuk mendapat sokongan daripada pengundi perarakan kemenangan pilihan raya tidak terkawal menimbulkan kekacauan dan perbuatan provokatif 2 langkah yang diambil bagi mengatasi masalah peristiwa 13 mei 1969 6 bab bab peristiwa 13 mei 1969 menyebabkan berlaku ketegangan hubungan antara kaum langkah sertamerta telah diambil bagi mengelakkan kekacauan dan menghentikan rusuhan serta menghalang daripada 6 merebak ke bandarbandar lain antara langkah yang diambil termasuklah pengisytiharan darurat pembentukan majlis gerakan negara mageran dan peranan yang dimainkan oleh rajaraja melayu laporan peristiwa 13 mei 1969 a darurat pengisytiharan perintah darurat dibuat oleh yang dipertuan agong pada 16 mei 1969 ke seluruh negara antara perkara yang diputuskan termasuklah perlembagaan digantung manakala parlimen ditangguh mewujudkan pusat perlindungan di beberapa tempat semasa darurat pihak polis menguatkuasakan perintah berkurung orang ramai tidak dibenarkan keluar dan dikehendaki tinggal di kediaman masingmasing penubuhan jawatankuasa bertugas untuk menyusun semula perkhidmatan penerangan kerajaan semua berita daripada pihak media ditapis bagi memastikan kesahihannya kerajaan juga memastikan bekalan makanan diperoleh penduduk terutama di pusat perlindungan mangsa rusuhan dipindahkan ke pusat perlindungan di stadium merdeka dan tiong nam settlement semangat saling membantu ketika ketegangan dalam kalangan anggota masyarakat dapat dilihat di pusat perlindungan ini pihak berkuasa memagar kawasan kampung baru dan menjadikannya kawasan perintah berkurung yang besar sementara itu tentera memberikan perlindungan kepada penduduk yang berlindung di beberapa kem tentera 129b majlis gerakan negara mageran yang dipertuan agong memperkenankan penubuhan majlis gerakan negara mageran yang dipengerusikan oleh tun abdul razak hussein ahlinya turut terdiri daripada pegawai perkhidmatan awam pegawai tinggi polis dan tentera mageran diberi kuasa memerintah semasa darurat dari 16 mei 1969 hingga 23 februari 1971 dan bertanggungjawab mengawal ketenteraman negara dua fokus utama yang perlu diselesaikan oleh mageran ialah masalah perpaduan kaum dan ketidakseimbangan ekonomi antara kaum antara tanggungjawab mageran termasuklah mengembalikan keamanan dan undangundang menentukan pentadbiran yang licin dalam negara mengembalikan keharmonian dan kepercayaan antara kaum dalam negara menggantung sementara penerbitan semua akhbar sehingga keadaan negara kembali tenang menguatkuasakan akta hasutan 1948 jabatan penerangan menapis berita palsu dan menerangkan usaha kerajaan 6 bab bab 6 ahli mageran bergambar di pekarangan parlimen pada 7 februari 1971 akta hasutan 1948 duduk dari kiri azizan zainal abidin mohamad salleh ismail muhammad ghazali shafie vt sambanthan dr ismail abdul rahman tun abdul razak hussein tan siew sin hamzah abu samah ibrahim ismail abdul kadir shamsuddin abdul rahman hamidon berdiri dari kiri tun abdullah ahmad badawi cc too yahya yeop ishak haniff omar amir yaakob wan ismail wan salleh ghazali che mat yusuf rashid nyatakan fungsi utama dan sharif buruk mageran sumber arkib negara malaysia 130c peranan raja rajaraja melayu turut memainkan peranan dalam usaha memulihkan keadaan negara semasa berlakunya rusuhan kaum sultan perak sultan idris iskandar shah ii menasihati rakyat agar menjaga keamanan berikutan itu pemimpin masyarakat dan politik negeri perak menubuhkan jawatankuasa muhibah jawatankuasa ini menulis surat merayu penduduk agar bertenang dan membantu negara mengekalkan keamanan di negerinegeri lain pula raja turut meminta rakyat agar bertenang dan mematuhi undangundang keratan akhbar the straits times menunjukkan seruan sultan perak dalam isu rusuhan sumber arkib negara malaysia 6 bab bab 6 rusuhan kaum dapat dihentikan melalui usaha yang dilaksanakan oleh pihak berkuasa dan kerjasama yang diberikan oleh rakyat keadaan negara mulai kembali normal walau bagaimanapun masih banyak usaha yang perlu dilakukan bagi membina perpaduan dan keharmonian kaum negara menghadapi pelbagai cabaran selepas pembentukan malaysia antara cabaran yang dihadapi termasuklah cabaran dari segi pembangunan sosioekonomi politik ancaman komunis dan keselamatan pelbagai usaha 1 bincangkan kesan peristiwa 13 mei diambil bagi mengatasi cabaran berkenaan melalui dasar 1969 kepada keamanan negara kita yang disusun oleh kerajaan cabaran ini berjaya ditangani 2 mengapakah perlu ada persefahaman melalui kesungguhan dan kerjasama yang ditunjukkan antara kaum bentangkan dapatan oleh pemimpin pihak berkuasa dan masyarakat sebagai anda di dalam kelas rakyat malaysia kita harus bekerjasama bagi mengekalkan keamanan yang dikecapi agar dapat hidup dalam suasana aman dan makmur 131imbas kembali cabaran selepas pembentukan malaysia cabaran dalaman malaysia cabaran yang dihadapi oleh malaysia pemisahan singapura faktor pemisahan pemisahan singapura daripada malaysia 6 menangani ancaman ancaman keselamatan di sarawak bab bab komunis ancaman keselamatan 6 di semenanjung malaysia isu pembangunan dan rancangan malaysia pertama ekonomi tragedi hubungan rusuhan kaum antara kaum langkah yang diambil bagi mengatasi masalah peristiwa 13 mei 1969 132pembelajaran abad ke21 aktiviti 1 meja bulat serentak simultaneous round table arahan1 murid berada dalam kumpulan setiap murid menulis maklum balas pada soalan yang diberikan 2 kemudian mereka mengedarkan catatan yang dibuat mengikut pusingan jam supaya setiap ahli pasukan dapat menambahkan atau membetulkan apaapa yang dicatat 3 wakil kumpulan akan membentangkan jawapan masingmasing 6 bab bab 6 petikan laporan kertas putih tragedi 13 mei 1969 1 berdasarkan petikan teks di atas jawab soalan yang berikut a apakah usaha yang dilakukan oleh kerajaan bagi meredakan tragedi hubungan kaum b mengapakah kita perlu mengekalkan keharmonian antara kaum c huraikan pengajaran yang boleh dipelajari daripada peristiwa ini 2 perbincangan dalam kumpulan besar dengan bimbingan guru sebagai pemudah cara kongsikan hasil maklumat perbincangan dengan kumpulan lain dalam bentuk perbincangan bebas 133pembelajaran abad ke21 aktiviti 2 hentian bas bus stop arahan 1 sebanyak lima buah hentian bas diwujudkan di dalam kelas setiap satu hentian disediakan satu soalan oleh guru 2 murid bergerak secara kumpulan dari satu hentian ke hentian lain sambil berbincang soalan yang berkenaan 3 murid berkongsi pendapat dan mencatatkan maklumat yang diperoleh murid diberi petikan ucapan tunku abdul rahman putra alhaj menurut tunku abdul rahman putra alhaj pemisahan singapura merupakan perkara yang tidak dapat dielakkan so it does seem completely impossible to arrive at a solution whereby we can hope to pull along together and to work together in the interest and for the common good of our beloved country ucapan tunku abdul rahman putra alhaj dalam penyata perbahasan di dewan rakyat 9 ogos 1965 6 bab bab 6 hentian 1 mengapakah tunku abdul rahman putra alhaj menyatakan sedemikian hentian 2 jelaskan isu yang mendorong pemisahan singapura daripada malaysia hentian 3 berdasarkan petikan akhbar di atas apakah sikap kerajaan singapura yang mendorong pemisahan singapura daripada malaysia hentian 4 secara kronologi huraikan peristiwa pemisahan singapura daripada malaysia hentian 5 pada pendapat anda mengapakah keharmonian hubungan antara sesebuah negara perlu dipelihara kumpulan akan bergerak dari satu hentian ke satu hentian sambil berbincang dan berkongsi maklumat 134pemahaman dan pemikiran kritis 1 usaha yang diambil bagi menyeimbangkan hubungan antara persekutuan malaysia dengan singapura termasuklah a memajukan sistem kewangan b menyusun semula masyarakat c mempelbagaikan kegiatan ekonomi d membuka pejabat pentadbiran kerajaan 2 apakah langkah yang diambil oleh malaysia untuk mengatasi masalah peristiwa 13 mei a menghentikan pilihan raya b meminta bantuan indonesia c membentuk majlis gerakan negara d meminta bantuan pertubuhan bangsabangsa bersatu 3 perjanjian damai telah diadakan antara parti komunis malaya kerajaan malaysia dan thailand iaitu perjanjian hat yai pada 2 disember 1989 apakah kesepakatan yang diperoleh melalui perjanjian ini 4 krisis perlembagaan di sarawak berlaku pada 16 jun 1966 a jelaskan peristiwa krisis tersebut sehingga darurat terpaksa diisytiharkan di sarawak pada bulan september 1966 6 b mengapakah kerajaan perlu memelihara kestabilan politik dalam sesebuah negara bab bab 5 gambar menunjukkan ahli majlis gerakan negara 6 a nyatakan tugas ahli majlis gerakan negara b mengapakah usaha memulihkan hubungan antara kaum menjadi agenda penting kerajaan ketika itu 135pemahaman dan pemikiran kritis 6 jawab soalan berdasarkan pernyataan yang berikut dalam usaha mengatasi isu pembangunan dan ekonomi negara kerajaan memperkenalkan rancangan malaysia pertama antara matlamat rancangan ini termasuklah keharmonian kaum perkembangan ekonomi pekerjaan dan kepelbagaian ekonomi a huraikan fokus utama rancangan malaysia pertama 19661970 b nyatakan objektif rancangan malaysia pertama yang memberikan kesan positif kepada sarawak dan sabah 7 jawab soalan berdasarkan keratan akhbar yang berikut 6 bab bab 6 a apakah yang dapat anda tafsirkan apabila membaca berita yang dipaparkan dalam keratan akhbar ini b apakah faktor yang menyebabkan rakyat menentang komunis c sebagai rakyat malaysia yang patriotik apakah yang akan anda lakukan sekiranya negara kita diserang oleh komunis 8 jawab soalan di bawah berdasarkan pernyataan yang berikut majlis gerakan negara bertanggungjawab mengawal ketenteraman negara dua permasalahan utama yang perlu diselesaikan oleh majlis ini ialah masalah perpaduan kaum dan ketidakseimbangan ekonomi antara kaum a apakah yang anda faham melalui pernyataan di atas b huraikan punca berlakunya rusuhan kaum pada tahun 1969 c mengapakah persefahaman antara kaum menjadi unsur penting di malaysia 136cakna dan cerminan sejarah nilai patriotisme dan iktibar kepentingan menghargai nikmat keamanan bagi memastikan kemakmuran negara mengamalkan sikap bertolak ansur bagi menyelesaikan masalah menjaga sensitiviti orang lain dalam tindakan tutur kata dan penulisan demi kesejahteraan masyarakat dan negara diri dan keluarga membina kehidupan yang aman makmur dan bahagia dengan menghormati setiap ahli keluarga negaramenyelesaikan sebarang permasalahan melalui perundingan dan bijak merancang bagi menghadapi cabaran negara 6 bab bab 6 rakyat malaysia berarak sambil membawa bendera jalur gemilang 137bab 7 membina kesejahteraan negara sinopsis perpaduan kaum dan integrasi nasional merupakan unsur penting dalam membina kesejahteraan negara unsur ini dipupuk melalui beberapa dasar pembangunan sosial yang merangkumi aspek pendidikan budaya bahasa dan aktiviti sosial dasar ini termasuklah dasar pendidikan kebangsaan memperkasakan bahasa melayu sebagai bahasa ilmu dan perpaduan dasar kebudayaan kebangsaan dan sukan untuk perpaduan dasar ini diperkukuh lagi dengan pembentukan rukun negara sebagai tonggak kesejahteraan negara 138inti pati pembelajaran 1 perpaduan dan integrasi nasional 2 dasar pendidikan kebangsaan 3 bahasa melayu sebagai bahasa ilmu dan bahasa perpaduan 4 dasar kebudayaan kebangsaan 5 sukan sebagai alat perpaduan 6 rukun negara sebagai tonggak kesejahteraan negara elemen kewarganegaraan dan nilai sivik 1 kepentingan menjaga perpaduan dan keharmonian 2 peranan pemimpin dan rakyat dalam memastikan kemakmuran negara 3 kepentingan pendidikan untuk mengukuhkan perpaduan 4 kepentingan menghayati rukun negara kemahiran pemikiran sejarah 1 membuat kronologi usaha yang dijalankan untuk mewujudkan perpaduan kaum dan integrasi nasional 2 meneroka bukti sejarah pelaksanaan dasar pendidikan yang telah dilaksanakan 3 membuat interpretasi tentang peranan bahasa melayu dan dasar kebudayaan kebangsaan dalam memperkukuh perpaduan 4 membuat imaginasi berkaitan dengan kejayaan sukan sebagai alat perpaduan 5 membuat rasionalisasi tentang prinsip rukun negara sebagai tonggak kesejahteraan negara rakyat malaysia terdiri daripada pelbagai kaum 139</t>
+          <t>bab 4 sistem persekutuan sinopsis malaysia merupakan sebuah negara persekutuan sistem persekutuan di negara kita mempunyai latar belakang sejarah yang tersendiri kuasa kerajaan persekutuan dan kerajaan negeri telah ditetapkan dalam perlembagaan persekutuan kerjasama antara kerajaan persekutuan dengan kerajaan negeri terjalin dalam pelbagai bentuk memberikan manfaat kepada kesejahteraan rakyat dan pembangunan negara terdapat juga faktor tertentu yang mengukuhkan sistem persekutuan di negara kita prinsip keluhuran perlembagaan dan penyelarasan antara kerajaan persekutuan dengan kerajaan negeri telah mengukuhkan sistem persekutuan di negara kita 4 bab 6644inti pati pembelajaran 1 latar belakang sistem persekutuan di negara kita 2 kuasa kerajaan persekutuan dan kerajaan negeri 3 kerjasama kerajaan persekutuan dan kerajaan negeri 4 faktor yang mengukuhkan sistem persekutuan bab 4 elemen kewarganegaraan dan nilai sivik 1 kepentingan bermusyawarah dalam membuat keputusan 2 kepentingan mewujudkan pentadbiran yang sistematik 3 kepentingan sikap kerjasama antara kerajaan persekutuan dengan kerajaan negeri bagi membangunkan negara 4 kepentingan memahami tanggungjawab rakyat dan pemimpin bagi membangunkan negara kemahiran pemikiran sejarah 1 memahami kronologi perkembangan sistem persekutuan di negara kita 2 meneroka bukti keberkesanan kerjasama kerajaan persekutuan dan kerajaan negeri 3 membuat imaginasi kuasa yang dipegang setiap peringkat kerajaan dalam sistem persekutuan 4 membuat interpretasi kekukuhan sistem persekutuan melalui kuasa dan tanggungjawab bersama 5 membuat rasionalisasi pembahagian kuasa dalam sistem persekutuan wilayah persekutuan putrajaya 6655</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Perpaduan dan Integrasi Nasional </t>
+          <t xml:space="preserve">di Negara Kita </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71 perpaduan dan integrasi nasional pembinaan negara malaysia berasaskan perpaduan kaum dan integrasi nasional elemen ini menjadi asas kekuatan negara kita yang terdiri daripada rakyat berbilang kaum sejarah hubungan kaum di negara kita telah wujud sebelum zaman penjajahan lagi hubungan kaum terus diperkukuh selepas negara mencapai kemerdekaan dan pembentukan malaysia pelbagai langkah dilakukan oleh kerajaan untuk memperkasakan perpaduan kaum dan integrasi nasional dalam membentuk masyarakat yang bersatu padu harmoni dan sejahtera maksud perpaduan dan integrasi nasional perpaduan dan integrasi merupakan dua konsep yang saling berkait rapat melalui dua proses yang berbeza keduadua konsep ini berteraskan perlembagaan persekutuan dan prinsip rukun negara perpaduan integrasi kaum nasional perpaduan kaum ialah keadaan rakyat integrasi nasional merupakan satu proses daripada pelbagai etnik agama dan wilayah dinamik yang merapatkan hubungan hidup dengan aman dalam masyarakat yang masyarakat antara negeri dengan bersatu mereka memberikan komitmen wilayah bagi membentuk satu bangsa yang penuh kepada identiti kebangsaan mereka ini mempunyai identiti sendiri berlandaskan perlembagaan persekutuan berteraskan perlembagaan persekutuan dan dan rukun negara rukun negara 7 bab bab informasi 7 perkhidmatan feri malaysia ditamatkan pada tahun 1989 disebabkan kebakaran ruang enjin dan kos penyenggaraan yang tinggi membuat rasionalisasi mengapakah perkhidmatan feri malaysia perlu diperkenalkan dan diperluas ke seluruh negara perkhidmatan feri malaysia yang dikenali juga sebagai cruise muhibah telah diperkenalkan pada 31 ogos 1986 bertujuan mengintegrasikan bandingkan maksud perpaduan penduduk di semenanjung malaysia dengan sarawak dan sabah kaum dan integrasi nasional sumber portal rasmi perpustakaan negara malaysia 140latar belakang hubungan kaum pentadbiran british menyebabkan pemisahan kaum dari segi kegiatan ekonomi dan petempatan keadaan ini menyukarkan setiap kaum untuk memahami adat resam dan budaya kaum lain selepas perang dunia kedua usaha dilakukan oleh para pemimpin pelbagai kaum untuk bekerjasama bagi mewujudkan perpaduan beberapa faktor sejarah dikenal pasti menjadi punca kepada masalah perpaduan antaranya termasuklah kesan pentadbiran kegiatan ekonomi dan petempatan sistem pendidikan serta fahaman politik pentadbiran kegiatan ekonomi dan pentadbiran british bermula pada tahun 1874 petempatan menerusi pengenalan sistem residen dasar british memberikan tumpuan kepada british yang mengutamakan sektor ekonomi perkembangan ekonomi yang berasaskan menyebabkan pekerja dibawa masuk dari luar untuk bekerja dalam sektor perlombongan perlombongan bijih timah dan perladangan perladangan dan perniagaan kaum bumiputera getah kegiatan ekonomi yang berbeza pula bertumpu di kawasan luar bandar dan antara kaum menyebabkan pemisahan menjalankan kegiatan ekonomi tradisional dari segi petempatan rakyat juga keadaan ini menyebabkan mereka terpisah terpisah dengan petempatan yang wujud dan berlaku kerenggangan hubungan kaum di kawasan perlombongan bandar estet dan kesannya masalah hubungan kaum berterusan perkampungan keadaan ini menyebabkan sehingga selepas kemerdekaan dan menyebabkan setiap kaum kurang berinteraksi antara satu peristiwa 13 mei 1969 sama lain dan mewujudkan jurang ekonomi yang tidak seimbang kesan dasar 7 british bab bab 7 sistem pendidikan fahaman politik dasar pentadbiran british menyebabkan fahaman politik berasaskan kaum bermula munculnya sistem pendidikan vernakular dengan penubuhan parti politik sebelum melayu cina india dan inggeris di negara kemerdekaan hingga kini polarisasi kaum kita sekolah vernakular pula berkembang disebabkan perbezaan kegiatan ekonomi mengikut kaum masingmasing sistem dan petempatan menyebabkan parti politik pendidikan vernakular diteruskan selepas ini memperjuangkan kepentingan kaum kemerdekaan pada tahun 1957 pendidikan masingmasing isu yang diperjuangkan vernakular mewujudkan perbezaan pemikiran berkaitan dengan bahasa budaya pendidikan dalam kalangan rakyat berbilang kaum dan ekonomi keadaan ini mempengaruhi hubungan antara kaum di negara ini 141memperkasakan perpaduan dan integrasi nasional sejak mencapai kemerdekaan usaha memperkasakan perpaduan dan integrasi nasional telah dilaksanakan secara konsisten oleh kerajaan dan berterusan sehingga hari ini usaha ini merangkumi bidang politik ekonomi dan sosial politik menubuhkan jabatan perpaduan negara yang terletak di bawah bidang kuasa mageran jabatan ini berperanan mendraf satu ideologi untuk negara yang dikenali sebagai rukun negara mewartakan pembentukan majlis muhibah negara pada 18 julai 1969 majlis ini bertujuan menggalakkan perkembangan perasaan muhibah antara masyarakat berbilang kaum di malaysia menubuhkan majlis perundingan negara pada 29 januari 1970 majlis ini ditubuhkan untuk mengadakan garis panduan bagi kerjasama antara kaum dan integrasi nasional antara negeri dengan wilayah selain itu majlis ini juga bertujuan memupuk identiti kebangsaan dalam kalangan rakyat membentuk gabungan parti politik pelbagai kaum untuk mewujudkan keharmonian dan kestabilan politik selepas peristiwa 13 mei 1969 menyelaraskan perkhidmatan awam antara semua negeri penyelarasan ini mewujudkan integrasi antara negeri 7 bab bab 7 tun abdul razak hussein berucap dalam perhimpunan barisan nasional dengan disertai oleh ketua parti gabungan sumber tun abdullah mohd salleh pengerusi 2006 tun abdul razak potret dalam kenangan kuala lumpur lembaga pemegang amanah yayasan tun abdul razak dan utusan publications distributors sdn bhd informasi kerjasama politik parti pelbagai kaum sudah bermula sebelum merdeka pada bulan oktober 1954 parti perikatan ditubuhkan untuk menyertai pilihan raya tahun 1955 dan menuntut kemerdekaan pada 1 januari 1973 pula barisan nasional ditubuhkan sebagai pengganti kepada parti perikatan 142ekonomi meneruskan rancangan pembangunan lima tahun malaysia yang memberikan tumpuan kepada pertumbuhan ekonomi semua kaum memperkenalkan beberapa dasar pembangunan ekonomi seperti dasar ekonomi baru deb dan dasar pembangunan nasional dpn untuk kemakmuran ekonomi rakyat dan negara memberikan tumpuan kepada pembangunan masyarakat luar bandar dan wilayah pembangunan dilakukan melalui rancangan pembangunan tanah yang mampu menambah pendapatan rakyat dan membasmi kemiskinan memajukan bidang perindustrian dan perdagangan dengan memperkenalkan zon perindustrian bebas seperti di bayan lepas pasir gudang dan pelabuhan klang penghijrahan penduduk luar bandar ke bandar berlaku disebabkan peluang pekerjaan yang terbuka luas kepada semua kaum hal ini mempercepat proses integrasi mengintegrasi ekonomi melalui pembangunan ekonomi wilayah termasuk di sarawak dan sabah pembangunan ekonomi wilayah membuka peluang kepada semua kaum bersaing dalam ekonomi secara adil sosial menambah baik dasar pendidikan kebangsaan yang sedia ada melalui akta pendidikan 1996 bertujuan mengukuhkan perpaduan kaum dan integrasi nasional mengukuhkan sistem pendidikan melalui pelaksanaan dasar pendidikan seperti laporan rahman talib laporan jawatankuasa kabinet dan falsafah pendidikan kebangsaan sistem pendidikan kebangsaan dapat melahirkan rakyat yang patriotik dan mempunyai semangat cinta akan negara memperkasakan bahasa melayu sebagai bahasa kebangsaan melalui pengenalan akta bahasa 7 bab kebangsaan penubuhan universiti kebangsaan malaysia ukm sebagai pusat ilmu dan bab peranan dewan bahasa dan pustaka dbp bagi menyebar luas penggunaan bahasa kebangsaan 7 langkah ini dapat melahirkan masyarakat yang mempunyai satu identiti bahasa yang sama menggalakkan pengamalan satu kebudayaan kebangsaan yang dapat membentuk identiti bangsa malaysia yang bersatu padu menggalakkan pelibatan dalam sukan sebagai medium untuk mewujudkan semangat kekitaan dan perpaduan dalam kalangan rakyat pelbagai kaum memperkenalkan rukun negara sebagai tunjang kesetiaan rakyat berbilang kaum terhadap bangsa dan negara pelbagai usaha yang dilakukan secara berterusan dapat memantapkan hubungan rakyat berbilang kaum di negara ini membuat kronologi sebagai rakyat malaysia kita perlu menghargai kepentingan susun secara kronologi setiap menjaga perpaduan serta keharmonian kaum demi kestabilan langkah yang dilaksanakan dari politik pembangunan negara dan kesejahteraan sosial aspek politik ekonomi dan sosial untuk memupuk perpaduan kaum 114433</t>
+          <t>41 latar belakang sistem persekutuan di negara kita malaysia merupakan sebuah negara yang pembentukan sistem persekutuan mengamalkan sistem persekutuan persekutuan di malaysia bermaksud penyatuan beberapa buah negeri sistem persekutuan di negara kita mempunyai dan membentuk sebuah negara bersekutu latar belakang sejarah tersendiri iaitu bermula antara unsur penting dalam sebuah negara pada tahun 1896 hingga tahun 1963 persekutuan termasuklah wujudnya kerajaan persekutuan kerajaan pusat dan kerajaan persekutuan 1896 negeri serta pembahagian kuasa dalam sistem pentadbiran berikutan peluasan pengaruh british sebuah persekutuan yang terdiri daripada empat buah negeri melayu ditubuhkan berdasarkan perjanjian persekutuan 1895 44 informasi persekutuan berkuat kuasa pada tahun bbaabb 1896 dan dikenali sebagai nnmb sejarah pembentukan konfederasi persekutuan tersebut tidak mempunyai negeri sembilan 1895 agihan kuasa dan fungsi khusus antara pada tahun 1889 luak tampin kerajaan persekutuan dengan kerajaan rembau dan seri menanti disatukan sebagai konfederasi seri menanti dan negeri bersetuju menerima seorang residen banyak keputusan pentadbiran dibuat british oleh residen jeneral di kuala lumpur pada tahun 1895 satu perjanjian sebagai pusat pentadbiran nnmb ditandatangani antara yamtuan besar seri menanti dengan undang johol sungai ujong jelebu rembau dan tunku besar tampin untuk menubuhkan sebuah konfederasi yang lebih besar dikenali sebagai negeri u sembilan siam mereka juga bersetuju menerima residen british bagi membantu sultan idris sultan ahmad pentadbiran konfederasi tersebut murshidul almuazzam yamtuan besar seri menanti tuanku adzam shah shah perak muhammad ibni tuanku antah kemudiannya dilantik sebagai yang pahang dipertuan besar negeri sembilan selangor ylainstge rp eprutalam da iplaandati kta hseubna 1g8a9i8 r mesaidrteinn selat nseemgebriilan melaka yang pertama di negeri sembilan sultan abdul tuanku sumatera samad ibni muhammad raja abdullah ibni tuanku antah rajaraja melayu yang menandatangani perjanjian konfederasi ialah gabungan antara negeri persekutuan 1895 yang berdaulat dalam satu ikatan yang longgar kuasa negeri dikekalkan dan sumber disesuaikan daripada cheah boon kheng ed 2006 early modern history 1800 1940 kuala lumpur kedaulatan negeri terpelihara archipelago press dan didier millet 6666kesatuan malaya 1946 persekutuan tanah melayu malayan union 1948 pada tahun 1946 british satu gabungan sembilan buah majlis mesyuarat berusaha untuk menyatukan negeri melayu dan dua buah persekutuan 1927 pentadbiran semua negeri nns yang dikenali sebagai majlis ini distruktur semula melayu serta pulau persekutuan tanah melayu pada tahun 1927 untuk pinang dan melaka untuk terbentuk melalui perjanjian memperkemas tadbir membentuk sebuah kerajaan persekutuan tanah melayu urus persekutuan dan berbentuk kesatuan yang 1948 mengukuhkan kedudukan dinamakan kesatuan malaya perjanjian persekutuan tanah british di negeri melayu 1946 atau malayan union melayu 1948 menetapkan konsep kesatuan yang kuasa kerajaan persekutuan diperkenalkan di bawah dan kerajaan negeri malayan union ini turut pengagihan kuasa peringkat membayangkan pembentukan persekutuan dan negeri bab sebuah kerajaan pusat yang menandakan bermula era rajaraja melayu dan kuat di bawah kuasa gabenor moden amalan persekutuan 4 pembesar bergambar selepas british di negara kita pesuruhjaya menandatangani perjanjian malayan union dilaksanakan tinggi british dilantik sebagai penstrukturan semula majlis dalam tempoh masa yang ketua persekutuan rajaraja mesyuarat persekutuan pada terhad dan gagal diteruskan melayu memerintah negeri tahun 1927 setelah mendapat bantahan mengikut perlembagaan negeri sumber arkib negara malaysia daripada rajaraja melayu masingmasing dan orang melayu persekutuan malaysia 1963 pada 16 september 1963 berdasarkan persekutuan tanah melayu 1957 perjanjian malaysia maka lahir sebuah pada 31 ogos 1957 muncul persekutuan persekutuan yang terdiri daripada tanah melayu yang merdeka 11 buah negeri tanah melayu persekutuan yang berasaskan perjanjian singapura dan dua buah negeri persekutuan tanah melayu 1957 mewujudkan borneo iaitu sarawak dan sabah sebuah kerajaan persekutuan yang kuat bagi persekutuan ini dinamakan malaysia melicinkan pentadbiran negara yang berdaulat jawatan yang dipertuan agong diwujudkan sebagai ketua persekutuan konsep persekutuan diperkukuh dengan sistem raja poskad hari berperlembagaan dan demokrasi berparlimen merdeka 1957 melalui peruntukan perlembagaan persekutuan sumber arkib tanah melayu 1957 negara malaysia pembentukan sistem persekutuan di negara kita merupakan penerusan tradisi sejarah sistem tersebut berakar umbi daripada pemerintahan beraja dan berkait rapat dengan peluasan pengaruh british dalam pentadbiran negeri melayu 67</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dasar Pendidikan Kebangsaan </t>
+          <t xml:space="preserve">Kerajaan Negeri </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72 dasar pendidikan kebangsaan pendidikan merupakan saluran terbaik bagi merealisasikan matlamat membina perpaduan kaum dan integrasi nasional matlamat ini terkandung dalam laporan rahman talib kajian aminuddin baki laporan jawatankuasa kabinet falsafah pendidikan kebangsaan dan akta pendidikan 1996 latar belakang dasar pendidikan kebangsaan dasar pendidikan kebangsaan dibentuk untuk memupuk perpaduan kaum dasar ini dilaksanakan melalui penyata jawatankuasa pelajaran 1956 atau dikenali sebagai penyata razak 1956 dan dimaktubkan dalam ordinan pelajaran 1957 semua dasar pendidikan yang terdapat sebelum ini disemak semula pada tahun 1960 yang menghasilkan laporan rahman talib dan laporan jawatankuasa kabinet 1979 buku dasar pendidikan kebangsaan sumber kementerian pendidikan malaysia tuantuan dan puanpuan matlamat dasar pendidikan kebangsaan bertujuan 7 menyatupadukan rakyat dan menyediakan tenaga bab bab kerja mahir yang terdiri daripada pelbagai kaum 7 matlamat dasar ini adalah untuk mengadakan sistem pendidikan yang dapat memenuhi keperluan negara dan menggalakkan perkembangan kebudayaan ekonomi sosial dan politik dasar ini juga bermatlamat melahirkan rakyat yang berilmu seimbang dan harmoni serta menyumbang kepada keharmonian dan kemakmuran negara ilustrasi penerangan tentang matlamat dasar pendidikan kebangsaan 144laporan rahman talib jawatankuasa ini dipengerusikan oleh abdul rahman talib pada tahun 1960 untuk menyemak semula dan mengukuhkan penyata jawatankuasa pelajaran 1956 laporan jawatankuasa ini menjadi asas penggubalan akta pelajaran 1961 dan penyemakan dasar pendidikan abdul rahman kebangsaan seterusnya talib laporan rahman talib masih mengekalkan teras sumber arkib sistem pendidikan kebangsaan untuk memupuk perpaduan negara malaysia dan integrasi menjadikan bahasa melayu sebagai bahasa pengantar pada semua peringkat pendidikan penggunaan bahasa yang seragam dapat mewujudkan perpaduan mengadakan kurikulum yang sama dan berorientasikan negara kita bagi semua jenis sekolah kurikulum yang berorientasikan negara mewujudkan perasaan cinta akan negara laporan rahman talib mencadangkan beberapa cadangan tambahan kepada penyata jawatankuasa pelajaran 1956 cadangan tambahan ini bertujuan memperkukuh semangat kekitaan dan kebersamaan dalam mesyuarat jawatankuasa perancangan kalangan murid pelbagai kaum ke arah perpaduan pendidikan yang dipengerusikan oleh abdul rahman talib duduk dua dari kiri penekanan kepada mata pelajaran sejarah sumber arkib negara malaysia untuk menanam perasaan cinta dan kesetiaan terhadap negara 7 mewajibkan mata pelajaran tatarakyat untuk membuat interpretasi bab bab membentuk sikap bertoleransi bekerjasama dan persefahaman antara kaum bagaimanakah sistem kurikulum yang sama 7 dapat memupuk semangat perpaduan kajian aminuddin baki informasi laporan rahman talib kemudian dibuat penambahbaikan dan dilaksanakan sepenuhnya melalui kajian aminuddin aminuddin baki baki iaitu aminuddin baki merupakan memperkenalkan sistem persekolahan aneka jurusan ketua penasihat pendidikan untuk menampung pelajar yang gagal memasuki malaysia kini dikenali sekolah menengah akademik sebagai ketua pengarah memperkenalkan kursus kemahiran untuk melahirkan pendidikan yang paling tenaga kerja mahir yang melibatkan pelbagai kaum muda iaitu ketika berusia serta persediaan memenuhi permintaan pasaran kerja 36 tahun beliau memainkan mewujudkan sekolah kebangsaan yang menggabungkan peranan menyusun dasar pelajaran kebangsaan melalui penyata jawatankuasa semua kaum untuk memupuk perpaduan pelajaran 1956 pada tahun 1956 dan laporan rahman talib pada tahun 1960 145laporan jawatankuasa kabinet 1 2 jawatankuasa kabinet ditubuhkan pada bulan antara kandungan laporan jawatankuasa september 1974 fungsi jawatankuasa ini adalah kabinet yang mempunyai matlamat bagi untuk mengkaji semula pelaksanaan sistem memperkukuh perpaduan termasuklah seperti pelajaran kebangsaan laporan jawatankuasa yang berikut kabinet diumumkan oleh menteri pelajaran 1 bahasa melayu sebagai bahasa perpaduan pada tahun 1979 dijadikan sebagai mata pelajaran wajib dalam peperiksaan awam 2 penegasan kepada pendidikan kerohanian informasi melalui mata pelajaran pendidikan islam dan kurikulum baru sekolah rendah kbsr pendidikan moral 3 penekanan terhadap aktiviti kokurikulum matlamat utama pembentukan kbsr yang perlu dicapai antaranya murid dapat yang melibatkan semua kaum seperti menguasai dan menghargai bahasa melayu unit beruniform sukan dan permainan sebagai bahasa kebangsaan dan sebagai serta persatuan alat perpaduan menguasai tiga bidang asas iaitu bidang komunikasi bidang kemanusiaan dan alam sekitar serta bidang perkembangan diri individu 3 memastikan matlamat pendidikan relevan dengan keperluan semasa bagi menghadapi hasil daripada laporan jawatankuasa ini cabaran abad ke21 kemudiannya kurikulum menghasilkan kurikulum baru sekolah rendah standard sekolah rendah kssr diperkenalkan kbsr yang diperkenalkan pada tahun 1982 kssr dilaksanakan sepenuhnya kepada kurikulum baru sekolah menengah kbsm murid tahun 1 di semua sekolah bermula pada dan falsafah pendidikan negara pula digubal tahun 2011 7 pada tahun 1988 bab bab kurikulum baru sekolah menengah kbsm kurikulum baru sekolah menengah kbsm mula 7 dilaksanakan di sekolah mulai tahun 1989 kbsm digubal berdasarkan matlamat falsafah pendidikan kebangsaan untuk melahirkan generasi yang berilmu falsafah pendidikan generasi yang berkemahiran kebangsaan generasi yang bersatu padu kbsm digantikan dengan kurikulum standard sekolah menengah kssm bermula dengan murid falsafah pendidikan negara fpn digubal pada tingkatan 1 mulai tahun 2017 pembaharuan tahun 1988 untuk memperteguh hala tuju dan kurikulum yang dilaksanakan ini selaras dengan matlamat pendidikan negara ke arah perpaduan pelan pembangunan pendidikan malaysia fpn ditukar kepada falsafah pendidikan 20132025 dengan memberikan fokus kepada kebangsaan pada tahun 1996 falsafah ini penguasaan kemahiran abad ke21 menekankan pendidikan yang menyeluruh dan bersepadu bagi membentuk pelajar yang seimbang dari segi jasmani emosi rohani dan juga intelek apakah matlamat kbsr diperkenalkan 114466akta pendidikan 1996 fail edar travelling file kedudukan bahasa kebangsaan diperkukuh dengan memperuntukkannya sebagai bahasa pengantar arahan utama dalam sistem pendidikan kebangsaan melalui 1 murid dikehendaki berada dalam akta pendidikan 1996 kedudukan ini diperkuat lagi kumpulan setiap kumpulan diberi satu fail yang mengandungi soalan untuk dengan menjadikan bahasa tersebut sebagai mata dibincangkan dan dicatatkan pelajaran yang wajib diajarkan di semua sekolah 2 setelah 15 minit soalan dan jawapan dan institusi pendidikan institusi pendidikan swasta dimasukkan semula ke dalam fail lalu pula dikehendaki mengadakan pengajaran bahasa diedarkan kepada kumpulan lain kebangsaan pengajian malaysia dan pendidikan 3 setiap kumpulan digalakkan menambah islam atau moral untuk memupuk semangat cinta membaiki atau menyatakan pendapat pada akan negara serta nilai murni jawapan dalam fail tersebut 4 setelah setiap kumpulan memberikan maklum balas pada jawapan guru akan mengendalikan perbincangan kelas dan membuat rumusan soalan falsafah pendidikan kebangsaan pendidikan di malaysia adalah suatu usaha berterusan ke arah lebih memperkembangkan potensi individu secara menyeluruh dan bersepadu untuk melahirkan insan yang seimbang dan harmonis dari segi intelek rohani emosi dan jasmani berdasarkan kepercayaan dan kepatuhan kepada tuhan usaha ini adalah bertujuan 7 bab melahirkan warganegara malaysia yang bab berilmu pengetahuan berketerampilan akta pendidikan 1996 akta 550 berakhlak mulia bertanggungjawab dan 7 berkeupayaan mencapai kesejahteraan diri sumber lembaga penyelidikan undangundang 2019 akta serta memberikan sumbangan terhadap pendidikan 1996 akta 550 peraturanperaturan dan keharmonian dan kemakmuran keluarga kaedahkaedah terpilih petaling jaya international law masyarakat dan negara book services pelaksanaan sistem pendidikan di negara kita berdasarkan dasar pendidikan kebangsaan sumber wwwmoegovmyindex dicapai pada laporan rahman talib laporan jawatankuasa 12 julai 2020 kabinet falsafah pendidikan kebangsaan dan akta pendidikan 1996 dasar ini digubal untuk a apakah yang dimaksudkan dengan mencapai matlamat masyarakat yang bersatu potensi individu padu pelaksanaan ini juga bertujuan meneruskan b mengapakah potensi individu perlu dan memperkukuh dasar pendidikan kebangsaan dikembangkan secara menyeluruh dan bersepadu sebagai rakyat malaysia kita perlu menghargai c bagaimanakah insan yang berakhlak menyokong serta memberikan komitmen terhadap mulia dan berilmu pengetahuan dapat kepentingan pendidikan bagi mengukuhkan menyumbang ke arah keharmonian perpaduan kaum dan integrasi nasional dan perpaduan 114477</t>
+          <t>42 kuasa kerajaan persekutuan dan kerajaan negeri pentadbiran kerajaan malaysia dibahagikan kepada tiga peringkat iaitu kerajaan persekutuan kerajaan negeri dan kerajaan tempatan pembahagian kuasa perlembagaan persekutuan memperuntukkan kuasa yang khusus antara kerajaan persekutuan dengan kerajaan negeri yang meliputi kuasa perundangan dan kuasa pemerintahan pembahagian kuasa antara kerajaan persekutuan dengan kerajaan negeri bertujuan melicinkan perjalanan sistem persekutuan serta mengelakkan kompleks perdana putra 44 permasalahan antara keduadua peringkat kerajaan bbaabb peruntukan kuasa lebih besar diberikan pada peringkat persekutuan untuk mewujudkan kerajaan persekutuan yang kuat bagi menjamin kestabilan dan kemajuan negara tiada peruntukan kuasa khusus kepada kerajaan tempatan sebaliknya kerajaan tempatan diletakkan di bawah kuasa kerajaan negeri masjid putra informasi pusat pentadbiran kerajaan persekutuan kerajaan persekutuan memindahkan pusat pentadbirannya istana kehakiman dari kuala lumpur ke putrajaya pada tahun 1999 putrajaya diisytiharkan oleh tun dr mahathir mohamad perdana menteri malaysia keempat 1981 2003 penubuhan ini untuk mewujudkan sebuah pusat pentadbiran kerajaan persekutuan yang lebih sistematik berikutan keadaan kuala lumpur yang semakin sesak dengan pembangunan dan pertambahan penduduk pada tahun 2000 kerajaan negeri selangor dan kerajaan persekutuan menandatangani perjanjian untuk kementerian kewangan menjadikan putrajaya sebuah wilayah persekutuan nama putrajaya diambil bersempena dengan nama tunku abdul rahman putra alhaj perdana menteri malaysia pertama kementerian luar negeri 6688kuasa kerajaan persekutuan pada peringkat persekutuan institusi yang mempunyai kuasa untuk membuat undangundang bagi seluruh malaysia ialah parlimen kuasa pemerintahan kerajaan persekutuan meliputi perkara yang termaktub dalam perlembagaan persekutuan sebagai senarai persekutuan senarai persekutuan menjelaskan kuasa kerajaan persekutuan yang luas meliputi skop kepentingan nasional dan merangkumi semua aspek perkhidmatan berhubung dengan pentadbiran negara antara yang terkandung dalam senarai persekutuan termasuklah hal ehwal luar negeri pertahanan keselamatan dalam negeri pentadbiran keadilan kewarganegaraan bbaabb kewangan kompleks seri perdana kediaman perhubungan dan pengangkutan 44 rasmi perdana menteri pelajaran perubatan dan kesihatan istana melawati istana yang dipertuan agong jambatan seri wawasan mengapakah perlembagaan persekutuan memperuntukkan pusat konvensyen antarabangsa kuasa yang lebih banyak kompleks setia perdana putrajaya kepada kerajaan persekutuan 6699kuasa kerajaan negeri setiap negeri di malaysia mempunyai dewan antara perkara yang terkandung dalam undangan negeri dun yang mempunyai kuasa senarai negeri termasuklah untuk menggubal undangundang bagi negerinya undangundang islam kuasa pemerintahan kerajaan negeri meliputi tanah perkara yang termaktub dalam perlembagaan pertanian dan perhutanan persekutuan sebagai senarai negeri kerajaan tempatan hari kelepasan negeri senarai bersama senarai bersama ialah perkara yang antara perkara yang terkandung dalam senarai bersama membolehkan parlimen dan dun termasuklah menggubal undangundang untuk kebajikan awam 44 bbaabb perkara yang sama biasiswa sekiranya ada percanggahan bagi perlindungan haiwan liar dan taman negara perkara di bawah senarai bersama perancangan bandar dan luar bandar undangundang yang diluluskan oleh kesihatan awam kebersihan dan pencegahan parlimen harus dipatuhi penyakit kebudayaan dan sukan perumahan peruntukan tambahan bagi sarawak dan sabah kerajaan negeri sarawak dan antara tambahan kepada senarai bersama bagi sarawak sabah diberi kuasa tambahan dan sabah termasuklah bagi menyesuaikan kemasukan undangundang diri berhubung dengan perkahwinan negeri berkenaan ke dalam penceraian penjagaan anak nafkah dan sebagainya persekutuan malaysia berkaitan dengan undangundang keluarga penyelidikan pertanian dan perhutanan pengawalan antara tambahan kepada senarai makhluk perosak dan pencegahan penyakit tumbuhan negeri bagi sarawak dan sabah pilihan raya bagi dewan negeri termasuklah undangundang dan adat di bawah akta imigresen 1963 kerajaan negeri anak negeri sarawak dan sabah diberi kuasa untuk mengekalkan mahkamah anak negeri kuasa kawalan kemasukan dan kediaman di negerinegeri kereta api di sabah berkenaan mengapakah peruntukan tambahan diberikan senarai persekutuan dalam senarai negeri dan senarai bersama senarai negeri bagi sarawak dan sabah senarai bersama 7700peranan kerajaan tempatan kerajaan tempatan merupakan kerajaan peringkat ketiga yang diberi kuasa untuk mentadbir dan melaksanakan tanggungjawab dalam sesebuah kawasan tempatan atau daerah kecil yang diwartakan kerajaan tempatan lebih dikenali sebagai pihak berkuasa tempatan pbt dan berada di bawah bidang kuasa kerajaan negeri kerajaan tempatan merupakan perantara antara kerajaan negeri dengan rakyat serta berperanan memberikan perkhidmatan kepada penduduk setempat fungsi kerajaan tempatan digariskan oleh akta kerajaan tempatan 1976 akta 171 merangkumi semua jenis kerajaan tempatan seperti majlis bandaraya majlis perbandaran dan majlis daerah bbaabb menyediakan perkhidmatan mengeluarkan lesen membangunkan pembersihan dan kawalan penjaja perumahan awam 44 menyediakan kemudahan sukan dan kebudayaan antara fungsi menjaga kesihatan awam kerajaan tempatan pihak berkuasa tempatan menyediakan pasukan bantuan dan penyelamat mengindahkan kawasan menyediakan perkhidmatan menyenggara menyenggara menyediakan kecemasan sistem saliran jalan raya kemudahan awam pembahagian kuasa dalam sistem persekutuan menggambarkan meneroka bukti kepentingan mewujudkan pentadbiran yang sistematik bagi melicinkan tadbir urus negara setiap peringkat kerajaan dalam kerajaan tempatan merupakan persekutuan mempunyai peranan untuk membentuk pentadbiran kerajaan yang paling rapat yang berwibawa bagi kemajuan bangsa dan negara dengan rakyat buktikan 7711</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bahasa Perpaduan </t>
+          <t xml:space="preserve">dan Kerajaan Negeri </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73 bahasa melayu sebagai bahasa ilmu dan bahasa perpaduan seiring dengan kemerdekaan negara bahasa melayu diiktiraf sebagai bahasa kebangsaan dan bahasa rasmi beberapa langkah dilaksanakan untuk memartabatkan bahasa kebangsaan antaranya termasuklah pengenalan akta bahasa kebangsaan memperkasakan bahasa melayu dalam sistem pendidikan penubuhan ukm sebagai pusat keilmuan dan peranan dbp sebagai pusat perkembangan bahasa kebangsaan akta bahasa kebangsaan bahasa melayu merupakan bahasa rasmi yang digunakan sebagai alat untuk memupuk perpaduan kaum kedudukan bahasa melayu dimartabatkan melalui penggubalan undangundang yang dikenali sebagai akta bahasa kebangsaan akta bahasa kebangsaan diperkenalkan pada tahun 1967 akta ini dikenali juga sebagai akta 32 akta bahasa kebangsaan telah digubal di bawah perkara 152 perlembagaan persekutuan malaysia akta ini mula dikuatkuasakan pada 1 julai 1971 bahasa rasmi pentadbiran bahasa melayu sebagai bahasa rasmi menjadi antara unsur penggerak jentera pentadbiran negara bahasa melayu juga merupakan alat komunikasi rasmi dalam pelbagai urusan di kementerian dan jabatan kerajaan bahasa melayu digunakan sepenuhnya dalam urusan mahkamah pada tahun 1990 seksyen 2 memperkasakan bahasa melayu dalam sistem pendidikan akta bahasa kebangsaan menetapkan bahawa pembukaan sekolah menengah kebangsaan yang menggunakan segala urusan rasmi bahasa melayu sebagai bahasa pengantar dipergiat di seluruh negara 7 kerajaan harus bab bab antaranya sekolah alam shah sekolah seri puteri dan kolej menggunakan bahasa sultan abdul halim menggunakan bahasa melayu sebagai bahasa melayu sebagai bahasa 7 pengantar penggunaan bahasa melayu sebagai bahasa pengantar pengantar dapat memupuk semangat kekitaan dan bersatu dalam kalangan seksyen murid bilangan guru terlatih bahasa melayu ditambah di sekolah 8 mkm e e eb n la a e n y n g u gs a as h ae n b k ae lg b aa an i n gbg ka s haa haa n s i an d i i a bl n m e rgu mu d ra u a t l n ka mh b a aa s ht u au s nn a ttu u p k k e s rm p e k ae mod l u ap a he n r m k ae s n a ek n a g n a b h a jhe an si as a b k m a t a h e a nb su e a a t h a m pa s kea a a ln a n k y b e ua ab mah a an e w g s s ta i a an bpb e a a n h h y a a a s s m a a p i r laa m is a m un ii m l m m e u r e u p r j ueu njku g k b e at b ah ah a hu s aaa s n a y s a ye n ahg n i ngm g a dg m ia g ppu ue n r a m i kn a eg n n k ja a dt d a t i li an p m g e gr a si n i t t u a a r s a i a n r a b s m a g i i op m l dee a mi h n d m b a s i g e e amr s li e a n a a o y a n n r s k a a ik a n e m g t e ak d sr h e aa kcl kn u a sg m ma i a l nia h iaitu dalam urusan pentadbiran sistem pendidikan urusan perdagangan dan kehakiman akta bahasa kebangsaan sumber lembaga penyelidikan undang undang 2019 akta pendidikan 1996 bagaimanakah penggunaan bahasa kebangsaan dapat memupuk akta 550 peraturanperaturan dan kaedahkaedah terpilih petaling jaya perpaduan rakyat international law book services 148universiti kebangsaan malaysia ukm sebagai pusat keilmuan bahasa melayu penubuhan ukm merupakan usaha untuk memartabatkan bahasa melayu sebagai bahasa ilmu ukm ditubuhkan pada 18 mei 1970 universiti ini muncul sebagai pusat pengajian tinggi awam pertama yang berjaya memperkenalkan pengajian pelbagai jurusan dan bidang kursus dalam bahasa melayu penubuhan institut bahasa kesusasteraan dan kebudayaan logo atma melayu ibkkm pada 1 disember 1972 menjadikan ukm sebagai sumber pusat penyelidikan dan rujukan dalam bahasa kesusasteraan dan dicapai pada 23 oktober 2020 kebudayaan tamadun melayu institut ini kemudian bertukar nama kepada institut alam dan tamadun melayu atma pada tahun 1992 institut ini menjadi tumpuan para penyelidik sasterawan karyawan dan budayawan daripada pelbagai kaum dari dalam dan luar negara pengiktirafan terhadap tokoh ukm seperti muhammad haji salleh dan siti zainon ismail sebagai sasterawan negara membuktikan kejayaan ukm sebagai pusat keilmuan bahasa melayu peranan dewan bahasa dan pustaka dbp penubuhan dbp pada 22 jun 1956 di bukit timbalan johor bahru johor hasil daripada resolusi kongres bahasa dan persuratan melayu ketiga penubuhannya bertujuan memartabatkan bahasa melayu sebagai bahasa rasmi dan bahasa ilmu nama asal dbp ialah balai pustaka pengarah pertama dbp ialah ungku abdul aziz bin ungku abdul hamid jawatan ini kini dikenali sebagai ketua pengarah pembukaan pejabat di wilayah dan cawangan di pulau pinang johor kelantan sarawak dan sabah bertujuan mengembangkan aktiviti bahasa dan sastera sebagai medium untuk memupuk perpaduan dbp memainkan peranan penting dalam mengembangkan bahasa dan 7 sastera melayu melalui penerbitan buku dan majalah bab bab risalah menganjurkan seminar dan bengkel serta pelbagai aktiviti bersempena dengan minggu dan 7 bulan bahasa kebangsaan peranan dbp ini adalah untuk memupuk perpaduan dalam kalangan masyarakat berbilang kaum di negara ini slogan bahasa jiwa bangsa dewan bahasa dan pustaka dilancarkan pada tahun 1960 agar dapat sumber dewan bahasa dan mengukuhkan pembinaan masyarakat pustaka yang bersatu padu melalui bahasa logo slogan bahasa jiwa bangsa pengenalan akta bahasa kebangsaan penggunaan bahasa kebangsaan sebagai bahasa rasmi dalam pentadbiran pelaksanaan sistem pendidikan berasaskan bahasa melayu serta peranan ukm dan dbp sebagai pusat ilmu memastikan kedudukan bahasa melayu sebagai bahasa perpaduan negara pemimpin dan rakyat wajar memainkan peranan bagi memartabatkan bahasa kebangsaan untuk kesejahteraan dan kemakmuran negara kita 149</t>
+          <t>43 kerjasama kerajaan persekutuan dan kerajaan negeri kerjasama antara kerajaan persekutuan dengan kerajaan negeri penting untuk memastikan segala usaha pembangunan dapat memberikan manfaat demi kesejahteraan rakyat di seluruh negara kerjasama ini antaranya meliputi aspek pembangunan sosioekonomi pemeliharaan khazanah negara perumahan dan keselamatan kerjasama pembangunan sosioekonomi bagi menjayakan pembangunan sosioekonomi kerajaan persekutuan menubuhkan agensi yang dapat memberikan bantuan kewangan dan kepakaran kepada kerajaan negeri kerajaan negeri pula menyediakan tanah untuk tujuan pembangunan kerana tanah di bawah bidang kuasa kerajaan negeri pembangunan tanah pada peringkat awal kemerdekaan kerjasama sosioekonomi 44 bbaabb tertumpu pada pembukaan tanah baharu dan pembangunan insitu pada tahun 1956 kerajaan persekutuan menubuhkan federal land development authority felda atau lembaga kemajuan tanah persekutuan untuk mengurus dan menyalurkan bantuan kewangan kepada kerajaan negeri dalam usaha melaksanakan rancangan pembangunan tanah baharu kejayaan felda mendorong kerajaan persekutuan pembukaan felda endau mersing menubuhkan federal land consolidation and rehabilitation pada tahun 1959 authority felcra atau lembaga penyatuan dan sumber arkib negara malaysia pemulihan tanah persekutuan pada tahun 1966 untuk menyatukan memulihkan dan membangunkan tanah kerajaan negeri yang terbiar di seluruh negara segitiga jengka ialah ilham tun abdul razak hussein informasi segitiga jengka merupakan rancangan pembangunan wilayah pertama diusahakan oleh felda pada tahun 1966 yang merangkumi tiga daerah iaitu temerloh jerantut dan maran pahang pembangunan insitu menekankan pembangunan fizikal desa seperti penyediaan kemudahan asas rumah rakyat dan pusat pertumbuhan ekonomi desa tun abdul razak hussein perdana menteri malaysia kedua melawat membuat interpretasi segitiga jengka pahang sumber rokiah talib 2010 raja setem pos mencatatkan tun abdul razak muhammad alias arkitek felda bangi hussein sebagai bapa pembangunan penerbit universiti kebangsaan malaysia berikan justifikasi anda mengapakah tun abdul razak hussein diberi gelaran sedemikian 7722pembangunan wilayah selepas tahun 1970 kerjasama sosioekonomi diperluas kepada pembangunan wilayah berdasarkan pembangunan kawasan kerajaan persekutuan membuka kawasan lebih luas di beberapa buah negeri untuk membangunkan wilayah baharu lembaga kemajuan lembaga u agensi pembangunan kelantan selatan kemajuan di sarawak thailand kesedar wilayah kedah lembaga keda keda kemajuan tanah lembaga sarawak lkts perda kemajuan kesedar lembaga lembaga terengganu penyatuan kemajuan ketengah tengah wilayah ketengah pemuliharaan pulau pinang tanah sarawak bbaabb perda salcra dara lembaga agensi pembangunan 44 lembaga kemajuan di sabah kemajuan pahang lembaga johor tenggara kejora tenggara kemajuan tanah kejora dara sabah sldb pembangunan koridor wilayah selepas tahun 2005 kerjasama sosioekonomi dilaksanakan melalui pembangunan koridor jadual 41 rancangan pembangunan koridor wilayah berlandaskan projek pembangunan wilayah pembangunan koridor wilayah merupakan rancangan pembangunan wilayah liputan perancangan strategik jangka panjang yang koridor wilayah 2006 memberikan tumpuan kepada pembangunan rancangan pembangunan di negeri dan wilayah yang kurang pesat untuk iskandar atau south johor selatan joh or economic region sjer mewujudkan keseimbangan pembangunan 2007 negeri dan wilayah wilayah ekonomi koridor utara perlis keda h atau northern corridor pulau pinan g utara perak economic region ncer 2007 pahang terengganu wilayah ekonomi pantai kelantan d aerah mers ing timur atau east coast johor economic region ecer 2008koridor tenaga diperbaharui sarawak atau sarawak wilayah ten gah saraw ak corridor of renewable energy score 2008 koridor pembangunan sabah seluruh sa bah atau sabah development pelan projek wilayah pembangunan iskandar yang corridor sdc dikenali sebagai iskandar malaysia rancangan pembangunan iskandar mengapakah negeri di pantai barat semenanjung sumber malaysia 2007 50 tahun pendakian ke puncak malaysia tidak termasuk dalam rancangan emas kuala lumpur jabatan penerangan malaysia pembangunan koridor wilayah 7733kerjasama pemuliharaan khazanah negara malaysia merupakan negara yang terkenal dengan kekayaan flora dan fauna bagi mengekalkan warisan biodiversiti untuk kepentingan generasi kini dan akan datang kerajaan pada setiap peringkat bekerjasama mewujudkan rangkaian kawasan perlindungan seperti taman negara dan taman laut pengurusan taman negara berdasarkan perlembagaan persekutuan pengurusan hidupan liar dan taman negara merupakan tanggungjawab bersama antara kerajaan persekutuan dengan kerajaan negeri bagi mengukuhkan kerjasama ini akta perlindungan hidupan liar 1972 akta 76 diwujudkan pada tahun 1972 pada tahun 2010 akta ini digantikan dengan akta pemuliharaan hidupan liar 2010 yang dikenali sebagai akta 716 antara tahun 1972 hingga tahun 1978 kerajaan persekutuan mengambil alih pentadbiran semua jabatan mergastua negeri di semenanjung malaysia jabatan mergastua kemudiannya dinamakan sebagai jabatan perlindungan hidupan liar dan taman negara perhilitan semenanjung malaysia 4 pengurusan taman negara di sarawak terletak di bawah pengurusan perbadanan perhutanan bab sarawak manakala taman negara di sabah terletak di bawah jabatan hidupan liar sabah thailand u perak kelantan taman negeri royal belum terengganu taman negara pahang pahang taman hidupan liar krau taman negara kinabalu sabah petunjuk johor diisytiharkan sebagai tapak warisan taman hidupan liar taman dunia unesco pertama di malaysia negara dan taman negara johor endau pada tahun 2000 rompin peta menunjukkan antara kawasan perlindungan hidupan liar dan taman negara di semenanjung malaysia sumber malaysia 2018 laporan tahunan 2018 annual report kuala lumpur jabatan perhilitan semenanjung malaysia informasi rafflesia azlanii spesies rafflesia azlanii merupakan spesies asli semenanjung malaysia dan mula ditemukan di hutan simpan royal belum di negeri perak taman negara mulu sarawak diiktiraf pada tahun 2003 bagi memperingati penemuan sebagai tapak warisan dunia unesco ini rafflesia tersebut dinamakan bersempena pada tahun 2000 dengan nama sultan perak sultan azlan sumber muhibbuddin shah ibni almarhum sultan worldheritagesite dicapai pada 19 julai yusuff izzuddin shah ghafarullahulah 2020 7744litupan karang hidup yang sihat program restorasi karang di taman di perairan taman laut malaysia laut malaysia oleh jabatan perikanan malaysia sumber jabatan perikanan malaysia sumber jabatan perikanan malaysia aktiviti pembersihan dasar laut pengurusan taman laut di taman laut malaysia oleh jabatan perikanan malaysia bagi memulihara khazanah laut di negara kita 42 buah pulau sumber jabatan perikanan malaysia di perairan kedah terengganu pahang johor sabah dan labuan diwartakan sebagai taman laut sejak tahun 1994 kerajaan persekutuan membentuk dasar berkaitan dengan taman laut kerajaan negeri berkuasa terhadap bab pembangunan pulau penyelarasan pentadbiran taman laut dibuat melalui 4 mesyuarat majlis penasihat kebangsaan taman laut dan jabatan taman laut malaysia rizab laut yang dianggotai oleh kerajaan persekutuan dan menjalankan rondaan dan kerajaan negeri pengawalseliaan di perairan jabatan taman laut malaysia ditubuhkan pada tahun 2007 taman laut sebagai agensi kerajaan persekutuan yang bertanggungjawab sumber jabatan perikanan malaysia secara keseluruhan dalam dasar pengurusan taman laut di malaysia pada tahun 2018 pengurusan taman laut informasi dipindahkan ke jabatan perikanan malaysia kawasan perlindungan marin di perairan sabah pula di bawah taman laut di bawah tanggungjawab kerajaan negeri melalui agensinya iaitu pengurusan tamantaman tamantaman sabah sabah1 taman tunku abdul rahman kota kinabalu terengganu 2 taman pulau tiga kuala penyu 3 taman pulaupulau penyu wilayah sandakan kedah pahang persekutuan 4 taman marin tun sakaran labuan semporna 5 taman pulau sipadan semporna u thailand 6 taman tun mustapha kudat perlis johor kedah ppuinlaanug kelantan sabah hidupan laut terengganu brunei perak darussalam empat daripada spesies penyu pahang dunia boleh dijumpai di perairan selangor malaysia dua daripadanya ialah mel nsaeekmgaebrilianjohor sarawak petunjuk penyu karah eretmochelys insdumoanteesraia singapura taman laut imbricata dan penyu hijau chelonia mydas peta lokasi pulaupulau taman peta lokasi laut malaysia pulaupulau sumber jabatan perikanan malaysia taman laut malaysia 7755kerjasama penyediaan perumahan rakyat perumahan terletak di bawah kuasa bersama kerajaan persekutuan dan kerajaan negeri pelbagai strategi dan langkah kerjasama diambil oleh kerajaan untuk memastikan rakyat dapat memiliki rumah sendiri perumahan awal kemerdekaan pada awal kemerdekaan kerajaan persekutuan dan kerajaan negeri bekerjasama menyediakan perumahan kos rendah terutamanya di kawasan bandar kerajaan persekutuan menubuhkan kementerian kerajaan negeri menyediakan kerajaan tempatan dan perumahan pada tahun tanah yang dijual pada harga rendah 1964 untuk menggiatkan usaha menyediakan kepada kerajaan persekutuan untuk perumahan kos rendah membina rumah 4 bab pembinaan perumahan di petaling jaya selangor pada tahun 1950an sumber arkib negara malaysia 76perumahan untuk mengatasi masalah kemiskinan selepas tahun 1970 kerajaan persekutuan bekerjasama dengan kerajaan negeri bagi membina rumah untuk rakyat berpendapatan rendah kerajaan mengenal pasti penyediaan perumahan bukan sahaja untuk menyelesaikan masalah kekurangan rumah tetapi juga sebagai langkah menghapuskan kemiskinan kerajaan persekutuan melaksanakan program perumahan rakyat ppr pada tahun 1997 untuk membina perumahan awam di seluruh negara kerajaan negeri menubuhkan agensi pembangunan negeri seperti perbadanan kemajuan negeri selangor pkns dan bab perbadanan kemajuan ekonomi negeri perak untuk membina rumah bagi rakyat 4 berpendapatan rendah kerajaan negeri juga memperkenalkan program perumahan flat jalan pekeliling di jalan tun razak kuala lumpur awam kos rendah pakr melalui dibina untuk golongan berpendapatan rendah peruntukan kewangan yang diterima sumber dasar perumahan negara 20182025 jabatan daripada kerajaan persekutuan perumahan negara kementerian perumahan dan kerajaan tempatan perumahan mampu milik pada tahun 2014 majlis perumahan negara ditubuhkan untuk merangka strategi menyediakan perumahan mampu milik kerajaan persekutuan dan kerajaan negeri menubuhkan pelbagai agensi serta memperkenalkan program khusus untuk membolehkan golongan pertengahan memiliki rumah antara program peringkat persekutuan termasuklah perbadanan perumahan 1malaysia pr1ma rumah mesra rakyat di bawah kementerian perumahan dan kerajaan tempatan antara program peringkat negeri termasuklah rumah selangorku selangor rumah mampu milik johor johor rumah pr1ma merupakan projek rumah mampu milik sumber dewan bahasa dan pustaka 77kerjasama menjamin keselamatan dan kedaulatan negara keselamatan dan pertahanan negara adalah di bawah kuasa kerajaan persekutuan pada umumnya keselamatan dalam negeri dan ketenteraman awam di bawah tanggungjawab kementerian dalam negeri kdn manakala pertahanan negara di bawah kementerian pertahanan kementah keduadua aspek tersebut diselaraskan oleh majlis keselamatan negara mkn namun begitu kerajaan persekutuan mengadakan kerjasama erat dengan kerajaan negeri untuk memastikan keselamatan rakyat dan kedaulatan negara terpelihara seperti mewujudkan kawasan keselamatan khas di sarawak dan sabah pemerintahan keselamatan daerah rajang di sarawak berikutan dengan ancaman komunis yang semakin meningkat di sarawak tun abdul razak hussein perdana menteri 44 malaysia kedua yang juga merupakan bbaabb pengerusi majlis keselamatan negara mengisytiharkan bahagian ketiga sarawak sebagai rajang area security command rascom atau pemerintahan keselamatan kawasan rajang pada 26 mac 1972 ketua menteri sarawak dilantik sebagai pengarah operasi negeri dalam rascom beliau bertanggungjawab sidang akhbar oleh datuk patinggi abdul rahman yakub ketua menyelaraskan fungsi dan aktiviti menteri sarawak berkaitan dengan komunis di sarawak pada pasukan keselamatan dengan pejabat bulan mac 1974 awam dalam kawasan rascom sumber arkib negara malaysia jawatankuasa utama dalam rascom jawatankuasa pengerusi bidang tugas jawatankuasa ketua pegawai eksekutif menggubal dasar berkaitan rascom pegawai tadbir kanan dengan aktiviti harian negeri sarawak organisasi rascom jawatankuasa panglima pasukan merancang gerakan perancang keselamatan rascom di kawasan rascom gerakan jawatankuasa ketua pegawai turus merancang dan perang awam melaksanakan segala saraf kegiatan gerak saraf kerjasama kerajaan persekutuan dan kerajaan membuat interpretasi negeri melalui rascom merupakan strategi yang berjaya memulihkan serta mengekalkan keselamatan dan keamanan rascom merupakan sebuah di bahagian tengah sarawak pada tahun 1995 rascom organisasi pentadbiran yang unik dibubarkan dan semua operasi keselamatan di sarawak berikan ulasan anda diselaraskan di bawah mkn 7788kawasan keselamatan khas pantai timur sabah kerajaan persekutuan dengan kerajaan negeri menubuhkan eastern sabah security command esscom atau kawasan keselamatan khas pantai timur sabah ekoran pencerobohan pengganas dari kepulauan sulu di kampung tanduo lahad datu sabah pada 12 februari 2013 misi esscom untuk meningkatkan keselamatan kawasan timur sabah daripada sebarang ancaman melalui kerjasama strategik antara agensi kerajaan esscom bertanggungjawab mengawasi keselamatan 10 daerah di pantai timur sabah yang dikenali sebagai eastern sabah security zone esszone atau zon keselamatan timur sabah latar belakang penubuhan esscom 12 februari 2013 pencerobohan pengganas pengerusi jawatankuasa pemantau esscom kepulauan sulu di lahad datu perdana menteri malaysia 5 mac 2013 ops daulat dilancarkan 7 mac 2013 perdana menteri malaysia pengerusi jawatankuasa esszone mengumumkan pembentukan ketua menteri sabah bab kawasan keselamatan khas di pantai timur sabah 4 27 mac 2013 pengisytiharan zon keselamatan timur sabah ketua pegawai eksekutif komander esscom esscom esszone 1 april 2013 kawasan keselamatan khas pengurusan tertinggi dalam struktur organisasi pantai timur sabah esscom esscom ditubuhkan sumber dicapai pada 22 mac 2020 petunjuk kudat esszone pitas kota u peta menunjukkan marudu 10 daerah di pantai beluran timur sabah yang terlibat dalam sandakan pengawalan kinabatangan esscom lahad datu sumber kunak esscomgovmy tawau semporna dicapai pada 22 mac 2020 kewujudan esscom untuk menambah baik esscom mengintegrasikan kerjasama agensi aspek keselamatan membuktikan komitmen keselamatan seperti angkatan tentera malaysia kerajaan pada setiap peringkat dalam usaha atm polis diraja malaysia pdrm dan agensi mengembalikan semula ketenteraman demi penguatkuasaan maritim malaysia apmm kesejahteraan rakyat sabah sumber malaysia 2018 bagus bah esscom kementerian komunikasi dan multimedia malaysia kerjasama kerajaan persekutuan dan kerajaan negeri dalam pelbagai bentuk memperlihatkan usaha ke arah kesejahteraan rakyat kerjasama bandingkan cabaran rascom ini memberikan iktibar kepada kita tentang dengan esscom dalam usaha kepentingan menggembleng fikiran tenaga memelihara keselamatan dan dan usaha untuk membangunkan negara kedaulatan negara 7799</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
+          <t>Bab Raja Berperlembagaan dan Demokrasi</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dasar Kebudayaan Kebangsaan </t>
+          <t xml:space="preserve"> Faktor yang Mengukuhkan Sistem Persekutuan </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74 dasar kebudayaan kebangsaan dasar kebudayaan kebangsaan dibentuk bagi mewujudkan perpaduan negara dan integrasi nasional melalui aspek kesenian dan kebudayaan dasar ini menjadi garis panduan masyarakat bagi membentuk dan mengekalkan identiti sebagai warganegara malaysia sejarah pembentukan kita mesti menggubal satu identiti dasar kebudayaan kebangsaan telah bangsa malaysia dengan mengambil digubal dan diperakui melalui kongres kira semua kaum dan agama saya kebudayaan kebangsaan pada tahun menegaskan bahawa sudah sampai 1971 kongres ini boleh dianggap sebagai ketikanya bagi kita menentukan lanjutan daripada kongres rakyat 1956 identiti atau keperibadian kebangsaan iaitu kongres kebudayaan melayu sebagai satu bangsa yang mempunyai maruah kongres ini dirasmikan oleh perdana dan martabat seperti bangsabangsa lain yang menteri malaysia kedua tun abdul merdeka dan berdaulat di dunia ini razak hussein di dewan tunku canselor petikan ucapan tun abdul razak hussein ketika universiti malaya kuala lumpur merasmikan kongres kebudayaan kebangsaan kongres ini dianjurkan oleh kementerian sumber abdul latiff abu bakar 1987 kebudayaan kebudayaan belia dan sukan kebangsaan dalam pembinaan negara bangsa malaysia kuala lumpur biro pendidikan umno malaysia huraian tentang tiga prinsip utama prinsip utama dasar kebudayaan kebangsaan pembentukan dasar kebudayaan kebangsaan berteraskan tiga prinsip utama 7 membuat rasionalisasi bab bab prinsip utama dasar kebudayaan kebangsaan rasionalkan dasar kebudayaan kebangsaan 7 ke arah memupuk keperibadian kebangsaan informasi berteraskan kebudayaan rakyat asal rantau melayu sebagai tunjang kongres kebudayaan kebangsaan kali kedua dasar kebudayaan kebangsaan diadakan di ukm pada 15 april 2017 antara resolusi kongres tersebut termasuklah memperkasakan kebudayaan nasional unsur kebudayaan lain yang sebagai identiti bangsa sesuai dan wajar diterima sebagai menyemarakkan bahasa melayu elemen penting sebagai bahasa kebangsaan mempertahankan perlembagaan persekutuan islam menjadi unsur yang penting mengukuhkan rukun negara sebagai dalam pembentukan dasar tiang seri negara bangsa kebudayaan kebangsaan pendidikan sebagai alat penyatuan bangsa 150matlamat pembentukan pembentukan dasar kebudayaan kebangsaan bertujuan mencapai tiga matlamat utama iaitu mengukuhkan perpaduan bangsa dan negara melalui kebudayaan memupuk dan memelihara keperibadian kebangsaan yang terhasil daripada kebudayaan kebangsaan memperkaya dan mempertingkatkan kualiti kehidupan kemanusiaan dan kerohanian yang seimbang dengan pembangunan sosioekonomi agensi pelaksana pelaksanaan dasar kebudayaan kebangsaan melibatkan semua kementerian agensi dan jabatan yang berkaitan dengannya dasar ini dilaksanakan oleh kementerian pelancongan kesenian dan kebudayaan kini dikenali sebagai kementerian pelancongan seni dan budaya malaysia jabatan kesenian dan kebudayaan negara majlis kebudayaan negeri istana budaya serta akademi seni budaya dan warisan kebangsaan aswara istana budaya sumber citrawarna malaysia dicapai pada 29 oktober 2020 dasar kebudayaan kebangsaan dijelmakan melalui program seperti citrawarna malaysia yang melibatkan pelbagai kaum dan budaya program ini mula dianjurkan pada tahun 1999 yang merupakan promosi pelancongan antara program yang dijalankan termasuklah memperagakan kebudayaan pakaian tarian dan nyanyian rakyat malaysia program citrawarna diadakan di dataran merdeka pada bulan mei setiap tahun dengan melibatkan rakyat pelbagai kaum dan budaya penggiat budaya 7 azah aziz hamzah dolmat lim swee tin bab bab dasar kebudayaan kebangsaan melahirkan mak ungku tokoh seni muzik kesusasteraan budayawan tradisional ramai tokoh dan penggiat budaya yang tersohor 7 tokoh ini memberikan sumbangan yang besar terhadap proses membudayakan masyarakat dan kebudayaan bangsa sumbangan mereka juga penting dalam menggalakkan penghasilan karya seni tempatan yang bermutu tinggi dan memartabatkan khazanah asli negara samuel dass shuhaibun yussuf mathew ngau jau muzik tradisional budaya dan muzik tradisional india kesusasteraan sape sarawak sabah pelaksanaan dasar kebudayaan kebangsaan dapat membentuk bangsa yang bersatu padu serta mengekalkan identiti negara sebagai 1 dengan menggunakan pelbagai sumber rakyat malaysia kita mestilah berbangga kumpulkan maklumat lanjut berkaitan dengan tokoh di atas dengan keunikan budaya masyarakat hal ini latar belakang kehidupan disebabkan budaya tersebut memperlihatkan kejayaan yang dicapai keperibadian kebangsaan malaysia sebagai sumbangan sebuah negara yang merdeka dan berdaulat 2 bentangkan dapatan anda di hadapan kelas 151</t>
+          <t>44 faktor yang mengukuhkan sistem persekutuan kekukuhan sistem persekutuan di negara kita berkait rapat dengan konsep keluhuran perlembagaan persekutuan serta penyelarasan yang baik antara kerajaan persekutuan dengan kerajaan negeri keluhuran perlembagaan mengukuhkan persekutuan sejak negara mencapai kemerdekaan perlembagaan persekutuan diangkat sebagai undangundang tertinggi bagi mentakrifkan prinsip persekutuan dan pentadbiran negara undangundang yang digubal oleh parlimen dan dun tidak boleh bertentangan dengan peruntukan perlembagaan persekutuan parlimen dan dun tidak boleh menggubal undangundang yang bercanggah antara satu sama lain perlembagaan persekutuan menjadi rujukan utama apabila berlaku ketidakselarasan antara undangundang persekutuan dengan undangundang negeri perkara 75 perlembagaan persekutuan menyebutkan bahawa jika manamana undang 4 undang negeri tidak selaras dengan sesuatu undangundang persekutuan maka undangundang bab persekutuan hendaklah mengatasi undangundang negeri prinsip keluhuran perlembagaan yang dijunjung ini mengukuhkan sistem persekutuan di negara kita penyelarasan kerajaan persekutuan dengan kerajaan negeri penyelarasan pentadbiran dibuat antara kerajaan persekutuan dengan kerajaan negeri melalui mesyuarat menteri besar dan ketua menteri serta majlis khas mesyuarat menteri besar dan ketua menteri mesyuarat dipengerusikan oleh perdana menteri serta dihadiri oleh menteri besar dan ketua menteri mesyuarat membincangkan pelaksanaan sesuatu dasar yang diputuskan oleh kerajaan tan sri dato haji muhyiddin mohd yassin perdana menteri malaysia kelapan tiga dari kiri mempengerusikan mesyuarat khas menteri besar dan ketua menteri pada 17 mac 2020 untuk menyelaras perintah kawalan pergerakan pkp di seluruh negara bagi mengawal wabak coronavirus atau covid19 80majlis yang termaktub dalam majlis kewangan negara perlembagaan persekutuan mentadbir hal ehwal berkaitan dengan kewangan seperti pemberian perlembagaan persekutuan memperuntukkan wang bayaran cukai dan pinjaman penubuhan majlis negara untuk menyelaraskan kerajaan persekutuan kepada pentadbiran kerajaan persekutuan dengan kerajaan kerajaan negeri negeri iaitu majlis kewangan negara majlis tanah negara majlis tanah negara membentuk dasar dan mengawal majlis negara bagi kerajaan tempatan penggunaan tanah untuk kegiatan pertanian perlombongan perhutanan majlis yang ditubuhkan oleh kerajaan dan sebagainya perhubungan antara kerajaan persekutuan dengan majlis negara bagi kerajaan kerajaan negeri juga dibuat melalui majlis yang ditubuhkan oleh kerajaan seperti yang berikut tempatan bab perundingan kerajaan persekutuan majlis keselamatan negara majlis air negara dan juga kerajaan negeri untuk 4 membangunkan kerajaan tempatan majlis perumahan negara keberkesanan penyelarasan dan hubungan antara kerajaan persekutuan dengan kerajaan negeri dapat menjamin sistem informasi persekutuan beroperasi dengan berkesan hal ini membuktikan kepentingan setiausaha persekutuan bagi sarawak dan bermusyawarah dalam membuat keputusan sabah untuk kemajuan negara jawatan setiausaha persekutuan bagi sarawak dan sabah diwujudkan pada tahun 1963 tanggungjawab utama adalah untuk sistem persekutuan di negara kita terbentuk mengeratkan hubungan antara kerajaan berdasarkan landasan sejarah tersendiri persekutuan dengan kerajaan negeri sejak merdeka prinsip persekutuan jawatan tersebut dihapuskan pada tahun menyumbang kepada kestabilan hubungan 1982 dan diwujudkan semula pada tahun antara negeri dan memberikan manfaat 1990 berikutan dengan keputusan jemaah kepada kesejahteraan negara menteri pada tahun 1989 pembahagian kuasa pemerintahan antara kerajaan persekutuan dengan kerajaan negeri mewujudkan kerjasama kajian kes untuk mencapai kemajuan dalam pelbagai 1 dengan merujuk pelbagai sumber kenal pasti bidang pembahagian kuasa merupakan majlis yang ditubuhkan untuk mengukuhkan pendekatan terbaik untuk menjamin sistem persekutuan kekuatan kekuasaan dan kestabilan negara 2 sediakan laporan berdasarkan aspek yang rakyat dan pemimpin pada semua berikut peringkat perlu menunaikan tanggungjawab a nama majlis masingmasing untuk memastikan sistem b tarikh ditubuhkan persekutuan membawa kemakmuran c peranan majlis 3 bentangkan dapatan anda di dalam kelas kepada negara 8811imbas kembali sistem persekutuan latalar tbaerl abkealankga snigs tseimst epmer pseerksuetukuatnu an di 1 di nneeggaarara k kitiata pempebmenbteunktaunk asni ssteismte pme rpseerksuetkuuatnu adni mdi amlaaylsaiyasia 44 bbaabb kuasa kerajaan persekutuan dan kerajaan negleartiar belakang sistem persekutuan di 2 penmbeaghaagriaan k kiutaasa kupaesma bkeenrtaujkaaann pseisrtseemku ptuearsnekutuan di malaysia kuasa kerajaan negeri peranan kerajaan tempatan kerjasama kerajaan persekutuan dan kerlaajataanr bneelgaekraing sistem persekutuan di 3 kenrjaesagmaar pae mkbitaangunan sosioekonomi keprjeamsabmean tpuekmanu lsihisatreaman p kerhsaezkauntuaahn n deig maraalaysia kerjasama penyediaan perumahan rakyat kerjasama menjamin keselamatan dan kedaulatan negara faktor yang mengukuhkan sistem latar belakang sistem persekutuan di persekutuan 4 negara kita keluhuran perlembagaan mengukuhkan persekutuan pembentukan sistem persekutuan di malaysia penyelarasan kerajaan persekutuan dengan kerajaan negeri 8822pembelajaran abad ke21 aktiviti 1 saya lihat saya fikir saya tanya i see i think i wonder arahan1 senaraikan perkara yang anda lihat 2 fikirkan perkara yang dilihat 3 bertanyakan soalan yang relevan gambar yang berikut berkaitan dengan wang kertas malaysia siri keempat yang dikeluarkan oleh bank negara malaysia dengan tema keunikan malaysia wang kertas tersebut memaparkan kekayaan warisan di negara kita abad ke21 h h bab o o t t n n o o c c 4 h h o o nt nt o o c c h h o o t t n n o o c c ho h t o n t o n c oc ho h t o n t o n c oc ho h t o n t o n c oc mata wang malaysia memaparkan keunikan warisan malaysia sumber dewan bahasa dan pustaka secara berkumpulan bincangkan dan lakukan aktiviti yang berikut 1 ceritakan keunikan yang anda lihat dalam gambar di atas 2 mengapakah keunikan tersebut dipaparkan pada mata wang malaysia 3 jelaskan keunikan lain yang ada di negara kita 4 bincangkan langkah yang boleh diambil oleh kerajaan persekutuan dan kerajaan negeri untuk memelihara keunikan tersebut sebagai warisan khazanah negara 5 bentangkan hasil perbincangan anda di hadapan kelas 8833pembelajaran abad ke21 aktiviti 2 jalan galeri gallery walk arahanmurid bergerak dan berjalan di dalam kelas untuk melakukan aktiviti yang berikut 1 melihat dan membaca hasil yang dipaparkan 2 berfikir tentang hasil tugasan tersebut 3 berbincang dengan rakan kumpulan tajuk pembentukan jata negara kita maklumat yang berikut berkaitan dengan pembentukan dan perubahan jata di negara kita 1895 1948 1963 1965 4 bab persekutuan terdiri persekutuan terdiri persekutuan persekutuan terdiri daripada empat buah daripada sembilan menggabungkan daripada gabungan negeri melayu iaitu buah negeri melayu negeri di tanah melayu negeri di semenanjung perak selangor negeri dan dua negeri selat dengan singapura malaysia dengan sembilan dan pahang iaitu pulau pinang dan sarawak dan sabah sarawak dan sabah melaka moto dipelihara allah moto bersekutu simbol singapura moto bersekutu bertambah mutu digantikan dengan bertambah mutu lambang bunga raya moto bersekutu bertambah mutu berdasarkan maklumat di atas lakukan aktiviti yang berikut 1 murid dibahagikan kepada empat kumpulan kumpulan 1895 kumpulan 1948 kumpulan 1963 dan kumpulan 1965 setiap kumpulan berbincang dan mencatatkan maklumat berkaitan dengan perkara yang berikut a mentafsir jata di negara kita dari aspek simbol warna dan moto b menghubungkaitkan jata tersebut dengan pembentukan persekutuan di negara kita 2 tampalkan maklumat hasil perbincangan di dalam kelas 3 setiap kumpulan bergerak dan meneliti maklumat hasil perbincangan kumpulan 4 guru sebagai pemudah cara meminta murid membuat rumusan tentang pembentukan jata dan hubung kait dengan pembentukan sistem persekutuan di negara kita sehingga hari ini 8844pemahaman dan pemikiran kritis 1 rajah yang berikut menunjukkan pembahagian pentadbiran dalam sistem persekutuan di negara kita kerajaan persekutuan kerajaan negeri kerajaan tempatan a senaraikan empat kuasa kerajaan persekutuan bab b nyatakan tiga perkara di bawah kuasa kerajaan negeri c kerajaan manakah yang paling hampir dengan rakyat berikan ulasan anda 4 d sistem persekutuan berjaya mewujudkan pentadbiran yang kukuh dan stabil di negara kita buktikan 2 peta yang berikut menunjukkan rancangan pembangunan koridor wilayah yang melibatkan kerjasama kerajaan persekutuan dan kerajaan negeri wilayah ekonomi wilayah ekonomi pantai koridor pembangunan koridor utara ncer timur ecer sabah sdc laut china selatan brunei darussalam selat melaka singapura iskandar malaysia im koridor tenaga diperbaharui sarawak score a namakan negeri dan wilayah yang terlibat dalam rancangan pembangunan wilayah ekonomi koridor utara ncer b mengapakah rancangan pembangunan koridor wilayah diwujudkan di seluruh malaysia c berdasarkan pengetahuan sejarah anda mengapakah negerinegeri di pantai barat semenanjung malaysia tidak terlibat dalam rancangan pembangunan koridor wilayah 8855pemahaman dan pemikiran kritis 1 maklumat yang berikut berkaitan dengan pembahagian kuasa dalam perlembagaan persekutuan senarai persekutuan senarai negeri senarai bersama antara yang berikut perkara manakah terletak di bawah senarai persekutuan i pertahanan ii pendidikan iii hal ehwal tanah iv undangundang islam a i dan ii b i dan iv 4 c ii dan iii bab d iii dan iv 2 jadual yang berikut berkaitan dengan kerjasama kerajaan persekutuan dengan kerajaan negeri untuk kesejahteraan rakyat program kerajaan persekutuan program kerajaan negeri perbadanan perumahan 1malaysia pr1ma rumah selangorku selangor rumah mesra rakyat rumah mampu milik johor johor mengapakah kerjasama tersebut dilakukan a mengatasi masalah setinggan di bandar b meningkatkan taraf hidup rakyat luar bandar c menyelesaikan masalah perumahan golongan miskin d membantu golongan pertengahan memiliki kediaman 3 struktur organisasi yang berikut berkaitan dengan pentadbiran kawasan keselamatan khas di sabah mengapakah pentadbiran tersebut diperkenalkan pengerusi jawatankuasa pemantau esscom a mewujudkan majlis keselamatan negara perdana menteri malaysia b menghapuskan ancaman pengganas komunis c melaksanakan pembangunan koridor wilayah pengerusi jawatankuasa esszone d meningkatkan kerjasama bagi menjamin ketua menteri sabah keselamatan ketua pegawai eksekutif komander esscom esscom 8866cakna dan cerminan sejarah nilai patriotisme dan iktibar sistem persekutuan yang diamalkan sejak merdeka berjaya mewujudkan kestabilan politik kemakmuran ekonomi dan kesejahteraan sosial sistem persekutuan merupakan sistem terbaik untuk mentadbir negara yang terdiri daripada gabungan negeri yang berdaulat usaha kerajaan pada setiap peringkat untuk mewujudkan kesejahteraan rakyat dan kemakmuran negara wajar dihargai kita hendaklah sentiasa menyokong dan melibatkan diri dalam usaha kerajaan persekutuan dan kerajaan negeri bagi memakmurkan negara diri dan keluarga setiap ahli keluarga daripada semua peringkat mempunyai tanggungjawab dan peranan untuk bab membina kejayaan institusi keluarga yang boleh menjadi contoh kepada masyarakat sekeliling 4 negara kepimpinan berwibawa berupaya untuk mewujudkan pemerintahan dan pentadbiran yang adil serta berintegriti untuk kemajuan bangsa dan negara perdana menteri malaysia pertama hingga kelapan kerjasama pemimpin menjamin keutuhan sistem persekutuan sumber dewan bahasa dan pustaka 8877bab 5 pembentukan malaysia sinopsis pembentukan malaysia pada peringkat awalnya terdiri daripada persekutuan tanah melayu sarawak sabah dan singapura pembentukan ini merupakan peristiwa penting dalam sejarah negara pembentukan malaysia menimbulkan pelbagai reaksi daripada penduduk tempatan dan negara jiran oleh itu beberapa langkah dibuat untuk menjayakan usaha pembentukan malaysia termasuklah menangani konfrontasi 5 bab 8888inti pati pembelajaran 1 konsep gagasan malaysia 2 perkembangan idea dan usaha pembentukan malaysia 3 reaksi tempatan dan negara jiran terhadap pembentukan malaysia 4 langkah pembentukan malaysia 5 perjanjian julai 1963 dan peristiwa pengisytiharan malaysia 6 konfrontasi dan usaha menangani bab elemen kewarganegaraan dan nilai sivik 5 1 kepentingan berfikiran strategik untuk berjaya dalam kehidupan 2 kepentingan kesepakatan untuk kestabilan negara 3 sikap menerima dan meraikan idea serta pandangan yang berbeza 4 kepentingan sikap berwaspada terhadap anasir luar kemahiran pemikiran sejarah 1 memahami kronologi tentang idea pembentukan malaysia 2 meneroka bukti reaksi tempatan dan negara jiran terhadap pembentukan malaysia 3 membuat interpretasi kandungan perjanjian malaysia 1963 dan pengisytiharan malaysia 1963 4 membuat imaginasi langkah pembentukan malaysia 5 membuat rasionalisasi tentang usaha menangani konfrontasi tunku abdul rahman putra alhaj melaungkan merdeka sebanyak tujuh kali pada pemasyhuran malaysia sumber arkib negara malaysia 8899</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sukan sebagai Alat Perpaduan </t>
+          <t xml:space="preserve">  Konsep Gagasan Malaysia </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75 sukan sebagai alat perpaduan sukan merupakan satu medium untuk memupuk perpaduan kaum dan integrasi nasional di malaysia sukan dapat mengeratkan hubungan muhibah dan menerapkan rasa saling hormat dalam kalangan peserta selain itu sukan mampu mewujudkan masyarakat yang sanggup memberikan sumbangan demi kesejahteraan sosial dan kecemerlangan sukan negara sukan dan perpaduan melalui pendidikan sukan merupakan aktiviti kokurikulum yang sangat digalakkan dalam kalangan murid sekolah dasar 1 murid 1 sukan dan rancangan integrasi murid untuk perpaduan rimup menggalakkan murid pelbagai kaum melibatkan diri dalam sukan yang digemari dasar ini juga memberikan peluang kepada murid pelbagai kaum untuk menceburi bidang sukan serta dapat memupuk semangat setia kawan dan berpasukan selain itu dasar ini juga mampu melahirkan atlet yang berkaliber sehingga ke peringkat antarabangsa kejohanan olahraga tahunan sekolah melibatkan murid yang terdiri daripada pelbagai kategori umur dan kaum pusingan robin tiada acara sukan yang dipertandingkan mengikut kaum round robin rakanrakan penyokong serta guru penasihat rumah murid secara berkumpulan bergilirgilir sukan akan bersorak memberikan sokongan kepada atlet memberikan maklum balas terhadap gambar rumah sukan masingmasing tanpa mengira kaum yang berikut 7 bab bab 7 perbarisan rumah sukan bersempena dengan kejohanan olahraga tahunan sekolah sumber ihsan daripada tuan haji ahmad kerjasama ali 2019 dan semangat 1 apakah perasaan anda setelah dipilih bersatu warga sekolah yang sebagai salah seorang ahli perbarisan berbilang kaum rumah sukan diperlihatkan 2 bagaimanakah anda memainkan melalui pelibatan peranan dalam perbarisan rumah sukan dalam kejohanan yang terdiri daripada pelbagai kaum olahraga tahunan 3 jelaskan manfaat yang boleh didapati sekolah daripada kegiatan sukan ini bagi sumber ihsan mengukuhkan hubungan dengan rakan daripada tuan haji kaum lain ahmad ali 2019 115522majlis sukan universiti malaysia masum majlis sukan universiti malaysia masum bermula pada tahun 1974 masum ditubuhkan bertujuan mengadakan pertandingan sukan dalam kalangan penuntut dan staf universiti tempatan bagi memupuk perpaduan dan integrasi nasional masum menjadi medan untuk atlet menunjukkan kebolehan dalam sukan penganjuran masum secara bergilirgilir dapat menggalakkan integrasi antara negeri logo masum sumber kementerian pengajian tinggi sukan malaysia sukma sukan malaysia sukma diadakan secara dwitahunan pada peringkat kebangsaan yang disertai oleh 13 buah negeri dan wilayah persekutuan sukma bertujuan mengeratkan hubungan kaum serta integrasi antara negeri sukma pertama diadakan di kuala lumpur dari 19 april 1986 hingga 26 april 1986 yang disertai oleh 3849 atlet dari 13 buah negeri di malaysia logo sukan malaysia sumber kementerian belia dan sukan penganjuran sukan kejayaan malaysia menganjurkan pelbagai jenis sukan pada peringkat serantau dan antarabangsa juga membuktikan sukan dapat menyatukan masyarakat berbilang kaum di negara kita komitmen pemimpin dan kesungguhan para sukarelawan pelbagai kaum memastikan penganjuran sukan yang cemerlang mendapat pengiktirafan banyak pihak antara sukan antarabangsa yang berjaya dianjurkan oleh malaysia termasuklah hoki piala dunia sukan komanwel piala thomas southeast asian 7 games atau sukan sea sukan permotoran formula 1 dan sukan berbasikal le tour de langkawi bab bab 7 malaysia menganjurkan sukan permotoran formula 1 penganjuran le tour de langkawi setiap tahun sumber dicapai pada mampu menarik minat pasukan ternama dunia 26 oktober 2020 sumber dicapai pada 26 oktober 2020 153kejayaan malaysia kebanggaan bersama kejayaan pasukan negara dalam pertandingan sukan antarabangsa seperti sukan olimpik sukan komanwel sukan asia sukan sea dan pestabola merdeka merupakan hasil kerjasama serta kesungguhan pelbagai pihak dalam pasukan seperti bola sepak hoki badminton renang boling dan olahraga pemain dan jurulatih bekerjasama tanpa mengira kaum kejayaan pasukan negara ini merupakan harapan seluruh rakyat malaysia jelaslah bahawa sukan memainkan peranan yang penting dalam membentuk sebuah pasukan yang bersatu dan saling bekerjasama untuk mencapai kejayaan malaysia turut melakar kejayaan dalam sukan paralimpik seperti kejohanan olahraga paralimpik dunia atlet negara menunjukkan prestasi cemerlang dengan meraih kemenangan dalam pelbagai jenis sukan seperti olahraga dan memanah pasukan hoki kebangsaan dalam pertandingan hoki piala dunia 1975 diperkenalkan kepada 7 seri paduka baginda yang dipertuan agong v bab bab sultan abdul halim muadzam shah ibni almarhum sultan badlishah 7 sumber arkib negara malaysia pasukan bola sepak kebangsaan berjaya melayakkan diri ke sukan olimpik moscow pada tahun 1980 selepas mengalahkan korea selatan 21 sumber ahmad sarji abdul hamid 2008 sports and recreation kuala lumpur editions didier millet senaraikan sukan yang anda ketahui mempunyai pemain dan jurulatih pelbagai kaum di malaysia membuat interpretasi pasukan badminton malaysia menjuarai piala thomas bagaimanakah perpaduan kaum dalam pasukan pada tahun 1967 selepas mengalahkan indonesia 63 membawa kejayaan kepada sukan negara sumber arkib negara malaysia 154laungan malaysia boleh slogan malaysia boleh menunjukkan patriotisme rakyat malaysia tanpa mengira kaum agama dan budaya ketika menyokong pasukan malaysia yang bertanding dalam kejohanan peringkat serantau dan antarabangsa slogan ini asalnya untuk kempen malaysia menjadi tuan rumah kejohanan piala thomas dan uber pada tahun 1992 dan penyertaan malaysia di kejohanan olimpik yang diadakan di sepanyol serta kejohanan sukan sea di singapura 1993 laungan semangat malaysia boleh oleh penyokong dapat dilihat apabila malaysia muncul sebagai juara piala thomas pada tahun 1992 sokongan ini membuktikan bahawa rakyat malaysia bersatu padu untuk kejayaan pasukan badminton malaysia yang menjuarai piala pasukan negara thomas pada tahun 1992 sumber malaysia 2007 jubli emas merdeka 31 ogos 1957 malaysia ku gemilang kuala lumpur kementerian kebudayaan kesenian dan warisan malaysia seri paduka baginda yang dipertuan agong ix sultan azlan muhibbuddin shah ibni almarhum sultan 7 bab yussuf izzuddin shah ghafarullahulah menyampaikan bab pingat kepada pasukan badminton malaysia yang menjuarai piala thomas pada tahun 1992 7 sumber arkib negara malaysia peranan organisasi dalam perkembangan sukan dan slogan malaysia boleh menjadi perangsang semangat kepada rakyat malaysia memupuk perpaduan kaum sumber malaysia 2007 jubli emas merdeka 31 beberapa agensi diberi tanggungjawab untuk ogos 1957 malaysia ku gemilang kuala lumpur kementerian kebudayaan kesenian dan warisan malaysia meningkatkan pencapaian dan kecemerlangan sukan negara pada peringkat antarabangsa antaranya termasuklah kementerian belia dan sukan majlis sukan negara majlis olimpik malaysia serta persatuan sukan peringkat atlet sukan negara kebangsaan dan negeri pegawai pengurusan pakar perubatan sukan pegawai teknikal dan panel kejurulatihan yang terlibat dalam organisasi ini terdiri daripada pelbagai kaum dengan kepakaran dalam bidang masingmasing 155kepemimpinan berwibawa kejayaan sukan di negara kita merupakan hasil pengurusan sukan yang cekap dan teratur kecemerlangan ini juga disebabkan ketokohan pemimpin persatuan sukan jurulatih para atlet dan pegawai sukan keunikan perkembangan sukan di negara kita memperlihatkan pelibatan kerabat diraja dan ahli politik sebagai penaung sultan haji ahmad shah sultan azlan muhibbuddin atau presiden persatuan sukan sementara presiden persatuan bola shah itu bekas atlet pula menjadi pengurus atau sepak malaysia presiden konfederasi jurulatih pasukan peranan mereka penting untuk 19842014 hoki malaysia 19852004 menarik minat dan sokongan rakyat terhadap perkembangan industri sukan negara perbincangan bebas free discussion arahan perbincangan murid dalam kumpulan kecil semasa sesi perbincangan murid bertindak sebagai tunku tan sri imran tuanku dato sieh kok chi pemudah cara jaafar setiausaha agung majlis presiden majlis olimpik olimpik malaysia malaysia 19922015 19982018 7 bab bab 7 berdasarkan simbol tersebut lakukan aktiviti yang berikut1 perbincangan dalam kumpulan kecil tan sri darshan singh gill dato peter velappan a nama tokoh pemain yang anda kenal presiden persekutuan setiausaha agung dalam simbol sukan berkenaan kebangsaan berbasikal konfederasi bola sepak b bincangkan kejayaan yang pernah dicapai malaysia asia malaysia oleh tokoh pemain berkenaan 19861990 19782007 c bagaimanakah kejayaan mereka dapat sukan berupaya untuk mengukuhkan perpaduan menyemarakkan semangat perpaduan antara kaum dalam kalangan masyarakat kaum melalui sukan di malaysia aktiviti sukan memberikan peluang d cadangkan langkah untuk mewujudkan kepada semua yang terlibat membentuk masyarakat perpaduan kaum dan integrasi nasional yang lebih sopan berintegriti bertanggungjawab melalui sukan serta dapat menghargai pentingnya menjaga 2 perbincangan dalam kumpulan besar perpaduan dan keharmonian kaum melalui sukan dengan bimbingan guru sebagai pemudah cara kongsikan maklumat hasil perbincangan dengan juga pemimpin dan rakyat saling bekerjasama serta kumpulan lain dalam bentuk perbincangan berperanan dalam memajukan kegiatan sukan yang bebas membawa kemakmuran negara 156</t>
+          <t>51 konsep gagasan malaysia kemerdekaan persekutuan tanah melayu kemudiannya disusuli oleh pembentukan malaysia melahirkan negara ini sebagai sebuah negara yang berdaulat pembentukan malaysia memperlihatkan kerjasama tokoh dari persekutuan tanah melayu sarawak sabah dan singapura dalam rundingan dengan kerajaan british kesepakatan antara semua pihak ini menzahirkan pembentukan malaysia dan kemudiannya terbentuklah perlembagaan persekutuan malaysia 1963 idea gagasan malaysia idea gagasan malaysia ialah konsep yang menggabungkan beberapa bekas tanah jajahan british di asia tenggara antara idea lain yang pernah dilahirkan termasuklah melayu raya oleh gerakan nasionalis sebelum perang dunia kedua yang mahu mendapatkan kemerdekaan wilayah alam melayu daripada kuasa penjajah british belanda dan amerika syarikat walau bagaimanapun idea ini tidak berjaya dilaksanakan bagi pihak pegawai british mereka mengemukakan idea penyatuan wilayah penguasaan british di asia tenggara dalam satu sistem pentadbiran dan ekonomi langkah ini bertujuan memudahkan pentadbiran pihak british 55 idea gagasan malaysia yang dicadangkan oleh tunku abdul rahman putra alhaj ialah bbaabb penggabungan persekutuan tanah melayu dengan sarawak sabah singapura dan brunei untuk merdeka dalam satu sistem kerajaan persekutuan petunjuk negeri yang menyertai malaysia 1963 thailand laut china selatan sabah persekutuan tanah melayu sarawak singapura peta negeri yang menyertai malaysia 1963 sumber dewan bahasa dan pustaka peta negara dalam gugusan malaysia 1961 9900</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kemakmuran Negara  </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pembentukan Malaysia </t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12 ciri negara yang berdaulat 11 bab bbaabb setiap negara yang bebas dan merdeka mempunyai ciri tertentu bagi menentukan kedaulatannya 1 negara kita turut mempunyai ciri yang menjadi identitinya ciri negara yang berdaulat ialah mempunyai pemerintahan mempunyai sempadan mempunyai perundangan dan mempunyai rakyat yang menjadikan negara kita sebagai sebuah negara bebas dan berdaulat mempunyai pemerintahan pemerintahan negara berdaulat diwujudkan untuk menjaga kestabilan politik keamanan pertahanan dan ekonomi pemerintahan ini dijalankan secara teratur malaysia sebagai sebuah negara persekutuan mengamalkan sistem raja berperlembagaan dan demokrasi berparlimen ketua utama negara ialah yang kebawah duli yang maha mulia seri paduka dipertuan agong ketua kerajaan ialah perdana baginda yang dipertuan agong xvi dan kebawah menteri yang dibantu oleh jemaah menteri duli yang maha mulia seri paduka baginda raja permaisuri agong bersemayam di atas singgahsana sumber jabatan penerangan malaysia mempunyai sempadan sempadan merupakan garis pemisah antara negeri atau negara malaysia merupakan negara yang berkongsi sempadan darat air dan udara dengan negara jiran iaitu singapura thailand indonesia brunei dan filipina sempadan malaysia diakui oleh masyarakat antarabangsa khasnya pbb penetapan sempadan memudahkan urusan pemerintahan pentadbiran pertahanan dan pembangunan ekonomi negara kita filipina informasi thailand raja berperlembagaan laut china selatan raja berperlembagaan bermaksud pemerintahan beraja mengikut brunei darussalam peruntukan perlembagaan persekutuan m a l a y s i a terdapat tiga institusi beraja yang disebut dalam perlembagaan singapura persekutuan iaitu yang dipertuan agong pada peringkat persekutuan i n d o n e s i a institusi beraja pada peringkat negeri dan petunjuk majlis rajaraja sempadan antarabangsa demokrasi berparlimen demokrasi berparlimen bermaksud peta menunjukkan sempadan malaysia dengan negara jiran demokrasi yang dijalankan secara di asia tenggara perwakilan melalui proses pilihan raya sumber dewan bahasa dan pustaka 888mempunyai perundangan 1 bbbaaabbb bab sistem perundangan menjadi asas kepada 111 peraturan negara sistem perundangan penting untuk memelihara kesejahteraan menjamin keadilan dan melindungi rakyat asas kepada sistem perundangan negara kita berpandukan perlembagaan persekutuan parlimen bertanggungjawab menggubal dan menentukan sistem perundangan negara kita istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia mempunyai rakyat rakyat merupakan penduduk di sesebuah negara rakyat terikat kepada undangundang dan peraturan yang dikuatkuasakan oleh pemerintah rakyat negara ini terdiri daripada pelbagai kaum agama dan adat resam mereka disatukan melalui satu bahasa dan kebudayaan rukun negara serta identiti nasional yang sama setem kenangan berkaitan dengan keunikan rakyat malaysia yang terdiri daripada pelbagai kaum sumber pos malaysia berhad kerusi panas hot seat ciri negara berdaulat menjadikan malaysia kedaulatan sesebuah negara berkait rapat dengan sebuah negara yang mempunyai identiti ciri yang diamalkan dan perlu dipertahankan yang unik kita perlu memahami betapa 1 secara berkumpulan atau individu buat kajian atau bacaan tentang topik ini pentingnya menjiwai dan mempertahankan 2 seorang murid dipilih tampil ke hadapan kelas identiti negara agar negara luar menghormati 3 murid ini akan duduk di kerusi yang disediakan kedaulatan malaysia dan menjadi pakar yang bertindak menyatakan pandangannya 4 murid lain boleh bertanyakan soalan dan pakar akan menjawab semua soalan yang dilontarkan 9913 kepentingan mewujudkan negara berdaulat 11 bab bbaabb kedaulatan negara penting bagi mewujudkan keberkesanan pentadbiran kemakmuran ekonomi 1 kesejahteraan sosial dan kecemerlangan hubungan luar negara selain itu negara diiktiraf setaraf dengan negara lain keberkesanan pentadbiran kedaulatan memberikan kebebasan kepada negara untuk menjalankan urusan pentadbiran tanpa campur tangan pihak luar dasar pentadbiran negara dilaksanakan dengan berkesan melalui jemaah menteri dan kementerian yang berkaitan kerjasama kerajaan persekutuan dan kerajaan negeri yang dilakukan melalui pengagihan kuasa mewujudkan keberkesanan pentadbiran sistem pentadbiran juga diperkukuh melalui peruntukan undangundang mesyuarat jemaah menteri diadakan pada tahun 1990 dipengerusikan oleh tun dr mahathir mohamad lima dari dalam perlembagaan persekutuan kiri keberkesanan pentadbiran melalui sistem jemaah menteri masih kekal diamalkan hingga hari ini sumber arkib negara malaysia kemakmuran ekonomi kedaulatan penting untuk negara melaksanakan dasar kemakmuran ekonomi selepas negara mencapai kemerdekaan pelbagai usaha dilakukan untuk memajukan dan meningkatkan taraf hidup rakyat berbilang kaum di malaysia pembangunan ekonomi meliputi bidang pertanian perindustrian dan perdagangan yang diperkenalkan melalui dasar pembangunan ekonomi negara tun abdul razak hussein depan perdana menteri malaysia kedua melawat kawasan luar bandar bagi memantau pelaksanaan program pertanian sumber arkib negara malaysia 1100kesejahteraan sosial 1 bbaabb kedaulatan penting untuk negara bab melaksanakan dasar sosial bagi 11 kesejahteraan rakyat negara dapat melahirkan generasi yang berilmu dan berkemahiran melalui pendidikan oleh itu mereka dapat memberikan sumbangan untuk pembangunan negara beberapa perkara berkaitan dengan bahasa kebangsaan kebudayaan sukan dan pasukan bola sepak kebangsaan yang berjaya melayakkan diri rukun negara diperkenalkan untuk ke sukan olimpik 1972 pasukan ini diwakili oleh pemain memupuk perasaan muhibah dan berbilang kaum semangat perpaduan dalam kalangan sumber arkib negara malaysia rakyat berbilang kaum di malaysia kecemerlangan hubungan luar negara kedaulatan penting bagi memberikan hak kepada negara untuk menjalinkan hubungan dengan negara lain hubungan ini dibentuk melalui penggubalan dasar luar negara kita selain dapat menjalinkan hubungan diplomatik dan persahabatan dengan negara lain negara juga dapat mengadakan perjanjian dan kerjasama dalam pelbagai bidang kesannya malaysia menikmati pelbagai faedah dan kelebihan dalam usaha mempertahankan kedaulatan keanggotaan malaysia dalam pertubuhan serantau dan antarabangsa pula meningkatkan imej negara masyarakat antarabangsa mengakui peranan dan kebolehan negara kita setaraf dengan negara lain di dunia jelaskan kepentingan mewujudkan negara berdaulat tun hussein onn perdana menteri malaysia ketiga kanan bertemu dengan anwar sadat presiden mesir kiri di mesir pada tahun 1977 untuk mengukuhkan hubungan diplomatik hasilkan peta pemikiran yang sesuai antara malaysia dengan mesir berkaitan dengan kepentingan sumber universiti tun hussein onn 2009 tun hussein onn mewujudkan negara berdaulat permata menara gading batu pahat penerbit uthm membuat rasionalisasi kedaulatan dapat mewujudkan kesejahteraan dan kemakmuran kepada rakyat sebagai rakyat malaysia rasionalkan kepentingan kedaulatan kita perlu memahami pentingnya mengekalkan dalam menentukan bentuk sistem kedaulatan negara yang diperoleh pada masa ini pentadbiran negara pada masa ini 111114 langkah mempertahankan kedaulatan 11 bab bbaabb pemerintah dan rakyat memainkan peranan penting bagi mempertahankan kedaulatan negara 1 oleh itu pemerintah dan rakyat perlu bekerjasama untuk mewujudkan kestabilan politik serta kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme dan mengukuhkan pertahanan negara kerjasama ini penting bagi memastikan kedaulatan dapat dipertahankan demi kemajuan dan kesejahteraan negara mewujudkan kestabilan politik dan kemakmuran ekonomi pemerintah dan rakyat mempunyai peranan yang sama untuk menjamin kestabilan politik dan kemakmuran ekonomi pemerintah melaksanakan pentadbiran dengan cekap dan menjalankan pelbagai usaha serta program bagi memajukan ekonomi rakyat pula memberikan kerjasama sepenuhnya untuk menjayakan semua usaha dan program yang dilaksanakan oleh pemerintah pemerintah mewujudkan pentadbiran yang cekap mengelakkan amalan rasuah dalam pentadbiran memastikan agihan sumber kekayaan negara secara adil kepada semua kaum melalui dasar pembangunan ekonomi melaksanakan undangundang negara menurut perlembagaan secara berkesan membuat interpretasi menurut dr tan chee khoon kami kenal pasti bahawa perhatian utama harus diberikan terhadap kelemahan ekonomi kaum bumiputera masalah mereka memerlukan rakyat pendekatan khas untuk diselesaikan mereka perlu dilindungi daripada eksploitasi dan memberikan kesetiaan kepada raja dan negara dibantu secara asas untuk bersaing dengan menyokong segala usaha dan dasar kerajaan kaum lain dalam perniagaan perdagangan bagi mewujudkan kestabilan politik dan pekerjaan memupuk kerjasama dengan semua kaum sumber raj vasil 1987 tan chee khoon supaya agihan kekayaan negara dinikmati an elder statesman petaling jaya pelanduk oleh semua publications m sdn bhd mematuhi undangundang negara 1 mengapakah beliau menyarankan agar kaum bumiputera dibantu dari segi kemakmuran ekonomi 2 huraikan langkah yang diambil untuk meningkatkan ekonomi setiap kaum 1122mengekalkan perpaduan kaum 1 bbaabb bab sejak awal kemerdekaan pemerintah dan rakyat berusaha untuk mengekalkan perpaduan kaum perpaduan penting dalam usaha kita mengekalkan kedaulatan negara beberapa 11 langkah dilaksanakan untuk memupuk perpaduan dalam kalangan rakyat pemerintah menggubal dasar dan undangundang berkaitan dengan perpaduan kaum serta integrasi nasional memastikan keberkesanan pelaksanaan dasar berkaitan dengan bahasa pendidikan dan kebudayaan oleh kementerian serta agensi berkaitan merangka program serta kempen ke arah memupuk perpaduan kaum sampul surat hari pertama pos malaysia dan integrasi nasional berkaitan dengan kepelbagaian budaya dan memperuntukkan perbelanjaan yang adat resam kaum di malaysia mencukupi untuk program memupuk sumber pos malaysia berhad perpaduan kaum meneroka bukti fahami titah di bawah rakyat menggunakan bahasa kebangsaan bab dan menghayati prinsip rukun negara 1 yang dapat menjamin perpaduan kaum memahami dan menghormati agama serta budaya pelbagai kaum mengamalkan semangat perkongsian bertoleransi dan saling menghormati kedaulatan negara bergantung pada sesama rakyat malaysia warganya yang bersatu melibatkan diri dalam program titah duli yang maha mulia paduka seri kemasyarakatan yang dapat memupuk sultan perak darul ridzuan sultan nazrin kerjasama antara kaum muizzuddin shah ibni almarhum sultan azlan muhibbuddin shah almaghfurlah sumber berita harian 10 november 2018 kedaulatan negara bergantung pada warganya yang bersatu buktikan 1133memupuk patriotisme 11 bab patriotisme ialah perasaan cinta yang mendalam terhadap negara serta sanggup mempertahankan bbaabb sejarah bahasa undangundang warisan dan budaya patriotisme merupakan nadi kepada 1 kebebasan kestabilan dan kemajuan sesebuah negara semangat ini juga penting untuk melahirkan pemimpin dan rakyat yang taat setia serta sanggup berkorban demi negara meja bulat serentak simultaneous round table pemerintah dalam kumpulan murid menulis pendapat di atas kertas tentang soalan yang dikemukakan menganjurkan sambutan hari kebangsaan dan di bawah catatan diedarkan kepada rakan hari pahlawan untuk menimbulkan kecintaan lain dalam kumpulan mengikut pusingan terhadap negara jam setiap ahli diberi peluang untuk mewajibkan mata pelajaran sejarah sebagai menuliskan pendapat soalan yang diberikan mata pelajaran teras di sekolah bagi melahirkan berkaitan dengan lagu patriotik keranamu generasi yang peka terhadap sejarah negara malaysia menganjurkan kempen dan menerbitkan filem 1 apakah maksud yang terkandung dalam atau rencana untuk memupuk patriotisme lirik lagu ini melalui pelbagai media 2 nyatakan keistimewaan rakyat berbilang memberikan pengiktirafan kepada rakyat kaum yang dinyatakan dalam lagu ini malaysia yang berjasa kepada negara dengan 3 bagaimanakah anda memainkan peranan mengabadikan nama mereka pada bangunan untuk mempertahankan negara dan jalan lirik lagu keranamu malaysia buruh nelayan dan juga petani gaya hidup kini dah berubah anakanak terasuh mindanya lahir generasi bijak pandai pakar it pakar ekonomi jaguh sukan dan juga jutawan berkereta jenama negara megah menyusur di jalan raya rakyat alam siber teknologi terkini kejayaan semakin hampiri biar di kota ataupun desa menghormati lambang negara seperti bendera kita semua pasti merasa bangga jalur gemilang jata negara dan lagu negaraku keranamu kami mendakap tuah menyanjungi dan menghargai adat dan keranamu kami bangsa berjaya warisan negara keranamu kami hidup selesa limpah budi kemakmuran negara meningkatkan imej negara dengan melakar keranamu kami bebas merdeka kejayaan dalam bidang pendidikan sukan keranamu nyawa dipertaruhkan dan ekonomi keranamu kami rela berjuang menghargai tokoh pelbagai kaum yang berjuang demi bangsa kedaulatan negara untuk kemerdekaan dan kedaulatan negara ulang dari mula keranamu negara malaysia malaysiaterima kasih malaysia l a g u dato suhaimi mohd zain lirik siso kopratasa sumber kementerian komunikasi dan multimedia malaysia 1144mengukuhkan pertahanan negara 1 bbaabb pemerintah dan rakyat mempunyai tanggungjawab untuk mempertahankan negara daripada bab ancaman musuh pertahanan negara penting untuk mengekalkan kedaulatan negara kita 11 pemerintah rakyat menggubal dasar dan undangundang peka terhadap isu keselamatan negara untuk melindungi keselamatan negara contohnya memberikan maklumat tentang mengadakan perjanjian pertahanan pencerobohan sempadan negara serta latihan ketenteraan bersamasama mengelakkan kolaborasi dengan pihak luar negara serantau dan antarabangsa yang boleh mengancam keselamatan dan memodenkan aset ketenteraan untuk kedaulatan negara mengukuhkan pasukan pertahanan menganggotai pasukan keselamatan dan negara pasukan sukarelawan untuk mempertahankan memastikan pasukan keselamatan negara sentiasa bersiap siaga menghadapi sanggup berkorban demi mempertahankan cabaran semasa kedaulatan negara kerjasama antara pemerintah dengan rakyat dalam melaksanakan langkah mengekalkan kedaulatan telah berjaya menghasilkan keamanan dan kesejahteraan sebagai rakyat malaysia amat penting untuk kita menghormati kepelbagaian budaya dan agama dalam usaha mengukuhkan perpaduan bangsa malaysia perpaduan dan kerjasama kaum menjadi teras kepada kemakmuran kelangsungan serta kedaulatan negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara yang membolehkan kerajaan melaksanakan kawalan pemerintahan dan pentadbiran ciri negara berdaulat menjadikan negara kita sebuah negara yang stabil dan kukuh pelbagai langkah dilaksanakan untuk memastikan kedaulatan negara tetap terpelihara kedaulatan negara meneroka bukti diperkukuh melalui pemerintahan dan pentadbiran yang berlandaskan perlembagaan buktikan hubungan pemerintah dan rakyat mampu mengekalkan kedaulatan negara 1155imbas kembali 11 bab bbaabb kedaulatan negara 1 1 konsep takrif kedaulatan kedaulatan pandangan tokoh jenis kedaulatan 2 ciri negara mempunyai yang berdaulat pemerintahan mempunyai sempadan mempunyai perundangan mempunyai rakyat 3 kepentingan keberkesanan mewujudkan pentadbiran negara kemakmuran ekonomi berdaulat kesejahteraan sosial kecemerlangan hubungan luar negara 4 langkah mewujudkan mempertahankan kestabilan politik kedaulatan dan kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme mengukuhkan pertahanan negara 1166pembelajaran abad ke21 1 bbaabb bab 11 aktiviti fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki membina ayat berpandukan isu yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakan atau pasangan 3 murid berkongsi maklumat hasil perbincangan dengan pasangankumpulankelas lain abad ke21 cabaran mengekalkan kedaulatan negara isu cabaran kesan tindakan keselamatan perpaduan kaum kestabilan politik ekonomi pencerobohan pelarian dadah rasuah berdasarkan tajuk di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a cabaran yang dihadapi huraikan cabaran yang dihadapi berkaitan dengan aspek yang disenaraikan dengan terperinci b isu atau permasalahan jelaskan kesan terhadap malaysia akibat cabaran yang dihadapi c keberkesanan strategi sejauh manakah malaysia berjaya mengatasi masalah ini dengan mengambil tindakan yang sewajarnya 2 aktiviti kumpulan bentukkan kumpulan kecil dengan pasangan lain kemudian kongsikan maklumat yang diperoleh 1177pemahaman dan pemikiran kritis 11 bab bbaabb 1 apakah takrif kedaulatan dalam bahasa arab 1 a negara yang bebas dan merdeka b kuasa pemerintahan sesebuah kerajaan c kekuasaan tertinggi terhadap pemerintahan negara d negara mempunyai kuasa yang penuh terhadap pemerintahan 2 mengapakah kedaulatan penting bagi sesebuah negara a menjadi kuasa politik unggul di dunia b menunjukkan kekuatan angkatan tentera c mewujudkan keberkesanan sistem pentadbiran d membuktikan dasar luar mengikut situasi semasa 3 gambar di bawah berkaitan dengan ciri negara berdaulat gambar 1 gambar 2 kebawah duli yang maha mulia seri paduka baginda bangunan parlimen malaysia yang dipertuan agong xvi dan kebawah duli yang maha mulia seri paduka baginda raja permaisuri agong a jelaskan ciri negara berdaulat b huraikan langkah yang dilaksanakan untuk mempertahankan kedaulatan negara 4 peta menunjukkan kedudukan malaysia yang bersempadan dengan negara jiran filipina di asia tenggara a mengapakah hubungan baik dengan thailand negara jiran perlu dipertahankan laut china selatan b setiap warganegara malaysia mempunyai tanggungjawab untuk darbursusnaeli am mempertahankan kedaulatan perairan m a l a y s i a singapura negara bincangkan i n d o n e s i a petunjuk sempadan antarabangsa 1188cakna dan cerminan sejarah 1 bbbaaabbb bab nilai patriotisme dan iktibar 111 pemahaman terhadap ciri negara yang berdaulat wajar dipertingkatkan untuk melahirkan rakyat malaysia yang berbangga dengan identiti negara kepentingan mempertahankan kedaulatan negara bagi melahirkan masyarakat yang berganding bahu untuk membangunkan negara dan menjamin kesejahteraan rakyat pemerintah dan rakyat saling bekerjasama bersefahaman serta bermuafakat bagi mempertahankan kedaulatan negara diri dan keluarga menyokong dan melibatkan diri dalam proses pembangunan negara dan berusaha gigih untuk memajukan diri negara perpaduan rakyat berbilang kaum dan semangat rela berkorban merupakan keunikan negara kita untuk mempertahankan kedaulatannya angkatan tentera malaysia menjaga kedaulatan negara kita sumber kementerian pertahanan malaysia 1199bab 2 perlembagaan persekutuan 2 bab sinopsis perlembagaan persekutuan merupakan dokumen undangundang bertulis yang menjadi teras pada sistem pemerintahan negara perlembagaan digubal berasaskan undangundang negeri melayu yang sedia ada dan juga tambahan unsur baharu perlembagaan persekutuan malaysia mempunyai ciri tradisional dan moden yang menjadikan perlembagaan di negara kita unik perlembagaan persekutuan berkuat kuasa seiring dengan kemerdekaan pada 31 ogos 1957 selepas itu perlembagaan dipinda bagi menyesuaikannya dengan keperluan semasa negara 2200inti pati pembelajaran 1 latar belakang sejarah perlembagaan persekutuan bab 2 sejarah penggubalan perlembagaan persekutuan 3 ciri utama perlembagaan persekutuan 2 4 pindaan perlembagaan persekutuan 1963 dan 1965 elemen kewarganegaraan dan nilai sivik 1 kepentingan mendaulatkan perlembagaan persekutuan 2 kepentingan mematuhi undangundang dalam kehidupan 3 kepentingan tanggungjawab rakyat bagi memelihara perlembagaan persekutuan 4 kepentingan menjiwai semangat perlembagaan persekutuan kemahiran pemikiran sejarah 1 memahami kronologi penggubalan perlembagaan persekutuan 2 meneroka bukti kewujudan undangundang adat sebelum kedatangan british 3 membuat interpretasi ciri utama perlembagaan persekutuan 4 membuat imaginasi struktur mahkamah atasan di negara kita 5 membuat rasionalisasi pindaan perlembagaan persekutuan istana kehakiman putrajaya sumber dewan bahasa dan pustaka 221121 latar belakang sejarah perlembagaan persekutuan perlembagaan merupakan undangundang tertinggi sebagai teras pemerintahan sesebuah negara sebelum kedatangan british negara kita diperintah berdasarkan pemerintahan beraja raja memerintah berdasarkan undangundang dan peraturan yang digubal pada zaman british raja terus 22 diterima sebagai pemerintah berdaulat apabila merdeka negara kita mempunyai perlembagaan bbaabb yang merupakan unsur penting dalam sesebuah negara asas pembentukan perlembagaan perlembagaan persekutuan berasaskan nilai tradisi kesultanan melayu dan kemudiannya beberapa prinsip undangundang inggeris disesuaikan dengan nilai tempatan undangundang negeri melayu raja sebagai pemerintah rakyat memberikan ketaatsetiaan undangundang dan sistem pemerintahan ditentukan oleh raja undangundang yang wujud pada zaman kesultanan melayu melaka seperti hukum kanun melaka dan undangundang laut melaka mempengaruhi kandungan undangundang bertulis di negeri melayu yang lain antara undangundang bertulis di negerinegeri melayu termasuklah hukum kanun pahang undangundang kedah undangundang johor dan undangundang 99 perak sebelum kedatangan kuasa barat negara kita sudah mempunyai undangundang dan adat melayu yang digunakan sebagai asas perlembagaan undangundang ini menjadi panduan serta kawalan kepada raja dan pembesar dalam proses pemerintahan negara senaraikan undangundang bertulis yang terdapat di negara kita sebelum hukum kanun melaka kedatangan british sumber perpustakaan negara malaysia 2222undangundang di negerinegeri melayu mengalami perubahan demi perubahan selaras dengan perkembangan masyarakat sehingga kemunculan dan pengenalan undangundang dari barat sekitar awal abad kel9 bbbaaabbb 222 undangundang 99 perak sumber perpustakaan negara malaysia hukum kanun pahang sumber yaakub isa penyl 2003 hukum kanun pahang manuskrip agung negeri pahang pahang lembaga muzium negeri pahang undangundang inggeris british memperkenalkan undangundang di negerinegeri selat nns yang dikenali sebagai charter of justice diambil daripada undangundang yang digubal di england piagam terpilih yang bersesuaian dengan kegunaan nns sahaja diguna pakai contohnya charter of justice 1807 di sarawak pula terdapat the sarawak app l i c ation of laws ordinance 1949 yang menggunakan the common law of englanmdasukkan piagam diraja syarikat berpiagam di sabah terdapat undangundang yang sam18a 8d1i sbeabguit ssaabbaahh baapwpalhic taatjiuokn uofn ldaanwgs undang ordinance 1951 inggeris proclamation of sarawak constitution sumber muzium sarawak 2233pada zaman pentadbiran british nns iaitu melaka pulau pinang dan singapura memperkenalkan undangundang yang diambil dari england iaitu charter of justice matlamatnya adalah untuk melindungi penduduk asal daripada penindasan dan ketidakadilan 22 bbaabb charter of justice i 1807 mewujudkan mahkamah di pulau pinang charter of justice ii 1826 charter of justice menyatukan mahkamah di singapura di negerinegeri melaka dan pulau pinang selat charter of justice iii 1855 mewujudkan mahkamah singapura dan melaka pulau pinang pada bulan ogos 1956 perlembagaan sarawak memberikan kuasa kepada badan membuat undangundang iaitu council negri majlis negeri yang mengandungi 45 orang ahli dan dipengerusikan oleh ketua setiausaha majlis tertinggi pula dipengerusikan oleh gabenor yang turut dianggotai oleh ketua setiausaha setiausaha kewangan dan peguam negara perlembagaan sarawak pada tahun 1959 memberikan kuasa pentadbiran negeri kepada majlis tertinggi dan council negri di sabah pula ditubuhkan majlis undangan dan majlis kerja pada tahun 1950 majlis undangan memberikan kuasa kepada gabenor untuk menggubal undangundang dalam pemerintahannya institusi pemerintahan beraja diteruskan apabila tanah melayu mencapai kemerdekaan walaupun begitu beberapa pindaan disesuaikan dengan konsep raja berperlembagaan dan demokrasi berparlimen perlembagaan persekutuan tanah melayu 1957 diperkenalkan dan menjadi asas kepada perlembagaan negara kita pada hari ini perlembagaan inilah menjadi asas kepada sistem raja berperlembagaan dan demokrasi berparlimen 2422 sejarah penggubalan perlembagaan persekutuan sejarah penggubalan perlembagaan persekutuan bermula pada tahun 1877 hingga tahun 1957 pembentukan undangundang dalam sesebuah negara dilakukan oleh badan yang sah dalam perundangan di malaysia badan perundangan dinamakan parlimen yang berkuasa penuh bbaabb membentuk undangundang negara sejak negara mencapai kemerdekaan ahli parlimen memainkan peranan meminda perlembagaan bagi menegakkan kedaulatan negara sebagai rakyat kita perlu 22 menghargai jasa pemimpin yang berusaha untuk mengekalkan kedaulatan negara di nns terdapat charter of justice untuk melindungi penduduk sementara itu pembentukan undangundang di negeri melayu pula dimulai oleh majlis negeri perak 1 1877 mesyuarat pertama majlis negeri perak pada tahun 1877 yang dipengerusikan oleh raja muda yusuf menjadi titik tolak kepada pembentukan undangundang negara charter of justice iii 1855 majlis negeri perak berperanan untuk menggubal undangundang bagi negeri perak mewujudkan mahkamah kemudiannya peranan yang sama ini dimainkan oleh semua majlis negeri di negeri singapura dan melaka melayu yang lain pulau pinang raja muda yusuf duduk di tengah bersamasama sir hugh low berdiri di depan di kuala kangsar perak pada tahun 1880 sumber arkib negara malaysia membuat interpretasi setiap rakyat memiliki hak yang sama dari segi undangundanginterpretasikan maksud petikan tersebut 22552 1946 undangundang di nns digubal oleh majlis undangan negeri manakala undang 22 undang di negerinegeri bbaabb melayu bersekutu nnmb digubal oleh majlis persekutuan sementara itu undangundang di negerinegeri melayu tidak bersekutu nnmtb pula digubal oleh majlis negeri akta dan ordinan negeri negeri selat 1886 buku the laws of the federated malay states sumber cornell university library 3 1948 perjanjian persekutuan tanah melayu 1948 merupakan titik penting pembentukan sebuah persekutuan yang terdiri daripada negerinegeri melayu melaka dan pulau pinang antara kandungan yang terdapat dalam persekutuan tanah melayu termasuklah pentadbiran kuasa raja melayu perundangan dan kewarganegaraan rajaraja melayu bersamasama jeneral sir gerald walter robert templer pesuruhjaya tinggi british di persekutuan tanah melayu semasa mesyuarat majlis rajaraja ke25 sumber arkib negara malaysia 22664 1957 suruhanjaya perlembagaan ini dikenali sebagai suruhanjaya perlembagaan persekutuan tanah melayu atau suruhanjaya reid perlembagaan persekutuan tanah melayu 1957 disesuaikan dengan model westminster yang diambil dari britain perlembagaan ini berkuat kuasa sejurus selepas kemerdekaan pada 31 ogos 1957 perlembagaan ini juga menjadi asas kepada perlembagaan negara bbaabb kita pada hari ini 22 informasi lima perkara terma rujukan utama dalam perjanjian persekutuan 1957 kerajaan persekutuan yang kukuh menjamin kedudukan rajaraja melayu menjamin kedudukan istimewa orang melayu dan kepentingan sah kaum lain parlimen hendaklah mengandungi dua dewan iaitu dewan rakyat dan dewan negara laporan suruhanjaya kewarganegaraan yang sama perlembagaan persekutuan tanah melayu 1957 memahami kronologi sumber arkib negara malaysia galurkan sejarah penggubalan perlembagaan persekutuan meja bulat round table perlembagaan negara merupakan elemen penting dalam sesebuah negara dan perlu dipertahankan 1 secara berkumpulan bincangkan bangunan parlimen malaysia topik ini sumber dewan bahasa dan pustaka 2 ahli bergilirgilir mencatatkan idea perlembagaan persekutuan tanah melayu 1957 tentang kepentingan perlembagaan bermodelkan westminster memandangkan persekutuan negara kita mempunyai asas sistem perundangan 3 hasil perbincangan dibentangkan di hadapan kelas bertulis maka hal ini banyak membantu malaysia 4 seorang wakil kumpulan akan menggubal sebuah perlembagaan bertulis tampil di hadapan kelas dan membentangkan dapatan kajian 5 murid lain boleh bertanyakan laporan suruhanjaya perlembagaan soalan kepada wakil kumpulan ini persekutuan tanah melayu 1957 227723 ciri utama perlembagaan persekutuan perlembagaan merupakan peraturan tertinggi dan panduan dalam sistem pemerintahan negara perlembagaan mempunyai dua ciri utama iaitu tradisional dan moden yang diperlukan bagi kestabilan serta kemajuan negara 222 bbbaaabbb ciri tradisional 1 kesultanan atau pemerintahan beraja sejak berabadabad negeri melayu diperintah berdasarkan pemerintahan beraja sultan merupakan pemerintah berdaulat dan memiliki kuasa penuh di negeri masingmasing setelah negara kita mencapai kemerdekaan pemerintahan beraja diteruskan dan disesuaikan dengan konsep demokrasi berparlimen yang dipertuan agong diperuntukkan melalui perlembagaan kuasa pemerintahan sebagai pemerintah tertinggi negara kuasa yang dipertuan agong termasuklah kuasa mengampun dan menangguhkan hukuman orang yang disabitkan kesalahan oleh mahkamah baginda juga mempunyai kuasa membuat pelantikan bagi jawatan utama negara pada peringkat negeri raja merupakan ketua negeri pada baginda terletak kuasa eksekutif yang dilaksanakan melalui nasihat majlis mesyuarat negeri raja mempunyai kuasa mengampun dan menangguhkan hukuman kepada mereka yang disabitkan kesalahan oleh mahkamah serta pelantikan jawatan utama negeri raja dikenali sebagai tonggak kehormatan dan keadilan yang membolehkan baginda mengurniakan anugerah penghormatan dan bintang kehormat kepada individu yang terpilih ciri moden 1 kerajaan persekutuan antara perkara utama yang disebut dalam perlembagaan ciri persekutuan termasuklah mewujudkan satu sistem kerajaan moden persekutuan laporan suruhanjaya perlembagaan persekutuan tanah melayu menyarankan kerajaan persekutuan dan kerajaan negeri diberi kuasa dalam bidang tertentu apabila malaysia dibentuk sarawak dan sabah diberi beberapa autonomi 3 kewarganegaraan kewarganegaraan persekutuan mula diperkenalkan pada tahun 1948 melalui perjanjian persekutuan tanah melayu sebelum itu tidak terdapat satu kewarganegaraan yang sama bagi seluruh 1 jelaskan kuasa yang dipertuan negara rakyat dikategorikan sebagai rakyat raja dan terdapat agong dalam perlembagaan juga penduduk yang mendapat kerakyatan british sekiranya persekutuan dilahirkan di melaka atau pulau pinang kemerdekaan 2 nyatakan ciri moden dalam tanah melayu dan pembentukan malaysia melahirkan taraf perlembagaan persekutuan kewarganegaraan yang sama kepada rakyatnya 22882 agama islam peruntukan perlembagaan berkaitan dengan agama islam merupakan antara ciri tradisional pada zaman british raja di negeri melayu tidak perlu menerima nasihat daripada penasihat british berkaitan dengan hak dan kedaulatan raja adat istiadat orang melayu dan agama islam selepas merdeka agama islam bagi negeri melayu terletak di bawah kuasa raja di negeri masingmasing bagi wilayah persekutuan dan negeri tidak beraja perkara bbaabb ini terletak di bawah kuasa yang dipertuan agong 22 3 bahasa melayu sejak zaman kesultanan melayu melaka bahasa melayu digunakan dalam pemerintahan bahasa melayu menjadi lingua franca dan memainkan peranan sebagai bahasa ilmu kini bahasa melayu ciri menjadi bahasa kebangsaan dan bahasa rasmi di negara kita tradisional 4 kedudukan orang melayu dan bumiputera sebelum merdeka kedudukan orang melayu dan bumiputera adalah di bawah kuasa raja dan ketua peribumi apabila negara kita merdeka yang dipertuan agong diberi tanggungjawab memelihara kedudukan istimewa orang melayu dan bumiputera sarawak dan sabah serta kepentingan sah kaum lain 2 sistem demokrasi berparlimen perlembagaan persekutuan memperuntukkan sistem demokrasi di malaysia asas kepada demokrasi ialah pilihan raya umum pada tahun 1955 tujuan utama pilihan raya adalah untuk memberikan kebebasan kepada rakyat memilih wakil pemimpin dan menubuhkan kerajaan bagi menentukan pilihan raya dapat dijalankan dengan adil maka ditubuhkan suruhanjaya pilihan raya badan ini bertanggungjawab sepenuhnya untuk menjalankan pilihan raya informasi pilihan raya persekutuan memilih wakil bagi membentuk kerajaan persekutuan sebelum pembentukan malaysia pilihan raya negeri pula memilih wakil untuk membentuk sarawak dan sabah mempunyai kerajaan negeri sistem pemilihan secara tidak langsung sistem pemilihan melalui pilihan raya di sarawak perlembagaan persekutuan mempunyai keunikan kerana diadakan mulai tahun 1969 sabah menggantikan sistem mengandungi ciri tradisional dan moden di samping itu ini pada tahun 1967 sistem undangundang yang terkandung dalam perlembagaan negara ini membolehkan pembubaran kita pula bertujuan agar rakyat mematuhi peraturan yang telah dewan undangan negeri ditetapkan oleh itu rakyat perlu mematuhi undangundang pada tahun 1967 dan diadakan bagi menjamin keamanan negara dan kesejahteraan hidup pemilihan secara pil</t>
+          <t>52 perkembangan idea dan usaha pembentukan malaysia idea pembentukan malaysia dikemukakan pada akhir abad ke19 yang melibatkan pihak british dan penduduk tempatan idea pegawai british cadangan terawal dikemukakan oleh lord brassey pengarah syarikat berpiagam 1887 borneo utara di dewan parlimen britain pada tahun 1887 beliau mencadangkan penggabungan sarawak sabah negeri melayu dan nns supaya menjadi tanah jajahan yang besar cadangan ini dikemukakan kerana pegawai british melihat potensi ekonomi melalui penggabungan wilayah ini setelah tamat perang dunia kedua sir malcolm 1951 macdonald gabenor jeneral british di asia tenggara mencadangkan penggabungan tanah jajahan british di asia tenggara bagi membentuk satu entiti politik dan ekonomi langkah ini bertujuan bbaabb menyesuaikannya dengan rancangan dekolonisasi pada tahun 1951 sir malcolm macdonald 55 mengadakan perbincangan dengan dato onn jaafar pemimpin united malays national organisation umno dan ahli majlis perundangan persekutuan berkaitan dengan usaha menggabungkan tanah sir malcolm macdonald melayu singapura dan wilayah borneo sumber com dicapai pada 23 november 2020 sir gerald templer pesuruhjaya tinggi british 1952 di tanah melayu meminta penggabungan wilayah ini disegerakan bagi tujuan keselamatan pada dekolonisasi januari 1960 mesyuarat pegawai tinggi british proses ke arah berkerajaan sendiri di borneo bersetuju dengan cadangan pertahanan dan keselamatan informasi pesuruhjaya tinggi ialah nama gelaran jawatan yang disandang sir geofroy tory pesuruhjaya 1960 oleh ketua perwakilan negara tinggi british di persekutuan dalam kalangan negara tanah melayu mencadangkan komanwel jawatan ini setara penyatuan singapura dan dengan duta persekutuan tanah melayu atas kepentingan ekonomi sir geofroy tory cadangan ini mendapat sumber sokongan pejabat kolonial mengapakah pegawai british oldedwardiansorguk dicapai pada mahu menggabungkan tanah 23 november 2020 jajahan di asia tenggara 9911idea penduduk tempatan 1906 majalah alimam menggesa penyatuan raja dan orang melayu dalam pendidikan dan pembangunan ekonomi di alam melayu majalah alimam konsep melayu raya diperjuangkan oleh nasionalis 1938 tanah melayu antaranya termasuklah ibrahim haji yaakob harun aminurrashid ahmad boestamam ishak haji muhammad pak sako dan dr burhanuddin alhelmi sejak sebelum perang dunia kedua idea mereka untuk menggabungkan tanah melayu dengan indonesia idea ini tidak berhasil apabila presiden soekarno mengisytiharkan kemerdekaan indonesia pada tahun 1945 tanpa melibatkan tanah melayu 55 dr burhanuddin alhelmi bbaabb tunku abdul rahman putra alhaj dalam ucapan 1955 di persidangan agung umno pada bulan oktober 1955 mencadangkan singapura sarawak sabah dan brunei menyertai persekutuan tanah melayu tunku abdul rahman putra alhaj datu mustapha datu harun pemimpin sabah 1958 dalam satu pertemuan dengan tunku abdul rahman putra alhaj di kuala lumpur pada tahun 1958 menyatakan minat untuk membawa sabah bergabung dengan persekutuan tanah melayu datu mustapha datu harun sumber arkib negara malaysia tunku abdul rahman putra alhaj memaklumi lord perth pada 10 jun 1960 1960 bahawa beliau berminat untuk bergabung dengan sarawak sabah brunei dan singapura 9922rasional idea pembentukan malaysia rancangan pembentukan malaysia mula berjalan apabila tunku abdul rahman putra alhaj memberikan komitmen terhadap rancangan penggabungan semua wilayah yang terlibat dan mendapat sokongan kerajaan british terdapat beberapa faktor pembentukan malaysia iaitu keselamatan keseimbangan komposisi penduduk mempercepat kemerdekaan dan pembangunan wilayah keselamatan ancaman komunis di singapura ancaman komunis di negeri ini telah menggugat keselamatan persekutuan tanah melayu tunku abdul rahman putra alhaj menganggap singapura akan menjadi pusat kegiatan komunis oleh itu langkah penyatuan dengan singapura ini dapat memberikan kuasa kepada kerajaan persekutuan dalam bidang keselamatan dan pertahanan bagi membendung ancaman komunis di singapura perkembangan di sarawak sarawak berhadapan dengan ancaman komunis melalui gerakan clandestine communist organization cco dengan penyertaan sarawak kerajaan british berharap dapat membendung ancaman komunis keseimbangan komposisi penduduk bbaabb keputusan untuk menerima singapura dalam persekutuan akan mewujudkan ketidakseimbangan komposisi penduduk antara orang melayu dengan orang cina perkara ini dibimbangi oleh 55 tunku abdul rahman putra alhaj dan pemimpin umno penggabungan sarawak sabah dan brunei akan menyeimbangkan komposisi antara kaum mempercepat kemerdekaan bagi pihak british pembentukan malaysia dapat merealisasikan rancangan dekolonisasi serta mempercepat kemerdekaan wilayah borneo terutamanya sarawak dan sabah walau bagaimanapun kerajaan british perlu memastikan usaha ini mendapat sokongan penduduk di wilayah ini pembangunan wilayah cadangan penyertaan persekutuan tanah melayu sarawak sabah singapura dan brunei membentuk sebuah negara bertujuan agar wilayah ini dapat bersatu dalam usaha mempercepat pelbagai bidang pembangunan pembentukan malaysia boleh meningkatkan taraf hidup peribumi dalam pelbagai aspek seperti infrastruktur sosial dan ekonomi yang lebih seimbang penduduk tempatan turut memainkan peranan dalam usaha menyatupadukan negara pembentukan hasilkan satu peta pemikiran yang malaysia membuktikan pemimpin dan rakyat sesuai bagi menggambarkan rasional mempunyai fikiran yang jauh untuk merancang idea pembentukan malaysia masa hadapan yang baik pembentukan malaysia juga sekali gus dapat mengekang anasir komunis memahami kronologi yang boleh mengancam keamanan negara untuk mewujudkan keamanan serantau galurkan idea pembentukan malaysia 9933</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kemakmuran Negara  </t>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pembentukan Dasar Pembangunan Nasional DPN  </t>
+          <t xml:space="preserve">terhadap Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>kerjasama pemuliharaan khazanah negara malaysia merupakan negara yang terkenal dengan kekayaan flora dan fauna bagi mengekalkan warisan biodiversiti untuk kepentingan generasi kini dan akan datang kerajaan pada setiap peringkat bekerjasama mewujudkan rangkaian kawasan perlindungan seperti taman negara dan taman laut pengurusan taman negara berdasarkan perlembagaan persekutuan pengurusan hidupan liar dan taman negara merupakan tanggungjawab bersama antara kerajaan persekutuan dengan kerajaan negeri bagi mengukuhkan kerjasama ini akta perlindungan hidupan liar 1972 akta 76 diwujudkan pada tahun 1972 pada tahun 2010 akta ini digantikan dengan akta pemuliharaan hidupan liar 2010 yang dikenali sebagai akta 716 antara tahun 1972 hingga tahun 1978 kerajaan persekutuan mengambil alih pentadbiran semua jabatan mergastua negeri di semenanjung malaysia jabatan mergastua kemudiannya dinamakan sebagai jabatan perlindungan hidupan liar dan taman negara perhilitan semenanjung malaysia 4 pengurusan taman negara di sarawak terletak di bawah pengurusan perbadanan perhutanan bab sarawak manakala taman negara di sabah terletak di bawah jabatan hidupan liar sabah thailand u perak kelantan taman negeri royal belum terengganu taman negara pahang pahang taman hidupan liar krau taman negara kinabalu sabah petunjuk johor diisytiharkan sebagai tapak warisan taman hidupan liar taman dunia unesco pertama di malaysia negara dan taman negara johor endau pada tahun 2000 rompin peta menunjukkan antara kawasan perlindungan hidupan liar dan taman negara di semenanjung malaysia sumber malaysia 2018 laporan tahunan 2018 annual report kuala lumpur jabatan perhilitan semenanjung malaysia informasi rafflesia azlanii spesies rafflesia azlanii merupakan spesies asli semenanjung malaysia dan mula ditemukan di hutan simpan royal belum di negeri perak taman negara mulu sarawak diiktiraf pada tahun 2003 bagi memperingati penemuan sebagai tapak warisan dunia unesco ini rafflesia tersebut dinamakan bersempena pada tahun 2000 dengan nama sultan perak sultan azlan sumber muhibbuddin shah ibni almarhum sultan worldheritagesite dicapai pada 19 julai yusuff izzuddin shah ghafarullahulah 2020 7744litupan karang hidup yang sihat program restorasi karang di taman di perairan taman laut malaysia laut malaysia oleh jabatan perikanan malaysia sumber jabatan perikanan malaysia sumber jabatan perikanan malaysia aktiviti pembersihan dasar laut pengurusan taman laut di taman laut malaysia oleh jabatan perikanan malaysia bagi memulihara khazanah laut di negara kita 42 buah pulau sumber jabatan perikanan malaysia di perairan kedah terengganu pahang johor sabah dan labuan diwartakan sebagai taman laut sejak tahun 1994 kerajaan persekutuan membentuk dasar berkaitan dengan taman laut kerajaan negeri berkuasa terhadap bab pembangunan pulau penyelarasan pentadbiran taman laut dibuat melalui 4 mesyuarat majlis penasihat kebangsaan taman laut dan jabatan taman laut malaysia rizab laut yang dianggotai oleh kerajaan persekutuan dan menjalankan rondaan dan kerajaan negeri pengawalseliaan di perairan jabatan taman laut malaysia ditubuhkan pada tahun 2007 taman laut sebagai agensi kerajaan persekutuan yang bertanggungjawab sumber jabatan perikanan malaysia secara keseluruhan dalam dasar pengurusan taman laut di malaysia pada tahun 2018 pengurusan taman laut informasi dipindahkan ke jabatan perikanan malaysia kawasan perlindungan marin di perairan sabah pula di bawah taman laut di bawah tanggungjawab kerajaan negeri melalui agensinya iaitu pengurusan tamantaman tamantaman sabah sabah1 taman tunku abdul rahman kota kinabalu terengganu 2 taman pulau tiga kuala penyu 3 taman pulaupulau penyu wilayah sandakan kedah pahang persekutuan 4 taman marin tun sakaran labuan semporna 5 taman pulau sipadan semporna u thailand 6 taman tun mustapha kudat perlis johor kedah ppuinlaanug kelantan sabah hidupan laut terengganu brunei perak darussalam empat daripada spesies penyu pahang dunia boleh dijumpai di perairan selangor malaysia dua daripadanya ialah mel nsaeekmgaebrilianjohor sarawak petunjuk penyu karah eretmochelys insdumoanteesraia singapura taman laut imbricata dan penyu hijau chelonia mydas peta lokasi pulaupulau taman peta lokasi laut malaysia pulaupulau sumber jabatan perikanan malaysia taman laut malaysia 7755</t>
+          <t>53 reaksi tempatan dan negara jiran terhadap pembentukan malaysia tunku abdul rahman putra alhaj mengumumkan pembentukan malaysia pada 27 mei 1961 pembentukan malaysia mendapat reaksi daripada pelbagai pihak terdapat pihak yang menerima baik cadangan pembentukan dan ada juga pihak yang menentang reaksi tempatan terdiri daripada penduduk dan pemimpin persekutuan tanah melayu sarawak sabah singapura dan brunei reaksi negara jiran pula daripada indonesia filipina dan thailand reaksi awal terhadap gagasan malaysia tempatan negara jiran persekutuan tanah melayu indonesia 55 sarawak filipina bbaabb sabah thailand singapurabrunei informasi brunei dan singapura dikategorikan dalam reaksi tempatan kerana membincangkan konsep malaysia yang sama tunku abdul rahman putra alhaj berucap kepada wartawan asing di hotel adelphi singapura pada 27 mei 1961 mengumumkan cadangan pembentukan malaysia sumber arkib negara malaysia 9944reaksi tempatan pembentukan malaysia mendapat reaksi daripada pemimpin dan penduduk di persekutuan tanah melayu sarawak sabah singapura dan brunei persekutuan tanah melayu pada umumnya rancangan pembentukan malaysia mendapat sambutan baik daripada penduduk dan parti politik di persekutuan tanah melayu parti politik secara prinsipnya bersetuju dan menerima cadangan pembentukan malaysia walaupun wujud perbezaan pendapat dalam melaksanakannya tunku abdul rahman putra alhaj mendapat sokongan umno berkaitan dengan rancangan pembentukan malaysia sarawak di sarawak pula terdapat pelbagai reaksi daripada pemimpin dan penduduk terhadap rancangan pembentukan malaysia menyokong barjasa yang dipimpin oleh datuk patinggi abdul rahman yakub dan datu tuanku haji bujang tuanku othman menyokong pembentukan malaysia sementara itu panas yang dipimpin oleh datu bandar abang haji mustapha pesaka pimpinan temenggung jugah anak barieng dan sca turut menyokong malaysia bbaabb menentang 55 pada peringkat awal supp yang dipimpin oleh ong kee hui dan snap yang diketuai oleh stephen kalong ningkan menentang cadangan pembentukan malaysia menentang kemudian menyokong pada peringkat awal snap turut menentang rancangan pembentukan malaysia walau bagaimanapun snap kemudiannya menyokong berdasarkan cadangan jawatankuasa setia kawan malaysia jskm informasi parti politik yang ditubuhkan di sarawak pada bulan oktober 1962 panas snap barjasa parti politik tahun penubuhan sca dan pesaka bergabung sarawak united peoples party supp 1959 membentuk parti perikatan sarawak untuk menyokong parti negara sarawak panas 1960 malaysia parti politik sarawak sarawak national party snap 1961 menubuhkan gabungan barisan rakyat jati sarawak barjasa 1961 menyokong malaysia yang dinamakan sarawak alliance sarawak chinese association sca 1962 pada bulan januari 1963 parti pesaka anak sarawak pesaka 1962 senaraikan tokoh di sarawak dan sabah yang menyokong pembentukan malaysia 9955sabah penduduk di sabah turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia pada peringkat awal penduduk sabah berasa curiga dan bimbang ketika itu sabah sedang berkembang dalam kegiatan perdagangan manakala sistem perkhidmatan awam semakin baik penduduk pula bebas menjalankan kegiatan harian mereka sementara itu kehadiran pasukan tentera british menjamin keselamatan mereka oleh itu penduduk berpendapat bahawa tiada keperluan untuk bergabung menyokong menjelang pembentukan malaysia terdapat parti politik utama ditubuhkan antaranya termasuklah unko usno pasok momogun dan sabah chinese association sca usno yang dipimpin oleh datu mustapha datu harun menyokong idea pembentukan malaysia sejak awal lagi parti politik di sabah menubuhkan gabungan menyokong malaysia yang dinamakan sabah alliance pada bulan oktober 1962 parti gabungan ini terdiri daripada unko usno united pasok momogun upko democratic party dan sabah indian congress menentang cadangan pembentukan malaysia mengejutkan pemimpin dan penduduk di sabah mereka 5 bab melahirkan keinginan untuk mendapatkan kemerdekaan secara berasingan atau membentuk sebuah kesatuan negerinegeri borneo yang merdeka kebanyakan penduduk di sabah menganggap tanah melayu terasing seperti indonesia dan filipina mereka mempersoalkan keadaan pemimpin tempatan yang perlu menyesuaikan diri dengan kegiatan politik pilihan raya dan berkerajaan sendiri yang sudah diamalkan di singapura dan persekutuan tanah melayu pada masa yang sama jarak antara sarawak sabah dengan kuala lumpur yang jauh juga menimbulkan masalah disebabkan oleh kebimbangan tersebut para pemimpin di borneo membentuk barisan bersatu united front pada 9 ogos 1961 untuk mencabar rancangan pembentukan malaysia barisan bersatu ini dianggotai oleh ong kee hui pengerusi supp am azahari parti rakyat brunei dan donald stephens fuad stephens daripada unko walau bagaimanapun unko kemudiannya menyokong pembentukan malaysia parti politik di sabah menjelang pembentukan malaysia informasi parti politik tahun penubuhan the united national kadazan namakan parti politik organization unko 1961 yang menubuhkan sabah democratic party 1961 alliance united sabah national organization usno 1961 united national pasok momogun 1962 meneroka bukti united party 1962 pada awalnya penduduk borneo utara national party bunap gabungan democratic party dan sabah berasa curiga dengan united party 1962 pembentukan malaysia buktikan 9966singapura pemimpin dan penduduk singapura turut memberikan reaksi terhadap pembentukan malaysia menyokong peoples action party pap yang dipimpin oleh lee kuan yew menyambut baik rancangan ini bagi golongan pedagang dan pengusaha industri pula mereka menyokong pembentukan malaysia kerana membuka peluang pasaran yang lebih besar kepada industri mereka parti lain seperti parti buruh singapura pada hakikatnya bersetuju tetapi menganggap gabungan ini sebagai suatu usaha yang sukar untuk dilaksanakan menentang parti rakyat singapura menentang gagasan malaysia barisan sosialis juga menentang penggabungan kerana menganggap pembentukan malaysia sebagai penjajahan baharu mereka mencadangkan agar pandangan rakyat diperoleh sebelum singapura menyertai malaysia brunei terdapat pelbagai reaksi daripada penduduk brunei terhadap pembentukan malaysia menyokong sultan brunei iaitu sultan omar ali saifuddin mengalualukan cadangan pembentukan malaysia rakyat brunei juga pada peringkat awalnya berminat untuk menyertai gabungan ini namun begitu mereka ingin mencapai kemerdekaan terlebih dahulu bbaabb menentang 55 parti rakyat brunei yang dipimpin oleh am azahari menentang cadangan tersebut kerana beliau lebih berminat untuk menggabungkan brunei sarawak sabah dan kalimantan utara dalam satu kesatuan am azahari berpendapat bahawa pembentukan malaysia merupakan satu cara kerajaan british untuk mengekalkan pengaruh agar dapat menguasai ekonomi dan menjamin keselamatan selain itu mereka juga khuatir brunei akan kehilangan sebahagian besar kekayaan sekiranya menyertai gabungan ini reaksi negara jiran negara jiran seperti indonesia filipina dan thailand turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia indonesia filipina thailand pada peringkat awal rancangan presiden diosdado pangan kerajaan thailand memberikan pembentukan malaysia kerajaan macapagal macapagal reaksi positif dan menerima indonesia tidak menentang dari filipina menentang idea pembentukan malaysia dr mohammad hatta iaitu pembentukan malaysia kerana pembentukan malaysia naib presiden indonesia dan menuntut wilayah sabah dianggap memperkuat usaha dr subandrio menteri luar walau bagaimanapun bagi ke arah keamanan di rantau indonesia mengalualukan kerajaan persekutuan tanah asia tenggara idea pembentukan malaysia melayu tuntutan ini adalah di bawah urusan kerajaan british pembentukan malaysia mendapat reaksi mengapakah am azahari menentang daripada penduduk tempatan dan juga cadangan pembentukan malaysia negara jiran walaupun terdapat penentangan pada pendapat anda mengapakah pedagang pembentukan ini tetap diteruskan demi dan pengusaha industri di singapura kebaikan rakyat menyokong pembentukan malaysia 9977</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kemakmuran Negara  </t>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pelaksanaan Dasar Pembangunan Nasional DPN  </t>
+          <t xml:space="preserve"> Langkah Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>kerjasama penyediaan perumahan rakyat perumahan terletak di bawah kuasa bersama kerajaan persekutuan dan kerajaan negeri pelbagai strategi dan langkah kerjasama diambil oleh kerajaan untuk memastikan rakyat dapat memiliki rumah sendiri perumahan awal kemerdekaan pada awal kemerdekaan kerajaan persekutuan dan kerajaan negeri bekerjasama menyediakan perumahan kos rendah terutamanya di kawasan bandar kerajaan persekutuan menubuhkan kementerian kerajaan negeri menyediakan kerajaan tempatan dan perumahan pada tahun tanah yang dijual pada harga rendah 1964 untuk menggiatkan usaha menyediakan kepada kerajaan persekutuan untuk perumahan kos rendah membina rumah 4 bab pembinaan perumahan di petaling jaya selangor pada tahun 1950an sumber arkib negara malaysia 76perumahan untuk mengatasi masalah kemiskinan selepas tahun 1970 kerajaan persekutuan bekerjasama dengan kerajaan negeri bagi membina rumah untuk rakyat berpendapatan rendah kerajaan mengenal pasti penyediaan perumahan bukan sahaja untuk menyelesaikan masalah kekurangan rumah tetapi juga sebagai langkah menghapuskan kemiskinan kerajaan persekutuan melaksanakan program perumahan rakyat ppr pada tahun 1997 untuk membina perumahan awam di seluruh negara kerajaan negeri menubuhkan agensi pembangunan negeri seperti perbadanan kemajuan negeri selangor pkns dan bab perbadanan kemajuan ekonomi negeri perak untuk membina rumah bagi rakyat 4 berpendapatan rendah kerajaan negeri juga memperkenalkan program perumahan flat jalan pekeliling di jalan tun razak kuala lumpur awam kos rendah pakr melalui dibina untuk golongan berpendapatan rendah peruntukan kewangan yang diterima sumber dasar perumahan negara 20182025 jabatan daripada kerajaan persekutuan perumahan negara kementerian perumahan dan kerajaan tempatan perumahan mampu milik pada tahun 2014 majlis perumahan negara ditubuhkan untuk merangka strategi menyediakan perumahan mampu milik kerajaan persekutuan dan kerajaan negeri menubuhkan pelbagai agensi serta memperkenalkan program khusus untuk membolehkan golongan pertengahan memiliki rumah antara program peringkat persekutuan termasuklah perbadanan perumahan 1malaysia pr1ma rumah mesra rakyat di bawah kementerian perumahan dan kerajaan tempatan antara program peringkat negeri termasuklah rumah selangorku selangor rumah mampu milik johor johor rumah pr1ma merupakan projek rumah mampu milik sumber dewan bahasa dan pustaka 77kerjasama menjamin keselamatan dan kedaulatan negara keselamatan dan pertahanan negara adalah di bawah kuasa kerajaan persekutuan pada umumnya keselamatan dalam negeri dan ketenteraman awam di bawah tanggungjawab kementerian dalam negeri kdn manakala pertahanan negara di bawah kementerian pertahanan kementah keduadua aspek tersebut diselaraskan oleh majlis keselamatan negara mkn namun begitu kerajaan persekutuan mengadakan kerjasama erat dengan kerajaan negeri untuk memastikan keselamatan rakyat dan kedaulatan negara terpelihara seperti mewujudkan kawasan keselamatan khas di sarawak dan sabah pemerintahan keselamatan daerah rajang di sarawak berikutan dengan ancaman komunis yang semakin meningkat di sarawak tun abdul razak hussein perdana menteri 44 malaysia kedua yang juga merupakan bbaabb pengerusi majlis keselamatan negara mengisytiharkan bahagian ketiga sarawak sebagai rajang area security command rascom atau pemerintahan keselamatan kawasan rajang pada 26 mac 1972 ketua menteri sarawak dilantik sebagai pengarah operasi negeri dalam rascom beliau bertanggungjawab sidang akhbar oleh datuk patinggi abdul rahman yakub ketua menyelaraskan fungsi dan aktiviti menteri sarawak berkaitan dengan komunis di sarawak pada pasukan keselamatan dengan pejabat bulan mac 1974 awam dalam kawasan rascom sumber arkib negara malaysia jawatankuasa utama dalam rascom jawatankuasa pengerusi bidang tugas jawatankuasa ketua pegawai eksekutif menggubal dasar berkaitan rascom pegawai tadbir kanan dengan aktiviti harian negeri sarawak organisasi rascom jawatankuasa panglima pasukan merancang gerakan perancang keselamatan rascom di kawasan rascom gerakan jawatankuasa ketua pegawai turus merancang dan perang awam melaksanakan segala saraf kegiatan gerak saraf kerjasama kerajaan persekutuan dan kerajaan membuat interpretasi negeri melalui rascom merupakan strategi yang berjaya memulihkan serta mengekalkan keselamatan dan keamanan rascom merupakan sebuah di bahagian tengah sarawak pada tahun 1995 rascom organisasi pentadbiran yang unik dibubarkan dan semua operasi keselamatan di sarawak berikan ulasan anda diselaraskan di bawah mkn 7788kawasan keselamatan khas pantai timur sabah kerajaan persekutuan dengan kerajaan negeri menubuhkan eastern sabah security command esscom atau kawasan keselamatan khas pantai timur sabah ekoran pencerobohan pengganas dari kepulauan sulu di kampung tanduo lahad datu sabah pada 12 februari 2013 misi esscom untuk meningkatkan keselamatan kawasan timur sabah daripada sebarang ancaman melalui kerjasama strategik antara agensi kerajaan esscom bertanggungjawab mengawasi keselamatan 10 daerah di pantai timur sabah yang dikenali sebagai eastern sabah security zone esszone atau zon keselamatan timur sabah latar belakang penubuhan esscom 12 februari 2013 pencerobohan pengganas pengerusi jawatankuasa pemantau esscom kepulauan sulu di lahad datu perdana menteri malaysia 5 mac 2013 ops daulat dilancarkan 7 mac 2013 perdana menteri malaysia pengerusi jawatankuasa esszone mengumumkan pembentukan ketua menteri sabah bab kawasan keselamatan khas di pantai timur sabah 4 27 mac 2013 pengisytiharan zon keselamatan timur sabah ketua pegawai eksekutif komander esscom esscom esszone 1 april 2013 kawasan keselamatan khas pengurusan tertinggi dalam struktur organisasi pantai timur sabah esscom esscom ditubuhkan sumber dicapai pada 22 mac 2020 petunjuk kudat esszone pitas kota u peta menunjukkan marudu 10 daerah di pantai beluran timur sabah yang terlibat dalam sandakan pengawalan kinabatangan esscom lahad datu sumber kunak esscomgovmy tawau semporna dicapai pada 22 mac 2020 kewujudan esscom untuk menambah baik esscom mengintegrasikan kerjasama agensi aspek keselamatan membuktikan komitmen keselamatan seperti angkatan tentera malaysia kerajaan pada setiap peringkat dalam usaha atm polis diraja malaysia pdrm dan agensi mengembalikan semula ketenteraman demi penguatkuasaan maritim malaysia apmm kesejahteraan rakyat sabah sumber malaysia 2018 bagus bah esscom kementerian komunikasi dan multimedia malaysia kerjasama kerajaan persekutuan dan kerajaan negeri dalam pelbagai bentuk memperlihatkan usaha ke arah kesejahteraan rakyat kerjasama bandingkan cabaran rascom ini memberikan iktibar kepada kita tentang dengan esscom dalam usaha kepentingan menggembleng fikiran tenaga memelihara keselamatan dan dan usaha untuk membangunkan negara kedaulatan negara 7799</t>
+          <t>54 langkah pembentukan malaysia usul pembentukan malaysia dibentangkan di dewan rakyat pada 16 oktober 1961 dan mendapat sokongan majoriti ahli dewan sokongan ini membolehkan kerajaan persekutuan tanah melayu menggerakkan usaha membentuk malaysia pelbagai cara dilakukan untuk merealisasikan pembentukan malaysia antaranya termasuklah mengadakan lawatan ke negeri yang terlibat penubuhan jawatankuasa setia kawan malaysia jskm referendum singapura rundingan london suruhanjaya cobbold dan jawatankuasa antara kerajaan jak fail kerajaan british berkaitan siri lawatan dengan pembentukan malaysia sumber national archive united kingdom julai 1961 tunku abdul rahman putra alhaj mengadakan lawatan ke sarawak kerajaan persekutuan tanah melayu mengatur dan brunei lawatan ini untuk meninjau lawatan pemimpin sarawak dan sabah dan bertemu dengan pemimpin ke persekutuan tanah melayu pada bulan 55 bbaabb tempatan bagi menerangkan rancangan ogos 1962 datu bandar abang haji mustapha pembentukan malaysia temenggung jugah anak barieng donald stephens dan datu mustapha datu harun mengadakan lawatan untuk meninjau kemajuan di persekutuan tanah melayu november 1962 lawatan tunku abdul rahman putra alhaj ke sarawak dan sabah lawatan rombongan dr burhanuddin alhelmi dan ghafar baba ke sarawak dan sabah lawatan ini menunjukkan terdapat kesepakatan dalam kalangan ahli politik di tanah melayu untuk menjelaskan gambaran sebenar tentang rancangan malaysia kepada penduduk sarawak dan sabah penyata suruhanjaya apakah kepentingan siri lawatan penyiasat borneo utara dan sarawak para pemimpin negara dalam proses pembentukan malaysia sumber arkib negara malaysia 9988jawatankuasa setia kawan malaysia jskm malaysia solidarity consultative committee mscc atau dikenali sebagai jawatankuasa setia kawan malaysia jskm ditubuhkan ketika persidangan ahliahli parlimen komanwel di singapura pada 23 julai 1961 mesyuarat jskm diadakan sebanyak empat kali iaitu di jesselton kuching kuala lumpur dan singapura tujuan penubuhan 1 meyakinkan penduduk sarawak dan sabah tentang pembentukan malaysia 2 menyediakan ruang perbincangan bagi mendapatkan kata sepakat terhadap pembentukan malaysia 3 mengumpulkan pandangan tentang pembentukan malaysia 4 menyebarkan maklumat berkaitan dengan malaysia 5 memupuk aktiviti penghebahan dan mempercepat pembentukan malaysia aktiviti penghebahan seperti mendedahkan perkembangan kemajuan dalam bidang pentadbiran serta projek pembangunan di persekutuan tanah melayu jawatankuasa ini terdiri daripada wakil pemimpin dari persekutuan tanah melayu singapura sarawak dan sabah donald stephens dilantik menjadi pengerusi jskm dalam mesyuarat kedua jskm membuat keputusan menyokong rancangan malaysia jawatankuasa ini memainkan peranan bbaabb penting dalam memberikan kefahaman kepada pemimpin tempatan dan mendapatkan sokongan terhadap pembentukan malaysia 55 sebahagian ahli jskm sumber arkib negara malaysia sebahagian teks dalam dokumen parliamentary debates sumber parliamentary debates dewan rakyat 14 ogos 1962 informasi jskm turut dikenali sebagai jawatankuasa perundingan ahli jskm bermesyuarat di kuala lumpur pada 67 januari 1962 perpaduan malaysia jppm sumber arkib negara malaysia 9999referendum singapura rundingan antara kerajaan persekutuan tanah melayu dengan singapura yang diadakan pada bulan ogos 1962 hingga bulan september 1962 menghasilkan persetujuan penyertaan singapura ke dalam malaysia satu referendum diadakan di singapura pada awal bulan september 1962 menyatakan bentuk pilihan singapura menyertai malaysia keputusan referendum mendapati rakyat singapura bersetuju untuk bergabung membentuk malaysia seperti syarat yang ditetapkan oleh kerajaan singapura dan persekutuan tanah melayu keputusan ini membolehkan singapura menyertai malaysia rundingan london pada bulan november 1961 rundingan berhubung dengan pembentukan malaysia diadakan di london antara kerajaan persekutuan tanah melayu dengan kerajaan british keduadua kerajaan bersetuju agar ditubuhkan sebuah suruhanjaya bagi meninjau reaksi penduduk di sarawak dan sabah 55 bbaabb suruhanjaya cobbold suruhanjaya ini dibentuk secara rasmi pada bulan januari 1962 suruhanjaya cobbold mengandungi wakil yang dilantik oleh kerajaan british dan persekutuan tanah melayu lord cobbold dilantik menjadi pengerusi ahliahli terdiri daripada sir anthony abell sir david watherston muhammad ghazali shafie dan wong pow nee suruhanjaya ini melawat 35 pusat lawatan 20 pusat lawatan di sarawak dan 15 pusat lawatan di sabah menjelang bulan jun 1962 suruhanjaya cobbold menyerahkan laporan kepada kerajaan british dan persekutuan tanah melayu antara laporan tersebut termasuklah menyatakan dua pertiga penduduk menyokong pembentukan malaysia mengesyorkan agar perlembagaan persekutuan tanah melayu 1957 dijadikan asas perlembagaan persekutuan yang baharu mencadangkan kuasa autonomi dan jaminan khas diberi kepada sarawak dan sabah yang tidak boleh dipinda atau dibatalkan oleh kerajaan persekutuan tanpa mendapat persetujuan daripada kerajaan negeri berkenaan referendumpungutan suara rakyat berhubung dengan sesuatu dasar politik dan sebagainya 110000antara persatuan dari sarawak yang bbaabb memberikan maklum balas kepada surat tunku abdul rahman putra alhaj kepada lord suruhanjaya cobbold lansdowne pada september 1962 55 sumber national archive united kingdom sumber national archive united kingdom ahli suruhanjaya cobbold dari kiri muhammad ghazali shafie wong pow nee lord cobbold pengerusi sir david watherston dan sir anthony abell sumber arkib negara malaysia 2015 memorial negarawan kuala lumpur arkib negara malaysia tandatangan maklum balas persatuan dengan menggunakan pelbagai sumber kaji dari sarawak dan surat tunku abdul laporan suruhanjaya cobbold nyatakan rahman putra alhaj kepentingan suruhanjaya ini dalam menjayakan usaha pembentukan malaysia 110011pembentukan jawatankuasa antara kerajaan jak kerajaan british dan persekutuan tanah melayu mengumumkan penubuhan intergovernmental committee atau dikenali sebagai jawatankuasa antara kerajaan jak pada bulan ogos 1962 jawatankuasa ini diwakili oleh kerajaan british persekutuan tanah melayu sarawak dan sabah penubuhan jak bertujuan menyediakan rangka perlembagaan dan membentuk keperluan melindungi kepentingan sarawak dan sabah jawatankuasa ini dipengerusikan oleh lord jak mempunyai lima jawatankuasa lansdowne menteri tanah jajahan kecil timbalan pengerusi ialah tun abdul razak 1 perlembagaan hussein 2 kewangan wakil sarawak ialah ketua setiausaha 3 perkhidmatan awam peguam negeri setiausaha kewangan datu 4 perundangan dan kehakiman bandar abang haji mustapha temenggong 5 organisasi jabatan jugah anak barieng pengarah montegrai ling jawatankuasa ini telah mengadakan beng siew dan chia chin sin m esyuarat pertama di jesselton kota wakil sabah terdiri daripada ketua setiausaha kinabalu sabah pada 30 ogos 1962 peguam negeri setiausaha kewangan datu mesyuarat terakhir diadakan di kuala mustapha datu harun donald stephens dan lumpur pada 18 20 september 1962 5 koo siak chiew bab jawatankuasa ini mengusulkan 18 perkara bagi sarawak dan 20 perkara bagi sabah yang perlu dimasukkan ke dalam perlembagaan persekutuan untuk menjamin hak serta kepentingan rakyat sarawak dan sabah antara perkara yang menjadi teras utama dalam perlembagaan termasuklah islam ialah agama persekutuan malaysia tetapi dikecualikan kepada sarawak dan sabah bahasa melayu ialah bahasa rasmi persekutuan malaysia tetapi bahasa inggeris juga digunakan sebagai bahasa rasmi di sarawak dan sabah sistem pendidikan dikekalkan di bawah kawalan kerajaan persekutuan kecuali di sarawak dan sabah sistem pendidikan di sarawak dan sabah kekal di bawah kawalan kerajaan negeri sehingga majlis jawatankuasa antara kerajaan negeri membuat pindaan berkaitan dengan malaysia dalam parlimen malaysia sebanyak 24 kerusi hendaklah sumber arkib negara malaysia diperuntukkan kepada sarawak 16 kerusi kepada sabah dan 15 kerusi kepada singapura kuasa imigresen terletak di bawah kerajaan persekutuan tetapi sarawak dan sabah diberi kuasa nyatakan jawatankuasa tersendiri untuk mengendalikan hal ehwal imigresen kecil yang ditubuhkan di bawah jawatankuasa antara kerajaan jak pelbagai langkah diambil bagi merealisasikan pembentukan malaysia langkah ini melibatkan semua pihak sama ada pemimpin 23 perkara mahupun rakyat sikap toleransi yang ditunjukkan perlu diamalkan laporan jak oleh generasi muda bagi menjamin kesejahteraan negara 110022</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Membina Kemakmuran Negara  </t>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pembangunan Nasional DPN  </t>
+          <t xml:space="preserve">Pengisytiharan Malaysia </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>44 faktor yang mengukuhkan sistem persekutuan kekukuhan sistem persekutuan di negara kita berkait rapat dengan konsep keluhuran perlembagaan persekutuan serta penyelarasan yang baik antara kerajaan persekutuan dengan kerajaan negeri keluhuran perlembagaan mengukuhkan persekutuan sejak negara mencapai kemerdekaan perlembagaan persekutuan diangkat sebagai undangundang tertinggi bagi mentakrifkan prinsip persekutuan dan pentadbiran negara undangundang yang digubal oleh parlimen dan dun tidak boleh bertentangan dengan peruntukan perlembagaan persekutuan parlimen dan dun tidak boleh menggubal undangundang yang bercanggah antara satu sama lain perlembagaan persekutuan menjadi rujukan utama apabila berlaku ketidakselarasan antara undangundang persekutuan dengan undangundang negeri perkara 75 perlembagaan persekutuan menyebutkan bahawa jika manamana undang 4 undang negeri tidak selaras dengan sesuatu undangundang persekutuan maka undangundang bab persekutuan hendaklah mengatasi undangundang negeri prinsip keluhuran perlembagaan yang dijunjung ini mengukuhkan sistem persekutuan di negara kita penyelarasan kerajaan persekutuan dengan kerajaan negeri penyelarasan pentadbiran dibuat antara kerajaan persekutuan dengan kerajaan negeri melalui mesyuarat menteri besar dan ketua menteri serta majlis khas mesyuarat menteri besar dan ketua menteri mesyuarat dipengerusikan oleh perdana menteri serta dihadiri oleh menteri besar dan ketua menteri mesyuarat membincangkan pelaksanaan sesuatu dasar yang diputuskan oleh kerajaan tan sri dato haji muhyiddin mohd yassin perdana menteri malaysia kelapan tiga dari kiri mempengerusikan mesyuarat khas menteri besar dan ketua menteri pada 17 mac 2020 untuk menyelaras perintah kawalan pergerakan pkp di seluruh negara bagi mengawal wabak coronavirus atau covid19 80majlis yang termaktub dalam majlis kewangan negara perlembagaan persekutuan mentadbir hal ehwal berkaitan dengan kewangan seperti pemberian perlembagaan persekutuan memperuntukkan wang bayaran cukai dan pinjaman penubuhan majlis negara untuk menyelaraskan kerajaan persekutuan kepada pentadbiran kerajaan persekutuan dengan kerajaan kerajaan negeri negeri iaitu majlis kewangan negara majlis tanah negara majlis tanah negara membentuk dasar dan mengawal majlis negara bagi kerajaan tempatan penggunaan tanah untuk kegiatan pertanian perlombongan perhutanan majlis yang ditubuhkan oleh kerajaan dan sebagainya perhubungan antara kerajaan persekutuan dengan majlis negara bagi kerajaan kerajaan negeri juga dibuat melalui majlis yang ditubuhkan oleh kerajaan seperti yang berikut tempatan bab perundingan kerajaan persekutuan majlis keselamatan negara majlis air negara dan juga kerajaan negeri untuk 4 membangunkan kerajaan tempatan majlis perumahan negara keberkesanan penyelarasan dan hubungan antara kerajaan persekutuan dengan kerajaan negeri dapat menjamin sistem informasi persekutuan beroperasi dengan berkesan hal ini membuktikan kepentingan setiausaha persekutuan bagi sarawak dan bermusyawarah dalam membuat keputusan sabah untuk kemajuan negara jawatan setiausaha persekutuan bagi sarawak dan sabah diwujudkan pada tahun 1963 tanggungjawab utama adalah untuk sistem persekutuan di negara kita terbentuk mengeratkan hubungan antara kerajaan berdasarkan landasan sejarah tersendiri persekutuan dengan kerajaan negeri sejak merdeka prinsip persekutuan jawatan tersebut dihapuskan pada tahun menyumbang kepada kestabilan hubungan 1982 dan diwujudkan semula pada tahun antara negeri dan memberikan manfaat 1990 berikutan dengan keputusan jemaah kepada kesejahteraan negara menteri pada tahun 1989 pembahagian kuasa pemerintahan antara kerajaan persekutuan dengan kerajaan negeri mewujudkan kerjasama kajian kes untuk mencapai kemajuan dalam pelbagai 1 dengan merujuk pelbagai sumber kenal pasti bidang pembahagian kuasa merupakan majlis yang ditubuhkan untuk mengukuhkan pendekatan terbaik untuk menjamin sistem persekutuan kekuatan kekuasaan dan kestabilan negara 2 sediakan laporan berdasarkan aspek yang rakyat dan pemimpin pada semua berikut peringkat perlu menunaikan tanggungjawab a nama majlis masingmasing untuk memastikan sistem b tarikh ditubuhkan persekutuan membawa kemakmuran c peranan majlis 3 bentangkan dapatan anda di dalam kelas kepada negara 8811imbas kembali sistem persekutuan latalar tbaerl abkealankga snigs tseimst epmer pseerksuetukuatnu an di 1 di nneeggaarara k kitiata pempebmenbteunktaunk asni ssteismte pme rpseerksuetkuuatnu adni mdi amlaaylsaiyasia 44 bbaabb kuasa kerajaan persekutuan dan kerajaan negleartiar belakang sistem persekutuan di 2 penmbeaghaagriaan k kiutaasa kupaesma bkeenrtaujkaaann pseisrtseemku ptuearsnekutuan di malaysia kuasa kerajaan negeri peranan kerajaan tempatan kerjasama kerajaan persekutuan dan kerlaajataanr bneelgaekraing sistem persekutuan di 3 kenrjaesagmaar pae mkbitaangunan sosioekonomi keprjeamsabmean tpuekmanu lsihisatreaman p kerhsaezkauntuaahn n deig maraalaysia kerjasama penyediaan perumahan rakyat kerjasama menjamin keselamatan dan kedaulatan negara faktor yang mengukuhkan sistem latar belakang sistem persekutuan di persekutuan 4 negara kita keluhuran perlembagaan mengukuhkan persekutuan pembentukan sistem persekutuan di malaysia penyelarasan kerajaan persekutuan dengan kerajaan negeri 8822pembelajaran abad ke21 aktiviti 1 saya lihat saya fikir saya tanya i see i think i wonder arahan1 senaraikan perkara yang anda lihat 2 fikirkan perkara yang dilihat 3 bertanyakan soalan yang relevan gambar yang berikut berkaitan dengan wang kertas malaysia siri keempat yang dikeluarkan oleh bank negara malaysia dengan tema keunikan malaysia wang kertas tersebut memaparkan kekayaan warisan di negara kita abad ke21 h h bab o o t t n n o o c c 4 h h o o nt nt o o c c h h o o t t n n o o c c ho h t o n t o n c oc ho h t o n t o n c oc ho h t o n t o n c oc mata wang malaysia memaparkan keunikan warisan malaysia sumber dewan bahasa dan pustaka secara berkumpulan bincangkan dan lakukan aktiviti yang berikut 1 ceritakan keunikan yang anda lihat dalam gambar di atas 2 mengapakah keunikan tersebut dipaparkan pada mata wang malaysia 3 jelaskan keunikan lain yang ada di negara kita 4 bincangkan langkah yang boleh diambil oleh kerajaan persekutuan dan kerajaan negeri untuk memelihara keunikan tersebut sebagai warisan khazanah negara 5 bentangkan hasil perbincangan anda di hadapan kelas 8833pembelajaran abad ke21 aktiviti 2 jalan galeri gallery walk arahanmurid bergerak dan berjalan di dalam kelas untuk melakukan aktiviti yang berikut 1 melihat dan membaca hasil yang dipaparkan 2 berfikir tentang hasil tugasan tersebut 3 berbincang dengan rakan kumpulan tajuk pembentukan jata negara kita maklumat yang berikut berkaitan dengan pembentukan dan perubahan jata di negara kita 1895 1948 1963 1965 4 bab persekutuan terdiri persekutuan terdiri persekutuan persekutuan terdiri daripada empat buah daripada sembilan menggabungkan daripada gabungan negeri melayu iaitu buah negeri melayu negeri di tanah melayu negeri di semenanjung perak selangor negeri dan dua negeri selat dengan singapura malaysia dengan sembilan dan pahang iaitu pulau pinang dan sarawak dan sabah sarawak dan sabah melaka moto dipelihara allah moto bersekutu simbol singapura moto bersekutu bertambah mutu digantikan dengan bertambah mutu lambang bunga raya moto bersekutu bertambah mutu berdasarkan maklumat di atas lakukan aktiviti yang berikut 1 murid dibahagikan kepada empat kumpulan kumpulan 1895 kumpulan 1948 kumpulan 1963 dan kumpulan 1965 setiap kumpulan berbincang dan mencatatkan maklumat berkaitan dengan perkara yang berikut a mentafsir jata di negara kita dari aspek simbol warna dan moto b menghubungkaitkan jata tersebut dengan pembentukan persekutuan di negara kita 2 tampalkan maklumat hasil perbincangan di dalam kelas 3 setiap kumpulan bergerak dan meneliti maklumat hasil perbincangan kumpulan 4 guru sebagai pemudah cara meminta murid membuat rumusan tentang pembentukan jata dan hubung kait dengan pembentukan sistem persekutuan di negara kita sehingga hari ini 8844pemahaman dan pemikiran kritis 1 rajah yang berikut menunjukkan pembahagian pentadbiran dalam sistem persekutuan di negara kita kerajaan persekutuan kerajaan negeri kerajaan tempatan a senaraikan empat kuasa kerajaan persekutuan bab b nyatakan tiga perkara di bawah kuasa kerajaan negeri c kerajaan manakah yang paling hampir dengan rakyat berikan ulasan anda 4 d sistem persekutuan berjaya mewujudkan pentadbiran yang kukuh dan stabil di negara kita buktikan 2 peta yang berikut menunjukkan rancangan pembangunan koridor wilayah yang melibatkan kerjasama kerajaan persekutuan dan kerajaan negeri wilayah ekonomi wilayah ekonomi pantai koridor pembangunan koridor utara ncer timur ecer sabah sdc laut china selatan brunei darussalam selat melaka singapura iskandar malaysia im koridor tenaga diperbaharui sarawak score a namakan negeri dan wilayah yang terlibat dalam rancangan pembangunan wilayah ekonomi koridor utara ncer b mengapakah rancangan pembangunan koridor wilayah diwujudkan di seluruh malaysia c berdasarkan pengetahuan sejarah anda mengapakah negerinegeri di pantai barat semenanjung malaysia tidak terlibat dalam rancangan pembangunan koridor wilayah 8855pemahaman dan pemikiran kritis 1 maklumat yang berikut berkaitan dengan pembahagian kuasa dalam perlembagaan persekutuan senarai persekutuan senarai negeri senarai bersama antara yang berikut perkara manakah terletak di bawah senarai persekutuan i pertahanan ii pendidikan iii hal ehwal tanah iv undangundang islam a i dan ii b i dan iv 4 c ii dan iii bab d iii dan iv 2 jadual yang berikut berkaitan dengan kerjasama kerajaan persekutuan dengan kerajaan negeri untuk kesejahteraan rakyat program kerajaan persekutuan program kerajaan negeri perbadanan perumahan 1malaysia pr1ma rumah selangorku selangor rumah mesra rakyat rumah mampu milik johor johor mengapakah kerjasama tersebut dilakukan a mengatasi masalah setinggan di bandar b meningkatkan taraf hidup rakyat luar bandar c menyelesaikan masalah perumahan golongan miskin d membantu golongan pertengahan memiliki kediaman 3 struktur organisasi yang berikut berkaitan dengan pentadbiran kawasan keselamatan khas di sabah mengapakah pentadbiran tersebut diperkenalkan pengerusi jawatankuasa pemantau esscom a mewujudkan majlis keselamatan negara perdana menteri malaysia b menghapuskan ancaman pengganas komunis c melaksanakan pembangunan koridor wilayah pengerusi jawatankuasa esszone d meningkatkan kerjasama bagi menjamin ketua menteri sabah keselamatan ketua pegawai eksekutif komander esscom esscom 8866cakna dan cerminan sejarah nilai patriotisme dan iktibar sistem persekutuan yang diamalkan sejak merdeka berjaya mewujudkan kestabilan politik kemakmuran ekonomi dan kesejahteraan sosial sistem persekutuan merupakan sistem terbaik untuk mentadbir negara yang terdiri daripada gabungan negeri yang berdaulat usaha kerajaan pada setiap peringkat untuk mewujudkan kesejahteraan rakyat dan kemakmuran negara wajar dihargai kita hendaklah sentiasa menyokong dan melibatkan diri dalam usaha kerajaan persekutuan dan kerajaan negeri bagi memakmurkan negara diri dan keluarga setiap ahli keluarga daripada semua peringkat mempunyai tanggungjawab dan peranan untuk bab membina kejayaan institusi keluarga yang boleh menjadi contoh kepada masyarakat sekeliling 4 negara kepimpinan berwibawa berupaya untuk mewujudkan pemerintahan dan pentadbiran yang adil serta berintegriti untuk kemajuan bangsa dan negara perdana menteri malaysia pertama hingga kelapan kerjasama pemimpin menjamin keutuhan sistem persekutuan sumber dewan bahasa dan pustaka 8877bab 5 pembentukan malaysia sinopsis pembentukan malaysia pada peringkat awalnya terdiri daripada persekutuan tanah melayu sarawak sabah dan singapura pembentukan ini merupakan peristiwa penting dalam sejarah negara pembentukan malaysia menimbulkan pelbagai reaksi daripada penduduk tempatan dan negara jiran oleh itu beberapa langkah dibuat untuk menjayakan usaha pembentukan malaysia termasuklah menangani konfrontasi 5 bab 8888inti pati pembelajaran 1 konsep gagasan malaysia 2 perkembangan idea dan usaha pembentukan malaysia 3 reaksi tempatan dan negara jiran terhadap pembentukan malaysia 4 langkah pembentukan malaysia 5 perjanjian julai 1963 dan peristiwa pengisytiharan malaysia 6 konfrontasi dan usaha menangani bab elemen kewarganegaraan dan nilai sivik 5 1 kepentingan berfikiran strategik untuk berjaya dalam kehidupan 2 kepentingan kesepakatan untuk kestabilan negara 3 sikap menerima dan meraikan idea serta pandangan yang berbeza 4 kepentingan sikap berwaspada terhadap anasir luar kemahiran pemikiran sejarah 1 memahami kronologi tentang idea pembentukan malaysia 2 meneroka bukti reaksi tempatan dan negara jiran terhadap pembentukan malaysia 3 membuat interpretasi kandungan perjanjian malaysia 1963 dan pengisytiharan malaysia 1963 4 membuat imaginasi langkah pembentukan malaysia 5 membuat rasionalisasi tentang usaha menangani konfrontasi tunku abdul rahman putra alhaj melaungkan merdeka sebanyak tujuh kali pada pemasyhuran malaysia sumber arkib negara malaysia 889951 konsep gagasan malaysia kemerdekaan persekutuan tanah melayu kemudiannya disusuli oleh pembentukan malaysia melahirkan negara ini sebagai sebuah negara yang berdaulat pembentukan malaysia memperlihatkan kerjasama tokoh dari persekutuan tanah melayu sarawak sabah dan singapura dalam rundingan dengan kerajaan british kesepakatan antara semua pihak ini menzahirkan pembentukan malaysia dan kemudiannya terbentuklah perlembagaan persekutuan malaysia 1963 idea gagasan malaysia idea gagasan malaysia ialah konsep yang menggabungkan beberapa bekas tanah jajahan british di asia tenggara antara idea lain yang pernah dilahirkan termasuklah melayu raya oleh gerakan nasionalis sebelum perang dunia kedua yang mahu mendapatkan kemerdekaan wilayah alam melayu daripada kuasa penjajah british belanda dan amerika syarikat walau bagaimanapun idea ini tidak berjaya dilaksanakan bagi pihak pegawai british mereka mengemukakan idea penyatuan wilayah penguasaan british di asia tenggara dalam satu sistem pentadbiran dan ekonomi langkah ini bertujuan memudahkan pentadbiran pihak british 55 idea gagasan malaysia yang dicadangkan oleh tunku abdul rahman putra alhaj ialah bbaabb penggabungan persekutuan tanah melayu dengan sarawak sabah singapura dan brunei untuk merdeka dalam satu sistem kerajaan persekutuan petunjuk negeri yang menyertai malaysia 1963 thailand laut china selatan sabah persekutuan tanah melayu sarawak singapura peta negeri yang menyertai malaysia 1963 sumber dewan bahasa dan pustaka peta negara dalam gugusan malaysia 1961 990052 perkembangan idea dan usaha pembentukan malaysia idea pembentukan malaysia dikemukakan pada akhir abad ke19 yang melibatkan pihak british dan penduduk tempatan idea pegawai british cadangan terawal dikemukakan oleh lord brassey pengarah syarikat berpiagam 1887 borneo utara di dewan parlimen britain pada tahun 1887 beliau mencadangkan penggabungan sarawak sabah negeri melayu dan nns supaya menjadi tanah jajahan yang besar cadangan ini dikemukakan kerana pegawai british melihat potensi ekonomi melalui penggabungan wilayah ini setelah tamat perang dunia kedua sir malcolm 1951 macdonald gabenor jeneral british di asia tenggara mencadangkan penggabungan tanah jajahan british di asia tenggara bagi membentuk satu entiti politik dan ekonomi langkah ini bertujuan bbaabb menyesuaikannya dengan rancangan dekolonisasi pada tahun 1951 sir malcolm macdonald 55 mengadakan perbincangan dengan dato onn jaafar pemimpin united malays national organisation umno dan ahli majlis perundangan persekutuan berkaitan dengan usaha menggabungkan tanah sir malcolm macdonald melayu singapura dan wilayah borneo sumber com dicapai pada 23 november 2020 sir gerald templer pesuruhjaya tinggi british 1952 di tanah melayu meminta penggabungan wilayah ini disegerakan bagi tujuan keselamatan pada dekolonisasi januari 1960 mesyuarat pegawai tinggi british proses ke arah berkerajaan sendiri di borneo bersetuju dengan cadangan pertahanan dan keselamatan informasi pesuruhjaya tinggi ialah nama gelaran jawatan yang disandang sir geofroy tory pesuruhjaya 1960 oleh ketua perwakilan negara tinggi british di persekutuan dalam kalangan negara tanah melayu mencadangkan komanwel jawatan ini setara penyatuan singapura dan dengan duta persekutuan tanah melayu atas kepentingan ekonomi sir geofroy tory cadangan ini mendapat sumber sokongan pejabat kolonial mengapakah pegawai british oldedwardiansorguk dicapai pada mahu menggabungkan tanah 23 november 2020 jajahan di asia tenggara 9911idea penduduk tempatan 1906 majalah alimam menggesa penyatuan raja dan orang melayu dalam pendidikan dan pembangunan ekonomi di alam melayu majalah alimam konsep melayu raya diperjuangkan oleh nasionalis 1938 tanah melayu antaranya termasuklah ibrahim haji yaakob harun aminurrashid ahmad boestamam ishak haji muhammad pak sako dan dr burhanuddin alhelmi sejak sebelum perang dunia kedua idea mereka untuk menggabungkan tanah melayu dengan indonesia idea ini tidak berhasil apabila presiden soekarno mengisytiharkan kemerdekaan indonesia pada tahun 1945 tanpa melibatkan tanah melayu 55 dr burhanuddin alhelmi bbaabb tunku abdul rahman putra alhaj dalam ucapan 1955 di persidangan agung umno pada bulan oktober 1955 mencadangkan singapura sarawak sabah dan brunei menyertai persekutuan tanah melayu tunku abdul rahman putra alhaj datu mustapha datu harun pemimpin sabah 1958 dalam satu pertemuan dengan tunku abdul rahman putra alhaj di kuala lumpur pada tahun 1958 menyatakan minat untuk membawa sabah bergabung dengan persekutuan tanah melayu datu mustapha datu harun sumber arkib negara malaysia tunku abdul rahman putra alhaj memaklumi lord perth pada 10 jun 1960 1960 bahawa beliau berminat untuk bergabung dengan sarawak sabah brunei dan singapura 9922rasional idea pembentukan malaysia rancangan pembentukan malaysia mula berjalan apabila tunku abdul rahman putra alhaj memberikan komitmen terhadap rancangan penggabungan semua wilayah yang terlibat dan mendapat sokongan kerajaan british terdapat beberapa faktor pembentukan malaysia iaitu keselamatan keseimbangan komposisi penduduk mempercepat kemerdekaan dan pembangunan wilayah keselamatan ancaman komunis di singapura ancaman komunis di negeri ini telah menggugat keselamatan persekutuan tanah melayu tunku abdul rahman putra alhaj menganggap singapura akan menjadi pusat kegiatan komunis oleh itu langkah penyatuan dengan singapura ini dapat memberikan kuasa kepada kerajaan persekutuan dalam bidang keselamatan dan pertahanan bagi membendung ancaman komunis di singapura perkembangan di sarawak sarawak berhadapan dengan ancaman komunis melalui gerakan clandestine communist organization cco dengan penyertaan sarawak kerajaan british berharap dapat membendung ancaman komunis keseimbangan komposisi penduduk bbaabb keputusan untuk menerima singapura dalam persekutuan akan mewujudkan ketidakseimbangan komposisi penduduk antara orang melayu dengan orang cina perkara ini dibimbangi oleh 55 tunku abdul rahman putra alhaj dan pemimpin umno penggabungan sarawak sabah dan brunei akan menyeimbangkan komposisi antara kaum mempercepat kemerdekaan bagi pihak british pembentukan malaysia dapat merealisasikan rancangan dekolonisasi serta mempercepat kemerdekaan wilayah borneo terutamanya sarawak dan sabah walau bagaimanapun kerajaan british perlu memastikan usaha ini mendapat sokongan penduduk di wilayah ini pembangunan wilayah cadangan penyertaan persekutuan tanah melayu sarawak sabah singapura dan brunei membentuk sebuah negara bertujuan agar wilayah ini dapat bersatu dalam usaha mempercepat pelbagai bidang pembangunan pembentukan malaysia boleh meningkatkan taraf hidup peribumi dalam pelbagai aspek seperti infrastruktur sosial dan ekonomi yang lebih seimbang penduduk tempatan turut memainkan peranan dalam usaha menyatupadukan negara pembentukan hasilkan satu peta pemikiran yang malaysia membuktikan pemimpin dan rakyat sesuai bagi menggambarkan rasional mempunyai fikiran yang jauh untuk merancang idea pembentukan malaysia masa hadapan yang baik pembentukan malaysia juga sekali gus dapat mengekang anasir komunis memahami kronologi yang boleh mengancam keamanan negara untuk mewujudkan keamanan serantau galurkan idea pembentukan malaysia 993353 reaksi tempatan dan negara jiran terhadap pembentukan malaysia tunku abdul rahman putra alhaj mengumumkan pembentukan malaysia pada 27 mei 1961 pembentukan malaysia mendapat reaksi daripada pelbagai pihak terdapat pihak yang menerima baik cadangan pembentukan dan ada juga pihak yang menentang reaksi tempatan terdiri daripada penduduk dan pemimpin persekutuan tanah melayu sarawak sabah singapura dan brunei reaksi negara jiran pula daripada indonesia filipina dan thailand reaksi awal terhadap gagasan malaysia tempatan negara jiran persekutuan tanah melayu indonesia 55 sarawak filipina bbaabb sabah thailand singapurabrunei informasi brunei dan singapura dikategorikan dalam reaksi tempatan kerana membincangkan konsep malaysia yang sama tunku abdul rahman putra alhaj berucap kepada wartawan asing di hotel adelphi singapura pada 27 mei 1961 mengumumkan cadangan pembentukan malaysia sumber arkib negara malaysia 9944reaksi tempatan pembentukan malaysia mendapat reaksi daripada pemimpin dan penduduk di persekutuan tanah melayu sarawak sabah singapura dan brunei persekutuan tanah melayu pada umumnya rancangan pembentukan malaysia mendapat sambutan baik daripada penduduk dan parti politik di persekutuan tanah melayu parti politik secara prinsipnya bersetuju dan menerima cadangan pembentukan malaysia walaupun wujud perbezaan pendapat dalam melaksanakannya tunku abdul rahman putra alhaj mendapat sokongan umno berkaitan dengan rancangan pembentukan malaysia sarawak di sarawak pula terdapat pelbagai reaksi daripada pemimpin dan penduduk terhadap rancangan pembentukan malaysia menyokong barjasa yang dipimpin oleh datuk patinggi abdul rahman yakub dan datu tuanku haji bujang tuanku othman menyokong pembentukan malaysia sementara itu panas yang dipimpin oleh datu bandar abang haji mustapha pesaka pimpinan temenggung jugah anak barieng dan sca turut menyokong malaysia bbaabb menentang 55 pada peringkat awal supp yang dipimpin oleh ong kee hui dan snap yang diketuai oleh stephen kalong ningkan menentang cadangan pembentukan malaysia menentang kemudian menyokong pada peringkat awal snap turut menentang rancangan pembentukan malaysia walau bagaimanapun snap kemudiannya menyokong berdasarkan cadangan jawatankuasa setia kawan malaysia jskm informasi parti politik yang ditubuhkan di sarawak pada bulan oktober 1962 panas snap barjasa parti politik tahun penubuhan sca dan pesaka bergabung sarawak united peoples party supp 1959 membentuk parti perikatan sarawak untuk menyokong parti negara sarawak panas 1960 malaysia parti politik sarawak sarawak national party snap 1961 menubuhkan gabungan barisan rakyat jati sarawak barjasa 1961 menyokong malaysia yang dinamakan sarawak alliance sarawak chinese association sca 1962 pada bulan januari 1963 parti pesaka anak sarawak pesaka 1962 senaraikan tokoh di sarawak dan sabah yang menyokong pembentukan malaysia 9955sabah penduduk di sabah turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia pada peringkat awal penduduk sabah berasa curiga dan bimbang ketika itu sabah sedang berkembang dalam kegiatan perdagangan manakala sistem perkhidmatan awam semakin baik penduduk pula bebas menjalankan kegiatan harian mereka sementara itu kehadiran pasukan tentera british menjamin keselamatan mereka oleh itu penduduk berpendapat bahawa tiada keperluan untuk bergabung menyokong menjelang pembentukan malaysia terdapat parti politik utama ditubuhkan antaranya termasuklah unko usno pasok momogun dan sabah chinese association sca usno yang dipimpin oleh datu mustapha datu harun menyokong idea pembentukan malaysia sejak awal lagi parti politik di sabah menubuhkan gabungan menyokong malaysia yang dinamakan sabah alliance pada bulan oktober 1962 parti gabungan ini terdiri daripada unko usno united pasok momogun upko democratic party dan sabah indian congress menentang cadangan pembentukan malaysia mengejutkan pemimpin dan penduduk di sabah mereka 5 bab melahirkan keinginan untuk mendapatkan kemerdekaan secara berasingan atau membentuk sebuah kesatuan negerinegeri borneo yang merdeka kebanyakan penduduk di sabah menganggap tanah melayu terasing seperti indonesia dan filipina mereka mempersoalkan keadaan pemimpin tempatan yang perlu menyesuaikan diri dengan kegiatan politik pilihan raya dan berkerajaan sendiri yang sudah diamalkan di singapura dan persekutuan tanah melayu pada masa yang sama jarak antara sarawak sabah dengan kuala lumpur yang jauh juga menimbulkan masalah disebabkan oleh kebimbangan tersebut para pemimpin di borneo membentuk barisan bersatu united front pada 9 ogos 1961 untuk mencabar rancangan pembentukan malaysia barisan bersatu ini dianggotai oleh ong kee hui pengerusi supp am azahari parti rakyat brunei dan donald stephens fuad stephens daripada unko walau bagaimanapun unko kemudiannya menyokong pembentukan malaysia parti politik di sabah menjelang pembentukan malaysia informasi parti politik tahun penubuhan the united national kadazan namakan parti politik organization unko 1961 yang menubuhkan sabah democratic party 1961 alliance united sabah national organization usno 1961 united national pasok momogun 1962 meneroka bukti united party 1962 pada awalnya penduduk borneo utara national party bunap gabungan democratic party dan sabah berasa curiga dengan united party 1962 pembentukan malaysia buktikan 9966singapura pemimpin dan penduduk singapura turut memberikan reaksi terhadap pembentukan malaysia menyokong peoples action party pap yang dipimpin oleh lee kuan yew menyambut baik rancangan ini bagi golongan pedagang dan pengusaha industri pula mereka menyokong pembentukan malaysia kerana membuka peluang pasaran yang lebih besar kepada industri mereka parti lain seperti parti buruh singapura pada hakikatnya bersetuju tetapi menganggap gabungan ini sebagai suatu usaha yang sukar untuk dilaksanakan menentang parti rakyat singapura menentang gagasan malaysia barisan sosialis juga menentang penggabungan kerana menganggap pembentukan malaysia sebagai penjajahan baharu mereka mencadangkan agar pandangan rakyat diperoleh sebelum singapura menyertai malaysia brunei terdapat pelbagai reaksi daripada penduduk brunei terhadap pembentukan malaysia menyokong sultan brunei iaitu sultan omar ali saifuddin mengalualukan cadangan pembentukan malaysia rakyat brunei juga pada peringkat awalnya berminat untuk menyertai gabungan ini namun begitu mereka ingin mencapai kemerdekaan terlebih dahulu bbaabb menentang 55 parti rakyat brunei yang dipimpin oleh am azahari menentang cadangan tersebut kerana beliau lebih berminat untuk menggabungkan brunei sarawak sabah dan kalimantan utara dalam satu kesatuan am azahari berpendapat bahawa pembentukan malaysia merupakan satu cara kerajaan british untuk mengekalkan pengaruh agar dapat menguasai ekonomi dan menjamin keselamatan selain itu mereka juga khuatir brunei akan kehilangan sebahagian besar kekayaan sekiranya menyertai gabungan ini reaksi negara jiran negara jiran seperti indonesia filipina dan thailand turut memberikan pelbagai reaksi terhadap rancangan pembentukan malaysia indonesia filipina thailand pada peringkat awal rancangan presiden diosdado pangan kerajaan thailand memberikan pembentukan malaysia kerajaan macapagal macapagal reaksi positif dan menerima indonesia tidak menentang dari filipina menentang idea pembentukan malaysia dr mohammad hatta iaitu pembentukan malaysia kerana pembentukan malaysia naib presiden indonesia dan menuntut wilayah sabah dianggap memperkuat usaha dr subandrio menteri luar walau bagaimanapun bagi ke arah keamanan di rantau indonesia mengalualukan kerajaan persekutuan tanah asia tenggara idea pembentukan malaysia melayu tuntutan ini adalah di bawah urusan kerajaan british pembentukan malaysia mendapat reaksi mengapakah am azahari menentang daripada penduduk tempatan dan juga cadangan pembentukan malaysia negara jiran walaupun terdapat penentangan pada pendapat anda mengapakah pedagang pembentukan ini tetap diteruskan demi dan pengusaha industri di singapura kebaikan rakyat menyokong pembentukan malaysia 997754 langkah pembentukan malaysia usul pembentukan malaysia dibentangkan di dewan rakyat pada 16 oktober 1961 dan mendapat sokongan majoriti ahli dewan sokongan ini membolehkan kerajaan persekutuan tanah melayu menggerakkan usaha membentuk malaysia pelbagai cara dilakukan untuk merealisasikan pembentukan malaysia antaranya termasuklah mengadakan lawatan ke negeri yang terlibat penubuhan jawatankuasa setia kawan malaysia jskm referendum singapura rundingan london suruhanjaya cobbold dan jawatankuasa antara kerajaan jak fail kerajaan british berkaitan siri lawatan dengan pembentukan malaysia sumber national archive united kingdom julai 1961 tunku abdul rahman putra alhaj mengadakan lawatan ke sarawak kerajaan persekutuan tanah melayu mengatur dan brunei lawatan ini untuk meninjau lawatan pemimpin sarawak dan sabah dan bertemu dengan pemimpin ke persekutuan tanah melayu pada bulan 55 bbaabb tempatan bagi menerangkan rancangan ogos 1962 datu bandar abang haji mustapha pembentukan malaysia temenggung jugah anak barieng donald stephens dan datu mustapha datu harun mengadakan lawatan untuk meninjau kemajuan di persekutuan tanah melayu november 1962 lawatan tunku abdul rahman putra alhaj ke sarawak dan sabah lawatan rombongan dr burhanuddin alhelmi dan ghafar baba ke sarawak dan sabah lawatan ini menunjukkan terdapat kesepakatan dalam kalangan ahli politik di tanah melayu untuk menjelaskan gambaran sebenar tentang rancangan malaysia kepada penduduk sarawak dan sabah penyata suruhanjaya apakah kepentingan siri lawatan penyiasat borneo utara dan sarawak para pemimpin negara dalam proses pembentukan malaysia sumber arkib negara malaysia 9988jawatankuasa setia kawan malaysia jskm malaysia solidarity consultative committee mscc atau dikenali sebagai jawatankuasa setia kawan malaysia jskm ditubuhkan ketika persidangan ahliahli parlimen komanwel di singapura pada 23 julai 1961 mesyuarat jskm diadakan sebanyak empat kali iaitu di jesselton kuching kuala lumpur dan singapura tujuan penubuhan 1 meyakinkan penduduk sarawak dan sabah tentang pembentukan malaysia 2 menyediakan ruang perbincangan bagi mendapatkan kata sepakat terhadap pembentukan malaysia 3 mengumpulkan pandangan tentang pembentukan malaysia 4 menyebarkan maklumat berkaitan dengan malaysia 5 memupuk aktiviti penghebahan dan mempercepat pembentukan malaysia aktiviti penghebahan seperti mendedahkan perkembangan kemajuan dalam bidang pentadbiran serta projek pembangunan di persekutuan tanah melayu jawatankuasa ini terdiri daripada wakil pemimpin dari persekutuan tanah melayu singapura sarawak dan sabah donald stephens dilantik menjadi pengerusi jskm dalam mesyuarat kedua jskm membuat keputusan menyokong rancangan malaysia jawatankuasa ini memainkan peranan bbaabb penting dalam memberikan kefahaman kepada pemimpin tempatan dan mendapatkan sokongan terhadap pembentukan malaysia 55 sebahagian ahli jskm sumber arkib negara malaysia sebahagian teks dalam dokumen parliamentary debates sumber parliamentary debates dewan rakyat 14 ogos 1962 informasi jskm turut dikenali sebagai jawatankuasa perundingan ahli jskm bermesyuarat di kuala lumpur pada 67 januari 1962 perpaduan malaysia jppm sumber arkib negara malaysia 9999referendum singapura rundingan antara kerajaan persekutuan tanah melayu dengan singapura yang diadakan pada bulan ogos 1962 hingga bulan september 1962 menghasilkan persetujuan penyertaan singapura ke dalam malaysia satu referendum diadakan di singapura pada awal bulan september 1962 menyatakan bentuk pilihan singapura menyertai malaysia keputusan referendum mendapati rakyat singapura bersetuju untuk bergabung membentuk malaysia seperti syarat yang ditetapkan oleh kerajaan singapura dan persekutuan tanah melayu keputusan ini membolehkan singapura menyertai malaysia rundingan london pada bulan november 1961 rundingan berhubung dengan pembentukan malaysia diadakan di london antara kerajaan persekutuan tanah melayu dengan kerajaan british keduadua kerajaan bersetuju agar ditubuhkan sebuah suruhanjaya bagi meninjau reaksi penduduk di sarawak dan sabah 55 bbaabb suruhanjaya cobbold suruhanjaya ini dibentuk secara rasmi pada bulan januari 1962 suruhanjaya cobbold mengandungi wakil yang dilantik oleh kerajaan british dan persekutuan tanah melayu lord cobbold dilantik menjadi pengerusi ahliahli terdiri daripada sir anthony abell sir david watherston muhamma</t>
+          <t>55 perjanjian julai 1963 dan peristiwa pengisytiharan malaysia perjanjian julai 1963 yang turut dikenali sebagai perjanjian malaysia atau malaysia agreement ma63 ialah sebuah dokumen yang ditandatangani oleh kerajaan british persekutuan tanah melayu sarawak sabah dan singapura perjanjian ini ditandatangani pada 9 julai 1963 di london kandungan perjanjian ini adalah seperti yang dikemukakan oleh jak prinsip utama perjanjian ini mengiktiraf hak yang sama kepada semua negeri dalam malaysia inti pati perjanjian malaysia antara inti pati perjanjian malaysia termasuklah 1 tarikh pembentukan malaysia adalah pada 31 ogos 1963 2 sarawak sabah dan singapura akan menjadi ahli dalam persekutuan malaysia bersamasama persekutuan tanah melayu 3 kerajaan british akan mengiktiraf kedaulatan sarawak sabah dan singapura dalam malaysia 4 memberikan kelebihan kepada sarawak dan sabah menubuhkan kabinet negeri 5 memperuntukkan tempoh masa peralihan contohnya dalam bidang pentadbiran awam serta pendidikan kepada sarawak dan sabah bab 6 kerusi parlimen diberikan kepada singapura sebanyak 15 kerusi sarawak 24 kerusi dan sabah 5 16 kerusi 7 penduduk bumiputera di sarawak dan sabah mendapat pengiktirafan sama seperti orang melayu dalam perlembagaan persekutuan informasi sabah bersetuju mengiktiraf bahasa melayu sebagai bahasa kebangsaan dan sebagai balasan dibenarkan menggunakan bahasa inggeris dalam tempoh 10 tahun selepas tahun 1963 pada tahun 1970 datu mustapha datu harun menjadikan bahasa melayu sebagai bahasa pengantar pendidikan sebagaimana mengikut dasar pendidikan kebangsaan pada tahun 1971 dewan undangan sabah meluluskan untuk menjadikan bahasa melayu sebagai bahasa dalam urusan rasmi negeri sabah tunku abdul rahman putra alhaj mengadakan sidang akhbar pada 6 julai 1963 di kuala lumpur mengumumkan akan ke london bagi menghadiri majlis menandatangani perjanjian pembentukan huraikan kepentingan perjanjian malaysia 1963 malaysia sumber arkib negara malaysia meneroka bukti pembentukan malaysia berasaskan rundingan inti pati memorandum dan keputusan bersama penduduk yang terlibat 20 perkara buktikan 110033misi pertubuhan bangsabangsa bersatu pbb indonesia membuat bantahan rasmi pembentukan malaysia di pertubuhan bangsabangsa bersatu pbb oleh itu u thant setiausaha agung pbb mengumumkan penubuhan sebuah jawatankuasa iaitu united nations malaysia mission unmm pada 12 ogos 1963 untuk menilai dan membuat laporan laurence michelmore duta amerika syarikat di pbb mengetuai rombongan melakukan tinjauan di sarawak dan sabah pembentukan malaysia yang sepatutnya diisytiharkan pada 31 ogos 1963 ditangguhkan kerana laporan setiausaha pertubuhan bangsabangsa bersatu hanya dapat disiapkan pada 14 september 1963 pada 14 september 1963 misi ini menerbitkan laporan penduduk sarawak dan sabah yang menerima pembentukan malaysia peristiwa pengisytiharan malaysia malaysia diisytiharkan pada 16 september 1963 istiadat pengisytiharan diadakan serentak di kuala lumpur sarawak dan sabah sarawak datu abang haji openg abang sapiee mengangkat sumpah jawatan yang dipertua kuala lumpur negeri sarawak pengisytiharan malaysia yang dipertuan agong membacakan dibaca oleh khir johari wakil kerajaan pengisytiharan malaysia di stadium persekutuan di kuching sarawak turut 55 merdeka dan disaksikan oleh tunku hadir ialah anggota kabinet negeri bbaabb abdul rahman putra alhaj peristiwa pengisytiharan malaysia di kuala lumpur sarawak dan sabah sumber arkib negara malaysia informasi stephen kalong ningkan dilantik menjadi ketua menteri sarawak pada 22 julai 1963 tarikh 22 julai diisytiharkan sebagai hari sarawak dan cuti umum negeri ini 110044laporan suruhanjaya pbb tentang malaysia sumber koleksi penulis sabah datu mustapha datu harun mengumumkan pengisytiharan malaysia di kota kinabalu sabah serta menandatangani surat sumpah jawatan sebagai yang dipertua negeri sabah yang pertama tun abdul razak hussein bab mewakili kerajaan persekutuan 5 dokumen pemasyhuran malaysia sumber arkib negara malaysia aktiviti drama drama activity arahan1 secara berkumpulan murid membuat perbincangan untuk mempersembahkan drama bertajuk rundingan ke arah pembentukan malaysia 2 murid perlu mencari maklumat tentang perkara yang berikut untuk menulis skrip a tokohtokoh yang terlibat dalam rundingan b bandar diadakan mesyuarat c hasil cadangan jskm 3 berdasarkan maklumat yang pembentukan malaysia dilakukan dengan cara diperoleh tulis skrip dan buat yang teratur melibatkan semua pihak penduduk latihan sebelum dipersembahkan yang terlibat diberi peluang untuk menyuarakan dalam bentuk drama pandangan mereka bagi menjaga kepentingan bersama 4 rakamkan drama tersebut untuk oleh itu kita perlu menjaga kepentingan kesepakatan tujuan dokumentasi untuk memastikan kestabilan negara terpelihara 110055</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t xml:space="preserve">Bab Pembentukan Malaysia </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Konfrontasi dan Usaha Menangani </t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>mempunyai perundangan 1 bbbaaabbb bab sistem perundangan menjadi asas kepada 111 peraturan negara sistem perundangan penting untuk memelihara kesejahteraan menjamin keadilan dan melindungi rakyat asas kepada sistem perundangan negara kita berpandukan perlembagaan persekutuan parlimen bertanggungjawab menggubal dan menentukan sistem perundangan negara kita istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia mempunyai rakyat rakyat merupakan penduduk di sesebuah negara rakyat terikat kepada undangundang dan peraturan yang dikuatkuasakan oleh pemerintah rakyat negara ini terdiri daripada pelbagai kaum agama dan adat resam mereka disatukan melalui satu bahasa dan kebudayaan rukun negara serta identiti nasional yang sama setem kenangan berkaitan dengan keunikan rakyat malaysia yang terdiri daripada pelbagai kaum sumber pos malaysia berhad kerusi panas hot seat ciri negara berdaulat menjadikan malaysia kedaulatan sesebuah negara berkait rapat dengan sebuah negara yang mempunyai identiti ciri yang diamalkan dan perlu dipertahankan yang unik kita perlu memahami betapa 1 secara berkumpulan atau individu buat kajian atau bacaan tentang topik ini pentingnya menjiwai dan mempertahankan 2 seorang murid dipilih tampil ke hadapan kelas identiti negara agar negara luar menghormati 3 murid ini akan duduk di kerusi yang disediakan kedaulatan malaysia dan menjadi pakar yang bertindak menyatakan pandangannya 4 murid lain boleh bertanyakan soalan dan pakar akan menjawab semua soalan yang dilontarkan 9913 kepentingan mewujudkan negara berdaulat 11 bab bbaabb kedaulatan negara penting bagi mewujudkan keberkesanan pentadbiran kemakmuran ekonomi 1 kesejahteraan sosial dan kecemerlangan hubungan luar negara selain itu negara diiktiraf setaraf dengan negara lain keberkesanan pentadbiran kedaulatan memberikan kebebasan kepada negara untuk menjalankan urusan pentadbiran tanpa campur tangan pihak luar dasar pentadbiran negara dilaksanakan dengan berkesan melalui jemaah menteri dan kementerian yang berkaitan kerjasama kerajaan persekutuan dan kerajaan negeri yang dilakukan melalui pengagihan kuasa mewujudkan keberkesanan pentadbiran sistem pentadbiran juga diperkukuh melalui peruntukan undangundang mesyuarat jemaah menteri diadakan pada tahun 1990 dipengerusikan oleh tun dr mahathir mohamad lima dari dalam perlembagaan persekutuan kiri keberkesanan pentadbiran melalui sistem jemaah menteri masih kekal diamalkan hingga hari ini sumber arkib negara malaysia kemakmuran ekonomi kedaulatan penting untuk negara melaksanakan dasar kemakmuran ekonomi selepas negara mencapai kemerdekaan pelbagai usaha dilakukan untuk memajukan dan meningkatkan taraf hidup rakyat berbilang kaum di malaysia pembangunan ekonomi meliputi bidang pertanian perindustrian dan perdagangan yang diperkenalkan melalui dasar pembangunan ekonomi negara tun abdul razak hussein depan perdana menteri malaysia kedua melawat kawasan luar bandar bagi memantau pelaksanaan program pertanian sumber arkib negara malaysia 1100kesejahteraan sosial 1 bbaabb kedaulatan penting untuk negara bab melaksanakan dasar sosial bagi 11 kesejahteraan rakyat negara dapat melahirkan generasi yang berilmu dan berkemahiran melalui pendidikan oleh itu mereka dapat memberikan sumbangan untuk pembangunan negara beberapa perkara berkaitan dengan bahasa kebangsaan kebudayaan sukan dan pasukan bola sepak kebangsaan yang berjaya melayakkan diri rukun negara diperkenalkan untuk ke sukan olimpik 1972 pasukan ini diwakili oleh pemain memupuk perasaan muhibah dan berbilang kaum semangat perpaduan dalam kalangan sumber arkib negara malaysia rakyat berbilang kaum di malaysia kecemerlangan hubungan luar negara kedaulatan penting bagi memberikan hak kepada negara untuk menjalinkan hubungan dengan negara lain hubungan ini dibentuk melalui penggubalan dasar luar negara kita selain dapat menjalinkan hubungan diplomatik dan persahabatan dengan negara lain negara juga dapat mengadakan perjanjian dan kerjasama dalam pelbagai bidang kesannya malaysia menikmati pelbagai faedah dan kelebihan dalam usaha mempertahankan kedaulatan keanggotaan malaysia dalam pertubuhan serantau dan antarabangsa pula meningkatkan imej negara masyarakat antarabangsa mengakui peranan dan kebolehan negara kita setaraf dengan negara lain di dunia jelaskan kepentingan mewujudkan negara berdaulat tun hussein onn perdana menteri malaysia ketiga kanan bertemu dengan anwar sadat presiden mesir kiri di mesir pada tahun 1977 untuk mengukuhkan hubungan diplomatik hasilkan peta pemikiran yang sesuai antara malaysia dengan mesir berkaitan dengan kepentingan sumber universiti tun hussein onn 2009 tun hussein onn mewujudkan negara berdaulat permata menara gading batu pahat penerbit uthm membuat rasionalisasi kedaulatan dapat mewujudkan kesejahteraan dan kemakmuran kepada rakyat sebagai rakyat malaysia rasionalkan kepentingan kedaulatan kita perlu memahami pentingnya mengekalkan dalam menentukan bentuk sistem kedaulatan negara yang diperoleh pada masa ini pentadbiran negara pada masa ini 111114 langkah mempertahankan kedaulatan 11 bab bbaabb pemerintah dan rakyat memainkan peranan penting bagi mempertahankan kedaulatan negara 1 oleh itu pemerintah dan rakyat perlu bekerjasama untuk mewujudkan kestabilan politik serta kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme dan mengukuhkan pertahanan negara kerjasama ini penting bagi memastikan kedaulatan dapat dipertahankan demi kemajuan dan kesejahteraan negara mewujudkan kestabilan politik dan kemakmuran ekonomi pemerintah dan rakyat mempunyai peranan yang sama untuk menjamin kestabilan politik dan kemakmuran ekonomi pemerintah melaksanakan pentadbiran dengan cekap dan menjalankan pelbagai usaha serta program bagi memajukan ekonomi rakyat pula memberikan kerjasama sepenuhnya untuk menjayakan semua usaha dan program yang dilaksanakan oleh pemerintah pemerintah mewujudkan pentadbiran yang cekap mengelakkan amalan rasuah dalam pentadbiran memastikan agihan sumber kekayaan negara secara adil kepada semua kaum melalui dasar pembangunan ekonomi melaksanakan undangundang negara menurut perlembagaan secara berkesan membuat interpretasi menurut dr tan chee khoon kami kenal pasti bahawa perhatian utama harus diberikan terhadap kelemahan ekonomi kaum bumiputera masalah mereka memerlukan rakyat pendekatan khas untuk diselesaikan mereka perlu dilindungi daripada eksploitasi dan memberikan kesetiaan kepada raja dan negara dibantu secara asas untuk bersaing dengan menyokong segala usaha dan dasar kerajaan kaum lain dalam perniagaan perdagangan bagi mewujudkan kestabilan politik dan pekerjaan memupuk kerjasama dengan semua kaum sumber raj vasil 1987 tan chee khoon supaya agihan kekayaan negara dinikmati an elder statesman petaling jaya pelanduk oleh semua publications m sdn bhd mematuhi undangundang negara 1 mengapakah beliau menyarankan agar kaum bumiputera dibantu dari segi kemakmuran ekonomi 2 huraikan langkah yang diambil untuk meningkatkan ekonomi setiap kaum 1122mengekalkan perpaduan kaum 1 bbaabb bab sejak awal kemerdekaan pemerintah dan rakyat berusaha untuk mengekalkan perpaduan kaum perpaduan penting dalam usaha kita mengekalkan kedaulatan negara beberapa 11 langkah dilaksanakan untuk memupuk perpaduan dalam kalangan rakyat pemerintah menggubal dasar dan undangundang berkaitan dengan perpaduan kaum serta integrasi nasional memastikan keberkesanan pelaksanaan dasar berkaitan dengan bahasa pendidikan dan kebudayaan oleh kementerian serta agensi berkaitan merangka program serta kempen ke arah memupuk perpaduan kaum sampul surat hari pertama pos malaysia dan integrasi nasional berkaitan dengan kepelbagaian budaya dan memperuntukkan perbelanjaan yang adat resam kaum di malaysia mencukupi untuk program memupuk sumber pos malaysia berhad perpaduan kaum meneroka bukti fahami titah di bawah rakyat menggunakan bahasa kebangsaan bab dan menghayati prinsip rukun negara 1 yang dapat menjamin perpaduan kaum memahami dan menghormati agama serta budaya pelbagai kaum mengamalkan semangat perkongsian bertoleransi dan saling menghormati kedaulatan negara bergantung pada sesama rakyat malaysia warganya yang bersatu melibatkan diri dalam program titah duli yang maha mulia paduka seri kemasyarakatan yang dapat memupuk sultan perak darul ridzuan sultan nazrin kerjasama antara kaum muizzuddin shah ibni almarhum sultan azlan muhibbuddin shah almaghfurlah sumber berita harian 10 november 2018 kedaulatan negara bergantung pada warganya yang bersatu buktikan 1133memupuk patriotisme 11 bab patriotisme ialah perasaan cinta yang mendalam terhadap negara serta sanggup mempertahankan bbaabb sejarah bahasa undangundang warisan dan budaya patriotisme merupakan nadi kepada 1 kebebasan kestabilan dan kemajuan sesebuah negara semangat ini juga penting untuk melahirkan pemimpin dan rakyat yang taat setia serta sanggup berkorban demi negara meja bulat serentak simultaneous round table pemerintah dalam kumpulan murid menulis pendapat di atas kertas tentang soalan yang dikemukakan menganjurkan sambutan hari kebangsaan dan di bawah catatan diedarkan kepada rakan hari pahlawan untuk menimbulkan kecintaan lain dalam kumpulan mengikut pusingan terhadap negara jam setiap ahli diberi peluang untuk mewajibkan mata pelajaran sejarah sebagai menuliskan pendapat soalan yang diberikan mata pelajaran teras di sekolah bagi melahirkan berkaitan dengan lagu patriotik keranamu generasi yang peka terhadap sejarah negara malaysia menganjurkan kempen dan menerbitkan filem 1 apakah maksud yang terkandung dalam atau rencana untuk memupuk patriotisme lirik lagu ini melalui pelbagai media 2 nyatakan keistimewaan rakyat berbilang memberikan pengiktirafan kepada rakyat kaum yang dinyatakan dalam lagu ini malaysia yang berjasa kepada negara dengan 3 bagaimanakah anda memainkan peranan mengabadikan nama mereka pada bangunan untuk mempertahankan negara dan jalan lirik lagu keranamu malaysia buruh nelayan dan juga petani gaya hidup kini dah berubah anakanak terasuh mindanya lahir generasi bijak pandai pakar it pakar ekonomi jaguh sukan dan juga jutawan berkereta jenama negara megah menyusur di jalan raya rakyat alam siber teknologi terkini kejayaan semakin hampiri biar di kota ataupun desa menghormati lambang negara seperti bendera kita semua pasti merasa bangga jalur gemilang jata negara dan lagu negaraku keranamu kami mendakap tuah menyanjungi dan menghargai adat dan keranamu kami bangsa berjaya warisan negara keranamu kami hidup selesa limpah budi kemakmuran negara meningkatkan imej negara dengan melakar keranamu kami bebas merdeka kejayaan dalam bidang pendidikan sukan keranamu nyawa dipertaruhkan dan ekonomi keranamu kami rela berjuang menghargai tokoh pelbagai kaum yang berjuang demi bangsa kedaulatan negara untuk kemerdekaan dan kedaulatan negara ulang dari mula keranamu negara malaysia malaysiaterima kasih malaysia l a g u dato suhaimi mohd zain lirik siso kopratasa sumber kementerian komunikasi dan multimedia malaysia 1144mengukuhkan pertahanan negara 1 bbaabb pemerintah dan rakyat mempunyai tanggungjawab untuk mempertahankan negara daripada bab ancaman musuh pertahanan negara penting untuk mengekalkan kedaulatan negara kita 11 pemerintah rakyat menggubal dasar dan undangundang peka terhadap isu keselamatan negara untuk melindungi keselamatan negara contohnya memberikan maklumat tentang mengadakan perjanjian pertahanan pencerobohan sempadan negara serta latihan ketenteraan bersamasama mengelakkan kolaborasi dengan pihak luar negara serantau dan antarabangsa yang boleh mengancam keselamatan dan memodenkan aset ketenteraan untuk kedaulatan negara mengukuhkan pasukan pertahanan menganggotai pasukan keselamatan dan negara pasukan sukarelawan untuk mempertahankan memastikan pasukan keselamatan negara sentiasa bersiap siaga menghadapi sanggup berkorban demi mempertahankan cabaran semasa kedaulatan negara kerjasama antara pemerintah dengan rakyat dalam melaksanakan langkah mengekalkan kedaulatan telah berjaya menghasilkan keamanan dan kesejahteraan sebagai rakyat malaysia amat penting untuk kita menghormati kepelbagaian budaya dan agama dalam usaha mengukuhkan perpaduan bangsa malaysia perpaduan dan kerjasama kaum menjadi teras kepada kemakmuran kelangsungan serta kedaulatan negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara yang membolehkan kerajaan melaksanakan kawalan pemerintahan dan pentadbiran ciri negara berdaulat menjadikan negara kita sebuah negara yang stabil dan kukuh pelbagai langkah dilaksanakan untuk memastikan kedaulatan negara tetap terpelihara kedaulatan negara meneroka bukti diperkukuh melalui pemerintahan dan pentadbiran yang berlandaskan perlembagaan buktikan hubungan pemerintah dan rakyat mampu mengekalkan kedaulatan negara 1155imbas kembali 11 bab bbaabb kedaulatan negara 1 1 konsep takrif kedaulatan kedaulatan pandangan tokoh jenis kedaulatan 2 ciri negara mempunyai yang berdaulat pemerintahan mempunyai sempadan mempunyai perundangan mempunyai rakyat 3 kepentingan keberkesanan mewujudkan pentadbiran negara kemakmuran ekonomi berdaulat kesejahteraan sosial kecemerlangan hubungan luar negara 4 langkah mewujudkan mempertahankan kestabilan politik kedaulatan dan kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme mengukuhkan pertahanan negara 1166pembelajaran abad ke21 1 bbaabb bab 11 aktiviti fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki membina ayat berpandukan isu yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakan atau pasangan 3 murid berkongsi maklumat hasil perbincangan dengan pasangankumpulankelas lain abad ke21 cabaran mengekalkan kedaulatan negara isu cabaran kesan tindakan keselamatan perpaduan kaum kestabilan politik ekonomi pencerobohan pelarian dadah rasuah berdasarkan tajuk di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a cabaran yang dihadapi huraikan cabaran yang dihadapi berkaitan dengan aspek yang disenaraikan dengan terperinci b isu atau permasalahan jelaskan kesan terhadap malaysia akibat cabaran yang dihadapi c keberkesanan strategi sejauh manakah malaysia berjaya mengatasi masalah ini dengan mengambil tindakan yang sewajarnya 2 aktiviti kumpulan bentukkan kumpulan kecil dengan pasangan lain kemudian kongsikan maklumat yang diperoleh 1177pemahaman dan pemikiran kritis 11 bab bbaabb 1 apakah takrif kedaulatan dalam bahasa arab 1 a negara yang bebas dan merdeka b kuasa pemerintahan sesebuah kerajaan c kekuasaan tertinggi terhadap pemerintahan negara d negara mempunyai kuasa yang penuh terhadap pemerintahan 2 mengapakah kedaulatan penting bagi sesebuah negara a menjadi kuasa politik unggul di dunia b menunjukkan kekuatan angkatan tentera c mewujudkan keberkesanan sistem pentadbiran d membuktikan dasar luar mengikut situasi semasa 3 gambar di bawah berkaitan dengan ciri negara berdaulat gambar 1 gambar 2 kebawah duli yang maha mulia seri paduka baginda bangunan parlimen malaysia yang dipertuan agong xvi dan kebawah duli yang maha mulia seri paduka baginda raja permaisuri agong a jelaskan ciri negara berdaulat b huraikan langkah yang dilaksanakan untuk mempertahankan kedaulatan negara 4 peta menunjukkan kedudukan malaysia yang bersempadan dengan negara jiran filipina di asia tenggara a mengapakah hubungan baik dengan thailand negara jiran perlu dipertahankan laut china selatan b setiap warganegara malaysia mempunyai tanggungjawab untuk darbursusnaeli am mempertahankan kedaulatan perairan m a l a y s i a singapura negara bincangkan i n d o n e s i a petunjuk sempadan antarabangsa 1188cakna dan cerminan sejarah 1 bbbaaabbb bab nilai patriotisme dan iktibar 111 pemahaman terhadap ciri negara yang berdaulat wajar dipertingkatkan untuk melahirkan rakyat malaysia yang berbangga dengan identiti negara kepentingan mempertahankan kedaulatan negara bagi melahirkan masyarakat yang berganding bahu untuk membangunkan negara dan menjamin kesejahteraan rakyat pemerintah dan rakyat saling bekerjasama bersefahaman serta bermuafakat bagi mempertahankan kedaulatan negara diri dan keluarga menyokong dan melibatkan diri dalam proses pembangunan negara dan berusaha gigih untuk memajukan diri negara perpaduan rakyat berbilang kaum dan semangat rela berkorban merupakan keunikan negara kita untuk mempertahankan kedaulatannya angkatan tentera malaysia menjaga kedaulatan negara kita sumber kementerian pertahanan malaysia 1199bab 2 perlembagaan persekutuan 2 bab sinopsis perlembagaan persekutuan merupakan dokumen undangundang bertulis yang menjadi teras pada sistem pemerintahan negara perlembagaan digubal berasaskan undangundang negeri melayu yang sedia ada dan juga tambahan unsur baharu perlembagaan persekutuan malaysia mempunyai ciri tradisional dan moden yang menjadikan perlembagaan di negara kita unik perlembagaan persekutuan berkuat kuasa seiring dengan kemerdekaan pada 31 ogos 1957 selepas itu perlembagaan dipinda bagi menyesuaikannya dengan keperluan semasa negara 2200inti pati pembelajaran 1 latar belakang sejarah perlembagaan persekutuan bab 2 sejarah penggubalan perlembagaan persekutuan 3 ciri utama perlembagaan persekutuan 2 4 pindaan perlembagaan persekutuan 1963 dan 1965 elemen kewarganegaraan dan nilai sivik 1 kepentingan mendaulatkan perlembagaan persekutuan 2 kepentingan mematuhi undangundang dalam kehidupan 3 kepentingan tanggungjawab rakyat bagi memelihara perlembagaan persekutuan 4 kepentingan menjiwai semangat perlembagaan persekutuan kemahiran pemikiran sejarah 1 memahami kronologi penggubalan perlembagaan persekutuan 2 meneroka bukti kewujudan undangundang adat sebelum kedatangan british 3 membuat interpretasi ciri utama perlembagaan persekutuan 4 membuat imaginasi struktur mahkamah atasan di negara kita 5 membuat rasionalisasi pindaan perlembagaan persekutuan istana kehakiman putrajaya sumber dewan bahasa dan pustaka 221121 latar belakang sejarah perlembagaan persekutuan perlembagaan merupakan undangundang tertinggi sebagai teras pemerintahan sesebuah negara sebelum kedatangan british negara kita diperintah berdasarkan pemerintahan beraja raja memerintah berdasarkan undangundang dan peraturan yang digubal pada zaman british raja terus 22 diterima sebagai pemerintah berdaulat apabila merdeka negara kita mempunyai perlembagaan bbaabb yang merupakan unsur penting dalam sesebuah negara asas pembentukan perlembagaan perlembagaan persekutuan berasaskan nilai tradisi kesultanan melayu dan kemudiannya beberapa prinsip undangundang inggeris disesuaikan dengan nilai tempatan undangundang negeri melayu raja sebagai pemerintah rakyat memberikan ketaatsetiaan undangundang dan sistem pemerintahan ditentukan oleh raja undangundang yang wujud pada zaman kesultanan melayu melaka seperti hukum kanun melaka dan undangundang laut melaka mempengaruhi kandungan undangundang bertulis di negeri melayu yang lain antara undangundang bertulis di negerinegeri melayu termasuklah hukum kanun pahang undangundang kedah undangundang johor dan undangundang 99 perak sebelum kedatangan kuasa barat negara kita sudah mempunyai undangundang dan adat melayu yang digunakan sebagai asas perlembagaan undangundang ini menjadi panduan serta kawalan kepada raja dan pembesar dalam proses pemerintahan negara senaraikan undangundang bertulis yang terdapat di negara kita sebelum hukum kanun melaka kedatangan british sumber perpustakaan negara malaysia 2222undangundang di negerinegeri melayu mengalami perubahan demi perubahan selaras dengan perkembangan masyarakat sehingga kemunculan dan pengenalan undangundang dari barat sekitar awal abad kel9 bbbaaabbb 222 undangundang 99 perak sumber perpustakaan negara malaysia hukum kanun pahang sumber yaakub isa penyl 2003 hukum kanun pahang manuskrip agung negeri pahang pahang lembaga muzium negeri pahang undangundang inggeris british memperkenalkan undangundang di negerinegeri selat nns yang dikenali sebagai charter of justice diambil daripada undangundang yang digubal di england piagam terpilih yang bersesuaian dengan kegunaan nns sahaja diguna pakai contohnya charter of justice 1807 di sarawak pula terdapat the sarawak app l i c ation of laws ordinance 1949 yang menggunakan the common law of englanmdasukkan piagam diraja syarikat berpiagam di sabah terdapat undangundang yang sam18a 8d1i sbeabguit ssaabbaahh baapwpalhic taatjiuokn uofn ldaanwgs undang ordinance 1951 inggeris proclamation of sarawak constitution sumber muzium sarawak 2233pada zaman pentadbiran british nns iaitu melaka pulau pinang dan singapura memperkenalkan undangundang yang diambil dari england iaitu charter of justice matlamatnya adalah untuk melindungi penduduk asal daripada penindasan dan ketidakadilan 22 bbaabb charter of justice i 1807 mewujudkan mahkamah di pulau pinang charter of justice ii 1826 charter of justice menyatukan mahkamah di singapura di negerinegeri melaka dan pulau pinang selat charter of justice iii 1855 mewujudkan mahkamah singapura dan melaka pulau pinang pada bulan ogos 1956 perlembagaan sarawak memberikan kuasa kepada badan membuat undangundang iaitu council negri majlis negeri yang mengandungi 45 orang ahli dan dipengerusikan oleh ketua setiausaha majlis tertinggi pula dipengerusikan oleh gabenor yang turut dianggotai oleh ketua setiausaha setiausaha kewangan dan peguam negara perlembagaan sarawak pada tahun 1959 memberikan kuasa pentadbiran negeri kepada majlis tertinggi dan council negri di sabah pula ditubuhkan majlis undangan dan majlis kerja pada tahun 1950 majlis undangan memberikan kuasa kepada gabenor untuk menggubal undangundang dalam pemerintahannya institusi pemerintahan beraja diteruskan apabila tanah melayu mencapai kemerdekaan walaupun begitu beberapa pindaan disesuaikan dengan konsep raja berperlembagaan dan demokrasi berparlimen perlembagaan persekutuan tanah melayu 1957 diperkenalkan dan menjadi asas kepada perlembagaan negara kita pada hari ini perlembagaan inilah menjadi asas kepada sistem raja berperlembagaan dan demokrasi berparlimen 2422 sejarah penggubalan perlembagaan persekutuan sejarah penggubalan perlembagaan persekutuan bermula pada tahun 1877 hingga tahun 1957 pembentukan undangundang dalam sesebuah negara dilakukan oleh badan yang sah dalam perundangan di malaysia badan perundangan dinamakan parlimen yang berkuasa penuh bbaabb membentuk undangundang negara sejak negara mencapai kemerdekaan ahli parlimen memainkan peranan meminda perlembagaan bagi menegakkan kedaulatan negara sebagai rakyat kita perlu 22 menghargai jasa pemimpin yang berusaha untuk mengekalkan kedaulatan negara di nns terdapat charter of justice untuk melindungi penduduk sementara itu pembentukan undangundang di negeri melayu pula dimulai oleh majlis negeri perak 1 1877 mesyuarat pertama majlis negeri perak pada tahun 1877 yang dipengerusikan oleh raja muda yusuf menjadi titik tolak kepada pembentukan undangundang negara charter of justice iii 1855 majlis negeri perak berperanan untuk menggubal undangundang bagi negeri perak mewujudkan mahkamah kemudiannya peranan yang sama ini dimainkan oleh semua majlis negeri di negeri singapura dan melaka melayu yang lain pulau pinang raja muda yusuf duduk di tengah bersamasama sir hugh low berdiri di depan di kuala kangsar perak pada tahun 1880 sumber arkib negara malaysia membuat interpretasi setiap rakyat memiliki hak yang sama dari segi undangundanginterpretasikan maksud petikan tersebut 22552 1946 undangundang di nns digubal oleh majlis undangan negeri manakala undang 22 undang di negerinegeri bbaabb melayu bersekutu nnmb digubal oleh majlis persekutuan sementara itu undangundang di negerinegeri melayu tidak bersekutu nnmtb pula digubal oleh majlis negeri akta dan ordinan negeri negeri selat 1886 buku the laws of the federated malay states sumber cornell university library 3 1948 perjanjian persekutuan tanah melayu 1948 merupakan titik penting pembentukan sebuah persekutuan yang terdiri daripada negerinegeri melayu melaka dan pulau pinang antara kandungan yang terdapat dalam persekutuan tanah melayu termasuklah pentadbiran kuasa raja melayu perundangan dan kewarganegaraan rajaraja melayu bersamasama jeneral sir gerald walter robert templer pesuruhjaya tinggi british di persekutuan tanah melayu semasa mesyuarat majlis rajaraja ke25 sumber arkib negara malaysia 22664 1957 suruhanjaya perlembagaan ini dikenali sebagai suruhanjaya perlembagaan persekutuan tanah melayu atau suruhanjaya reid perlembagaan persekutuan tanah melayu 1957 disesuaikan dengan model westminster yang diambil dari britain perlembagaan ini berkuat kuasa sejurus selepas kemerdekaan pada 31 ogos 1957 perlembagaan ini juga menjadi asas kepada perlembagaan negara bbaabb kita pada hari ini 22 informasi lima perkara terma rujukan utama dalam perjanjian persekutuan 1957 kerajaan persekutuan yang kukuh menjamin kedudukan rajaraja melayu menjamin kedudukan istimewa orang melayu dan kepentingan sah kaum lain parlimen hendaklah mengandungi dua dewan iaitu dewan rakyat dan dewan negara laporan suruhanjaya kewarganegaraan yang sama perlembagaan persekutuan tanah melayu 1957 memahami kronologi sumber arkib negara malaysia galurkan sejarah penggubalan perlembagaan persekutuan meja bulat round table perlembagaan negara merupakan elemen penting dalam sesebuah negara dan perlu dipertahankan 1 secara berkumpulan bincangkan bangunan parlimen malaysia topik ini sumber dewan bahasa dan pustaka 2 ahli bergilirgilir mencatatkan idea perlembagaan persekutuan tanah melayu 1957 tentang kepentingan perlembagaan bermodelkan westminster memandangkan persekutuan negara kita mempunyai asas sistem perundangan 3 hasil perbincangan dibentangkan di hadapan kelas bertulis maka hal ini banyak membantu malaysia 4 seorang wakil kumpulan akan menggubal sebuah perlembagaan bertulis tampil di hadapan kelas dan membentangkan dapatan kajian 5 murid lain boleh bertanyakan laporan suruhanjaya perlembagaan soalan kepada wakil kumpulan ini persekutuan tanah melayu 1957 227723 ciri utama perlembagaan persekutuan perlembagaan merupakan peraturan tertinggi dan panduan dalam sistem pemerintahan negara perlembagaan mempunyai dua ciri utama iaitu tradisional dan moden yang diperlukan bagi kestabilan serta kemajuan negara 222 bbbaaabbb ciri tradisional 1 kesultanan atau pemerintahan beraja sejak berabadabad negeri melayu diperintah berdasarkan pemerintahan beraja sultan merupakan pemerintah berdaulat dan memiliki kuasa penuh di negeri masingmasing setelah negara kita mencapai kemerdekaan pemerintahan beraja diteruskan dan disesuaikan dengan konsep demokrasi berparlimen yang dipertuan agong diperuntukkan melalui perlembagaan kuasa pemerintahan sebagai pemerintah tertinggi negara kuasa yang dipertuan agong termasuklah kuasa mengampun dan menangguhkan hukuman orang yang disabitkan kesalahan oleh mahkamah baginda juga mempunyai kuasa membuat pelantikan bagi jawatan utama negara pada peringkat negeri raja merupakan ketua negeri pada baginda terletak kuasa eksekutif yang dilaksanakan melalui nasihat majlis mesyuarat negeri raja mempunyai kuasa mengampun dan menangguhkan hukuman kepada mereka yang disabitkan kesalahan oleh mahkamah serta pelantikan jawatan utama negeri raja dikenali sebagai tonggak kehormatan dan keadilan yang membolehkan baginda mengurniakan anugerah penghormatan dan bintang kehormat kepada individu yang terpilih ciri moden 1 kerajaan persekutuan antara perkara utama yang disebut dalam perlembagaan ciri persekutuan termasuklah mewujudkan satu sistem kerajaan moden persekutuan laporan suruhanjaya perlembagaan persekutuan tanah melayu menyarankan kerajaan persekutuan dan kerajaan negeri diberi kuasa dalam bidang tertentu apabila malaysia dibentuk sarawak dan sabah diberi beberapa autonomi 3 kewarganegaraan kewarganegaraan persekutuan mula diperkenalkan pada tahun 1948 melalui perjanjian persekutuan tanah melayu sebelum itu tidak terdapat satu kewarganegaraan yang sama bagi seluruh 1 jelaskan kuasa yang dipertuan negara rakyat dikategorikan sebagai rakyat raja dan terdapat agong dalam perlembagaan juga penduduk yang mendapat kerakyatan british sekiranya persekutuan dilahirkan di melaka atau pulau pinang kemerdekaan 2 nyatakan ciri moden dalam tanah melayu dan pembentukan malaysia melahirkan taraf perlembagaan persekutuan kewarganegaraan yang sama kepada rakyatnya 22882 agama islam peruntukan perlembagaan berkaitan dengan agama islam merupakan antara ciri tradisional pada zaman british raja di negeri melayu tidak perlu menerima nasihat daripada penasihat british berkaitan dengan hak dan kedaulatan raja adat istiadat orang melayu dan agama islam selepas merdeka agama islam bagi negeri melayu terletak di bawah kuasa raja di negeri masingmasing bagi wilayah persekutuan dan negeri tidak beraja perkara bbaabb ini terletak di bawah kuasa yang dipertuan agong 22 3 bahasa melayu sejak zaman kesultanan melayu melaka bahasa melayu digunakan dalam pemerintahan bahasa melayu menjadi lingua franca dan memainkan peranan sebagai bahasa ilmu kini bahasa melayu ciri menjadi bahasa kebangsaan dan bahasa rasmi di negara kita tradisional 4 kedudukan orang melayu dan bumiputera sebelum merdeka kedudukan orang melayu dan bumiputera adalah di bawah kuasa raja dan ketua peribumi apabila negara kita merdeka yang dipertuan agong diberi tanggungjawab memelihara kedudukan istimewa orang melayu dan bumiputera sarawak dan sabah serta kepentingan sah kaum lain 2 sistem demokrasi berparlimen perlembagaan persekutuan memperuntukkan sistem demokrasi di malaysia asas kepada demokrasi ialah pilihan raya umum pada tahun 1955 tujuan utama pilihan raya adalah untuk memberikan kebebasan kepada rakyat memilih wakil pemimpin dan menubuhkan kerajaan bagi menentukan pilihan raya dapat dijalankan dengan adil maka ditubuhkan suruhanjaya pilihan raya badan ini bertanggungjawab sepenuhnya untuk menjalankan pilihan raya informasi pilihan raya persekutuan memilih wakil bagi membentuk kerajaan persekutuan sebelum pembentukan malaysia pilihan raya negeri pula memilih wakil untuk membentuk sarawak dan sabah mempunyai kerajaan negeri sistem pemilihan secara tidak langsung sistem pemilihan melalui pilihan raya di sarawak perlembagaan persekutuan mempunyai keunikan kerana diadakan mulai tahun 1969 sabah menggantikan sistem mengandungi ciri tradisional dan moden di samping itu ini pada tahun 1967 sistem undangundang yang terkandung dalam perlembagaan negara ini membolehkan pembubaran kita pula bertujuan agar rakyat mematuhi peraturan yang telah dewan undangan negeri ditetapkan oleh itu rakyat perlu mematuhi undangundang pada tahun 1967 dan diadakan bagi menjamin keamanan negara dan kesejahteraan hidup pemilihan secara pilihan raya 229924 pindaan perlembagaan persekutuan 1963 dan 1965 perlembagaan tanah melayu 1957 menjadi asas kepada perlembagaan persekutuan malaysia 1963 hal ini berlaku apabila terjadi penggabungan persekutuan tanah melayu sarawak sabah dan singapura pindaan perlembagaan yang dilakukan bertujuan menyesuaikan peruntukan negeri 22 bbaabb baharu ke dalam perlembagaan tanpa mengubah kedudukan negeri yang sedia ada terdapat beberapa pindaan perlembagaan yang utama dilakukan pada tahun 1963 dan 1965 melibatkan struktur mahkamah atasan dan pemisahan singapura pindaan perlembagaan 1963 perlembagaan persekutuan tanah melayu 1957 dipinda selepas pembentukan malaysia pindaan yang dibuat adalah dengan cara memasukkan klausa baharu pada bahagian tertentu bagi menyesuaikannya dengan keperluan semasa terdapat tiga perkara utama yang berlaku dalam pindaan perlembagaan 1963 iaitu struktur mahkamah atasan pembentukan mahkamah tinggi borneo dan jawatan yang dipertua negeri 1 struktur mahkamah atasan perlembagaan persekutuan tanah melayu 1957 menetapkan struktur mahkamah atasan mengikut model mahkamah tertinggi england yang membahagikannya kepada mahkamah atasan dan mahkamah rayuan apabila malaysia dibentuk mahkamah atasan diwujudkan iaitu mahkamah persekutuan tiga buah mahkamah atasan diwujudkan iaitu di persekutuan tanah melayu di sarawak dan sabah serta di singapura mahkamah persekutuan boleh mendengar manamana persoalan perlembagaan dan pertikaian antara kerajaan persekutuan dengan kerajaan negeri 2 pembentukan mahkamah tinggi borneo informasi perlembagaan malaysia mengekalkan 1 sabah dikenali sebagai north kedudukan mahkamah tinggi malaya dan borneo sebelum pembentukan pada masa yang sama diwujudkan mahkamah malaysia tinggi borneo mahkamah tinggi borneo ini 2 pesuruhjaya kehakiman yang berperanan untuk menguruskan soal kehakiman bertauliah dilantik di north di sarawak dan sabah pada tahun 1963 jawatan borneo pada tahun 1912 ketua hakim borneo diwujudkan dengan jawatan ini kemudian dikenali berpusat di kuching sarawak menjelang tahun sebagai ketua ha</t>
+          <t>56 konfrontasi dan usaha menangani kerajaan indonesia tidak menentang pada peringkat awal rancangan pembentukan malaysia penentangan mula muncul selepas pemberontakan brunei 7 disember 1962 apabila tunku abdul rahman putra alhaj membuat kenyataan bahawa indonesia terlibat membantu pemberontakan partai komunis indonesia menggunakan kesempatan ini menyelar rancangan malaysia sebagai penerusan dasar neokolonialisme yang dirancang oleh kerajaan british konfrontasi peristiwa penentangan pada 20 januari 1963 dr subandrio menteri luar indonesia mengumumkan indon esia dasar konfrontasi terhadap malaysia 20 januari 1963 dengan alasan mengancam kedudukan melancarkan dasar konfrontasi indonesia terhadap tanah melayu ganyang malaysia 16 januari 1963 27 mac 1963 55 tentera indonesia melancarkan bbaabb serangan gerila di sarawak ogos disember 1964 pendaratan gerila di johor keratan akhbar berkaitan dengan konfrontasi sumber arkib negara malaysia poster mengingatkan rakyat agar tidak terpengaruh dengan khabar angin sumber arkib negara malaysia fail kerajaan british tentang sikap kerajaan indonesia terhadap malaysia sumber national archive united kingdom neokolonialisme ialah peluasan pengaruh politik oleh sesebuah kuasa besar terhadap negara lain 110066anggota keselamatan malaysia bersamasama komando tun abdul razak hussein sedang memberikan marin british meronda di sepanjang sungai di serudong taklimat kepada penduduk di sabak bernam sabah semasa konfrontasi selangor tentang konfrontasi sumber arkib negara malaysia sumber arkib negara malaysia tindakan ketenteraan terawal berlaku apabila pendaratan tentera dan separa tentera indonesia di tebedu sarawak pada 12 april 1963 bbaabb pada 29 disember 1963 berlaku peristiwa berbalas tembakan antara tentera malaysia dengan indonesia di kalabakan sabah 55 pada 2 september 1964 berlaku peristiwa pendaratan seramai 30 orang gerila indonesia di labis johor gerila indonesia yang masuk ke johor ditahan oleh pasukan tentera malaysia dr ismail abdul rahman membawa isu serangan ini ke dalam majlis keselamatan pbb kaedah provokasi tidak mengubah pendirian malaysia untuk bertindak selain cara diplomatik dr ismail abdul rahman duduk di depan dan omar ong yoke lin di belakang dalam majlis keselamatan pbb untuk membentangkan aduan tentang konfrontasi sumber arkib negara malaysia 107langkah menamatkan konfrontasi malaysia menggunakan pendekatan diplomatik dalam usaha menangani konfrontasi tanggungjawab menyusun strategi diserahkan kepada kementerian luar negeri yang diketuai oleh muhammad ghazali shafie tugas utama kementerian ini adalah untuk mematahkan kempen propaganda dan mendapatkan sokongan negara luar 1 usaha awal menamatkan 2 3 konfrontasi dilakukan oleh u thant setiausaha agung presiden macapagal tunku abdul rahman putra alhaj pbb beliau mengutus menganjurkan rundingan menerima undangan presiden soekarno wakilnya cv narasimhan peringkat pegawai untuk bertemu di tokyo pada 1963 pada bulan februari 1963 di manila pada 9 april 1963 dalam pertemuan ini tunku abdul untuk berunding dengan rahman putra alhaj menerangkan negara kita diwakili oleh pemimpin kerajaan tujuan pembentukan malaysia muhammad ghazali shafie indonesia dan persekutuan tanah melayu 55 bbaabb 1963 1964 4 5 tun abdul razak hussein tunku abdul rahman putra alhaj menghadiri mesyuarat peringkat menghadiri mesyuarat bersamasama menteri luar di manila pada presiden soekarno dan presiden macapagal 7 11 jun 1963 bagi mencari di manila pada 31 julai 5 ogos 1963 hasil penyelesaian konfrontasi penting ialah penerimaan kerajaan indonesia dr subandrio menteri luar dan filipina terhadap pembentukan malaysia indonesia hadir bagi pihak selepas penilaian dibuat oleh pbb terhadap negaranya sarawak dan sabah 6 rundingan malaysia indonesia dan filipina berlangsung pada tahun 1964 melibatkan dua persidangan peringkat menteri di bangkok dan satu sidang kemuncak di tokyo peranan utama dimainkan oleh thanat khoman menteri luar thailand yang menganjurkan pertemuan dengan menteri luar indonesia muhammad ghazali shafie menyambut kedatangan jeneral ali moertopo kiri di lapangan terbang antarabangsa subang sumber arkib negara malaysia 1100887 peralihan kepimpinan di indonesia pada 8 30 september 1965 menamatkan konfrontasi jeneral suharto melantik jeneral ali kerajaan indonesia moertopo dan adam malik untuk berunding mengumumkan penamatan menamatkan konfrontasi konfrontasi pada 4 ogos 1966 1965 1966 9 tun abdul razak hussein menandatangani perjanjian persetujuan normalisasi hubungan indonesia malaysia di jakarta pada 11 ogos 1966 bbaabb perjanjian bangkok 55 dan persetujuan majlis menandatangani perjanjian persetujuan normalisasi hubungan normalisasi hubungan indonesiamalaysia oleh tun abdul razak hussein duduk di kiri indonesia malaysia dan adam malik duduk di kanan disaksikan oleh jeneral suharto yang diadakan di jakarta indonesia sumber arkib negara malaysia 1 nyatakan faktor yang konfrontasi memberikan pengalaman kepada negara kita untuk menyebabkan indonesia mengurus krisis pada peringkat serantau dan antarabangsa menentang pembentukan komitmen tinggi yang diberikan oleh pemimpin dan pegawai malaysia kerajaan berjaya mengelakkan masalah ini menjadi konflik 2 huraikan usaha yang yang lebih besar oleh itu penting bagi rakyat malaysia bersatu dilakukan oleh malaysia padu untuk memastikan kestabilan negara dan mengelakkan bagi menghadapi konfrontasi ancaman luar indonesia pembentukan malaysia merupakan usaha menggabungkan persekutuan tanah melayu sarawak sabah dan singapura dalam persekutuan malaysia usaha pembentukan malaysia menghadapi cabaran terbesar untuk mendapatkan sokongan dan kerjasama daripada semua rakyat pembentukan malaysia turut menghadapi cabaran pada peringkat antarabangsa apabila negara jiran iaitu indonesia dan filipina menentang pembentukan ini sokongan yang diberikan oleh rakyat membolehkan pembentukan malaysia diisytiharkan dengan jayanya keterlibatan pemimpin pegawai kerajaan dan masyarakat tempatan menghasilkan satu persetujuan melalui perjanjian malaysia 1963 malaysia berjaya diisytiharkan pada 16 september 1963 pengajaran utama yang boleh diambil daripada pembentukan malaysia ialah kepentingan kesepakatan untuk kestabilan negara 110099imbas kembali pembentukan malaysia konsep gagasan idea gagasan malaysia malaysia perkembangan idea dan idea pegawai british usaha pembentukan idea penduduk tempatan malaysia rasional idea pembentukan malaysia 55 reaksi tempatan dan reaksi awal terhadap gagasan malaysia bbaabb negara jiran terhadap reaksi tempatan pembentukan malaysia reaksi negara jiran siri lawatan jawatankuasa setia kawan malaysia jskm langkah pembentukan referendum singapura malaysia rundingan london suruhanjaya cobbold pembentukan jawatankuasa antara kerajaan jak perjanjian julai inti pati perjanjian malaysia 1963 dan peristiwa misi pertubuhan bangsabangsa bersatu pbb pengisytiharan malaysia peristiwa pengisytiharan malaysia konfrontasi dan konfrontasi peristiwa penentangan usaha menangani langkah menamatkan konfrontasi 111100pembelajaran abad ke21 aktiviti fail edar travelling file arahan1 murid dikehendaki berada dalam kumpulan setiap kumpulan diberi satu fail yang mengandungi soalan untuk dibincangkan dan dicatatkan 2 setelah 15 20 minit soalan dan catatan jawapan dimasukkan semula ke dalam fail lalu diedarkan kepada kumpulan lain 3 setiap kumpulan yang mendapat fail baharu daripada kumpulan lain akan membaca jawapan yang diberikan mereka boleh menambah membaiki atau menyatakan pandangan pada jawapan dalam fail 4 setiap kumpulan akan memberikan maklum balas pada jawapan dan guru akan mengadakan perbincangan serta membuat rumusan bab 5 gambar 1 jawatankuasa setia kawan malaysia jskm gambar 2 suruhanjaya cobbold soalan1 nyatakan peranan keduadua jawatankuasa ini 2 mengapakah jawatankuasa setia kawan malaysia dan suruhanjaya cobbold penting dalam menjayakan pembentukan malaysia 3 mengapakah amalan muafakat penting dalam menjayakan sesuatu misi 111111pemahaman dan pemikiran kritis 1 apakah matlamat malcolm macdonald mencadangkan penggabungan semua tanah jajahan british di asia tenggara a memajukan ekonomi b memudahkan pentadbiran c melaksanakan dekolonisasi d mengelakkan ancaman komunis 2 mengapakah indonesia melancarkan konfrontasi a menuntut wilayah sabah b mengancam kedudukan indonesia c mengurangkan kuasa politik melayu d menggagalkan gagasan melayu raya 3 faktor yang menamatkan konfrontasi indonesia dan malaysia ialah a penubuhan asean b resolusi majlis keselamatan pbb c peralihan kepimpinan di indonesia 5 d amaran amerika syarikat kepada indonesia bab 4 gambar menunjukkan ahli rombongan mewakili sarawak yang menandatangani perjanjian malaysia berdasarkan gambar ini jawab soalan yang berikut sumber the borneo post a apakah peranan penting yang dimainkan oleh wakil dari sarawak b nyatakan inti pati utama perjanjian malaysia 1963 c jelaskan kepentingan perjanjian malaysia 1963 111122cakna dan cerminan sejarah nilai patriotisme dan iktibar kepentingan untuk berfikiran strategik bagi mencapai kejayaan dalam kehidupan kesepakatan adalah penting bagi mewujudkan kestabilan negara sikap menerima dan meraikan idea serta pandangan yang berbeza penting bagi kesejahteraan negara sikap sentiasa berwaspada kepada anasir luar penting bagi menjaga keselamatan dan kedaulatan negara diri dan keluarga kita hendaklah sentiasa berfikiran positif dan menerima pandangan yang membina bagi membolehkan kita mencapai citacita negara kemerdekaan dan bebas daripada kuasa luar membolehkan proses pembangunan dan pemodenan dilakukan dengan jayanya bbaabb 55 bangunan pencakar langit yang menghiasi bandar raya kota kinabalu sabah 111133bab 6 cabaran selepas pembentukan malaysia sinopsis pembentukan malaysia memberikan kesan besar terhadap proses pembinaan negara bangsa selepas pembentukan malaysia negara menghadapi pelbagai cabaran antara cabaran utama termasuklah pemisahan singapura ancaman komunis isu pembangunan dan ekonomi serta tragedi hubungan antara kaum 114inti pati pembelajaran 1 cabaran dalaman malaysia 2 pemisahan singapura 3 menangani ancaman komunis 4 isu pembangunan dan ekonomi 5 tragedi hubungan antara kaum elemen kewarganegaraan dan nilai sivik 1 kepentingan menyelesaikan konflik secara rundingan 2 kewibawaan pemimpin dalam memperjuangkan maruah bangsa 3 kepentingan kestabilan politik dalam mengekalkan keamanan negara 4 kepentingan menjaga keharmonian kaum kemahiran pemikiran sejarah 1 memahami kronologi pemisahan singapura daripada malaysia 2 meneroka bukti cabaran pembentukan malaysia 3 membuat interpretasi keberkesanan perang saraf 4 membuat imaginasi langkah mengatasi isu pembangunan dan ekonomi 5 membuat rasionalisasi usaha memulihkan hubungan antara kaum dokumen singapura keluar daripada malaysia sumber arkib negara malaysia 115</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Asas Penggubalan Dasar Luar </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92 asas penggubalan dasar luar penggubalan dasar luar malaysia dilaksanakan berpandukan perkembangan ekonomi sosial dan politik pada peringkat domestik dan antarabangsa penjelasan tentang penggubalan dasar luar ini dapat dilihat melalui matlamat dasar luar dan faktor penggubalannya matlamat penggubalan dasar luar dasar luar amat penting kepada malaysia kerana dasar ini mempengaruhi tindakan negara dalam menghadapi suasana perkembangan politik wilayah serantau dan antarabangsa kejayaan dasar luar malaysia dapat diukur dengan wujudnya hubungan berbaikbaik serta kerjasama yang erat dalam bidang ekonomi politik pertahanan serta kebudayaan pada peringkat antarabangsa sejak tahun 1956 persediaan asas untuk menubuhkan kementerian luar negeri telah bermula dan dikenali sebagai kementerian hal ehwal luar pada tahun 1966 nama kementerian ini diubah menjadi kementerian luar negeri kementerian ini berpindah dari bangunan sultan abdul samad ke kompleks baharunya dan dikenali sebagai wisma putra yang terletak di bukit petaling kuala lumpur pada 17 september 2001 kementerian luar negeri memulakan operasinya di no 1 jalan wisma putra presint 2 putrajaya wisma putra berperanan menggubal dasar luar serta menjaga kepentingan nasional malaysia pada peringkat antarabangsa matlamat penggubalan dasar luar membuat rasionalisasi mempertahankan kemerdekaan rasionalkan hubungan luar dan kedaulatan negara dalam mempertahankan kedaulatan negara melindungi kepentingan nasional mengapakah hubungan baik dengan negara luar mempertahankan dan perlu diperkukuh memajukan kepentingan 9 malaysia bab bab informasi perkataan putra pada memupuk hubungan baik 9 wisma putra diambil dengan negara luar bersempena dengan nama perdana menteri malaysia yang pertama tunku abdul menghadapi perkembangan serta rahman putra alhaj yang cabaran politik ekonomi dan juga merupakan menteri sosial luar negeri pertama 119966faktor penggubalan dasar luar terdapat pelbagai faktor yang mempengaruhi penggubalan dasar luar malaysia iaitu ikatan sejarah keperluan nasional kepimpinan dan persekitaran luar ikatan sejarah nilai sejarah yang dilalui merupakan dasar luar yang digubal berdasarkan adanya ikatan sejarah antara negara ini dengan negara lain ikatan sejarah dan budaya dengan negara serantau dan antarabangsa seperti singapura indonesia brunei filipina thailand burma myanmar china dan india menyebabkan malaysia menjalinkan hubungan rapat dengan negaranegara ini hubungan malaysia dengan arab saudi mesir yaman dan turki pula dipengaruhi oleh ikatan keagamaan yang terjalin sejak sekian lama selepas mencapai kemerdekaan negara kita telah menyertai pertubuhan komanwel keperluan nasional keperluan nasional bermaksud memberikan keutamaan kepada kepentingan negara dalam menggubal dasar luar kepentingan negara diberi perhatian utama untuk menjaga kedaulatan mahupun dasar yang menguntungkan negara kedudukan yang strategik menjadi perkiraan utama dalam membentuk dasar luar dengan negara serantau hubungan baik dengan negara luar membolehkan malaysia menjaga kebajikan rakyat malaysia yang berada di luar negara sekiranya diperlukan kepentingan ekonomi dan keamanan menyebabkan malaysia mengamalkan dasar luar yang bebas dan berkecuali serta menjalinkan hubungan dengan semua negara tanpa mengira ideologi kepimpinan kebijaksanaan dan kebolehan seseorang pemimpin negara turut menjadi asas penting dalam penggubalan dasar luar malaysia pemimpin perlu peka akan perkembangan pada peringkat antarabangsa serta perubahan yang berlaku bagi menentukan hala tuju dasar luar negara dasar menjalinkan hubungan dengan negara sedang membangun pada tahun 1990an merupakan satu perubahan sikap pemimpin yang sebelum ini lebih cenderung kepada negara maju malaysia telah menjalinkan hubungan dengan negara sedang membangun di afrika dan negara kepulauan di pasifik selatan persekitaran luar perkembangan politik ekonomi dan sosial antarabangsa yang sentiasa berubah menyebabkan penggubalan dasar luar malaysia disesuaikan dengan perubahan yang berlaku penggubalan dasar luar negara ditentukan oleh perkembangan yang berlaku pada peringkat antarabangsa seperti ketika era perang dingin pada masa itu dasar luar negara dilihat lebih probarat malaysia mengubah dasar daripada probarat kepada tidak berpihak berdasarkan perkembangan yang berlaku pada tahun 1970an 9 bab bab sejak mencapai kemerdekaan malaysia menggubal 9 dasar luar yang dinamik dan dilaksanakan untuk memenuhi matlamat menjaga kedaulatan negara serta bebas daripada campur tangan kuasa asing perang dingin informasi dasar yang sebelumnya agak selektif berubah kepada berbaikbaik dengan semua negara perang dingin ialah konflik politik yang melibatkan membolehkan pandangan malaysia dihormati oleh dua kuasa iaitu negara blok barat yang diterajui oleh amerika syarikat dengan negara blok timur yang negara lain diterajui oleh kesatuan soviet 119977</t>
+          <t>jenis kedaulatan 11 bab bbaabb kedaulatan berbeza mengikut bentuk pemerintahan yang diamalkan oleh sesebuah negara setiap negara mempunyai hak untuk menentukan bentuk dan jenis kedaulatan yang diamalkannya 1 terdapat beberapa jenis kedaulatan seperti kedaulatan tradisional kedaulatan moden kedaulatan undangundang dan kedaulatan antarabangsa kedaulatan tradisional kedaulatan tradisional merujuk sistem pemerintahan berkuasa mutlak yang menguasai sepenuhnya segala urusan negara kedaulatan ini wujud sejak tamadun awal manusia kedaulatan negara kita pula berpaksi pada kedaulatan rajaraja melayu kedaulatan terletak pada kekuasaan dan kewibawaan raja raja merupakan pemerintah yang mempunyai kuasa tertinggi kedudukan dan kedaulatan raja diperkukuh oleh taat setia rakyat replika istana kesultanan melayu melaka di melaka sumber dewan bahasa dan pustaka kedaulatan moden kedaulatan moden dikaitkan dengan idea kemunculan negara bangsa selepas revolusi keagungan di england dan revolusi perancis kedaulatan juga dikaitkan dengan hak rakyat dan kerajaan berperlembagaan selepas perang dunia pertama kedaulatan dikaitkan dengan nasionalisme yang menggunakan unsur persamaan rumpun bangsa dan bahasa untuk membentuk negara bangsa masingmasing kedaulatan negara kita sebagai sebuah negara bangsa pula lahir hasil gabungan negeri yang dikenali sebagai persekutuan tanah melayu 1957 dan persekutuan malaysia 1963 istana negara di kuala lumpur sumber istana negara 66kedaulatan undangundang 1 bbaabb kedaulatan undangundang bermaksud kerajaan bab dan rakyat terikat oleh undangundang yang perlu 11 dipatuhi kedaulatan undangundang menjamin keadilan dalam kehidupan bermasyarakat serta menjadikan negara aman stabil dan makmur badan kehakiman yang bebas dan berwibawa diwujudkan untuk memelihara dan melaksanakan kedaulatan undangundang kedaulatan undangundang menjadi prinsip keempat dalam rukun negara istana kehakiman di putrajaya kedaulatan antarabangsa kedaulatan antarabangsa merujuk pengiktirafan pertubuhan bangsabangsa bersatu pbb terhadap sesebuah negara yang tidak boleh dicabuli oleh negara lain deklarasi hubungan persahabatan pbb 1970 mengesahkan prinsip persamaan kedaulatan dari segi undangundang antarabangsa keanggotaan negara kita dalam pbb membuktikan bahawa dunia mengiktiraf negara kita sebagai negara yang bebas merdeka dan berdaulat dr ismail abdul rahman kiri ismail ali dan tunku jaafar sedang mendengar ucapan pembukaan di perhimpunan agung pbb ke12 sewaktu persekutuan tanah melayu diterima sebagai anggota ke82 badan dunia itu pada 17 september 1957 sumber arkib negara malaysia pada hakikatnya setiap negara yang berdaulat mempunyai kekuasaan penuh untuk mengatur segala hal yang ada dalam wilayah tanpa campur tangan kuasa asing pemahaman terhadap konsep kedaulatan ini memberikan kesedaran tentang cabaran bagi mempertahankan negara oleh hal yang demikian rakyat perlu menggunakan kebijaksanaan bagi menghadapi cabaran demi mengekalkan kedaulatan nyatakan jenis kedaulatan yang negara kita berkaitan dengan sesebuah negara 7712 ciri negara yang berdaulat 11 bab bbaabb setiap negara yang bebas dan merdeka mempunyai ciri tertentu bagi menentukan kedaulatannya 1 negara kita turut mempunyai ciri yang menjadi identitinya ciri negara yang berdaulat ialah mempunyai pemerintahan mempunyai sempadan mempunyai perundangan dan mempunyai rakyat yang menjadikan negara kita sebagai sebuah negara bebas dan berdaulat mempunyai pemerintahan pemerintahan negara berdaulat diwujudkan untuk menjaga kestabilan politik keamanan pertahanan dan ekonomi pemerintahan ini dijalankan secara teratur malaysia sebagai sebuah negara persekutuan mengamalkan sistem raja berperlembagaan dan demokrasi berparlimen ketua utama negara ialah yang kebawah duli yang maha mulia seri paduka dipertuan agong ketua kerajaan ialah perdana baginda yang dipertuan agong xvi dan kebawah menteri yang dibantu oleh jemaah menteri duli yang maha mulia seri paduka baginda raja permaisuri agong bersemayam di atas singgahsana sumber jabatan penerangan malaysia mempunyai sempadan sempadan merupakan garis pemisah antara negeri atau negara malaysia merupakan negara yang berkongsi sempadan darat air dan udara dengan negara jiran iaitu singapura thailand indonesia brunei dan filipina sempadan malaysia diakui oleh masyarakat antarabangsa khasnya pbb penetapan sempadan memudahkan urusan pemerintahan pentadbiran pertahanan dan pembangunan ekonomi negara kita filipina informasi thailand raja berperlembagaan laut china selatan raja berperlembagaan bermaksud pemerintahan beraja mengikut brunei darussalam peruntukan perlembagaan persekutuan m a l a y s i a terdapat tiga institusi beraja yang disebut dalam perlembagaan singapura persekutuan iaitu yang dipertuan agong pada peringkat persekutuan i n d o n e s i a institusi beraja pada peringkat negeri dan petunjuk majlis rajaraja sempadan antarabangsa demokrasi berparlimen demokrasi berparlimen bermaksud peta menunjukkan sempadan malaysia dengan negara jiran demokrasi yang dijalankan secara di asia tenggara perwakilan melalui proses pilihan raya sumber dewan bahasa dan pustaka 888mempunyai perundangan 1 bbbaaabbb bab sistem perundangan menjadi asas kepada 111 peraturan negara sistem perundangan penting untuk memelihara kesejahteraan menjamin keadilan dan melindungi rakyat asas kepada sistem perundangan negara kita berpandukan perlembagaan persekutuan parlimen bertanggungjawab menggubal dan menentukan sistem perundangan negara kita istiadat pembukaan mesyuarat pertama penggal ketiga parlimen ke14 pada 18 mei 2020 sumber portal rasmi parlimen malaysia mempunyai rakyat rakyat merupakan penduduk di sesebuah negara rakyat terikat kepada undangundang dan peraturan yang dikuatkuasakan oleh pemerintah rakyat negara ini terdiri daripada pelbagai kaum agama dan adat resam mereka disatukan melalui satu bahasa dan kebudayaan rukun negara serta identiti nasional yang sama setem kenangan berkaitan dengan keunikan rakyat malaysia yang terdiri daripada pelbagai kaum sumber pos malaysia berhad kerusi panas hot seat ciri negara berdaulat menjadikan malaysia kedaulatan sesebuah negara berkait rapat dengan sebuah negara yang mempunyai identiti ciri yang diamalkan dan perlu dipertahankan yang unik kita perlu memahami betapa 1 secara berkumpulan atau individu buat kajian atau bacaan tentang topik ini pentingnya menjiwai dan mempertahankan 2 seorang murid dipilih tampil ke hadapan kelas identiti negara agar negara luar menghormati 3 murid ini akan duduk di kerusi yang disediakan kedaulatan malaysia dan menjadi pakar yang bertindak menyatakan pandangannya 4 murid lain boleh bertanyakan soalan dan pakar akan menjawab semua soalan yang dilontarkan 9913 kepentingan mewujudkan negara berdaulat 11 bab bbaabb kedaulatan negara penting bagi mewujudkan keberkesanan pentadbiran kemakmuran ekonomi 1 kesejahteraan sosial dan kecemerlangan hubungan luar negara selain itu negara diiktiraf setaraf dengan negara lain keberkesanan pentadbiran kedaulatan memberikan kebebasan kepada negara untuk menjalankan urusan pentadbiran tanpa campur tangan pihak luar dasar pentadbiran negara dilaksanakan dengan berkesan melalui jemaah menteri dan kementerian yang berkaitan kerjasama kerajaan persekutuan dan kerajaan negeri yang dilakukan melalui pengagihan kuasa mewujudkan keberkesanan pentadbiran sistem pentadbiran juga diperkukuh melalui peruntukan undangundang mesyuarat jemaah menteri diadakan pada tahun 1990 dipengerusikan oleh tun dr mahathir mohamad lima dari dalam perlembagaan persekutuan kiri keberkesanan pentadbiran melalui sistem jemaah menteri masih kekal diamalkan hingga hari ini sumber arkib negara malaysia kemakmuran ekonomi kedaulatan penting untuk negara melaksanakan dasar kemakmuran ekonomi selepas negara mencapai kemerdekaan pelbagai usaha dilakukan untuk memajukan dan meningkatkan taraf hidup rakyat berbilang kaum di malaysia pembangunan ekonomi meliputi bidang pertanian perindustrian dan perdagangan yang diperkenalkan melalui dasar pembangunan ekonomi negara tun abdul razak hussein depan perdana menteri malaysia kedua melawat kawasan luar bandar bagi memantau pelaksanaan program pertanian sumber arkib negara malaysia 1100kesejahteraan sosial 1 bbaabb kedaulatan penting untuk negara bab melaksanakan dasar sosial bagi 11 kesejahteraan rakyat negara dapat melahirkan generasi yang berilmu dan berkemahiran melalui pendidikan oleh itu mereka dapat memberikan sumbangan untuk pembangunan negara beberapa perkara berkaitan dengan bahasa kebangsaan kebudayaan sukan dan pasukan bola sepak kebangsaan yang berjaya melayakkan diri rukun negara diperkenalkan untuk ke sukan olimpik 1972 pasukan ini diwakili oleh pemain memupuk perasaan muhibah dan berbilang kaum semangat perpaduan dalam kalangan sumber arkib negara malaysia rakyat berbilang kaum di malaysia kecemerlangan hubungan luar negara kedaulatan penting bagi memberikan hak kepada negara untuk menjalinkan hubungan dengan negara lain hubungan ini dibentuk melalui penggubalan dasar luar negara kita selain dapat menjalinkan hubungan diplomatik dan persahabatan dengan negara lain negara juga dapat mengadakan perjanjian dan kerjasama dalam pelbagai bidang kesannya malaysia menikmati pelbagai faedah dan kelebihan dalam usaha mempertahankan kedaulatan keanggotaan malaysia dalam pertubuhan serantau dan antarabangsa pula meningkatkan imej negara masyarakat antarabangsa mengakui peranan dan kebolehan negara kita setaraf dengan negara lain di dunia jelaskan kepentingan mewujudkan negara berdaulat tun hussein onn perdana menteri malaysia ketiga kanan bertemu dengan anwar sadat presiden mesir kiri di mesir pada tahun 1977 untuk mengukuhkan hubungan diplomatik hasilkan peta pemikiran yang sesuai antara malaysia dengan mesir berkaitan dengan kepentingan sumber universiti tun hussein onn 2009 tun hussein onn mewujudkan negara berdaulat permata menara gading batu pahat penerbit uthm membuat rasionalisasi kedaulatan dapat mewujudkan kesejahteraan dan kemakmuran kepada rakyat sebagai rakyat malaysia rasionalkan kepentingan kedaulatan kita perlu memahami pentingnya mengekalkan dalam menentukan bentuk sistem kedaulatan negara yang diperoleh pada masa ini pentadbiran negara pada masa ini 111114 langkah mempertahankan kedaulatan 11 bab bbaabb pemerintah dan rakyat memainkan peranan penting bagi mempertahankan kedaulatan negara 1 oleh itu pemerintah dan rakyat perlu bekerjasama untuk mewujudkan kestabilan politik serta kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme dan mengukuhkan pertahanan negara kerjasama ini penting bagi memastikan kedaulatan dapat dipertahankan demi kemajuan dan kesejahteraan negara mewujudkan kestabilan politik dan kemakmuran ekonomi pemerintah dan rakyat mempunyai peranan yang sama untuk menjamin kestabilan politik dan kemakmuran ekonomi pemerintah melaksanakan pentadbiran dengan cekap dan menjalankan pelbagai usaha serta program bagi memajukan ekonomi rakyat pula memberikan kerjasama sepenuhnya untuk menjayakan semua usaha dan program yang dilaksanakan oleh pemerintah pemerintah mewujudkan pentadbiran yang cekap mengelakkan amalan rasuah dalam pentadbiran memastikan agihan sumber kekayaan negara secara adil kepada semua kaum melalui dasar pembangunan ekonomi melaksanakan undangundang negara menurut perlembagaan secara berkesan membuat interpretasi menurut dr tan chee khoon kami kenal pasti bahawa perhatian utama harus diberikan terhadap kelemahan ekonomi kaum bumiputera masalah mereka memerlukan rakyat pendekatan khas untuk diselesaikan mereka perlu dilindungi daripada eksploitasi dan memberikan kesetiaan kepada raja dan negara dibantu secara asas untuk bersaing dengan menyokong segala usaha dan dasar kerajaan kaum lain dalam perniagaan perdagangan bagi mewujudkan kestabilan politik dan pekerjaan memupuk kerjasama dengan semua kaum sumber raj vasil 1987 tan chee khoon supaya agihan kekayaan negara dinikmati an elder statesman petaling jaya pelanduk oleh semua publications m sdn bhd mematuhi undangundang negara 1 mengapakah beliau menyarankan agar kaum bumiputera dibantu dari segi kemakmuran ekonomi 2 huraikan langkah yang diambil untuk meningkatkan ekonomi setiap kaum 1122mengekalkan perpaduan kaum 1 bbaabb bab sejak awal kemerdekaan pemerintah dan rakyat berusaha untuk mengekalkan perpaduan kaum perpaduan penting dalam usaha kita mengekalkan kedaulatan negara beberapa 11 langkah dilaksanakan untuk memupuk perpaduan dalam kalangan rakyat pemerintah menggubal dasar dan undangundang berkaitan dengan perpaduan kaum serta integrasi nasional memastikan keberkesanan pelaksanaan dasar berkaitan dengan bahasa pendidikan dan kebudayaan oleh kementerian serta agensi berkaitan merangka program serta kempen ke arah memupuk perpaduan kaum sampul surat hari pertama pos malaysia dan integrasi nasional berkaitan dengan kepelbagaian budaya dan memperuntukkan perbelanjaan yang adat resam kaum di malaysia mencukupi untuk program memupuk sumber pos malaysia berhad perpaduan kaum meneroka bukti fahami titah di bawah rakyat menggunakan bahasa kebangsaan bab dan menghayati prinsip rukun negara 1 yang dapat menjamin perpaduan kaum memahami dan menghormati agama serta budaya pelbagai kaum mengamalkan semangat perkongsian bertoleransi dan saling menghormati kedaulatan negara bergantung pada sesama rakyat malaysia warganya yang bersatu melibatkan diri dalam program titah duli yang maha mulia paduka seri kemasyarakatan yang dapat memupuk sultan perak darul ridzuan sultan nazrin kerjasama antara kaum muizzuddin shah ibni almarhum sultan azlan muhibbuddin shah almaghfurlah sumber berita harian 10 november 2018 kedaulatan negara bergantung pada warganya yang bersatu buktikan 1133memupuk patriotisme 11 bab patriotisme ialah perasaan cinta yang mendalam terhadap negara serta sanggup mempertahankan bbaabb sejarah bahasa undangundang warisan dan budaya patriotisme merupakan nadi kepada 1 kebebasan kestabilan dan kemajuan sesebuah negara semangat ini juga penting untuk melahirkan pemimpin dan rakyat yang taat setia serta sanggup berkorban demi negara meja bulat serentak simultaneous round table pemerintah dalam kumpulan murid menulis pendapat di atas kertas tentang soalan yang dikemukakan menganjurkan sambutan hari kebangsaan dan di bawah catatan diedarkan kepada rakan hari pahlawan untuk menimbulkan kecintaan lain dalam kumpulan mengikut pusingan terhadap negara jam setiap ahli diberi peluang untuk mewajibkan mata pelajaran sejarah sebagai menuliskan pendapat soalan yang diberikan mata pelajaran teras di sekolah bagi melahirkan berkaitan dengan lagu patriotik keranamu generasi yang peka terhadap sejarah negara malaysia menganjurkan kempen dan menerbitkan filem 1 apakah maksud yang terkandung dalam atau rencana untuk memupuk patriotisme lirik lagu ini melalui pelbagai media 2 nyatakan keistimewaan rakyat berbilang memberikan pengiktirafan kepada rakyat kaum yang dinyatakan dalam lagu ini malaysia yang berjasa kepada negara dengan 3 bagaimanakah anda memainkan peranan mengabadikan nama mereka pada bangunan untuk mempertahankan negara dan jalan lirik lagu keranamu malaysia buruh nelayan dan juga petani gaya hidup kini dah berubah anakanak terasuh mindanya lahir generasi bijak pandai pakar it pakar ekonomi jaguh sukan dan juga jutawan berkereta jenama negara megah menyusur di jalan raya rakyat alam siber teknologi terkini kejayaan semakin hampiri biar di kota ataupun desa menghormati lambang negara seperti bendera kita semua pasti merasa bangga jalur gemilang jata negara dan lagu negaraku keranamu kami mendakap tuah menyanjungi dan menghargai adat dan keranamu kami bangsa berjaya warisan negara keranamu kami hidup selesa limpah budi kemakmuran negara meningkatkan imej negara dengan melakar keranamu kami bebas merdeka kejayaan dalam bidang pendidikan sukan keranamu nyawa dipertaruhkan dan ekonomi keranamu kami rela berjuang menghargai tokoh pelbagai kaum yang berjuang demi bangsa kedaulatan negara untuk kemerdekaan dan kedaulatan negara ulang dari mula keranamu negara malaysia malaysiaterima kasih malaysia l a g u dato suhaimi mohd zain lirik siso kopratasa sumber kementerian komunikasi dan multimedia malaysia 1144mengukuhkan pertahanan negara 1 bbaabb pemerintah dan rakyat mempunyai tanggungjawab untuk mempertahankan negara daripada bab ancaman musuh pertahanan negara penting untuk mengekalkan kedaulatan negara kita 11 pemerintah rakyat menggubal dasar dan undangundang peka terhadap isu keselamatan negara untuk melindungi keselamatan negara contohnya memberikan maklumat tentang mengadakan perjanjian pertahanan pencerobohan sempadan negara serta latihan ketenteraan bersamasama mengelakkan kolaborasi dengan pihak luar negara serantau dan antarabangsa yang boleh mengancam keselamatan dan memodenkan aset ketenteraan untuk kedaulatan negara mengukuhkan pasukan pertahanan menganggotai pasukan keselamatan dan negara pasukan sukarelawan untuk mempertahankan memastikan pasukan keselamatan negara sentiasa bersiap siaga menghadapi sanggup berkorban demi mempertahankan cabaran semasa kedaulatan negara kerjasama antara pemerintah dengan rakyat dalam melaksanakan langkah mengekalkan kedaulatan telah berjaya menghasilkan keamanan dan kesejahteraan sebagai rakyat malaysia amat penting untuk kita menghormati kepelbagaian budaya dan agama dalam usaha mengukuhkan perpaduan bangsa malaysia perpaduan dan kerjasama kaum menjadi teras kepada kemakmuran kelangsungan serta kedaulatan negara kedaulatan merupakan kekuasaan tertinggi dan kewibawaan sesebuah negara yang membolehkan kerajaan melaksanakan kawalan pemerintahan dan pentadbiran ciri negara berdaulat menjadikan negara kita sebuah negara yang stabil dan kukuh pelbagai langkah dilaksanakan untuk memastikan kedaulatan negara tetap terpelihara kedaulatan negara meneroka bukti diperkukuh melalui pemerintahan dan pentadbiran yang berlandaskan perlembagaan buktikan hubungan pemerintah dan rakyat mampu mengekalkan kedaulatan negara 1155imbas kembali 11 bab bbaabb kedaulatan negara 1 1 konsep takrif kedaulatan kedaulatan pandangan tokoh jenis kedaulatan 2 ciri negara mempunyai yang berdaulat pemerintahan mempunyai sempadan mempunyai perundangan mempunyai rakyat 3 kepentingan keberkesanan mewujudkan pentadbiran negara kemakmuran ekonomi berdaulat kesejahteraan sosial kecemerlangan hubungan luar negara 4 langkah mewujudkan mempertahankan kestabilan politik kedaulatan dan kemakmuran ekonomi mengekalkan perpaduan kaum memupuk patriotisme mengukuhkan pertahanan negara 1166pembelajaran abad ke21 1 bbaabb bab 11 aktiviti fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki membina ayat berpandukan isu yang diberikan secara individu 2 murid kemudiannya berbincang dengan rakan atau pasangan 3 murid berkongsi maklumat hasil perbincangan dengan pasangankumpulankelas lain abad ke21 cabaran mengekalkan kedaulatan negara isu cabaran kesan tindakan keselamatan perpaduan kaum kestabilan politik ekonomi pencerobohan pelarian dadah rasuah berdasarkan tajuk di atas lakukan aktiviti yang berikut 1 aktiviti individu catat maklumat berkaitan dengan tajuk di atas berdasarkan aspek yang berikut a cabaran yang dihadapi huraikan cabaran yang dihadapi berkaitan dengan aspek yang disenaraikan dengan terperinci b isu atau permasalahan jelaskan kesan terhadap malaysia akibat cabaran yang dihadapi c keberkesanan strategi sejauh manakah malaysia berjaya mengatasi masalah ini dengan mengambil tindakan yang sewajarnya 2 aktiviti kumpulan bentukkan kumpulan kecil dengan pasangan lain kemudian kongsikan maklumat yang diperoleh 1177pemahaman dan pemikiran kritis 11 bab bbaabb 1 apakah takrif kedaulatan dalam bahasa arab 1 a negara yang bebas dan merdeka b kuasa pemerintahan sesebuah kerajaan c kekuasaan tertinggi terhadap pemerintahan negara d negara mempunyai kuasa yang penuh terhadap pemerintahan 2 mengapakah kedaulatan penting bagi sesebuah negara a menjadi kuasa politik unggul di dunia b menunjukkan kekuatan angkatan tentera c mewujudkan keberkesanan sistem pentadbiran d membuktikan dasar luar mengikut situasi semasa 3 gambar di bawah berkaitan dengan ciri negara berdaulat gambar 1 gambar 2 kebawah duli yang maha mulia seri paduka baginda bangunan parlimen malaysia yang dipertuan agong xvi dan kebawah duli yang maha mulia seri paduka baginda raja permaisuri agong a jelaskan ciri negara berdaulat b huraikan langkah yang dilaksanakan untuk mempertahankan kedaulatan negara 4 peta menunjukkan kedudukan malaysia yang bersempadan dengan negara jiran filipina di asia tenggara a mengapakah hubungan baik dengan thailand negara jiran perlu dipertahankan laut china selatan b setiap warganegara malaysia mempunyai tanggungjawab untuk darbursusnaeli am mempertahankan kedaulatan perairan m a l a y s i a singapura negara bincangkan i n d o n e s i a petunjuk sempadan antarabangsa 1188cakna dan cerminan sejarah 1 bbbaaabbb bab nilai patriotisme dan iktibar 111 pemahaman terhadap ciri negara yang berdaulat wajar dipertingkatkan untuk melahirkan rakyat malaysia yang berbangga dengan identiti negara kepentingan mempertahankan kedaulatan negara bagi melahirkan masyarakat yang berganding bahu untuk membangunkan negara dan menjamin kesejahteraan rakyat pemerintah dan rakyat saling bekerjasama bersefahaman serta bermuafakat bagi mempertahankan kedaulatan negara diri dan keluarga menyokong dan melibatkan diri dalam proses pembangunan negara dan berusaha gigih untuk memajukan diri negara perpaduan rakyat berbilang kaum dan semangat rela berkorban merupakan keunikan negara kita untuk mempertahankan kedaulatannya angkatan tentera malaysia menjaga kedaulatan negara kita sumber kementerian pertahanan malaysia 1199bab 2 perlembagaan persekutuan 2 bab sinopsis perlembagaan persekutuan merupakan dokumen undangundang bertulis yang menjadi teras pada sistem pemerintahan negara perlembagaan digubal berasaskan undangundang negeri melayu yang sedia ada dan juga tambahan unsur baharu perlembagaan persekutuan malaysia mempunyai ciri tradisional dan moden yang menjadikan perlembagaan di negara kita unik perlembagaan persekutuan berkuat kuasa seiring dengan kemerdekaan pada 31 ogos 1957 selepas itu perlembagaan dipinda bagi menyesuaikannya dengan keperluan semasa negara 2200inti pati pembelajaran 1 latar belakang sejarah perlembagaan persekutuan bab 2 sejarah penggubalan perlembagaan persekutuan 3 ciri utama perlembagaan persekutuan 2 4 pindaan perlembagaan persekutuan 1963 dan 1965 elemen kewarganegaraan dan nilai sivik 1 kepentingan mendaulatkan perlembagaan persekutuan 2 kepentingan mematuhi undangundang dalam kehidupan 3 kepentingan tanggungjawab rakyat bagi memelihara perlembagaan persekutuan 4 kepentingan menjiwai semangat perlembagaan persekutuan kemahiran pemikiran sejarah 1 memahami kronologi penggubalan perlembagaan persekutuan 2 meneroka bukti kewujudan undangundang adat sebelum kedatangan british 3 membuat interpretasi ciri utama perlembagaan persekutuan 4 membuat imaginasi struktur mahkamah atasan di negara kita 5 membuat rasionalisasi pindaan perlembagaan persekutuan istana kehakiman putrajaya sumber dewan bahasa dan pustaka 221121 latar belakang sejarah perlembagaan persekutuan perlembagaan merupakan undangundang tertinggi sebagai teras pemerintahan sesebuah negara sebelum kedatangan british negara kita diperintah berdasarkan pemerintahan beraja raja memerintah berdasarkan undangundang dan peraturan yang digubal pada zaman british raja terus 22 diterima sebagai pemerintah berdaulat apabila merdeka negara kita mempunyai perlembagaan bbaabb yang merupakan unsur penting dalam sesebuah negara asas pembentukan perlembagaan perlembagaan persekutuan berasaskan nilai tradisi kesultanan melayu dan kemudiannya beberapa prinsip undangundang inggeris disesuaikan dengan nilai tempatan undangundang negeri melayu raja sebagai pemerintah rakyat memberikan ketaatsetiaan undangundang dan sistem pemerintahan ditentukan oleh raja undangundang yang wujud pada zaman kesultanan melayu melaka seperti hukum kanun melaka dan undangundang laut melaka mempengaruhi kandungan undangundang bertulis di negeri melayu yang lain antara undangundang bertulis di negerinegeri melayu termasuklah hukum kanun pahang undangundang kedah undangundang johor dan undangundang 99 perak sebelum kedatangan kuasa barat negara kita sudah mempunyai undangundang dan adat melayu yang digunakan sebagai asas perlembagaan undangundang ini menjadi panduan serta kawalan kepada raja dan pembesar dalam proses pemerintahan negara senaraikan undangundang bertulis yang terdapat di negara kita sebelum hukum kanun melaka kedatangan british sumber perpustakaan negara malaysia 2222undangundang di negerinegeri melayu mengalami perubahan demi perubahan selaras dengan perkembangan masyarakat sehingga kemunculan dan pengenalan undangundang dari barat sekitar awal abad kel9 bbbaaabbb 222 undangundang 99 perak sumber perpustakaan negara malaysia hukum kanun pahang sumber yaakub isa penyl 2003 hukum kanun pahang manuskrip agung negeri pahang pahang lembaga muzium negeri pahang undangundang inggeris british memperkenalkan undangundang di negerinegeri selat nns yang dikenali sebagai charter of justice diambil daripada undangundang yang digubal di england piagam terpilih yang bersesuaian dengan kegunaan nns sahaja diguna pakai contohnya charter of justice 1807 di sarawak pula terdapat the sarawak app l i c ation of laws ordinance 1949 yang menggunakan the common law of englanmdasukkan piagam diraja syarikat berpiagam di sabah terdapat undangundang yang sam18a 8d1i sbeabguit ssaabbaahh baapwpalhic taatjiuokn uofn ldaanwgs undang ordinance 1951 inggeris proclamation of sarawak constitution sumber muzium sarawak 2233pada zaman pentadbiran british nns iaitu melaka pulau pinang dan singapura memperkenalkan undangundang yang diambil dari england iaitu charter of justice matlamatnya adalah untuk melindungi penduduk asal daripada penindasan dan ketidakadilan 22 bbaabb charter of justice i 1807 mewujudkan mahkamah di pulau pinang charter of justice ii 1826 charter of justice menyatukan mahkamah di singapura di negerinegeri melaka dan pulau pinang selat charter of justice iii 1855 mewujudkan mahkamah singapura dan melaka pulau pinang pada bulan ogos 1956 perlembagaan sarawak memberikan kuasa kepada badan membuat undangundang iaitu council negri majlis negeri yang mengandungi 45 orang ahli dan dipengerusikan oleh ketua setiausaha majlis tertinggi pula dipengerusikan oleh gabenor yang turut dianggotai oleh ketua setiausaha setiausaha kewangan dan peguam negara perlembagaan sarawak pada tahun 1959 memberikan kuasa pentadbiran negeri kepada majlis tertinggi dan council negri di sabah pula ditubuhkan majlis undangan dan majlis kerja pada tahun 1950 majlis undangan memberikan kuasa kepada gabenor untuk menggubal undangundang dalam pemerintahannya institusi pemerintahan beraja diteruskan apabila tanah melayu mencapai kemerdekaan walaupun begitu beberapa pindaan disesuaikan dengan konsep raja berperlembagaan dan demokrasi berparlimen perlembagaan persekutuan tanah melayu 1957 diperkenalkan dan menjadi asas kepada perlembagaan negara kita pada hari ini perlembagaan inilah menjadi asas kepada sistem raja berperlembagaan dan demokrasi berparlimen 2422 sejarah penggubalan perlembagaan persekutuan sejarah penggubalan perlembagaan persekutuan bermula pada tahun 1877 hingga tahun 1957 pembentukan undangundang dalam sesebuah negara dilakukan oleh badan yang sah dalam perundangan di malaysia badan perundangan dinamakan parlimen yang berkuasa penuh bbaabb membentuk undangundang negara sejak negara mencapai kemerdekaan ahli parlimen memainkan peranan meminda perlembagaan bagi menegakkan kedaulatan negara sebagai rakyat kita perlu 22 menghargai jasa pemimpin yang berusaha untuk mengekalkan kedaulatan negara di nns terdapat charter of justice untuk melindungi penduduk sementara itu pembentukan undangundang di negeri melayu pula dimulai oleh majlis negeri perak 1 1877 mesyuarat pertama majlis negeri perak pada tahun 1877 yang dipengerusikan oleh raja muda yusuf menjadi titik tolak kepada pembentukan undangundang negara charter of justice iii 1855 majlis negeri perak berperanan untuk menggubal undangundang bagi negeri perak mewujudkan mahkamah kemudiannya peranan yang sama ini dimainkan oleh semua majlis negeri di negeri singapura dan melaka melayu yang lain pulau pinang raja muda yusuf duduk di tengah bersamasama sir hugh low berdiri di depan di kuala kangsar perak pada tahun 1880 sumber arkib negara malaysia membuat interpretasi setiap rakyat memiliki hak yang sama dari segi undangundanginterpretasikan maksud petikan tersebut 22552 1946 undangundang di nns digubal oleh majlis undangan negeri manakala undang 22 undang di negerinegeri bbaabb melayu bersekutu nnmb digubal oleh majlis persekutuan sementara itu undangundang di negerinegeri melayu tidak bersekutu nnmtb pula digubal oleh majlis negeri akta dan ordinan negeri negeri selat 1886 buku the laws of the federated malay states sumber cornell university library 3 1948 perjanjian persekutuan tanah melayu 1948 merupakan titik penting pembentukan sebuah persekutuan yang terdiri daripada negerinegeri melayu melaka dan pulau pinang antara kandungan yang terdapat dalam persekutuan tanah melayu termasuklah pentadbiran kuasa raja melayu perundangan dan kewarganegaraan rajaraja melayu bersamasama jeneral sir gerald walter robert templer pesuruhjaya tinggi british di persekutuan tanah melayu semasa mesyuarat majlis rajaraja ke25 sumber arkib negara malaysia 22664 1957 suruhanjaya perlembagaan ini dikenali sebagai suruhanjaya perlembagaan persekutuan tanah melayu atau suruhanjaya reid perlembagaan persekutuan tanah melayu 1957 disesuaikan dengan model westminster yang diambil dari britain perlembagaan ini berkuat kuasa sejurus selepas kemerdekaan pada 31 ogos 1957 perlembagaan ini juga menjadi asas kepada perlembagaan negara bbaabb kita pada hari ini 22 informasi lima perkara terma rujukan utama dalam perjanjian persekutuan 1957 kerajaan persekutuan yang kukuh menjamin kedudukan rajaraja melayu menjamin kedudukan istimewa orang melayu dan kepentingan sah kaum lain parlimen hendaklah mengandungi dua dewan iaitu dewan rakyat dan dewan negara laporan suruhanjaya kewarganegaraan yang sama perlembagaan persekutuan tanah melayu 1957 memahami kronologi sumber arkib negara malaysia galurkan sejarah penggubalan perlembagaan persekutuan meja bulat round table perlembagaan negara merupakan elemen penting dalam sesebuah negara dan perlu dipertahankan 1 secara berkumpulan bincangkan bangunan parlimen malaysia topik ini sumber dewan bahasa dan pustaka 2 ahli bergilirgilir mencatatkan idea perlembagaan persekutuan tanah melayu 1957 tentang kepentingan perlembagaan bermodelkan westminster memandangkan persekutuan negara kita mempunyai asas sistem perundangan 3 hasil perbincangan dibentangkan di hadapan kelas bertulis maka hal ini banyak membantu malaysia 4 seorang wakil kumpulan akan menggubal sebuah perlembagaan bertulis tampil di hadapan kelas dan membentangkan dapatan kajian 5 murid lain boleh bertanyakan laporan suruhanjaya perlembagaan soalan kepada wakil kumpulan ini persekutuan tanah melayu 1957 227723 ciri utama perlembagaan persekutuan perlembagaan merupakan peraturan tertinggi dan panduan dalam sistem pemerintahan negara perlembagaan mempunyai dua ciri utama iaitu tradisional dan moden yang diperlukan bagi kestabilan serta kemajuan negara 222 bbbaaabbb ciri tradisional 1 kesultanan atau pemerintahan beraja sejak berabadabad negeri melayu diperintah berdasarkan pemerintahan beraja sultan merupakan pemerintah berdaulat dan memiliki kuasa penuh di negeri masingmasing setelah negara kita mencapai kemerdekaan pemerintahan beraja diteruskan dan disesuaikan dengan konsep demokrasi berparlimen yang dipertuan agong diperuntukkan melalui perlembagaan kuasa pemerintahan sebagai pemerintah tertinggi negara kuasa yang dipertuan agong termasuklah kuasa mengampun dan menangguhkan hukuman orang yang disabitkan kesalahan oleh mahkamah baginda juga mempunyai kuasa membuat pelantikan bagi jawatan utama negara pada peringkat negeri raja merupakan ketua negeri pada baginda terletak kuasa eksekutif yang dilaksanakan melalui nasihat majlis mesyuarat negeri raja mempunyai kuasa mengampun dan menangguhkan hukuman kepada mereka yang disabitkan kesalahan oleh mahkamah serta pelantikan jawatan utama negeri raja dikenali sebagai tonggak kehormatan dan keadilan yang membolehkan baginda mengurniakan anugerah penghormatan dan bintang kehormat kepada individu yang terpilih ciri moden 1 kerajaan persekutuan antara perkara utama yang disebut dalam perlembagaan ciri persekutuan termasuklah mewujudkan satu sistem kerajaan moden persekutuan laporan suruhanjaya perlembagaan persekutuan tanah melayu menyarankan kerajaan persekutuan dan ker</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bersatu PBB </t>
+          <t xml:space="preserve"> Pemisahan Singapura </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>119</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>93 malaysia dalam pertubuhan bangsabangsa bersatu pbb pertubuhan bangsabangsa bersatu pbb ditubuhkan pada tahun 1945 dengan matlamat mengekalkan keamanan dan kestabilan dunia malaysia menjadi anggota pbb sejak negara mencapai kemerdekaan dr ismail abdul rahman dilantik sebagai wakil tetap ke pbb yang pertama pelibatan malaysia ini dilakukan dengan mendukung piagam pbb serta menyertai agensi pbb pelibatan malaysia dalam pbb menjadi bukti jelas komitmen malaysia untuk bekerjasama dan mewujudkan keamanan pada peringkat dunia pelibatan malaysia malaysia memberikan komitmen dan kerjasama yang penuh kepada pbb hal ini sejajar dengan pendirian malaysia dalam soal antarabangsa iaitu hidup bersama secara aman komitmen dan kerjasama ini dapat dilihat melalui empat perkara iaitu mendukung piagam pbb terlibat dengan agensi di bawah pbb memberikan sumbangan untuk misi pengaman dan membenarkan rakyat malaysia terlibat dalam agensi pbb mendukung piagam pbb mendukung penuh piagam pbb yang selaras dengan pendirian negara kita iaitu menegakkan hak asasi manusia dan menggariskan prinsip yang antaranya berkaitan dengan pencapaian taraf hidup dan hak asasi manusia untuk semua tanpa membezakan kaum jantina bahasa atau agama konsep hormatmenghormati kedaulatan wilayah negara lain tidak campur tangan dalam urusan hal ehwal negara lain perbincangan bebas penyertaan kita di dalam pbb sangat menakjubkan kami semua memakai pakaian kebangsaan sebagai tambahan saya memakai keris yang diselit di pinggang ini merupakan kali pertama senjata dibawa masuk ke dalam perhimpunan 9 agung pbb bab bab sumber ooi kee beng 2006 the reluctant politician tun dr ismail and his time singapura iseas 9 arahan murid secara berkumpulan dikehendaki mencari maklumat yang berikut a latar belakang dr ismail abdul rahman b berikan interpretasi anda terhadap petikan di atas murid lain akan memberikan pandangan dr ismail abdul rahman duduk di barisan hadapan paling 198 kanan pada majlis keselamatan pbb sumber arkib negara malaysiaterlibat dalam agensi pbb terlibat dengan united nations of educational scientific and cultural organization unesco pertubuhan pendidikan sains dan kebudayaan pbb pelibatan aktif malaysia membolehkan beberapa tapak di malaysia 1 tapak warisan dunia di malaysia iaitu gunung mulu dan taman kinabalu 2000 bandar 2 kerusi majlis keselamatan pbb melaka dan georgetown 2008 serta lembah lenggong 2012 diiktiraf sebagai tapak warisan dunia bekerjasama dengan food and agriculture organization fao pertubuhan makanan sedunia dalam bidang pengeluaran makanan serta world health organization pendirian malaysia informasi who pertubuhan kesihatan sedunia dalam bidang terhadap pelarian kesihatan dan perubatan malaysia tidak pernah menandatangani memberikan kebenaran kepada pbb untuk membuka konvensyen status pelarian 1951 pejabat united nations high commissioner for refugees atau protokol status pelarian 1967 unhcr pesuruhjaya tinggi bangsabangsa bersatu sehingga menyebabkan malaysia tidak mengenai pelarian di kuala lumpur unhcr ialah mempunyai rangka kerja perundangan badan yang bertanggungjawab menjaga dan melindungi atau pentadbiran yang mengawal golongan pelarian serta golongan yang tidak bernegara status dan hak pelarian di negara ini menyertai majlis keselamatan badan penting di pbb sikap malaysia lebih kepada dasar majlis ini bertanggungjawab mengekalkan keamanan dan kemanusiaan termasuk membenarkan keselamatan antarabangsa malaysia dipilih sebanyak pelarian tinggal sementara di negara ini empat kali sebagai anggota tidak tetap kerusi majlis sebelum ditempatkan ke negara dunia ketiga oleh unhcr keselamatan pbb iaitu pada tahun 1965 19891990 19992000 dan 20152016 9 bab bab 9 199sumbangan dalam misi pengaman malaysia turut memberikan sumbangan besar dalam menjayakan misi pengaman anjuran pbb di negara yang berkonflik disiplin dan kemampuan pasukan tentera malaysia dalam menggalas tugas misi pengaman ini sememangnya diakui oleh pbb antara misi pengaman yang disertai oleh malaysia termasuklah di congo namibia somalia bosnia dan herzegovina kemboja cambodia timor leste ethiopia dan lubnan tugas pasukan pengaman ini antaranya termasuklah memastikan keselamatan penduduk mengawasi gencatan senjata dalam perang saudara dan mendaulatkan undangundang negara yang terlibat bosnia dan herzegovina eropah united nations protection force unprofor dari tahun 1992 hingga tahun 1995 lubnan united nations interim force in lebanon unifil dari tahun 2007 hingga kini afrika ethiopia united nations mission in ethiopia and eritrea unmee dari tahun 2000 hingga tahun 2008 congo united nations operation in the congo unoc dari tahun 1960 hingga tahun 1964 informasi perang saudara 9 bab perang antara dua kumpulan bab di dalam sesebuah negara namibia 9 perang ini kebanyakannya disebabkan oleh pergolakan united nations transition politik matlamat pihak yang assistance group terlibat ini adalah untuk untag dari tahun 1989 mengambil alih kuasa negara atau wilayah bagi mencapai hingga tahun 1990 matlamat tertentu termasuk menukar kerajaan misi pengaman yang disertai oleh malaysia 200u kemboja united nations transitional authority in cambodia untac dari tahun 1992 hingga tahun 1993 asia lautan pasifik timor leste international force in east timor interfet dari tahun 1999 hingga tahun 2002 petunjuk misi pengaman yang lautan hindi disertai oleh malaysia 9 bab bab australia sumber somalia 9 1 disesuaikan daripada memoir tentera darat united nations operation malaysia di somalia 2002 in somalia ii unosom 2 mindef 2020 defence ii dari tahun 1992 hingga white paper a secure sovereign and prosperous tahun 1995 malaysia kementerian pertahanan malaysia 201misi pegawai pemerhati chadlibya malaysia turut terlibat dalam misi pegawai pemerhati di bawah pbb united nations aouzou strip di negara yang menghadapi konflik seperti di sierra leone chadlibya observer group unasog bosnia dan herzegovina iraq kemboja liberia congo namibia pada tahun 1994 angola mozambique ethiopia dan timor leste tugas pegawai pemerhati antaranya termasuklah membantu pentadbiran dan pengurusan memberikan latihan teknikal dan menjadi jurubahasa amerika utara sahara barat united nations mission for the referendum in western lautan atlantik sahara minurso dari bulan julai 1991 hingga kini sierra leone united nations mission in sierra leone unamsil dari tahun 1999 hingga tahun 2005 liberia united nations observer mission in liberia unomil dari bulan amerika selatan ogos 1993 hingga 1997 congo united nations organization stabilization mission in the dr congo monusco dari tahun 9 bab 1999 hingga kini bab 9 petunjuk angola namibia misi pegawai pemerhati yang disertai oleh malaysia united nations angola united nations transition verification mission assistance group untag sumber unavem ii dari tahun dari bulan februari 1989 1 disesuaikan daripada memoir tentera darat malaysia di somalia 2002 1991 hingga tahun 1995 hingga bulan april 1990 2 mindef 2020 defence white paper a secure sovereign and prosperous malaysia kementerian pertahanan malaysia misi pegawai pemerhati yang disertai oleh malaysia 202bosnia dan herzegovina iraq kemboja united nations mission in united nations iraqkuwait united nations advance bosnia and herzegovina observation mission mission in cambodia unmibh dari tahun unikom dari tahun 1991 unamic dari tahun 1995 hingga tahun 1996 hingga tahun 2003 1991 hingga tahun 1992 u eropah asia lautan pasifik afrika lautan hindi australia 9 bab bab 9 mozambique ethiopia timor leste united nations operation united nations mission united nations transitional in mozambique in ethiopia and eritrea administration in east timor onumoz dari tahun unmee dari tahun 2000 untaet dari tahun 1999 1992 hingga tahun 1994 hingga tahun 2008 hingga tahun 2002 203tokoh malaysia dalam agensi pbb selaku anggota pbb yang prihatin pelibatan malaysia bukan sekadar menyuarakan pandangan dalam forum dan persidangan pbb atau terlibat dengan misi pengaman malah negara turut berbangga dengan kejayaan yang dibawa oleh anak malaysia dalam badan dunia tersebut tan sri razali ismail tokoh diplomat datuk maimunah mohd sharif 1990 hingga 1992mengetuai tan sri dr jemilah mahmood delegasi malaysia ke mesyuarat penjawat awam united nations development doktor perubatan dan aktivis kemanusiaan 2017 hingga 2020mengetuai un programme undp 2008 merupakan seorang daripada 16 orang habitat dan merupakan wanita 1991dilantik sebagai naib pertama di asia yang menjawat ahli yang dilantik oleh setiausaha agung presiden majlis ekonomi dan jawatan tersebut pbb sebagai penasihat kumpulan tabung sosial pbb economic and 9 tindakan kecemasan pusat unhabitat dianggap sebagai social council ecosoc bab bab 2009 hingga 2011terlibat dengan united agensi paling aktif di dunia yang dan bertanggungjawab terhadap nations population fund unfpa sebuah memberikan tumpuan kepada usaha pembangunan di negara 9 kehidupan bandar yang mapan anggota pbb agensi pbb di new york 2014menjawat jawatan ketua sekretariat ketika populasi dunia berkembang 2000 hingga 2005 wakil dengan pesatnya khas setiausaha agung sidang kemuncak kemanusiaan dunia di pbb pbb ke myanmar yang menyelaraskan aktiviti kemanusiaan di seluruh dunia 220044tan sri aboo samah aboo bakar pegawai tentera 1994dilantik sebagai pemerintah tertinggi unosom ii di somalia warga malaysia pertama yang diberi dr jomo kwame sundaram kepercayaan untuk menjadi pemerintah tertinggi tentera pbb pelantikan ini menandakan pengiktirafan ahli akademik pbb dan masyarakat antarabangsa disember 2004dilantik sebagai penyelaras terhadap komitmen malaysia dalam usaha penyelidikan kehormat kumpulan antara mengembalikan keamanan sejagat serta kerajaan g24 bagi hal ehwal kewangan keprihatinan dalam soal kemanusiaan dan pembangunan antarabangsa tokoh diplomat 2005dilantik sebagai penolong setiausaha 1990 hingga 1992mengetuai agung bagi pembangunan ekonomi delegasi malaysia ke mesyuarat di jabatan pbb hal ehwal ekonomi united nations development dan sosial programme undp 2012 hingga 2015dilantik sebagai 1991dilantik sebagai naib penolong ketua pengarah dan penyelaras presiden majlis ekonomi dan pembangunan ekonomi dan sosial sosial pbb economic and di pertubuhan makanan dan pertanian pbb 9 social council ecosoc bab bab dan bertanggungjawab terhadap usaha pembangunan di negara malaysia merupakan antara negara yang memainkan peranan aktif dalam pbb selain terlibat 9 anggota pbb dalam persidangan pbb negara kita juga memberikan kerjasama dan komitmen dalam usaha 2000 hingga 2005 wakil membantu pbb melaksanakan pelbagai agenda serta misi badan dunia tersebut malaysia turut khas setiausaha agung memberikan sumbangan penting dalam pbb semasa menjalankan tugas misi pengaman terdapat pbb ke myanmar juga warga malaysia yang mengetuai agensi di bawah pbb sebagai warga malaysia kita wajar menyokong pelibatan negara dalam badan dunia ini kita seharusnya berbangga dengan pencapaian cemerlang malaysia dalam pbb yang mengharumkan nama negara 220055</t>
+          <t>62 pemisahan singapura pemisahan singapura menjadi cabaran utama selepas pembentukan malaysia masalah hubungan antara pemimpin persekutuan dengan singapura disebabkan faktor politik ekonomi dan sosial yang telah ada sebelum singapura menyertai malaysia faktor pemisahan pernyataan politik tunku abdul rahman putra alhaj tentang lee kuan yew tidak berpuas hati dengan peranan konsep malaysian kerajaan singapura yang terhad malaysia konflik antara pemimpin pap dengan perikatan sumber berita harian 10 ogos kempen malaysian malaysia oleh lee 1965 kuan yew menuntut hak sama rata untuk semua kaum menimbulkan keresahan dalam kalangan penduduk 6 ekonomi bab bab 6 singapura menuntut pembukaan pasaran bersama common market disegerakan singapura tidak berpuas hati dengan cadangan tambahan cukai yang perlu diberikan kepada kerajaan persekutuan singapura juga mahu mengenakan kadar faedah terhadap sebahagian daripada pinjaman sebanyak rm150 juta kepada kerajaan persekutuan untuk pernyataan tunku abdul rahman putra alhaj terhadap sikap kerajaan pembangunan sarawak dan sabah singapura memberikan pinjaman sumber berita harian 10 ogos 1965 masalah perkauman nyatakan faktor ekonomi yang mendorong pemisahan telah berlaku rusuhan kaum di singapura pada singapura daripada malaysia 21 julai 1964 yang menimbulkan ketegangan antara kaum rusuhan ini berlaku ekoran daripada usaha menuntut persamaan hak yang sama rata bagi pasaran bersama ialah beberapa negara yang semua kaum perkara ini menjadi isu antara kaum menghapuskan cukai antara mereka dan mengenakan cukai import yang sama terhadap negara lain 119pemisahan singapura daripada malaysia 29 jun 1965 1 julai 1965 kegagalan rundingan tun abdul razak hussein dengan lee kuan yew setelah rundingan tidak berjaya tunku abdul rahman putra alhaj mengarahkan tun abdul razak hussein bermesyuarat dengan beberapa menteri seperti dr ismail abdul rahman tan siew sin dan vt sambanthan untuk berbincang tentang pemisahan awal ogos 1965 mesyuarat khas kabinet malaysia bersetuju dengan rancangan pemisahan 7 ogos 1965 tunku abdul rahman putra alhaj 6 dan lee kuan yew menandatangani bab 9 ogos 1965 bab persetujuan untuk singapura keluar daripada malaysia 6 tunku abdul rahman putra alhaj membawa usul pemisahan singapura ke dalam parlimen malaysia parlimen meluluskan rang undangundang pemisahan singapura menurut tunku abdul rahman putra alhaj pemisahan singapura merupakan perkara yang tidak dapat dielakkan so it does seem completely impossible to arrive at a solution whereby we can hope to pull along together and to work together in the interest and for the common good of our beloved country ucapan tunku abdul rahman putra alhaj dalam penyata perbahasan di dewan rakyat 9 ogos 1965 pemisahan singapura daripada malaysia tidak dapat dielakkan kerajaan mengambil langkah mengeluarkan singapura daripada malaysia bagi menjaga kepentingan keduadua negara dan kemakmuran rakyat keduadua negara membuat rasionalisasi menggunakan saluran rundingan untuk menyelesaikan isu ini sebagai warganegara yang merdeka kita perlu mengelakkan rasionalkan tindakan tunku abdul unsur kekerasan dalam menyelesaikan sebarang konflik rahman putra alhaj memisahkan singapura daripada malaysia 120</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaysia dalam Komanwel </t>
+          <t xml:space="preserve"> Menangani Ancaman Komunis </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94 malaysia dalam komanwel komanwel merupakan sebuah badan yang dianggotai oleh negara bekas tanah jajahan dan naungan british yang telah merdeka badan ini ditubuhkan untuk membina semangat setia kawan negara anggota serta mewujudkan kerjasama dalam pelbagai bidang penyertaan dalam komanwel memberikan manfaat besar kepada negara malaysia memperjuangkan hak asasi manusia kerjasama ekonomi pembangunan bidang sosial serta terlibat dalam pengurusan isu antarabangsa melalui komanwel penyertaan dan sumbangan malaysia sentiasa memberikan komitmen penuh untuk menjayakan segala rancangan yang diatur dan dilaksanakan oleh komanwel komitmen ini dapat dilihat melalui kerjasama ekonomi dan pembangunan antara negara komanwel penyertaan dalam sukan komanwel dan membangkitkan pelbagai isu seperti dasar aparteid dalam commonwealth heads of government meeting chogm mesyuarat ketuaketua negara komanwel malaysia juga bersetuju menjadi tuan rumah chogm pada tahun 1989 rancangan colombo malaysia turut menyertai rancangan colombo iaitu rancangan pembangunan ekonomi dan sosial di bawah komanwel yang dilaksanakan sejak tahun 1951 rancangan ini bertujuan menangani masalah kemiskinan dalam kalangan anggota komanwel mendapat khidmat nasihat berkaitan dengan pendidikan pertanian teknikal dan kesihatan terlibat dalam program latihan untuk kakitangan awam dan pembangunan sektor swasta sejak tahun 1995 memberikan bantuan dalam pelbagai bidang kepada negara anggota yang belum membangun melalui rancangan colombo ini kerjasama pertahanan malaysia turut terlibat dalam kerjasama pertahanan iaitu melalui perjanjian yang ditandatangani pada 12 oktober 1957 antara britain dengan tanah melayu perjanjian ini memperkukuh pertahanan dan keselamatan negara perjanjian ini membolehkan britain serta negara komanwel memberikan komitmen terhadap pertahanan negara kerajaan menyediakan kemudahan kepada tentera britain dan pasukan simpanan strategik komanwel sama ada untuk obligasi komanwel mahupun keperluan antarabangsa 9 bab bab kerjasama ekonomi 9 negara komanwel merupakan antara rakan dagang malaysia yang utama komoditi utama negara dieksport ke negara anggota komanwel dengan lebih mudah kadar cukai yang dikenakan lebih rendah contohnya cukai eksport barangan siap dan cukai produk digital pelbagai kemudahan turut disediakan seperti kemudahan kredit dan bantuan dana komanwel pelaburan daripada negara komanwel juga penting kepada pembangunan ekonomi negara 206penentangan dasar aparteid dasar aparteid menjadi isu penting yang menarik perhatian komanwel malaysia turut lantang menentang dasar ini asas penentangan malaysia disebabkan dasar ini menyalahgunakan hak asasi manusia dengan membezakan hak seseorang berdasarkan warna kulit ketegasan malaysia lawatan nelson rolihlahla mandela ke malaysia pada bersamasama negara lain menyuarakan isu ini tahun 1997 dalam komanwel menyebabkan afrika selatan sumber arkib negara malaysia menarik diri daripada komanwel mesyuarat ketuaketua negara komanwel chogm malaysia turut terlibat dalam mesyuarat ketuaketua negara komanwel chogm yang diadakan dua tahun sekali persidangan ini diadakan bagi membincangkan isu semasa antarabangsa yang berkaitan dengan negara anggota pada tahun 1989 malaysia dipilih menjadi tuan rumah persidangan ini sukan komanwel sukan komanwel merupakan sukan yang kedua terbesar di dunia selepas sukan olimpik sukan ini diadakan setiap empat tahun sekali penyertaan malaysia dalam sukan ini mampu mengeratkan hubungan antara negara anggota pencapaian atlet kita dalam sukan ini telah atlet negara bersamasama pemimpin negara semasa mengharumkan nama negara malaysia pernah sukan komanwel 1998 menjadi tuan rumah sukan ini pada tahun 1998 sumber arkib negara malaysia penyertaan malaysia dalam komanwel informasi membawa manfaat yang besar dari sudut dasar aparteid merujuk pemisahan antara kaum kulit ekonomi sosial dan politik kepada negara putih dengan kaum kulit hitam yang dilaksanakan malaysia turut terlibat dalam program di afrika selatan dari tahun 1948 hingga tahun 1999 yang dilaksanakan oleh badan dunia ini kaum kulit hitam dianggap sebagai golongan yang yang menonjolkan kewibawaan negara mempunyai kedudukan yang rendah dan diberi layanan kita pada peringkat dunia selain lantang kelas kedua dalam pelbagai bidang sama ada ekonomi 9 bab menyuarakan pandangan dalam pelbagai bab sosial atau politik semua bentuk diskriminasi perkauman isu sebagai rakyat malaysia kita perlulah adalah sah dari segi undangundang bagi membolehkan 9 bekerjasama memastikan negara kita kaum kulit putih mengekalkan dominasi mereka tindakan dihormati oleh negara lain kaum kulit putih ini bertentangan dengan prinsip hak asasi manusia nyatakan faedah yang diperoleh malaysia melalui negaranegara komanwel pelibatan dalam komanwel 207</t>
+          <t>63 menangani ancaman komunis kegiatan komunis menjadi ancaman kepada keselamatan negara sejak sebelum merdeka antara kegiatan yang dilakukan oleh komunis termasuklah melakukan serangan bersenjata terhadap anggota pasukan keselamatan menyerap masuk ideologi komunis dan melakukan kegiatan sabotaj terhadap kemudahan awam kerajaan mengambil langkah yang serius untuk membanteras kegiatan komunis di negara kita ancaman keselamatan di sarawak gerakan komunis di sarawak bermula sejak pendudukan jepun oleh cco bahagian pertama dan ketiga di sarawak menjadi sasaran utama komunis komunis melakukan kegiatan serangan dan subversif terhadap orang awam bentuk ancaman komunis melakukan ancaman melalui gerakan politik dan serangan bersenjata gerakan politik gerakan komunis juga terlibat dalam politik mereka menentang gagasan malaysia pelibatan mereka menyebabkan kerajaan sarawak memburu dan menangkap ahli yang terlibat mereka melarikan diri ke kalimantan dan membentuk parti komunis kalimantan utara pkku pkku meneruskan penentangan melalui pasukan rakyat kalimantan utara paraku dan pasukan gerila rakyat sarawak pgrs untuk membentuk republik komunis di sarawak 6 bab bab serangan bersenjata pada 5 ogos 1952 komunis menyerang kawasan batu kitang kuching sarawak yang 6 menandakan permulaan serangan komunis terhadap orang awam usaha mengatasi kerajaan melaksanakan dua kaedah iaitu gerakan perang saraf dan operasi ketenteraan bagi mengatasi ancaman komunis a perang saraf pihak berkuasa mengambil langkah yang berikut mengadakan perhimpunan awam dengan memberikan kesedaran tentang bahayanya ancaman komunis menyebarkan risalah untuk menyampaikan maklumat tentang bahaya ancaman komunis dan menanamkan kebencian terhadap komunis mengisytiharkan kawasan putih yang bebas daripada ancaman komunis tawaran program pengampunan kepada anggota komunis pembangunan infrastruktur dengan menyediakan kemudahan perhubungan meneroka bukti yang lebih baik kepada penduduk buktikan usaha kerajaan dalam menangani ancaman komunis selepas pembentukan malaysia 121b petunjuk operasi ketenteraan bahagian pertama brunei sabah bahagian kedua laut beberapa operasi ketenteraan bahagian ketiga china u dijalankan iaitu operasi hammer selatan 1965 di bahagian pertama operasi oleh rascom pula dilaksanakan di bahagian ketiga seterusnya bintulu mukah operasi sri aman dilancarkan kapit di bahagian kedua semua operasi sibu s a r a w a k sarikei ini berjaya melemahkan gerakan betong komunis di sarawak kuching samarahan sriasmri aanman kalimantan serian indonesia operasi ketenteraan di bahagian pertama bahagian kedua dan bahagian ketiga di sarawak operasi hammer sarawak sumber disesuaikan daripada arkib negara malaysia ancaman komunis di sarawak membangkitkan semangat penentangan daripada penduduk tempatan penentangan berlaku kerana komunis membunuh orang awam kerajaan bermula pada bulan julai 1965 rancangan ini menggunakan kaedah sama yang diguna pakai dilaksanakan dengan mendirikan petempatan dalam rancangan briggs untuk dilaksanakan baharu untuk seramai lebih kurang 7500 orang di sarawak rancangan berbentuk memenangi dalam tempoh tiga hari seramai 1200 keluarga hati rakyat ini dinamakan operasi hammer yang kebanyakannya berketurunan hakka diarahkan 6 bab berpindah ke tiga kawasan petempatan baharu bab sepanjang jalan kuchingserian petempatan ini 6 dikawal sepanjang masa dan dikenakan perintah peraturan operasi hammer berkurung dalam tempoh 24 jam sehari bagi melindungi penduduk daripada ancaman komunis informasi 1 menurut vernon l porritt nama operasi hammer diambil bersempena dengan ucapan ketua polis malaysia sir claude fenner operasi hammer menyebabkan gerakan komunis well hammer them let the operation be called di sarawak mulai goyah langkah pembanterasan operation hammer yang berterusan menyebabkan komunis ditangkap 2 antara usaha penting menghalang komunis operasi hammer tamat pada tahun 1970 operasi termasuklah rancangan penempatan goodsir jala raja pula dilancarkan di nonok asajaya di yang dijalankan pada 30 jun 1965 nama bahagian pertama pada awal tahun 1970 operasi ini diambil bersempena dengan nama david goodsir pemangku komisioner polis sarawak 3 menjelang akhir tahun 1965 kerajaan membuka kawasan petempatan semula pada 13 oktober 1973 bong kee chok pemimpin penduduk sarawak di siburan beratok komunis menulis surat kepada datuk patinggi dan tapah abdul rahman yakub ketua menteri sarawak 4 kerajaan juga melancarkan operasi bagi menyatakan hasrat untuk berunding selepas harapan tunku abdul rahman putra alhaj beberapa hari seramai lebih kurang 500 anggota menawarkan pengampunan kepada anggota komunis walau bagaimanapun hanya komunis keluar dari hutan dan menyerah diri 41 orang yang menyerah diri 112222langkah membanteras ancaman komunis operasi hammer dilancarkan tiga kampung baru dibuka 6 julai 1965 di bahagian pertama operasi besarbesaran rampasan senjata di bahagian 8 ogos 1969 ketiga 24 februari 1970 operasi jala raja di nonok asajaya bahagian pertama 8 ogos 1971 operasi ngayau dilancarkan di bahagian ketiga rajang area security command rascom dibentuk 26 mac 1972 di bahagian ketiga 21 oktober 1973 operasi sri aman dilancarkan 6 bab operasi sri aman ditamatkan anggota komunis menyerah bab 4 julai 1974 diri 6 perjanjian damai menamatkan ancaman komunis yang 17 oktober 1990 diadakan antara pihak komunis dengan kerajaan sarawak langkah membanteras komunis melalui usaha memenangi hati rakyat menyebabkan informasi komunis tidak mendapat sokongan penduduk 1 selain operasi hammer terdapat operasi letter pada 21 oktober 1973 datuk patinggi abdul box yang dilancarkan pada 22 julai 1965 untuk rahman yakub selaku ketua menteri sarawak mendapatkan maklumat tentang pergerakan menandatangani memorandum persefahaman komunis pada 26 mac 1972 tun abdul razak di rumah sri aman anggota komunis cco hussein mengisytiharkan bahagian ketiga sebagai rascom bagi mempercepat usaha menyerah diri peristiwa ini membawa kepada membanteras ancaman komunis kawasan berakhirnya ancaman komunis di sarawak tumpuan ialah sibu mukah kanowit sarikei kerajaan malaysia bersetuju untuk membatalkan binatang bintangor dan julau sekatan keselamatan di kawasan operasi 2 operasi sri aman pula diadakan pada bulan hammer di kuchingserian pada 5 mac 1980 oktober 1973 bertujuan membanteras ancaman komunis di sri aman sarawak operasi ini melibatkan pasukan keselamatan termasuk tentera dan polis pergerakan komunis telah disekat menyebabkan komunis mengalami kesukaran untuk bergerak 1122332 ancaman keselamatan di semenanjung malaysia parti komunis malaya pkm meneruskan kegiatan mengancam keselamatan di semenanjung malaysia pkm bertindak agresif dengan menyerang anggota keselamatan dan orang awam serta memusnahkan kemudahan awam a pembunuhan anggota keselamatan dan orang awam komunis melakukan serang hendap terhadap pasukan keselamatan kemuncak ancaman komunis ialah pembunuhan pegawai kanan polis pada 17 jun 1968 pkm telah melakukan serang hendap terhadap pasukan keselamatan di kroh perak yang mengorbankan seramai 16 anggota keselamatan pada 7 jun 1974 menembak mati ketua polis negara tan sri abdul rahman hashim di kuala lumpur pada 13 november 1975 menembak mati ketua polis negeri perak tan sri khoo chong kong dan pemandunya di ipoh selain itu orang awam dan kemudahan awam turut menjadi sasaran komunis serangan komunis terhadap pekerja pada bulan julai 1969 seorang wanita diseksa sehingga mati jabatan kerja raya di sintok kedah periuk api dipasang di sepanjang jalan changlun kedah jalan raya dan jambatan kereta api diletupkan 6 bab bab muzium tentera darat 6 muzium tentera darat terletak di port dickson negeri sembilan muzium tentera darat merupakan muzium tentera yang terbesar di malaysia muzium tan sri abdul rahman hashim ini setanding dengan muzium tentera di luar negara sumber utusan malaysia 8 jun 1974 berdasarkan kelengkapan infrastruktur dan bahan pengisian di dalam muzium ini cadangan mewujudkan muzium tentera darat diilhamkan oleh panglima tentera darat jeneral tan sri md hashim bin hussein arahan1 murid diagihkan kepada beberapa kumpulan kecil untuk membuat kajian yang berikut di dua galeri utama a penubuhan askar melayu b sumbangan tentera darat 2 setiap kumpulan dikehendaki menyiapkan tugasan yang diberikan 3 selepas lawatan setiap kumpulan dikehendaki tan sri khoo chong kong membentangkan dapatan masingmasing sumber muzium polis diraja malaysia 124b pengeboman tugu negara pada pagi 26 ogos 1975 pkm meletupkan tugu negara di kuala lumpur tindakan mengebom tempat awam menimbulkan kemarahan rakyat terhadap komunis dan menuntut kerajaan mengambil tindakan tegas termasuklah mengenakan akta keselamatan dalam negeri pihak keselamatan telah mengambil langkah memperkuat perkhidmatan perisikan untuk mengawasi kegiatan komunis muhammad ghazali shafie bersamasama ketua polis kuala lumpur mohd amin osman melihat kemusnahan tugu yang dibom oleh pkm usaha mengatasi sumber utusan malaysia 1975 terdapat pelbagai langkah yang diambil bagi melindungi rakyat dan orang awam daripada ancaman komunis antara langkah yang diambil termasuklah 1 strategi counterinsurgency coin langkah ini merupakan usaha keselamatan dan pembangunan untuk memenangi hati dan fikiran rakyat bagi menyokong agenda dan dasar kerajaan memerangi komunis strategi yang digunakan ialah kerjasama antara pasukan keselamatan ahli politik dan agensi kerajaan untuk menjalankan strategi coin yang berkesan 2 perjanjian kerjasama sempadan usaha membanteras komunis menghadapi masalah kerana mereka membina khemah di luar sempadan negara oleh itu langkah utama yang diambil seperti mengadakan persefahaman 6 bab antara kerajaan malaysia dengan kerajaan thailand melalui perjanjian kerjasama sempadan bab memerangi komunis 1976 di thailand antara langkah yang dijalankan termasuklah membina 6 pagar sempadan dan operasi bersama perjanjian hat yai pula diadakan pada 2 disember 1989 di hat yai thailand antara pkm malaysia dan thailand pkm bersetuju membubarkan unit bersenjata serta memusnahkan segala senjata api bahan membuat rasionalisasi letupan dan jerangkap samar kerajaan malaysia bersungguhsungguh menangani ancaman komunis pada akta keselamatan dalam negeri pendapat anda wajarkah tindakan ini informasi kerajaan melaksanakan usaha yang serius bagi menjamin keselamatan negara usaha ini berjaya dilakukan melalui tun abdul razak hussein mengarahkan pengorbanan yang diberikan oleh anggota keselamatan agar kutipan derma diadakan bagi rakyat juga memberikan kerjasama terhadap usaha yang menampung perbelanjaan memperbaik dilakukan oleh kerajaan dengan termeterainya perjanjian tugu negara kerja membaik pulih hat yai maka tamatlah gerakan bersenjata pkm untuk tugu negara telah disiapkan pada 11 april 1977 oleh christopher b merampas kuasa serta menubuhkan sebuah negara carney pensyarah fakulti seni lukis republik komunis sebagai rakyat malaysia kita perlu dan seni reka institut teknologi berbangga dan bersyukur kerana usaha menghapuskan mara beberapa model rakyat tempatan ancaman komunis telah berjaya dan mengembalikan digunakan sebagai wajah baharu pada negara dalam keadaan aman dan makmur tugu negara 125</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cabaran Mengukuhkan Dasar Luar </t>
+          <t xml:space="preserve"> Isu Pembangunan dan Ekonomi </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>95 cabaran mengukuhkan dasar luar dasar luar malaysia memasuki fasa baharu sejak tahun 1970an perubahan yang berlaku dalam ekonomi sosial dan politik pada peringkat antarabangsa turut memberikan kesan kepada negara kita tempoh masa ini menjadi penting dalam sejarah dasar luar malaysia kerana merupakan tempoh pengukuhan serta menguji kemampuan malaysia menghadapi cabaran baharu cabaran ini meliputi aspek politik pertahanan dan ekonomi cabaran politik antarabangsa cabaran politik antarabangsa sememangnya sangat mempengaruhi dasar luar malaysia malaysia mengamalkan dasar berkecuali apabila menjalinkan hubungan dengan negara luar tanpa mengira ideologi keadaan ini membolehkan malaysia menjalinkan hubungan dengan negara china melalui lawatan oleh tun abdul razak hussein ke negara tersebut pada tahun 1974 tun abdul razak hussein kiri dan pemimpin china zhou enlai kanan sumber arkib negara malaysia cabaran politik serantau peluasan pengaruh komunis di indochina menyebabkan ketidakstabilan kepada rantau asia tenggara berlakunya kebanjiran pendatang asing vietnam di asia tenggara malaysia turut terkesan dengan perkembangan tersebut pada tahun 1976 malaysia menggerakkan usaha menyokong sidang kemuncak ketuaketua negara asean di bali indonesia bagi membincangkan pergolakan di indochina serta masa hadapan rantau asia tenggara cabaran keselamatan dan pertahanan anglomalaysian defence agreement amda iaitu perjanjian antara malaysia dengan britain ditamatkan 9 pada tahun 1971 bab bab 9 dr ismail abdul rahman kanan dan dawee chullasapya kiri ketua menurut pandangan anda marshal udara thai bagaimanakah hubungan menandatangani perjanjian antara malaysia dengan sempadan 1965 china pada masa hadapan sumber arkib negara malaysia 208berikutan itu malaysia menandatangani perjanjian pertahanan baharu iaitu five power defence arrangementsfpda atau perjanjian pertahanan lima negara pada 15 april hingga 16 april 1971 yang melibatkan malaysia singapura britain new zealand dan australia malaysia akan memperoleh bantuan teknikal dan latihan bersama bagi memperkukuh pertahanan dan keselamatan negara melalui fpda malaysia turut bekerjasama dengan negara asean dalam memperkuat pertahanan dan keselamatan rantau asia tenggara mesyuarat menterimenteri pertahanan asean panglima angkatan tentera jeneral tan sri diadakan bagi membincangkan kerjasama ini raja mohamed affandi raja mohamed noor malaysia juga menandatangani perjanjian di tengah mewakili malaysia dalam 18th fpda defence chiefs conference fdcc sempadan dengan thailand pada tahun 1965 untuk sumber portal rasmi markas angkatan menangani isu keselamatan tentera malaysia cabaran pembangunan ekonomi cabaran utama yang dihadapi oleh malaysia dalam ekonomi ialah wujudnya dominasi negara maju bagi menentukan harga komoditi bijih timah getah hasil minyak dan gas negara malaysia menjadi anggota pertubuhan antarabangsa seperti international tin council itc atau majlis timah antarabangsa dan general agreement on tariffs and trade gatt atau perjanjian umum tarif dan perdagangan desakan malaysia agar harga barangan dapat dikawal disuarakan melalui organisasi ini bagi membolehkan malaysia memperoleh hasil daripada minyak dan gas perjanjian berkongsi pengeluaran carigali dan kemajuan selain itu malaysia menubuhkan 9 perusahaan minyak antara petronas dengan esso pada bab bab petronas pada tahun 1974 untuk 8 disember 1976 di kuala lumpur petronas diwakili membangunkan sektor minyak dan oleh kadir shamsuddin duduk di tengah 9 gas negara sumber arkib negara malaysia perkembangan pada peringkat antarabangsa dalam ekonomi sosial dan politik menjadi cabaran utama malaysia malaysia menghadapi cabaran tersebut melalui tindakan bijak yang akhirnya membawa manfaat yang besar kepada negara sebagai rakyat malaysia kita perlu menyanjungi kebijaksanaan pemimpin negara dalam usaha mengurus cabaran dasar luar agar kedaulatan negara terpelihara 209</t>
+          <t>64 isu pembangunan dan ekonomi kerajaan telah membentuk rancangan pembangunan lima tahun bagi memastikan usaha pembangunan dan ekonomi nasional dapat dilaksanakan di semua negeri kerajaan persekutuan meneruskan usaha ini dengan melibatkan sarawak dan sabah dalam rancangan pembangunan lima tahun malaysia sebaikbaik sahaja pembentukan malaysia 6 bab bab rancangan malaysia pertama 19661970 sumber arkib negara malaysia 6 di bawah rancangan felda rumah peneroka turut dibina tun abdul razak hussein berdiri di kanan di sebuah rumah di lurah bilut pahang sumber arkib negara malaysia mengapakah usaha pembangunan pengumuman rancangan malaysia pertama oleh tun abdul razak negara menjadi agenda utama hussein duduk di tengah dalam persidangan akhbar di bilik kerajaan pada awal pembentukan gerakan pembangunan negara malaysia sumber arkib negara malaysia 126rancangan malaysia pertama dalam usaha menangani isu pembangunan dan ekonomi negara kerajaan memperkenalkan rancangan malaysia pertama antara isu yang dihadapi termasuklah kedudukan sosioekonomi penduduk berpendapatan rendah serta taraf pendidikan yang masih rendah pelbagai usaha dilaksanakan oleh kerajaan bagi meningkatkan taraf hidup ekonomi rakyat melalui rancangan ini isu pembangunan ekonomi terdapat pelbagai isu yang perlu ditangani oleh kerajaan dalam usaha meningkatkan taraf hidup penduduk antaranya termasuklah kurangnya penyediaan bantuan kewangan oleh institusi kewangan bagi pengusaha bumiputera dalam kegiatan mereka selain itu kemudahan pengangkutan dan perhubungan terutama di kawasan luar bandar juga perlu ditambah baik isu terlalu bergantung pada eksport getah tun abdul razak hussein timbalan perdana dan bijih timah menteri merangkap menteri pembangunan kejatuhan harga bahan mentah negara dan luar bandar sedang berucap penduduk yang terlibat dalam bidang dalam satu mesyuarat tentang usul rancangan 6 pertanian masih ketinggalan terutama malaysia pertama yang diadakan di bilik bab bab penggunaan teknologi dan peralatan gerakan pembangunan negara kuala lumpur petani masih merupakan golongan sumber arkib negara malaysia 6 berpendapatan rendah pertanian komersial lain masih kurang diusahakan oleh petani usaha mengatasi mempelbagaikan kegiatan ekonomi pertanian dan industri pemprosesan mencari pasaran baharu bagi getah dan bijih timah mempelbagaikan bidang pertanian terutama kelapa sawit dan koko mempelbagaikan pengeluaran komoditi negara setem kenangan malaysia berkaitan dengan rancangan pembangunan 19661970 sumber arkib negara malaysia 127isu isu taraf hidup yang berbeza peluang pekerjaan yang terhad kadar pengangguran meningkat usaha mengatasi usaha mengatasi melancarkan program pembangunan menubuhkan pusat latihan vokasional negara berasaskan satu rancangan dan teknikal bersepadu meluaskan peluang pekerjaan kepada menggerakkan aktiviti perkilangan dan penduduk pembuatan negara dengan membuka kawasan baharu mempercepat integrasi dalam kalangan penduduk dan negeri di malaysia mendapatkan bantuan bank dunia isu masalah kesihatan dan sosial keperluan asas dan hak wanita dari 6 segi kehamilan yang terhad untuk bab bab memperoleh kesihatan terbaik kurangnya kemudahan perkhidmatan 6 kesihatan profesional kepada ibuibu yang mengandung kadar kelahiran tidak normal dan kematian yang tinggi usaha mengatasi mengurangkan kadar kelahiran memperkenalkan program perancang buku dasar pembangunan luar bandar keluarga sumber kementerian pembangunan luar bandar menambah baik perkhidmatan kesihatan di kawasan luar bandar kandungan buku dasar pembangunan luar bandar kerajaan melaksanakan pelbagai program dalam usaha mengatasi isu pembangunan dan ekonomi kepimpinan dan kerjasama yang diberikan oleh ahli masyarakat telah membantu mencapai matlamat yang disusun oleh kerajaan bagi mencapai matlamat ini negara perlu sentiasa berada dalam situasi aman dan makmur oleh itu adalah penting bagi rakyat menjaga kestabilan politik dalam mengekalkan keamanan negara 128</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Cabaran Selepas Pembentukan Malaysia </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asia Tenggara ASEAN </t>
+          <t xml:space="preserve"> Tragedi Hubungan antara Kaum </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>129</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>96 malaysia dalam persatuan negaranegara asia tenggara asean malaysia memberikan perhatian yang serius dalam hubungannya dengan negara serantau malaysia berpandangan bahawa keselamatan dan keutuhan masa hadapan negara berkaitan rapat dengan kemantapan dan keamanan kawasan asia tenggara keselamatan malaysia tidak akan terjamin selagi jirannya hidup berpecah belah pelibatan malaysia dalam negara serantau membolehkan negara kita menjadi anggota asean yang memberikan manfaat dalam ekonomi sosial dan politik pelibatan malaysia persatuan negaranegara asia tenggara asa ditubuhkan pada tahun 1961 merupakan gabungan pertama yang melibatkan tiga negara di asia tenggara iaitu malaysia filipina dan thailand pada tahun 1963 persefahaman yang membabitkan antara malaysia filipina dan indonesia maphilindo diwujudkan bagi menyelesaikan isu pembentukan malaysia namun begitu maphilindo gagal mencapai matlamatnya dalam usaha untuk meningkatkan semangat setia kawan dan keserantauan maka diwujudkan asean pada 8 ogos 1967 pada peringkat awal pertubuhan ini hanya dianggotai oleh lima negara iaitu malaysia indonesia singapura deklarasi asean 1967 filipina dan thailand kemudiannya asean menerima sumber arkib negara malaysia lima anggota baharu iaitu brunei myanmar laos kemboja dan vietnam penubuhan asean dianggap sebagai kejayaan cemerlang terhadap dasar luar malaysia deklarasi asean 1967 dan zon aman bebas dan berkecuali zopfan negara anggota asean deklarasi zone of peace freedom and neutrality zopfan zon aman bebas dan berkecuali diumumkan pada tahun 1971 di kuala lumpur deklarasi ini menjadi subjek penting yang dikemukakan oleh malaysia dalam asean langkah malaysia menjalinkan hubungan dengan china turut dilihat sebagai sebahagian daripada pengisian konsep zopfan tersebut malaysia menjadikan asean sebagai platform terpenting untuk mengisytiharkan perubahan dasar luar negara pada peringkat serantau dan global langkah ini termasuklah mendapatkan pengiktirafan daripada kuasa besar seperti amerika syarikat rusia dan china 9 bab bab ppeennyeyleelseasiaania kn oknoflnikf lsike rsaenrtaanutau 9 malaysia terlibat secara aktif mencari penyelesaian dalam konflik politik yang berlaku di indochina terutamanya di vietnam dan kemboja kerana dibimbangi akan menjejaskan kestabilan rantau asia tenggara konflik di vietnam dan kemboja berkaitan dengan ancaman komunis dan pelarian malaysia menyeru agar kuasa besar tidak campur tangan dalam isu di vietnam isu di kemboja pula berjaya diselesaikan melalui pilihan raya pada tahun 1993 malaysia turut menghantar pasukan pengaman di bawah pbb misi untac 210negara anggota asean merupakan rakan dagang malaysia yang penting kerjasama ekonomi asean bermula sejak tahun 1970an pada tahun 1978 projek industri asean aip dimulakan antara projek yang berjaya termasuklah pengeluaran baja urea di indonesia 1984 dan malaysia 1986 pengeluaran baja fosfat dan kuprum di filipina serta penghasilan serbuk soda di thailand juga berjaya dilaksanakan potensi perdagangan antara negara asean yang besar menyebabkan malaysia mempromosikan dan menyokong konsep integrasi ekonomi asean sokongan ini diharap mewujudkan satu pasaran tunggal asean yang bebas seperti penggunaan mata wang asean dalam meningkatkan perdagangan antara negara asean ini beberapa insentif dilaksanakan termasuklah melalui skim keutamaan perdagangan skp yang dicadangkan pada tahun 1976 dan dilaksanakan pada tahun 1978 pemotongan cukai barangan dilakukan melalui skim ini malaysia menawarkan pemotongan cukai ke atas pelbagai jenis produk keluaran negara anggota asean malaysia menjalinkan kerjasama sosial melalui penubuhan southeast asian ministers of education organizationseameo pertubuhan menterimenteri pendidikan asia tenggara kerjasama dalam semua bidang yang berkaitan dengan pendidikan pertukaran pelajar dan penubuhan pusat serantau pendidikan seperti pembinaan the regional centre for education in science and mathematics recsam pusat serantau pendidikan untuk sains dan matematik di pulau pinang tun hussein onn perdana menteri kerjasama dalam bidang kebudayaan dilaksanakan seperti malaysia ketiga berucap dalam mengadakan festival kebudayaan dan kesenian melalui sidang kemuncak asean pada 2325 penubuhan tabung kebudayaan asean februari 1976 di bali indonesia sukan sea dilaksanakan untuk menjalinkan kerjasama sumber arkib negara malaysia dalam sukan recsam dan sukan sea informasi malaysia merupakan antara pelopor kepada logo asean menunjukkan 10 penubuhan asean dan aktif dalam pertubuhan 9 bab tangkai padi yang melambangkan bab ini sehingga kini sejak penubuhannya asean impian pengasasan asean berjaya membuktikan kejayaannya dalam iaitu 10 buah negara yang diikat 9 pelbagai bidang dan dihormati oleh pihak luar oleh semangat persahabatan sebagai sebuah organisasi yang sangat penting dan perpaduan moto asean di rantau asia tenggara pelibatan malaysia ialah keamanan kestabilan kegigihan kedinamikan yang aktif dalam pertubuhan ini menunjukkan kesucian dan kemakmuran semangat persahabatan serantau yang kukuh dan sangat penting kepada kemakmuran serta kemajuan negara murid dikehendaki menyenaraikan lima bendera asean 211</t>
+          <t>65 tragedi hubungan antara kaum peristiwa rusuhan antara kaum berlaku pada 13 mei 1969 bermula beberapa hari setelah diadakan pilihan raya umum ketiga keputusan pilihan raya menyebabkan berlakunya ketegangan antara penyokong parti politik yang memprovokasikan keadaan situasi ini mencetuskan rusuhan antara kaum di negara kita rusuhan yang berlaku lebih tertumpu di kuala lumpur selangor dan kawasan di sekitarnya 1 rusuhan kaum terdapat beberapa faktor yang menyebabkan berlakunya rusuhan kaum di negara kita antaranya termasuklah kesan daripada ketidakseimbangan dalam ekonomi dan sosial di negara kita keadaan dan keputusan pilihan raya umum ketiga 1969 merupakan sebab utama tercetusnya peristiwa ini ketegangan bermula dengan kempen pilihan raya terdapat parti politik mengeksploitasi isu yang menyentuh sensitiviti sesuatu kaum semasa berkempen pkm mengambil kesempatan semasa pilihan raya untuk mempengaruhi penduduk supaya bermusuhan antara kaum parti yang bertanding telah berkempen menggunakan sentimen perkauman dan keagamaan untuk mendapat sokongan daripada pengundi perarakan kemenangan pilihan raya tidak terkawal menimbulkan kekacauan dan perbuatan provokatif 2 langkah yang diambil bagi mengatasi masalah peristiwa 13 mei 1969 6 bab bab peristiwa 13 mei 1969 menyebabkan berlaku ketegangan hubungan antara kaum langkah sertamerta telah diambil bagi mengelakkan kekacauan dan menghentikan rusuhan serta menghalang daripada 6 merebak ke bandarbandar lain antara langkah yang diambil termasuklah pengisytiharan darurat pembentukan majlis gerakan negara mageran dan peranan yang dimainkan oleh rajaraja melayu laporan peristiwa 13 mei 1969 a darurat pengisytiharan perintah darurat dibuat oleh yang dipertuan agong pada 16 mei 1969 ke seluruh negara antara perkara yang diputuskan termasuklah perlembagaan digantung manakala parlimen ditangguh mewujudkan pusat perlindungan di beberapa tempat semasa darurat pihak polis menguatkuasakan perintah berkurung orang ramai tidak dibenarkan keluar dan dikehendaki tinggal di kediaman masingmasing penubuhan jawatankuasa bertugas untuk menyusun semula perkhidmatan penerangan kerajaan semua berita daripada pihak media ditapis bagi memastikan kesahihannya kerajaan juga memastikan bekalan makanan diperoleh penduduk terutama di pusat perlindungan mangsa rusuhan dipindahkan ke pusat perlindungan di stadium merdeka dan tiong nam settlement semangat saling membantu ketika ketegangan dalam kalangan anggota masyarakat dapat dilihat di pusat perlindungan ini pihak berkuasa memagar kawasan kampung baru dan menjadikannya kawasan perintah berkurung yang besar sementara itu tentera memberikan perlindungan kepada penduduk yang berlindung di beberapa kem tentera 129b majlis gerakan negara mageran yang dipertuan agong memperkenankan penubuhan majlis gerakan negara mageran yang dipengerusikan oleh tun abdul razak hussein ahlinya turut terdiri daripada pegawai perkhidmatan awam pegawai tinggi polis dan tentera mageran diberi kuasa memerintah semasa darurat dari 16 mei 1969 hingga 23 februari 1971 dan bertanggungjawab mengawal ketenteraman negara dua fokus utama yang perlu diselesaikan oleh mageran ialah masalah perpaduan kaum dan ketidakseimbangan ekonomi antara kaum antara tanggungjawab mageran termasuklah mengembalikan keamanan dan undangundang menentukan pentadbiran yang licin dalam negara mengembalikan keharmonian dan kepercayaan antara kaum dalam negara menggantung sementara penerbitan semua akhbar sehingga keadaan negara kembali tenang menguatkuasakan akta hasutan 1948 jabatan penerangan menapis berita palsu dan menerangkan usaha kerajaan 6 bab bab 6 ahli mageran bergambar di pekarangan parlimen pada 7 februari 1971 akta hasutan 1948 duduk dari kiri azizan zainal abidin mohamad salleh ismail muhammad ghazali shafie vt sambanthan dr ismail abdul rahman tun abdul razak hussein tan siew sin hamzah abu samah ibrahim ismail abdul kadir shamsuddin abdul rahman hamidon berdiri dari kiri tun abdullah ahmad badawi cc too yahya yeop ishak haniff omar amir yaakob wan ismail wan salleh ghazali che mat yusuf rashid nyatakan fungsi utama dan sharif buruk mageran sumber arkib negara malaysia 130c peranan raja rajaraja melayu turut memainkan peranan dalam usaha memulihkan keadaan negara semasa berlakunya rusuhan kaum sultan perak sultan idris iskandar shah ii menasihati rakyat agar menjaga keamanan berikutan itu pemimpin masyarakat dan politik negeri perak menubuhkan jawatankuasa muhibah jawatankuasa ini menulis surat merayu penduduk agar bertenang dan membantu negara mengekalkan keamanan di negerinegeri lain pula raja turut meminta rakyat agar bertenang dan mematuhi undangundang keratan akhbar the straits times menunjukkan seruan sultan perak dalam isu rusuhan sumber arkib negara malaysia 6 bab bab 6 rusuhan kaum dapat dihentikan melalui usaha yang dilaksanakan oleh pihak berkuasa dan kerjasama yang diberikan oleh rakyat keadaan negara mulai kembali normal walau bagaimanapun masih banyak usaha yang perlu dilakukan bagi membina perpaduan dan keharmonian kaum negara menghadapi pelbagai cabaran selepas pembentukan malaysia antara cabaran yang dihadapi termasuklah cabaran dari segi pembangunan sosioekonomi politik ancaman komunis dan keselamatan pelbagai usaha 1 bincangkan kesan peristiwa 13 mei diambil bagi mengatasi cabaran berkenaan melalui dasar 1969 kepada keamanan negara kita yang disusun oleh kerajaan cabaran ini berjaya ditangani 2 mengapakah perlu ada persefahaman melalui kesungguhan dan kerjasama yang ditunjukkan antara kaum bentangkan dapatan oleh pemimpin pihak berkuasa dan masyarakat sebagai anda di dalam kelas rakyat malaysia kita harus bekerjasama bagi mengekalkan keamanan yang dikecapi agar dapat hidup dalam suasana aman dan makmur 131imbas kembali cabaran selepas pembentukan malaysia cabaran dalaman malaysia cabaran yang dihadapi oleh malaysia pemisahan singapura faktor pemisahan pemisahan singapura daripada malaysia 6 menangani ancaman ancaman keselamatan di sarawak bab bab komunis ancaman keselamatan 6 di semenanjung malaysia isu pembangunan dan rancangan malaysia pertama ekonomi tragedi hubungan rusuhan kaum antara kaum langkah yang diambil bagi mengatasi masalah peristiwa 13 mei 1969 132pembelajaran abad ke21 aktiviti 1 meja bulat serentak simultaneous round table arahan1 murid berada dalam kumpulan setiap murid menulis maklum balas pada soalan yang diberikan 2 kemudian mereka mengedarkan catatan yang dibuat mengikut pusingan jam supaya setiap ahli pasukan dapat menambahkan atau membetulkan apaapa yang dicatat 3 wakil kumpulan akan membentangkan jawapan masingmasing 6 bab bab 6 petikan laporan kertas putih tragedi 13 mei 1969 1 berdasarkan petikan teks di atas jawab soalan yang berikut a apakah usaha yang dilakukan oleh kerajaan bagi meredakan tragedi hubungan kaum b mengapakah kita perlu mengekalkan keharmonian antara kaum c huraikan pengajaran yang boleh dipelajari daripada peristiwa ini 2 perbincangan dalam kumpulan besar dengan bimbingan guru sebagai pemudah cara kongsikan hasil maklumat perbincangan dengan kumpulan lain dalam bentuk perbincangan bebas 133pembelajaran abad ke21 aktiviti 2 hentian bas bus stop arahan 1 sebanyak lima buah hentian bas diwujudkan di dalam kelas setiap satu hentian disediakan satu soalan oleh guru 2 murid bergerak secara kumpulan dari satu hentian ke hentian lain sambil berbincang soalan yang berkenaan 3 murid berkongsi pendapat dan mencatatkan maklumat yang diperoleh murid diberi petikan ucapan tunku abdul rahman putra alhaj menurut tunku abdul rahman putra alhaj pemisahan singapura merupakan perkara yang tidak dapat dielakkan so it does seem completely impossible to arrive at a solution whereby we can hope to pull along together and to work together in the interest and for the common good of our beloved country ucapan tunku abdul rahman putra alhaj dalam penyata perbahasan di dewan rakyat 9 ogos 1965 6 bab bab 6 hentian 1 mengapakah tunku abdul rahman putra alhaj menyatakan sedemikian hentian 2 jelaskan isu yang mendorong pemisahan singapura daripada malaysia hentian 3 berdasarkan petikan akhbar di atas apakah sikap kerajaan singapura yang mendorong pemisahan singapura daripada malaysia hentian 4 secara kronologi huraikan peristiwa pemisahan singapura daripada malaysia hentian 5 pada pendapat anda mengapakah keharmonian hubungan antara sesebuah negara perlu dipelihara kumpulan akan bergerak dari satu hentian ke satu hentian sambil berbincang dan berkongsi maklumat 134pemahaman dan pemikiran kritis 1 usaha yang diambil bagi menyeimbangkan hubungan antara persekutuan malaysia dengan singapura termasuklah a memajukan sistem kewangan b menyusun semula masyarakat c mempelbagaikan kegiatan ekonomi d membuka pejabat pentadbiran kerajaan 2 apakah langkah yang diambil oleh malaysia untuk mengatasi masalah peristiwa 13 mei a menghentikan pilihan raya b meminta bantuan indonesia c membentuk majlis gerakan negara d meminta bantuan pertubuhan bangsabangsa bersatu 3 perjanjian damai telah diadakan antara parti komunis malaya kerajaan malaysia dan thailand iaitu perjanjian hat yai pada 2 disember 1989 apakah kesepakatan yang diperoleh melalui perjanjian ini 4 krisis perlembagaan di sarawak berlaku pada 16 jun 1966 a jelaskan peristiwa krisis tersebut sehingga darurat terpaksa diisytiharkan di sarawak pada bulan september 1966 6 b mengapakah kerajaan perlu memelihara kestabilan politik dalam sesebuah negara bab bab 5 gambar menunjukkan ahli majlis gerakan negara 6 a nyatakan tugas ahli majlis gerakan negara b mengapakah usaha memulihkan hubungan antara kaum menjadi agenda penting kerajaan ketika itu 135pemahaman dan pemikiran kritis 6 jawab soalan berdasarkan pernyataan yang berikut dalam usaha mengatasi isu pembangunan dan ekonomi negara kerajaan memperkenalkan rancangan malaysia pertama antara matlamat rancangan ini termasuklah keharmonian kaum perkembangan ekonomi pekerjaan dan kepelbagaian ekonomi a huraikan fokus utama rancangan malaysia pertama 19661970 b nyatakan objektif rancangan malaysia pertama yang memberikan kesan positif kepada sarawak dan sabah 7 jawab soalan berdasarkan keratan akhbar yang berikut 6 bab bab 6 a apakah yang dapat anda tafsirkan apabila membaca berita yang dipaparkan dalam keratan akhbar ini b apakah faktor yang menyebabkan rakyat menentang komunis c sebagai rakyat malaysia yang patriotik apakah yang akan anda lakukan sekiranya negara kita diserang oleh komunis 8 jawab soalan di bawah berdasarkan pernyataan yang berikut majlis gerakan negara bertanggungjawab mengawal ketenteraman negara dua permasalahan utama yang perlu diselesaikan oleh majlis ini ialah masalah perpaduan kaum dan ketidakseimbangan ekonomi antara kaum a apakah yang anda faham melalui pernyataan di atas b huraikan punca berlakunya rusuhan kaum pada tahun 1969 c mengapakah persefahaman antara kaum menjadi unsur penting di malaysia 136cakna dan cerminan sejarah nilai patriotisme dan iktibar kepentingan menghargai nikmat keamanan bagi memastikan kemakmuran negara mengamalkan sikap bertolak ansur bagi menyelesaikan masalah menjaga sensitiviti orang lain dalam tindakan tutur kata dan penulisan demi kesejahteraan masyarakat dan negara diri dan keluarga membina kehidupan yang aman makmur dan bahagia dengan menghormati setiap ahli keluarga negaramenyelesaikan sebarang permasalahan melalui perundingan dan bijak merancang bagi menghadapi cabaran negara 6 bab bab 6 rakyat malaysia berarak sambil membawa bendera jalur gemilang 137bab 7 membina kesejahteraan negara sinopsis perpaduan kaum dan integrasi nasional merupakan unsur penting dalam membina kesejahteraan negara unsur ini dipupuk melalui beberapa dasar pembangunan sosial yang merangkumi aspek pendidikan budaya bahasa dan aktiviti sosial dasar ini termasuklah dasar pendidikan kebangsaan memperkasakan bahasa melayu sebagai bahasa ilmu dan perpaduan dasar kebudayaan kebangsaan dan sukan untuk perpaduan dasar ini diperkukuh lagi dengan pembentukan rukun negara sebagai tonggak kesejahteraan negara 138inti pati pembelajaran 1 perpaduan dan integrasi nasional 2 dasar pendidikan kebangsaan 3 bahasa melayu sebagai bahasa ilmu dan bahasa perpaduan 4 dasar kebudayaan kebangsaan 5 sukan sebagai alat perpaduan 6 rukun negara sebagai tonggak kesejahteraan negara elemen kewarganegaraan dan nilai sivik 1 kepentingan menjaga perpaduan dan keharmonian 2 peranan pemimpin dan rakyat dalam memastikan kemakmuran negara 3 kepentingan pendidikan untuk mengukuhkan perpaduan 4 kepentingan menghayati rukun negara kemahiran pemikiran sejarah 1 membuat kronologi usaha yang dijalankan untuk mewujudkan perpaduan kaum dan integrasi nasional 2 meneroka bukti sejarah pelaksanaan dasar pendidikan yang telah dilaksanakan 3 membuat interpretasi tentang peranan bahasa melayu dan dasar kebudayaan kebangsaan dalam memperkukuh perpaduan 4 membuat imaginasi berkaitan dengan kejayaan sukan sebagai alat perpaduan 5 membuat rasionalisasi tentang prinsip rukun negara sebagai tonggak kesejahteraan negara rakyat malaysia terdiri daripada pelbagai kaum 139</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanpa Pihak NAM </t>
+          <t xml:space="preserve">  Perpaduan dan Integrasi Nasional </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>97 malaysia dalam pergerakan negaranegara tanpa pihak nam selepas mencapai kemerdekaan malaysia mengamalkan dasar probarat ketika itu malaysia menolak untuk bersikap neutral dan menyertai sebarang pakatan negara tanpa pihak kerana hal ini akan menyebabkan negara terjerumus dalam konflik antarabangsa walau bagaimanapun dasar ini ditamatkan dan malaysia mengubah dasarnya dengan mengamalkan dasar berkecuali dan terlibat secara aktif dalam nam pelibatan malaysia dalam nam membolehkan malaysia menjalinkan hubungan yang lebih terbuka dengan pelbagai pihak tanpa sebarang sekatan peranan malaysia penyertaan malaysia dalam nam bermula dengan kehadiran muhammad ghazali shafie iaitu setiausaha tetap kementerian luar negeri dalam mesyuarat penyediaan bagi sidang kemuncak di dar es salam tanzania pada bulan april 1970 penyertaan dalam nam merupakan satu bukti bahawa malaysia mengubah dasar luarnya daripada probarat kepada dasar yang lebih terbuka berasaskan prinsip neutral aman bebas dan berkecuali sejak menyertai nam malaysia memainkan peranan penting dalam pelbagai bidang kelantangan malaysia menyuarakan pandangan tentang pelbagai isu yang melibatkan negara anggota nam telah menaikkan nama negara kita peranan malaysia juga dapat dilihat melalui kesediaannya menjadi tuan rumah sidang kemuncak nam pada tahun 2003 menjadi pengerusi nam memperjuangkan pelbagai logo nam isu seperti dasar aparteid isu palestin dan bosnia dan herzegovina sumber serta melaksanakan dasar aman dan berkecuali dicapai pada 13 julai 2020 latar belakang dan tuan rumah sidang kemuncak dan pengerusi negara anggota nam malaysia menjadi tuan rumah kepada sidang kemuncak nam kali ke13 pada tahun 2003 dalam sidang ini deklarasi kuala lumpur menyatakan sikap nam terhadap isu palestin serta serangan amerika syarikat ke atas iraq yang dianggap sebagai satu pencerobohan kuasa besar 9 bab bab terhadap negara kecil menjadi tuan rumah bagi sidang kemuncak nam membuktikan kemampuan malaysia dalam 9 mengendalikan persidangan bertaraf dunia negara kita menjadi pengerusi nam dari tahun 2003 hingga tahun 2006 tugas ini dilaksanakan dengan jayanya oleh tun abdullah ahmad badawi yang juga perdana menteri malaysia ketika itu perkembangan ini menjulang nama malaysia dalam kalangan negara anggota bagi menggalas tanggungjawab sebagai pengerusi malaysia berusaha untuk meningkatkan tahap kemajuan dan pembangunan anggota nam serta bekerjasama agar menjadi organisasi yang dihormati 212peranan dalam politik malaysia lantang menyuarakan isu pencerobohan terhadap hak asasi manusia dan negara lain seperti isu aparteid serta bosnia dan herzegovina malaysia menjadikan nam sebagai platform menyuarakan sikap malaysia terhadap isu aparteid malaysia bersetuju agar tekanan politik dan ekonomi dikenakan kepada afrika selatan bagi menangani isu ini malaysia membangkitkan isu berkaitan dengan bosnia dan herzegovina yang sedang ditekan oleh serbia pada sidang kemuncak nam di jakarta indonesia 1992 kedudukan yugoslavia salah sebuah negara pengasas nam digantung daripada pertubuhan ini tindakan menggantung keahlian yugoslavia merupakan hasil kejayaan bersama malaysia dan negara anggota yang lain malaysia turut menerima sejumlah pelarian bosnia dan herzegovina dasar keamanan dan berkecuali sejak pelibatan malaysia dalam nam suara serta pandangan malaysia yang meminta agar rantau asia tenggara diterima sebagai sebuah kawasan berkecuali sering diutarakan malaysia berpandangan bahawa negara kuasa besar seperti china rusia dan amerika syarikat perlu mengakuinya serta tidak campur tangan atau memberikan tekanan kepada negara di rantau tersebut dalam isu kawalan senjata nuklear malaysia menandatangani perisytiharan lusaka pada tahun 1970 sebagai iltizam nam mendesak pengharaman senjata tersebut jalan galeri gallery walk 1 murid dipecahkan kepada beberapa kumpulan 2 setiap kumpulan mendapat tajuk latar belakang dan peranan negara tuan rumah persidangan kemuncak nam 3 murid dikehendaki menulis tajuk dan isi kandungan 4 murid menampalkan hasil kerja kumpulan pada dinding dan ketua tun abdullah ahmad badawi di barisan hadapan enam dari kiri kumpulan memberikan penjelasan bersamasama perwakilan mesyuarat menteri nam berkaitan kepada kumpulan lain dengan palestin pada tahun 2004 5 murid bergerak dan memberikan 9 sumber arkib negara malaysia komen hasil kerja kumpulan lain bab bab dengan meletakkan nota pelekat malaysia memainkan peranan yang berkesan sejak pada hasil kerja kumpulan lain 9 menyertai nam kelantangan malaysia menyuarakan 6 guru membuat rumusan setelah pandangan bukan sahaja telah menaikkan nama negara selesai sesi jalan galeri tetapi juga membolehkan negara ini dihormati oleh negara lain sebagai rakyat malaysia kita wajar berasa bangga informasi akan pemimpin yang berusaha mengekalkan hubungan luar dengan negara lain bagi menjamin keamanan dan nam turut dikenali sebagai pergerakan kesejahteraan dunia negaranegara berkecuali 213</t>
+          <t>71 perpaduan dan integrasi nasional pembinaan negara malaysia berasaskan perpaduan kaum dan integrasi nasional elemen ini menjadi asas kekuatan negara kita yang terdiri daripada rakyat berbilang kaum sejarah hubungan kaum di negara kita telah wujud sebelum zaman penjajahan lagi hubungan kaum terus diperkukuh selepas negara mencapai kemerdekaan dan pembentukan malaysia pelbagai langkah dilakukan oleh kerajaan untuk memperkasakan perpaduan kaum dan integrasi nasional dalam membentuk masyarakat yang bersatu padu harmoni dan sejahtera maksud perpaduan dan integrasi nasional perpaduan dan integrasi merupakan dua konsep yang saling berkait rapat melalui dua proses yang berbeza keduadua konsep ini berteraskan perlembagaan persekutuan dan prinsip rukun negara perpaduan integrasi kaum nasional perpaduan kaum ialah keadaan rakyat integrasi nasional merupakan satu proses daripada pelbagai etnik agama dan wilayah dinamik yang merapatkan hubungan hidup dengan aman dalam masyarakat yang masyarakat antara negeri dengan bersatu mereka memberikan komitmen wilayah bagi membentuk satu bangsa yang penuh kepada identiti kebangsaan mereka ini mempunyai identiti sendiri berlandaskan perlembagaan persekutuan berteraskan perlembagaan persekutuan dan dan rukun negara rukun negara 7 bab bab informasi 7 perkhidmatan feri malaysia ditamatkan pada tahun 1989 disebabkan kebakaran ruang enjin dan kos penyenggaraan yang tinggi membuat rasionalisasi mengapakah perkhidmatan feri malaysia perlu diperkenalkan dan diperluas ke seluruh negara perkhidmatan feri malaysia yang dikenali juga sebagai cruise muhibah telah diperkenalkan pada 31 ogos 1986 bertujuan mengintegrasikan bandingkan maksud perpaduan penduduk di semenanjung malaysia dengan sarawak dan sabah kaum dan integrasi nasional sumber portal rasmi perpustakaan negara malaysia 140latar belakang hubungan kaum pentadbiran british menyebabkan pemisahan kaum dari segi kegiatan ekonomi dan petempatan keadaan ini menyukarkan setiap kaum untuk memahami adat resam dan budaya kaum lain selepas perang dunia kedua usaha dilakukan oleh para pemimpin pelbagai kaum untuk bekerjasama bagi mewujudkan perpaduan beberapa faktor sejarah dikenal pasti menjadi punca kepada masalah perpaduan antaranya termasuklah kesan pentadbiran kegiatan ekonomi dan petempatan sistem pendidikan serta fahaman politik pentadbiran kegiatan ekonomi dan pentadbiran british bermula pada tahun 1874 petempatan menerusi pengenalan sistem residen dasar british memberikan tumpuan kepada british yang mengutamakan sektor ekonomi perkembangan ekonomi yang berasaskan menyebabkan pekerja dibawa masuk dari luar untuk bekerja dalam sektor perlombongan perlombongan bijih timah dan perladangan perladangan dan perniagaan kaum bumiputera getah kegiatan ekonomi yang berbeza pula bertumpu di kawasan luar bandar dan antara kaum menyebabkan pemisahan menjalankan kegiatan ekonomi tradisional dari segi petempatan rakyat juga keadaan ini menyebabkan mereka terpisah terpisah dengan petempatan yang wujud dan berlaku kerenggangan hubungan kaum di kawasan perlombongan bandar estet dan kesannya masalah hubungan kaum berterusan perkampungan keadaan ini menyebabkan sehingga selepas kemerdekaan dan menyebabkan setiap kaum kurang berinteraksi antara satu peristiwa 13 mei 1969 sama lain dan mewujudkan jurang ekonomi yang tidak seimbang kesan dasar 7 british bab bab 7 sistem pendidikan fahaman politik dasar pentadbiran british menyebabkan fahaman politik berasaskan kaum bermula munculnya sistem pendidikan vernakular dengan penubuhan parti politik sebelum melayu cina india dan inggeris di negara kemerdekaan hingga kini polarisasi kaum kita sekolah vernakular pula berkembang disebabkan perbezaan kegiatan ekonomi mengikut kaum masingmasing sistem dan petempatan menyebabkan parti politik pendidikan vernakular diteruskan selepas ini memperjuangkan kepentingan kaum kemerdekaan pada tahun 1957 pendidikan masingmasing isu yang diperjuangkan vernakular mewujudkan perbezaan pemikiran berkaitan dengan bahasa budaya pendidikan dalam kalangan rakyat berbilang kaum dan ekonomi keadaan ini mempengaruhi hubungan antara kaum di negara ini 141memperkasakan perpaduan dan integrasi nasional sejak mencapai kemerdekaan usaha memperkasakan perpaduan dan integrasi nasional telah dilaksanakan secara konsisten oleh kerajaan dan berterusan sehingga hari ini usaha ini merangkumi bidang politik ekonomi dan sosial politik menubuhkan jabatan perpaduan negara yang terletak di bawah bidang kuasa mageran jabatan ini berperanan mendraf satu ideologi untuk negara yang dikenali sebagai rukun negara mewartakan pembentukan majlis muhibah negara pada 18 julai 1969 majlis ini bertujuan menggalakkan perkembangan perasaan muhibah antara masyarakat berbilang kaum di malaysia menubuhkan majlis perundingan negara pada 29 januari 1970 majlis ini ditubuhkan untuk mengadakan garis panduan bagi kerjasama antara kaum dan integrasi nasional antara negeri dengan wilayah selain itu majlis ini juga bertujuan memupuk identiti kebangsaan dalam kalangan rakyat membentuk gabungan parti politik pelbagai kaum untuk mewujudkan keharmonian dan kestabilan politik selepas peristiwa 13 mei 1969 menyelaraskan perkhidmatan awam antara semua negeri penyelarasan ini mewujudkan integrasi antara negeri 7 bab bab 7 tun abdul razak hussein berucap dalam perhimpunan barisan nasional dengan disertai oleh ketua parti gabungan sumber tun abdullah mohd salleh pengerusi 2006 tun abdul razak potret dalam kenangan kuala lumpur lembaga pemegang amanah yayasan tun abdul razak dan utusan publications distributors sdn bhd informasi kerjasama politik parti pelbagai kaum sudah bermula sebelum merdeka pada bulan oktober 1954 parti perikatan ditubuhkan untuk menyertai pilihan raya tahun 1955 dan menuntut kemerdekaan pada 1 januari 1973 pula barisan nasional ditubuhkan sebagai pengganti kepada parti perikatan 142ekonomi meneruskan rancangan pembangunan lima tahun malaysia yang memberikan tumpuan kepada pertumbuhan ekonomi semua kaum memperkenalkan beberapa dasar pembangunan ekonomi seperti dasar ekonomi baru deb dan dasar pembangunan nasional dpn untuk kemakmuran ekonomi rakyat dan negara memberikan tumpuan kepada pembangunan masyarakat luar bandar dan wilayah pembangunan dilakukan melalui rancangan pembangunan tanah yang mampu menambah pendapatan rakyat dan membasmi kemiskinan memajukan bidang perindustrian dan perdagangan dengan memperkenalkan zon perindustrian bebas seperti di bayan lepas pasir gudang dan pelabuhan klang penghijrahan penduduk luar bandar ke bandar berlaku disebabkan peluang pekerjaan yang terbuka luas kepada semua kaum hal ini mempercepat proses integrasi mengintegrasi ekonomi melalui pembangunan ekonomi wilayah termasuk di sarawak dan sabah pembangunan ekonomi wilayah membuka peluang kepada semua kaum bersaing dalam ekonomi secara adil sosial menambah baik dasar pendidikan kebangsaan yang sedia ada melalui akta pendidikan 1996 bertujuan mengukuhkan perpaduan kaum dan integrasi nasional mengukuhkan sistem pendidikan melalui pelaksanaan dasar pendidikan seperti laporan rahman talib laporan jawatankuasa kabinet dan falsafah pendidikan kebangsaan sistem pendidikan kebangsaan dapat melahirkan rakyat yang patriotik dan mempunyai semangat cinta akan negara memperkasakan bahasa melayu sebagai bahasa kebangsaan melalui pengenalan akta bahasa 7 bab kebangsaan penubuhan universiti kebangsaan malaysia ukm sebagai pusat ilmu dan bab peranan dewan bahasa dan pustaka dbp bagi menyebar luas penggunaan bahasa kebangsaan 7 langkah ini dapat melahirkan masyarakat yang mempunyai satu identiti bahasa yang sama menggalakkan pengamalan satu kebudayaan kebangsaan yang dapat membentuk identiti bangsa malaysia yang bersatu padu menggalakkan pelibatan dalam sukan sebagai medium untuk mewujudkan semangat kekitaan dan perpaduan dalam kalangan rakyat pelbagai kaum memperkenalkan rukun negara sebagai tunjang kesetiaan rakyat berbilang kaum terhadap bangsa dan negara pelbagai usaha yang dilakukan secara berterusan dapat memantapkan hubungan rakyat berbilang kaum di negara ini membuat kronologi sebagai rakyat malaysia kita perlu menghargai kepentingan susun secara kronologi setiap menjaga perpaduan serta keharmonian kaum demi kestabilan langkah yang dilaksanakan dari politik pembangunan negara dan kesejahteraan sosial aspek politik ekonomi dan sosial untuk memupuk perpaduan kaum 114433</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Dasar Luar Malaysia </t>
+          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Islam OIC </t>
+          <t xml:space="preserve"> Dasar Pendidikan Kebangsaan </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9 malaysia dalam pertubuhan kerjasama 8 islam oic malaysia menyertai oic yang dianggotai oleh 57 buah negara pertubuhan ini ditubuhkan pada 25 september 1969 bersempena dengan persidangan dunia islam pertama di rabat maghribi ketika memuncaknya serangan ganas terhadap masjid alaqsa oleh puak zionis tindakan puak zionis itu mendorong para pemimpin islam menubuhkan sebuah pertubuhan antarabangsa untuk memperjuangkan kepentingan umat islam dalam segenap bidang di seluruh dunia malaysia merupakan anggota yang aktif menyuarakan pelbagai pandangan yang berkaitan dengan kepentingan islam pelibatan malaysia pelibatan awal malaysia dalam isu masyarakat islam antarabangsa sebenarnya bermula sejak era tunku abdul rahman putra alhaj beliau menyuarakan agar diwujudkan sebuah pertubuhan logo oic islam untuk menjaga kepentingan masyarakat sumber islam di seluruh dunia hasrat ini semakin kuat selepas dicapai pada 12 jun 2020 berlangsungnya persidangan pertama kongres islam sedunia rantau asia tenggara pada tahun 1964 di kuala lumpur pada bulan april 1969 kuala lumpur menjadi tuan rumah kepada persidangan islam antarabangsa agenda yang diputuskan di kuala lumpur ini dibawa ke rabat maghribi sehingga tertubuhnya oic perbincangan tentang pelibatan malaysia dalam oic dapat dilihat melalui pelantikan tunku abdul rahman putra alhaj sebagai setiausaha agung pertama malaysia pernah menjadi pengerusi oic dan membangkitkan pelbagai isu berkaitan dengan masyarakat islam 9 bab bab setiausaha agung pertama 9 pelibatan malaysia dalam oic dapat dilihat melalui pelantikan tunku abdul rahman putra alhaj sebagai setiausaha agung yang pertama dan memegang jawatan tersebut antara tahun 1970 hingga tahun 1974 tugas utama tunku abdul rahman putra alhaj ini adalah untuk mengukuhkan oic dan memastikan masyarakat islam di seluruh dunia mendapat pembelaan yang sewajarnya 214pengerusi oic malaysia turut memainkan peranan penting dalam oic apabila tun abdullah ahmad badawi perdana menteri malaysia kelima dilantik sebagai pengerusi pertubuhan ini pada tahun 2003 sebagai pengerusi malaysia berhadapan dengan tohmahan yang sedang melanda masyarakat islam kerana sering dikaitkan dengan 3k iaitu keganasan kemiskinan dan kemunduran malaysia mengetengahkan nilai kesederhanaan dan menolak keganasan 9 bab lawatan delegasi arab saudi pada 9 jun 1970 di kuala bab lumpur tunku abdul rahman putra alhaj duduk tujuh meneroka bukti dari kiri bersamasama raja almalek faisal duduk lima 9 dari kiri buktikan kewibawaan pemimpin negara kita sumber arkib negara malaysia dalam pertubuhan antarabangsa bincangkan faedah ekonomi sosial dan politik yang diperoleh malaysia dengan menyertai oic negara anggota oic 215pembangunan pendidikan malaysia bersamasama oic memberikan penekanan kepada pembangunan sosial terutamanya dalam bidang pendidikan melalui pembiayaan pelajaran dan kebajikan usaha ini ditunjukkan melalui pembinaan universiti islam antarabangsa malaysia uiam serta memberikan biasiswa kepada pelajar dari negara oic untuk belajar di universiti ini universiti islam antarabangsa malaysia uiam sumber dicapai pada 30 september 2020 menangani isu politik negara islam pelibatan malaysia dalam oic jelas kelihatan sewaktu menyuarakan pandangan tentang isu politik yang melanda negara islam seperti palestin afghanistan dan perang iraniraq malaysia menjadi perantara bagi menyelesaikan konflik iraniraq melalui oic berikutan pengumuman gencatan senjata antara iraniraq pada bulan ogos 1988 sepasukan 15 orang 9 bab bab pegawai tentera malaysia menyertai pasukan tentera pemerhati pbb malaysia memberikan sokongan kuat kepada perjuangan rakyat palestin dan palestine 9 liberation organization plo pertubuhan pembebasan palestin malaysia menjadi tuan rumah bagi persidangan keserantauan asia berkaitan dengan palestin di kuala lumpur pada bulan mei 1983 negara kita menyokong hak rakyat palestin bagi menentukan nasib sendiri termasuk hak mereka untuk mempunyai sebuah negara yang merdeka malaysia juga menyokong perjuangan mujahidin afghanistan terhadap rejim kabul rejim kabul ini dibantu oleh kesatuan rusia sejak tahun 1979 malaysia membenarkan mujahidin afghanistan membuka pejabat perwakilan di kuala lumpur pada tahun 1984 216pembangunan ekonomi malaysia turut aktif membangunkan ekonomi negara anggota oic negara kita menyokong aktiviti islamic development bank isdb bank pembangunan islam yang ditubuhkan pada tahun 1973 malaysia menyertai isdb pada tahun 1974 dan memperoleh faedah berupa pinjaman daripada bank ini untuk membiayai projek pembangunan negara penubuhan isdb turut membawa perkembangan penting dalam sistem perbankan islam melalui penubuhan bank islam di serata dunia seperti dubai islamic bank pada tahun 1975 islamic bank of bahrain pada tahun 1979 dan bank islam malaysia berhad pada tahun 1983 logo bank pembangunan islam sumber dicapai pada 22 september 2020 hasrat mewujudkan sebuah pertubuhan untuk negara islam yang dicadangkan sejak tahun 1960an membolehkan informasi malaysia dipandang tinggi dalam kalangan negara islam oic terdiri daripada gabungan 57 jawatan pertama setiausaha agung oic yang disandang buah negara islam di seluruh dunia oleh pemimpin malaysia memperlihatkan kewibawaan kebanyakannya dari negara timur malaysia kerjasama negara anggota oic adalah untuk tengah dan utara afrika memastikan masyarakat islam di seluruh dunia memperoleh terdapat juga ahlinya dari negara manfaat dalam bidang ekonomi sosial dan politik asia tenggara eropah dan juga amerika dasar luar malaysia terus diperkukuh selepas kemerdekaan wisma putra memainkan peranan penting dalam 9 bab mencipta sajak atau lirik mencorakkan dan menggubal dasar luar yang mampu bab memberikan faedah kepada negara serta mengekalkan 1 bentukkan kumpulan pelajar 9 kedaulatan negara pelibatan malaysia dalam pelbagai 2 cipta sajak atau lirik lagu berkaitan pertubuhan pada peringkat serantau dan antarabangsa dengan sumbangan malaysia menjadi platform kepada negara kita menyuarakan dalam pertubuhan seperti pbb pandangan dalam pelbagai aspek pandangan ini meliputi komanwel asean nam dan oic aspek ekonomi sosial dan politik terutamanya isu yang 3 persembahkan hasil nukilan mempunyai kaitan serta kepentingan kepada malaysia kumpulan masingmasing 217imbas kembali dasar luar malaysia 1 2 latar belakang dasar luar asas penggubalan dasar luar hubungan luar sebelum melaka matlamat penggubalan dasar luar hubungan luar kesultanan melayu melaka faktor penggubalan dasar luar zaman british selepas kemerdekaan 3 4 malaysia dalam pertubuhan bangsabangsa malaysia dalam komanwel bersatu pbb penyertaan dan sumbangan pelibatan malaysia 5 6 cabaran mengukuhkan dasar luar malaysia dalam persatuan negaranegara asia tenggara asean cabaran politik antarabangsa cabaran politik serantau pelibatan malaysia cabaran keselamatan dan pertahanan cabaran pembangunan ekonomi 7 8 9 bab bab malaysia dalam pergerakan negaranegara tanpa malaysia dalam pertubuhan kerjasama islam pihak nam oic 9 peranan malaysia pelibatan malaysia 218pembelajaran abad ke21 aktiviti 1 fail edar travelling file arahan1 setiap kumpulan dibekalkan satu fail yang di dalamnya terdapat satu soalan atau kes untuk dibincangkan 2 selepas 1015 minit soalan dan jawapan dicatatkan dan dimasukkan ke dalam fail dan diedarkan kepada kumpulan lain 3 setiap kumpulan yang mendapat fail baharu daripada kumpulan lain dikehendaki membaca dan mengkaji jawapan daripada fail berkenaan sebelum ditambah dihuraikan dan disunting 4 setelah setiap kumpulan memberikan maklum balas kepada dua atau tiga fail edar soalan dan jawapan tersebut dibincangkan di dalam kelas secara keseluruhan kumpulan 1 kumpulan 2 9 bab bab kumpulan 3 kumpulan 4 9 berdasarkan logo yang diberikan di dalam fail a jelaskan latar belakang pertubuhan ini dengan menggunakan pelbagai sumber b bincangkan sumbangan malaysia dalam pertubuhan tersebut setiap kumpulan akan membentangkan maklumat yang diperoleh di hadapan kelas 219pembelajaran abad ke21 aktiviti 2 carousel arahan 1 murid dibahagikan kepada kumpulan kecil 2 murid bergerak secara kumpulan kecil dan mencatatkan maklumat berkaitan dengan misi pengaman ke pertubuhan bangsabangsa bersatu pbb 3 setiap kumpulan akan berbincang tentang maklumat tersebut pada setiap stesen mereka boleh menambah dan membaiki idea kumpulan lain pasukan pengaman pbb malaysia sumber portal rasmi tentera udara diraja malaysia sumbangan dalam misi pengaman yang berikut penting bagi menjamin keamanan dan keselamatan dunia stesen 1 misi pengaman di congo stesen 2 misi pengaman di bosnia stesen 3 misi pengaman di somalia 1 perbincangan tentang misi pengaman pada setiap stesen a cari maklumat tentang misi pengaman yang diberikan dari aspek tarikh penyertaan bilangan 9 bab anggota keselamatan yang terlibat dan pemimpinketua pasukan bab b tugas yang dilakukan 9 c cabaran yang dihadapi d kejayaan yang dicapai 2 pembentangan di hadapan kelas kumpulan atau wakil kumpulan membentangkan hasil perbincangan dan membuat rumusan tentang misi pengaman yang dibincangkan di hadapan kelas 220pemahaman dan pemikiran kritis 1 selepas kemerdekaan tunku abdul rahman putra alhaj menjalankan dasar a berkecuali b antikapitalis c berkepentingan ekonomi d probarat dan antikomunis 2 apakah usaha untuk menangani masalah kemiskinan dalam kalangan anggota komanwel a pelan komanwel b rancangan colombo c perjanjian buku merah d sidang kemuncak malaysia 3 siapakah setiausaha agung pertama pertubuhan kerjasama islam oic a dr ismail abdul rahman b tun abdul razak hussein c tun dr mahathir mohamad d tunku abdul rahman putra alhaj 4 jelaskan faktor yang mempengaruhi pembentukan dasar luar malaysia 5 bincangkan kejayaan malaysia dalam misi pengaman melalui pertubuhan bangsabangsa bersatu pbb 6 mengapakah malaysia perlu mengukuhkan dasar luar yang diamalkan sejak dahulu hingga kini 7 jawab soalan berdasarkan gambar yang berikut 9 bab bab 9 a apakah sumbangan tun abdul razak hussein terhadap perkembangan dasar luar malaysia b pada pandangan anda mengapakah tun abdul razak hussein berhasrat untuk menjalinkan hubungan persahabatan dengan semua negara tanpa mengira ideologi politik 221pemahaman dan pemikiran kritis 8 deklarasi zopfan diumumkan pada tahun 1971 di kuala lumpur menjadi subjek penting yang dikemukakan oleh malaysia dalam asean i apakah yang anda faham tentang konsep zopfan ii jelaskan kepentingan zopfan kepada negara anggota asean 9 soalan yang berikut berdasarkan logo di bawah a dapatkan maklumat tentang sejarah penubuhan petronas b pada pendapat anda apakah peranan petronas dalam pembangunan negara 10 cadangkan langkah yang perlu dilakukan oleh rakyat untuk menyumbang dalam pembangunan ekonomi negara 11 soalan yang berikut berdasarkan gambar di bawah datuk tan sri maimunah dr jemilah mohd sharif mahmood 9 bab bab a dengan menggunakan pelbagai sumber cari maklumat latar belakang tokoh di atas b apakah sumbangan tokoh di atas terhadap negara 9 c pada pendapat anda adakah kaum wanita perlu memainkan peranan dalam memastikan negara mencapai kemajuan bincangkan 222cakna dan cerminan sejarah nilai patriotisme dan iktibar hubungan baik yang terjalin antara malaysia dengan negara lain penting bagi mengukuhkan kedudukan negara dalam pelbagai aspek iaitu ekonomi sosial dan politik pelibatan malaysia dalam beberapa organisasi dunia seperti pbb dan oic mencerminkan sikap keprihatinan dan tanggungjawab negara dalam menangani dan menyelesaikan masalah yang berlaku sama ada di dalam negara atau di luar negara diri dan keluarga sikap ambil tahu dan bertanggungjawab amatlah penting dalam diri seseorang untuk kebaikan keluarganya dan masyarakat bagi memastikan keharmonian dan kesejahteraan dapat dikekalkan negarahubungan baik antara malaysia dengan negara serantau mampu membangunkan negara sikap prihatin negara kita terhadap isu yang berlaku pada peringkat serantau dan antarabangsa membuka mata negara lain untuk turut menghulurkan bantuan kepada negara yang memerlukan 9 bab bab 9 bangunan pbb di new york amerika syarikat 223bab 10 kecemerlangan malaysia di persada dunia sinopsis malaysia memainkan peranan penting pada peringkat antarabangsa dalam pelbagai bidang pelibatan malaysia dalam usaha membangkitkan isu global menyebabkan negara kita disegani oleh negara lain pelibatan malaysia dalam hubungan ekonomi antarabangsa isu kemanusiaan dan keamanan serta kelestarian global berjaya meletakkan malaysia sama taraf dengan negara besar bagi memastikan keamanan dunia berkekalan pelibatan rakyat malaysia dalam isu kemanusiaan dan keamanan serta sikap kesukarelawanan yang tinggi turut menaikkan nama malaysia di persada dunia usaha malaysia ini pastinya berdasarkan pegangan bahawa dunia ini milik semua yang perlu dijaga sebagai satu warisan perkara tersebut turut menjadi wawasan untuk malaysia menuju kejayaan pada masa hadapan 222222444inti pati pembelajaran 1 malaysia dalam isu global kontemporari 2 peranan malaysia dalam hubungan ekonomi antarabangsa 3 pelibatan rakyat dalam isu kemanusiaan dan keamanan 4 usaha mengekalkan kelestarian global 5 wawasan malaysia menuju masa hadapan elemen kewarganegaraan dan nilai sivik 1 kepentingan kebijaksanaan dalam mengurus isu global 2 kepentingan sikap prihatin dan peka terhadap isu serantau 3 kepentingan semangat kesukarelawanan dalam isu global 4 sikap kerjasama dalam mengekalkan keamanan dunia kemahiran pemikiran sejarah 1 memahami kronologi isu pertindihan sempadan 2 meneroka bukti usaha malaysia menangani isu kemelesetan ekonomi 3 membuat interpretasi pengisytiharan antartika sebagai warisan manusia sejagat 4 membuat imaginasi kesungguhan malaysia dalam menghadapi isu global 5 membuat rasionalisasi kepentingan pengisytiharan deklarasi langkawi ekspedisi antartika oleh rakyat malaysia sumber dicapai pada 17 ogos 2020 222255</t>
+          <t>72 dasar pendidikan kebangsaan pendidikan merupakan saluran terbaik bagi merealisasikan matlamat membina perpaduan kaum dan integrasi nasional matlamat ini terkandung dalam laporan rahman talib kajian aminuddin baki laporan jawatankuasa kabinet falsafah pendidikan kebangsaan dan akta pendidikan 1996 latar belakang dasar pendidikan kebangsaan dasar pendidikan kebangsaan dibentuk untuk memupuk perpaduan kaum dasar ini dilaksanakan melalui penyata jawatankuasa pelajaran 1956 atau dikenali sebagai penyata razak 1956 dan dimaktubkan dalam ordinan pelajaran 1957 semua dasar pendidikan yang terdapat sebelum ini disemak semula pada tahun 1960 yang menghasilkan laporan rahman talib dan laporan jawatankuasa kabinet 1979 buku dasar pendidikan kebangsaan sumber kementerian pendidikan malaysia tuantuan dan puanpuan matlamat dasar pendidikan kebangsaan bertujuan 7 menyatupadukan rakyat dan menyediakan tenaga bab bab kerja mahir yang terdiri daripada pelbagai kaum 7 matlamat dasar ini adalah untuk mengadakan sistem pendidikan yang dapat memenuhi keperluan negara dan menggalakkan perkembangan kebudayaan ekonomi sosial dan politik dasar ini juga bermatlamat melahirkan rakyat yang berilmu seimbang dan harmoni serta menyumbang kepada keharmonian dan kemakmuran negara ilustrasi penerangan tentang matlamat dasar pendidikan kebangsaan 144laporan rahman talib jawatankuasa ini dipengerusikan oleh abdul rahman talib pada tahun 1960 untuk menyemak semula dan mengukuhkan penyata jawatankuasa pelajaran 1956 laporan jawatankuasa ini menjadi asas penggubalan akta pelajaran 1961 dan penyemakan dasar pendidikan abdul rahman kebangsaan seterusnya talib laporan rahman talib masih mengekalkan teras sumber arkib sistem pendidikan kebangsaan untuk memupuk perpaduan negara malaysia dan integrasi menjadikan bahasa melayu sebagai bahasa pengantar pada semua peringkat pendidikan penggunaan bahasa yang seragam dapat mewujudkan perpaduan mengadakan kurikulum yang sama dan berorientasikan negara kita bagi semua jenis sekolah kurikulum yang berorientasikan negara mewujudkan perasaan cinta akan negara laporan rahman talib mencadangkan beberapa cadangan tambahan kepada penyata jawatankuasa pelajaran 1956 cadangan tambahan ini bertujuan memperkukuh semangat kekitaan dan kebersamaan dalam mesyuarat jawatankuasa perancangan kalangan murid pelbagai kaum ke arah perpaduan pendidikan yang dipengerusikan oleh abdul rahman talib duduk dua dari kiri penekanan kepada mata pelajaran sejarah sumber arkib negara malaysia untuk menanam perasaan cinta dan kesetiaan terhadap negara 7 mewajibkan mata pelajaran tatarakyat untuk membuat interpretasi bab bab membentuk sikap bertoleransi bekerjasama dan persefahaman antara kaum bagaimanakah sistem kurikulum yang sama 7 dapat memupuk semangat perpaduan kajian aminuddin baki informasi laporan rahman talib kemudian dibuat penambahbaikan dan dilaksanakan sepenuhnya melalui kajian aminuddin aminuddin baki baki iaitu aminuddin baki merupakan memperkenalkan sistem persekolahan aneka jurusan ketua penasihat pendidikan untuk menampung pelajar yang gagal memasuki malaysia kini dikenali sekolah menengah akademik sebagai ketua pengarah memperkenalkan kursus kemahiran untuk melahirkan pendidikan yang paling tenaga kerja mahir yang melibatkan pelbagai kaum muda iaitu ketika berusia serta persediaan memenuhi permintaan pasaran kerja 36 tahun beliau memainkan mewujudkan sekolah kebangsaan yang menggabungkan peranan menyusun dasar pelajaran kebangsaan melalui penyata jawatankuasa semua kaum untuk memupuk perpaduan pelajaran 1956 pada tahun 1956 dan laporan rahman talib pada tahun 1960 145laporan jawatankuasa kabinet 1 2 jawatankuasa kabinet ditubuhkan pada bulan antara kandungan laporan jawatankuasa september 1974 fungsi jawatankuasa ini adalah kabinet yang mempunyai matlamat bagi untuk mengkaji semula pelaksanaan sistem memperkukuh perpaduan termasuklah seperti pelajaran kebangsaan laporan jawatankuasa yang berikut kabinet diumumkan oleh menteri pelajaran 1 bahasa melayu sebagai bahasa perpaduan pada tahun 1979 dijadikan sebagai mata pelajaran wajib dalam peperiksaan awam 2 penegasan kepada pendidikan kerohanian informasi melalui mata pelajaran pendidikan islam dan kurikulum baru sekolah rendah kbsr pendidikan moral 3 penekanan terhadap aktiviti kokurikulum matlamat utama pembentukan kbsr yang perlu dicapai antaranya murid dapat yang melibatkan semua kaum seperti menguasai dan menghargai bahasa melayu unit beruniform sukan dan permainan sebagai bahasa kebangsaan dan sebagai serta persatuan alat perpaduan menguasai tiga bidang asas iaitu bidang komunikasi bidang kemanusiaan dan alam sekitar serta bidang perkembangan diri individu 3 memastikan matlamat pendidikan relevan dengan keperluan semasa bagi menghadapi hasil daripada laporan jawatankuasa ini cabaran abad ke21 kemudiannya kurikulum menghasilkan kurikulum baru sekolah rendah standard sekolah rendah kssr diperkenalkan kbsr yang diperkenalkan pada tahun 1982 kssr dilaksanakan sepenuhnya kepada kurikulum baru sekolah menengah kbsm murid tahun 1 di semua sekolah bermula pada dan falsafah pendidikan negara pula digubal tahun 2011 7 pada tahun 1988 bab bab kurikulum baru sekolah menengah kbsm kurikulum baru sekolah menengah kbsm mula 7 dilaksanakan di sekolah mulai tahun 1989 kbsm digubal berdasarkan matlamat falsafah pendidikan kebangsaan untuk melahirkan generasi yang berilmu falsafah pendidikan generasi yang berkemahiran kebangsaan generasi yang bersatu padu kbsm digantikan dengan kurikulum standard sekolah menengah kssm bermula dengan murid falsafah pendidikan negara fpn digubal pada tingkatan 1 mulai tahun 2017 pembaharuan tahun 1988 untuk memperteguh hala tuju dan kurikulum yang dilaksanakan ini selaras dengan matlamat pendidikan negara ke arah perpaduan pelan pembangunan pendidikan malaysia fpn ditukar kepada falsafah pendidikan 20132025 dengan memberikan fokus kepada kebangsaan pada tahun 1996 falsafah ini penguasaan kemahiran abad ke21 menekankan pendidikan yang menyeluruh dan bersepadu bagi membentuk pelajar yang seimbang dari segi jasmani emosi rohani dan juga intelek apakah matlamat kbsr diperkenalkan 114466akta pendidikan 1996 fail edar travelling file kedudukan bahasa kebangsaan diperkukuh dengan memperuntukkannya sebagai bahasa pengantar arahan utama dalam sistem pendidikan kebangsaan melalui 1 murid dikehendaki berada dalam akta pendidikan 1996 kedudukan ini diperkuat lagi kumpulan setiap kumpulan diberi satu fail yang mengandungi soalan untuk dengan menjadikan bahasa tersebut sebagai mata dibincangkan dan dicatatkan pelajaran yang wajib diajarkan di semua sekolah 2 setelah 15 minit soalan dan jawapan dan institusi pendidikan institusi pendidikan swasta dimasukkan semula ke dalam fail lalu pula dikehendaki mengadakan pengajaran bahasa diedarkan kepada kumpulan lain kebangsaan pengajian malaysia dan pendidikan 3 setiap kumpulan digalakkan menambah islam atau moral untuk memupuk semangat cinta membaiki atau menyatakan pendapat pada akan negara serta nilai murni jawapan dalam fail tersebut 4 setelah setiap kumpulan memberikan maklum balas pada jawapan guru akan mengendalikan perbincangan kelas dan membuat rumusan soalan falsafah pendidikan kebangsaan pendidikan di malaysia adalah suatu usaha berterusan ke arah lebih memperkembangkan potensi individu secara menyeluruh dan bersepadu untuk melahirkan insan yang seimbang dan harmonis dari segi intelek rohani emosi dan jasmani berdasarkan kepercayaan dan kepatuhan kepada tuhan usaha ini adalah bertujuan 7 bab melahirkan warganegara malaysia yang bab berilmu pengetahuan berketerampilan akta pendidikan 1996 akta 550 berakhlak mulia bertanggungjawab dan 7 berkeupayaan mencapai kesejahteraan diri sumber lembaga penyelidikan undangundang 2019 akta serta memberikan sumbangan terhadap pendidikan 1996 akta 550 peraturanperaturan dan keharmonian dan kemakmuran keluarga kaedahkaedah terpilih petaling jaya international law masyarakat dan negara book services pelaksanaan sistem pendidikan di negara kita berdasarkan dasar pendidikan kebangsaan sumber wwwmoegovmyindex dicapai pada laporan rahman talib laporan jawatankuasa 12 julai 2020 kabinet falsafah pendidikan kebangsaan dan akta pendidikan 1996 dasar ini digubal untuk a apakah yang dimaksudkan dengan mencapai matlamat masyarakat yang bersatu potensi individu padu pelaksanaan ini juga bertujuan meneruskan b mengapakah potensi individu perlu dan memperkukuh dasar pendidikan kebangsaan dikembangkan secara menyeluruh dan bersepadu sebagai rakyat malaysia kita perlu menghargai c bagaimanakah insan yang berakhlak menyokong serta memberikan komitmen terhadap mulia dan berilmu pengetahuan dapat kepentingan pendidikan bagi mengukuhkan menyumbang ke arah keharmonian perpaduan kaum dan integrasi nasional dan perpaduan 114477</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
+          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Malaysia dalam Isu Global Kontemporari </t>
+          <t xml:space="preserve">Bahasa Perpaduan </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>101 malaysia dalam isu global kontemporari malaysia tidak terkecuali daripada menghadapi pelbagai perkembangan yang berlaku pada peringkat antarabangsa sebagai sebuah negara yang mengamalkan sikap terbuka isu pada peringkat global sama ada isu ekonomi sosial mahupun politik turut mempengaruhi perkembangan negara kita sikap dan pandangan malaysia tentang isu tersebut turut disuarakan dalam pelbagai pertubuhan antarabangsa dalam keadaan ini kemampuan malaysia menangani pelbagai isu dengan baik tanpa sebarang konflik menunjukkan kebijaksanaan pemimpin negara isu global ini termasuklah isu ekonomi dan persempadanan kemampuan malaysia menangani isu ini dengan berkesan membolehkan kedudukan malaysia dihormati oleh negara lain antara isu global yang dihadapi oleh malaysia termasuklah penyalahgunaan dadah pertindihan sempadan kempen antiminyak sawit pemerdagangan orang dan penyakit berjangkit penyalahgunaan dadah penyalahgunaan dadah merupakan isu global yang dihadapi oleh malaysia dalam hal ini malaysia antara negara yang mengisytiharkan perang terhadap penyalahgunaan dadah dan menjatuhkan hukuman berat kepada pesalah dadah kesungguhan malaysia memerangi bahaya penyalahgunaan dadah disuarakan dalam forum antarabangsa seperti international drug enforcement conferenceidec persidangan penguatkuasaan dadah antarabangsa yang ditubuhkan pada tahun 1983 oleh amerika syarikat malaysia turut mendapatkan kerjasama daripada international criminal police organization interpol polis antarabangsa dalam usaha memerangi dadah serta bekerjasama dengan negara lain bagi menggubal strategi operasi menangani masalah ini kelantangan malaysia memerangi dadah turut disuarakan dalam forum pbb apabila tun dr mahathir mohamad perdana menteri malaysia keempat terpilih sebagai ketua jawatankuasa antidadah antarabangsa pada tahun 1988 01 bab bab 10 delegasi negara anggota asean dalam mesyuarat kali ke40 pegawaipegawai kanan asean mengenai perkara dadah di siem reap kemboja 2019 sumber portal rasmi agensi antidadah kebangsaan kementerian dalam negeri 226pertindihan sempadan malaysia turut terlibat dalam isu tuntutan sempadan dan hak milik bertindih dengan negara lain tuntutan terhadap pulau batu putih melibatkan malaysia dengan singapura manakala pulau sipadan dan ligitan antara malaysia dengan indonesia keduadua tuntutan ini berjaya diselesaikan melalui keputusan yang dibuat oleh mahkamah antarabangsa pada tahun 2002 mahkamah antarabangsa memutuskan pulau sipadan dan ligitan menjadi hak milik malaysia pada tahun 2008 mahkamah antarabangsa memutuskan hak milik pulau batu putih kepada singapura isu tuntutan kepulauan spratly pula melibatkan china vietnam brunei dan filipina isu ini masih belum selesai sehingga hari ini kedudukan kepulauan spratly yang terletak di tengahtengah rantau asia tenggara bukan sahaja penting dari sudut geostrategik tetapi juga dari aspek perdagangan perkara ini menjadi asas perebutan kepulauan spratly bagi malaysia tuntutan terhadap kepulauan spratly bermula pada tahun 1979 apabila memasukkan sebahagian daripada kepulauan spratly ke dalam wilayah malaysia kepulauan ini merangkumi pulau kecil amboyna terumbu ubi terumbu semarang barat dan layanglayang seperti yang termaktub dalam akta zon ekonomi eksklusif 1984 antara usaha yang dilakukan bagi menyelesaikan isu ini termasuklah membangkitkan isu spratly dalam forum aseanchina pada tahun 1995 china myanmar kepulauan laos spratly pulau sipadan yang menjadi hak milik malaysia thailand vietnam u kemboja informasi isu pertindihan laut kepulauan kepulauan spratly sempadan china spratly filipina selatan terletak di laut china selatan seluas 500 batu persegi brunei darussalam kirakira 100 batu nautika dari pantai borneo m a l a y s ia 01 sebuah kepulauan batu karang yang bab mempunyai lebih 100 buah pulau kecil bab berbentuk batuan dan batu karang dengan 10 kedudukan kepulauan spratly di laut china selatan sembilan daripadanya bersaiz besar sumber dewan bahasa dan pustaka turut dikenali sebagai terra nullius tidak mempunyai pemilik 227kempen antiminyak sawit gerakan antiminyak kelapa sawit yang dilancarkan oleh negara maju secara tidak langsung menggugat ekonomi negara sedang membangun isu ini terpaksa dihadapi oleh negara pengeluar minyak sawit termasuk malaysia dan indonesia minyak sawit menjadi pesaing utama kepada minyak kacang soya hingga menyebabkan kempen antiminyak sawit dijalankan oleh pengeluar minyak kacang soya iaitu american soybean association asa gerakan antiminyak sawit dilaksanakan oleh pengeluar minyak kacang soya iaitu asa dan pihak ngo pencinta alam di eropah bagi asa minyak sawit menjejaskan penjualan minyak kacang soya bagi ngo pencinta alam pula penanaman kelapa sawit dikatakan menjadi punca pencemaran alam sekitar kemusnahan hutan dan habitat haiwan liar keadaan ini menyebabkan berlaku bantahan dan sekatan terhadap minyak sawit malaysia menangani isu ini melalui pertubuhan roundtable on sustainable palm oil rspo kempen secara berterusan serta mendapatkan skim pensijilan malaysian sustainable palm oil mspo sejak tahun 2019 langkah ini bertujuan menghasilkan pengeluaran minyak sawit secara mampan dan pelaksanaan amalan baik seperti good agricultural practicesgap amalan pertanian baik tindakan malaysia secara berhemah dalam menangani isu kempen antiminyak sawit ini untuk mengelakkan sebarang konflik dengan negara lain pekerja sedang mengangkut buah kelapa sawit giliran robin rally robin murid secara bergilirgilir memberikan maklum balas tentang soalan yang berikut secara lisan 1 nyatakan dua pihak yang melancarkan gerakan 01 antiminyak sawit di negara barat bab 2 apakah rasional mereka melancarkan gerakan ini bab 3 pada pendapat anda apakah yang akan berlaku 10 sekiranya gerakan antiminyak sawit ini berterusan 4 apakah tindakan anda bagi memastikan minyak sawit terus berjaya dalam pasaran antarabangsa 222288pemerdagangan orang pemerdagangan orang merupakan jenayah terancang aktiviti ini dijalankan tanpa mengenal bangsa agama keturunan dan warna kulit pemerdagangan orang juga merupakan ancaman terhadap hak asasi manusia dan keselamatan negara malaysia tidak terkecuali daripada berhadapan dengan isu ini perkembangan ekonomi dan kemakmuran malaysia menarik kehadiran warga asing terdapat warga asing yang masuk ke malaysia melalui sindiket pemerdagangan orang kedudukan malaysia yang strategik di asia tenggara turut menjadikannya sebagai lokasi transit bagi pemerdagangan orang ke negara lain malaysia menguatkuasakan undangundang dan memberikan bantuan kepada mangsa pemerdagangan orang undangundang dikuatkuasakan menerusi konvensyen pbb mengenai hak kanakkanak 1989 dan protokol pbb untuk mencegah menyekat serta menghukum pesalah pemerdagangan orang malaysia menubuhkan council for antitrafficking in persons and antismuggling of migrantsmapo majlis antipemerdagangan orang dan antipenyeludupan migran pada tahun 2008 dan menguatkuasakan antitrafficking in persons and antismuggling of migrants act 2007atipsom 2007 akta antipemerdagangan orang dan antipenyeludupan migran 2007 malaysia juga mewujudkan pelan tindakan kebangsaan antipemerdagangan orang 20102015 menjalankan rundingan dengan negara luar penguatkuasaan pendakwaan dan perlindungan penyakit berjangkit penyakit berjangkit merupakan fenomena yang wujud dalam masyarakat di seluruh dunia seperti acquired immune deficiency syndrome aids sindrom kurang daya tahan melawan penyakit penyakit ini dikesan di malaysia pada tahun 1986 sehingga tahun 2014 sejumlah lebih 100 000 kes dilaporkan dengan lebih 16 000 kematian penyakit ini merebak disebabkan gaya hidup yang tidak sihat serta penyalahgunaan dadah kerajaan malaysia melalui kementerian kesihatan bertindak proaktif memastikan penyakit ini tidak merebak melalui pemeriksaan kesihatan secara berterusan dan memberikan rawatan kepada mangsa tindakan ini menyebabkan malaysia berjaya mengawal penularan wabak tersebut who memperakukan pencapaian malaysia sebagai antara negara di asia yang berjaya mengurangkan informasi masalah penularan wabak daripada ibu kepada anak pada tahun 2018 pemerdagangan orang didefinisikan sejak tahun 2011 malaysia mendukung hasrat pbb untuk sebagai perbuatan yang melibatkan menjadikan dunia bebas aids pada tahun 2030 melalui pemerolehan atau pengekalan tenaga kerja atau perkhidmatan seseorang melalui pelaksanaan national strategic plan for ending aids paksaan seperti merekrut mengangkut nspea pelan strategik kebangsaan mengakhiri aids memindahkan melindungi menyediakan malaysia turut menyambut hari aids sedunia yang atau menerima seseorang seksyen 2 diadakan pada 1 disember setiap tahun akta antipemerdagangan orang dan malaysia memainkan peranan penting dalam isu global antipenyeludupan migran 2007 terutama yang berkaitan dengan kepentingan negara 01 walaupun berhadapan dengan pelbagai kesukaran bab malaysia tidak pernah menjadikan kekerasan sebagai bab nyatakan penyakit berjangkit yang penyelesai masalah sebagai rakyat malaysia kita 10 menular pada masa ini seharusnya memberikan sokongan terhadap langkah apakah kesan kepada masyarakat dunia diplomasi dan berhemah yang diambil oleh pihak kerajaan jika kita gagal menangani wabak ini bagi menyelesaikan sebarang konflik antarabangsa 229</t>
+          <t>73 bahasa melayu sebagai bahasa ilmu dan bahasa perpaduan seiring dengan kemerdekaan negara bahasa melayu diiktiraf sebagai bahasa kebangsaan dan bahasa rasmi beberapa langkah dilaksanakan untuk memartabatkan bahasa kebangsaan antaranya termasuklah pengenalan akta bahasa kebangsaan memperkasakan bahasa melayu dalam sistem pendidikan penubuhan ukm sebagai pusat keilmuan dan peranan dbp sebagai pusat perkembangan bahasa kebangsaan akta bahasa kebangsaan bahasa melayu merupakan bahasa rasmi yang digunakan sebagai alat untuk memupuk perpaduan kaum kedudukan bahasa melayu dimartabatkan melalui penggubalan undangundang yang dikenali sebagai akta bahasa kebangsaan akta bahasa kebangsaan diperkenalkan pada tahun 1967 akta ini dikenali juga sebagai akta 32 akta bahasa kebangsaan telah digubal di bawah perkara 152 perlembagaan persekutuan malaysia akta ini mula dikuatkuasakan pada 1 julai 1971 bahasa rasmi pentadbiran bahasa melayu sebagai bahasa rasmi menjadi antara unsur penggerak jentera pentadbiran negara bahasa melayu juga merupakan alat komunikasi rasmi dalam pelbagai urusan di kementerian dan jabatan kerajaan bahasa melayu digunakan sepenuhnya dalam urusan mahkamah pada tahun 1990 seksyen 2 memperkasakan bahasa melayu dalam sistem pendidikan akta bahasa kebangsaan menetapkan bahawa pembukaan sekolah menengah kebangsaan yang menggunakan segala urusan rasmi bahasa melayu sebagai bahasa pengantar dipergiat di seluruh negara 7 kerajaan harus bab bab antaranya sekolah alam shah sekolah seri puteri dan kolej menggunakan bahasa sultan abdul halim menggunakan bahasa melayu sebagai bahasa melayu sebagai bahasa 7 pengantar penggunaan bahasa melayu sebagai bahasa pengantar pengantar dapat memupuk semangat kekitaan dan bersatu dalam kalangan seksyen murid bilangan guru terlatih bahasa melayu ditambah di sekolah 8 mkm e e eb n la a e n y n g u gs a as h ae n b k ae lg b aa an i n gbg ka s haa haa n s i an d i i a bl n m e rgu mu d ra u a t l n ka mh b a aa s ht u au s nn a ttu u p k k e s rm p e k ae mod l u ap a he n r m k ae s n a ek n a g n a b h a jhe an si as a b k m a t a h e a nb su e a a t h a m pa s kea a a ln a n k y b e ua ab mah a an e w g s s ta i a an bpb e a a n h h y a a a s s m a a p i r laa m is a m un ii m l m m e u r e u p r j ueu njku g k b e at b ah ah a hu s aaa s n a y s a ye n ahg n i ngm g a dg m ia g ppu ue n r a m i kn a eg n n k ja a dt d a t i li an p m g e gr a si n i t t u a a r s a i a n r a b s m a g i i op m l dee a mi h n d m b a s i g e e amr s li e a n a a o y a n n r s k a a ik a n e m g t e ak d sr h e aa kcl kn u a sg m ma i a l nia h iaitu dalam urusan pentadbiran sistem pendidikan urusan perdagangan dan kehakiman akta bahasa kebangsaan sumber lembaga penyelidikan undang undang 2019 akta pendidikan 1996 bagaimanakah penggunaan bahasa kebangsaan dapat memupuk akta 550 peraturanperaturan dan kaedahkaedah terpilih petaling jaya perpaduan rakyat international law book services 148universiti kebangsaan malaysia ukm sebagai pusat keilmuan bahasa melayu penubuhan ukm merupakan usaha untuk memartabatkan bahasa melayu sebagai bahasa ilmu ukm ditubuhkan pada 18 mei 1970 universiti ini muncul sebagai pusat pengajian tinggi awam pertama yang berjaya memperkenalkan pengajian pelbagai jurusan dan bidang kursus dalam bahasa melayu penubuhan institut bahasa kesusasteraan dan kebudayaan logo atma melayu ibkkm pada 1 disember 1972 menjadikan ukm sebagai sumber pusat penyelidikan dan rujukan dalam bahasa kesusasteraan dan dicapai pada 23 oktober 2020 kebudayaan tamadun melayu institut ini kemudian bertukar nama kepada institut alam dan tamadun melayu atma pada tahun 1992 institut ini menjadi tumpuan para penyelidik sasterawan karyawan dan budayawan daripada pelbagai kaum dari dalam dan luar negara pengiktirafan terhadap tokoh ukm seperti muhammad haji salleh dan siti zainon ismail sebagai sasterawan negara membuktikan kejayaan ukm sebagai pusat keilmuan bahasa melayu peranan dewan bahasa dan pustaka dbp penubuhan dbp pada 22 jun 1956 di bukit timbalan johor bahru johor hasil daripada resolusi kongres bahasa dan persuratan melayu ketiga penubuhannya bertujuan memartabatkan bahasa melayu sebagai bahasa rasmi dan bahasa ilmu nama asal dbp ialah balai pustaka pengarah pertama dbp ialah ungku abdul aziz bin ungku abdul hamid jawatan ini kini dikenali sebagai ketua pengarah pembukaan pejabat di wilayah dan cawangan di pulau pinang johor kelantan sarawak dan sabah bertujuan mengembangkan aktiviti bahasa dan sastera sebagai medium untuk memupuk perpaduan dbp memainkan peranan penting dalam mengembangkan bahasa dan 7 sastera melayu melalui penerbitan buku dan majalah bab bab risalah menganjurkan seminar dan bengkel serta pelbagai aktiviti bersempena dengan minggu dan 7 bulan bahasa kebangsaan peranan dbp ini adalah untuk memupuk perpaduan dalam kalangan masyarakat berbilang kaum di negara ini slogan bahasa jiwa bangsa dewan bahasa dan pustaka dilancarkan pada tahun 1960 agar dapat sumber dewan bahasa dan mengukuhkan pembinaan masyarakat pustaka yang bersatu padu melalui bahasa logo slogan bahasa jiwa bangsa pengenalan akta bahasa kebangsaan penggunaan bahasa kebangsaan sebagai bahasa rasmi dalam pentadbiran pelaksanaan sistem pendidikan berasaskan bahasa melayu serta peranan ukm dan dbp sebagai pusat ilmu memastikan kedudukan bahasa melayu sebagai bahasa perpaduan negara pemimpin dan rakyat wajar memainkan peranan bagi memartabatkan bahasa kebangsaan untuk kesejahteraan dan kemakmuran negara kita 149</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
+          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antarabangsa </t>
+          <t xml:space="preserve"> Dasar Kebudayaan Kebangsaan </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>102 peranan malaysia dalam hubungan ekonomi antarabangsa malaysia mengamalkan ekonomi pasaran bebas selari dengan perkembangan yang berlaku dalam ekonomi antarabangsa malaysia turut memainkan peranan besar dalam hubungan ekonomi antarabangsa peranan ini dapat dilihat melalui pelibatan dalam pelbagai perjanjian termasuklah asean free trade area afta kawasan perdagangan bebas asean malaysia juga lantang menyuarakan ketidakadilan dalam ekonomi dan bertindak tegas bagi memastikan kedudukan ekonomi negara tidak terjejas meluaskan pasaran ekonomi pertumbuhan ekonomi sesebuah negara sangat bergantung pada keupayaan negara tersebut menjual barangannya ke pasaran antarabangsa malaysia bersetuju untuk mempermudah dan meningkatkan perdagangan sesama anggota asean hal ini membawa kelahiran afta pada tahun 1992 perjanjian afta bertujuan menjadikan kawasan asean sebagai tempat produksi yang kompetitif bagi hasil keluaran negara asean satu bentuk kerjasama ekonomi dalam kalangan negara asean dapat dilaksanakan melalui afta terutama untuk mengurangkan tarif dan cukai barangan logo afta malaysia terlibat sepenuhnya dalam afta pelibatan sumber dicapai pada ini membawa kebaikan kepada perkembangan 14 jun 2020 ekonomi negara dominasi ekonomi negara maju informasi perkembangan ekonomi malaysia bukan sahaja bergantung tarif bayaran yang dikenakan pada pasaran domestik tetapi juga pasaran antarabangsa oleh kerajaan terhadap barang malaysia sering berhadapan dengan sikap negara maju dan perkhidmatan yang diimport yang mengenakan pelbagai sekatan dan halangan cukai bayaran yang dikenakan perdagangan dalam bentuk tarif dan cukai keadaan ini oleh kerajaan terhadap orang menjejaskan perdagangan negara perseorangan perbadanan syarikat barangbarang untuk malaysia bersuara agar diberikan layanan yang saksama perbelanjaan negara kepada semua negara pandangan ini dibangkitkan oleh malaysia dalam pelbagai forum antarabangsa termasuklah 01 membuat di pbb dan asiapacific economic cooperation apec bab rasionalisasi kerjasama ekonomi asia pasifik bab rasionalkan tindakan malaysia 10 menentang dominasi ekonomi negara maju 230kerjasama pembangunan ekonomi segi tiga malaysia memainkan peranan penting dalam pembangunan ekonomi yang melibatkan kerjasama pembangunan segi tiga iaitu pembangunan wilayah baharu yang dimajukan bersamasama negara anggota asean kerjasama ini bertujuan mendapatkan keuntungan bersama apabila negara jiran saling membantu bagi memajukan kawasan yang terlibat u malaysia johor singapura kepulauan riau indonesia riau lingkungan kawasan sijori gt sumber disesuaikan daripada dicapai pada 26 jun 2020 malaysia memperoleh manfaat yang besar melalui kerusi panas hot seat kerjasama ini kerana dapat murid dikehendaki mengumpulkan maklumat berkaitan dengan kerjasama mengurangkan monopoli pembangunan segi tiga yang berikut pasaran barangan dalam asean daripada negara maju selain itu negara kita kerjasama juga dapat mengurangkan indonesia malaysia thailand kebergantungan pada pasaran imtgt growth triangle kewangan antarabangsa dengan mewujudkan pelbagai singapura johor riau sijorigt badan yang berkaitan seperti growth triangle koperasi asean bank 01 brunei indonesia malaysia philippines bab asean serta cadangan untuk bimpeaga east asean growth area bab menggunakan wang asean 10 dan membendung campur setelah itu seorang murid duduk di kerusi yang disediakan dan menjadi tangan ekonomi negara maju pakar atau watak yang akan menjawab segala soalan yang dilontarkan oleh murid lain berkaitan dengan topik di atas 231menangani kemelesetan ekonomi pada tahun 19971998 kebanyakan negara asia termasuk malaysia menghadapi kemelesetan ekonomi yang bermula dengan kejatuhan nilai ringgit antara lain disebabkan oleh spekulasi mata wang menurut tun dr mahathir mohamad dalam buku the malaysian currency crisis how and why it happened perkembangan ini menyebabkan pelabur luar menarik pelaburan mereka di malaysia sehingga menjejaskan ekonomi malaysia malaysia didesak untuk mencontohi langkah yang diambil oleh negara lain iaitu menggunakan pelan perancangan tabung kewangan antarabangsa imf namun negara kita enggan menerimanya malaysia menggunakan pendekatan sendiri dalam usaha memulihkan keadaan termasuklah menambat kadar pertukaran ringgit rm kepada dolar usd dengan kadar rm380 bagi usd1 langkah ini berjaya memulihkan ekonomi negara buku tentang krisis kewangan malaysia sumber mahathir mohamad 2000 the malaysian currency crisis how and why it happened selangor pelanduk publications spekulasi mata wang mengantarabangsakan sistem spekulasi mata wang wujud apabila kewangan islam seseorang membeli mata wang asing bukan bertujuan mengimport sesuatu sistem kewangan islam merupakan sistem kewangan yang atau melabur dalam perniagaan luar berlandaskan syarak dan menjadi alternatif kepada sistem negara tetapi untuk menjual semula kewangan konvensional pada masa hadapan dengan harga yang lebih tinggi malaysia terlibat dalam usaha membangunkan sistem kewangan ini sejak tahun 2001 menambat kadar mata wang malaysia membangunkan sistem kewangan islam yang menambat kadar mata wang bermaksud progresif dan komprehensif sehingga menyumbang menetapkan satu kadar mata wang pada kepada keberkesanan sektor kewangan negara jumlah tertentu dan diperniagakan malaysia juga menduduki kedudukan utama dalam dengan kadar tersebut pelbagai indeks global berkaitan dengan kewangan sukuk ialah sijil kewangan islam islam termasuk menjadi pasaran sukuk terbesar di dunia negara kita menjadi negara utama pelaburan dana islam malaysia menubuhkan international centre for 01 bab meneroka bukti education in islamic finance inceif pusat bab antarabangsa pendidikan kewangan islam untuk 10 malaysia berjaya menangani isu menyokong perkembangan kewangan islam kemelesetan ekonomi pada tahun 19971998 buktikan 232bangunan inceif di petaling jaya selangor sumber dewan bahasa dan pustaka malaysia memainkan peranan penting dalam perkembangan ekonomi antarabangsa suara malaysia agar negara memperoleh apakah kesan kejayaan malaysia bagi membangunkan layanan yang adil daripada negara maju sistem kewangan islam sering didengar dalam forum antarabangsa meja bulat serentak simultaneous malaysia turut menekankan hubungan round table ekonomi dan pembangunan yang baik dengan negara lain sebagai rakyat malaysia usaha dalam kumpulan murid menulis maklum balas kepada membangunkan ekonomi melalui hubungan soalansoalan dalam kertas masingmasing kemudian pada peringkat serantau dan antarabangsa mereka mengedarkan catatan mengikut pusingan jam perlu diberikan sokongan kerana hal ini dapat supaya setiap ahli pasukan dapat menambah atau meningkatkan kemakmuran negara membetulkan perkara yang dicatat 01 1 berikan maksud sistem kewangan islam bab 2 buktikan kejayaan malaysia membangunkan sistem bab ekonomi islam 10 3 nyatakan peranan pusat antarabangsa pendidikan kewangan islam 233</t>
+          <t>74 dasar kebudayaan kebangsaan dasar kebudayaan kebangsaan dibentuk bagi mewujudkan perpaduan negara dan integrasi nasional melalui aspek kesenian dan kebudayaan dasar ini menjadi garis panduan masyarakat bagi membentuk dan mengekalkan identiti sebagai warganegara malaysia sejarah pembentukan kita mesti menggubal satu identiti dasar kebudayaan kebangsaan telah bangsa malaysia dengan mengambil digubal dan diperakui melalui kongres kira semua kaum dan agama saya kebudayaan kebangsaan pada tahun menegaskan bahawa sudah sampai 1971 kongres ini boleh dianggap sebagai ketikanya bagi kita menentukan lanjutan daripada kongres rakyat 1956 identiti atau keperibadian kebangsaan iaitu kongres kebudayaan melayu sebagai satu bangsa yang mempunyai maruah kongres ini dirasmikan oleh perdana dan martabat seperti bangsabangsa lain yang menteri malaysia kedua tun abdul merdeka dan berdaulat di dunia ini razak hussein di dewan tunku canselor petikan ucapan tun abdul razak hussein ketika universiti malaya kuala lumpur merasmikan kongres kebudayaan kebangsaan kongres ini dianjurkan oleh kementerian sumber abdul latiff abu bakar 1987 kebudayaan kebudayaan belia dan sukan kebangsaan dalam pembinaan negara bangsa malaysia kuala lumpur biro pendidikan umno malaysia huraian tentang tiga prinsip utama prinsip utama dasar kebudayaan kebangsaan pembentukan dasar kebudayaan kebangsaan berteraskan tiga prinsip utama 7 membuat rasionalisasi bab bab prinsip utama dasar kebudayaan kebangsaan rasionalkan dasar kebudayaan kebangsaan 7 ke arah memupuk keperibadian kebangsaan informasi berteraskan kebudayaan rakyat asal rantau melayu sebagai tunjang kongres kebudayaan kebangsaan kali kedua dasar kebudayaan kebangsaan diadakan di ukm pada 15 april 2017 antara resolusi kongres tersebut termasuklah memperkasakan kebudayaan nasional unsur kebudayaan lain yang sebagai identiti bangsa sesuai dan wajar diterima sebagai menyemarakkan bahasa melayu elemen penting sebagai bahasa kebangsaan mempertahankan perlembagaan persekutuan islam menjadi unsur yang penting mengukuhkan rukun negara sebagai dalam pembentukan dasar tiang seri negara bangsa kebudayaan kebangsaan pendidikan sebagai alat penyatuan bangsa 150matlamat pembentukan pembentukan dasar kebudayaan kebangsaan bertujuan mencapai tiga matlamat utama iaitu mengukuhkan perpaduan bangsa dan negara melalui kebudayaan memupuk dan memelihara keperibadian kebangsaan yang terhasil daripada kebudayaan kebangsaan memperkaya dan mempertingkatkan kualiti kehidupan kemanusiaan dan kerohanian yang seimbang dengan pembangunan sosioekonomi agensi pelaksana pelaksanaan dasar kebudayaan kebangsaan melibatkan semua kementerian agensi dan jabatan yang berkaitan dengannya dasar ini dilaksanakan oleh kementerian pelancongan kesenian dan kebudayaan kini dikenali sebagai kementerian pelancongan seni dan budaya malaysia jabatan kesenian dan kebudayaan negara majlis kebudayaan negeri istana budaya serta akademi seni budaya dan warisan kebangsaan aswara istana budaya sumber citrawarna malaysia dicapai pada 29 oktober 2020 dasar kebudayaan kebangsaan dijelmakan melalui program seperti citrawarna malaysia yang melibatkan pelbagai kaum dan budaya program ini mula dianjurkan pada tahun 1999 yang merupakan promosi pelancongan antara program yang dijalankan termasuklah memperagakan kebudayaan pakaian tarian dan nyanyian rakyat malaysia program citrawarna diadakan di dataran merdeka pada bulan mei setiap tahun dengan melibatkan rakyat pelbagai kaum dan budaya penggiat budaya 7 azah aziz hamzah dolmat lim swee tin bab bab dasar kebudayaan kebangsaan melahirkan mak ungku tokoh seni muzik kesusasteraan budayawan tradisional ramai tokoh dan penggiat budaya yang tersohor 7 tokoh ini memberikan sumbangan yang besar terhadap proses membudayakan masyarakat dan kebudayaan bangsa sumbangan mereka juga penting dalam menggalakkan penghasilan karya seni tempatan yang bermutu tinggi dan memartabatkan khazanah asli negara samuel dass shuhaibun yussuf mathew ngau jau muzik tradisional budaya dan muzik tradisional india kesusasteraan sape sarawak sabah pelaksanaan dasar kebudayaan kebangsaan dapat membentuk bangsa yang bersatu padu serta mengekalkan identiti negara sebagai 1 dengan menggunakan pelbagai sumber rakyat malaysia kita mestilah berbangga kumpulkan maklumat lanjut berkaitan dengan tokoh di atas dengan keunikan budaya masyarakat hal ini latar belakang kehidupan disebabkan budaya tersebut memperlihatkan kejayaan yang dicapai keperibadian kebangsaan malaysia sebagai sumbangan sebuah negara yang merdeka dan berdaulat 2 bentangkan dapatan anda di hadapan kelas 151</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
+          <t xml:space="preserve">Bab Membina Kesejahteraan Negara </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">dan Keamanan </t>
+          <t xml:space="preserve"> Sukan sebagai Alat Perpaduan </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>103 pelibatan rakyat dalam isu kemanusiaan dan keamanan malaysia berada di barisan hadapan dalam membangkitkan isu kemanusiaan dan keamanan malaysia sering menyuarakan pandangan dalam pertubuhan antarabangsa dan serantau seperti pbb komanwel oic dan asean pandangan yang disuarakan ini berkaitan dengan aspek kemanusiaan dan keamanan terutama dalam kalangan masyarakat yang tertindas selain itu rakyat malaysia turut aktif terlibat dalam pelbagai aktiviti kesukarelawanan bagi membantu golongan yang tidak bernasib baik sama ada disebabkan bencana alam mahupun peperangan tindakan ini secara langsung menaikkan nama malaysia di mata dunia isu palestin dan syria merupakan antara isu yang menonjolkan pelibatan rakyat malaysia dalam pertubuhan antarabangsa selain itu rakyat malaysia juga terlibat dalam misi kemanusiaan di aceh dan sri lanka isu palestin isu palestin sememangnya dekat dengan dasar luar dan domestik malaysia perjuangan menegakkan isu palestin disuarakan oleh semua perdana menteri malaysia sejak zaman tunku abdul rahman putra alhaj sejak tahun 1948 rejim zionis israel melakukan kekejaman pengusiran dan pembunuhan terhadap penduduk palestin tindakan ini menjadi asas penting kepada perjuangan malaysia bagi memastikan hak dan keadilan rakyat palestin mendapat pembelaan pelibatan rakyat dalam menangani isu kemanusiaan di palestin dapat dilihat secara jelas melalui nongovernmental organization ngo pertubuhan bukan kerajaan kewujudan ngo ini membolehkan satu bentuk koordinasi membantu warga palestin dapat dilaksanakan antara ngo yang aktif dalam bidang kesukarelawanan ini termasuklah aman palestin dan cinta gaza malaysia cgm antara ngo yang membantu palestin termasuklah didaftarkan secara rasmi pada tahun 2006 dan menjadi organisasi yang giat membantu rakyat palestin secara kolektif sistematik aman palestin berterusan dan berkesan menyalurkan bantuan kebajikan dan sumbangan orang ramai kepada rakyat palestin gabungan beberapa buah ngo dan turut menjalankan kerjakerja kesukarelawanan dalam usaha membantu rakyat palestin yang majlis perundingan pertubuhan tertindas islam malaysia mapim antara aktivitinya termasuklah mengadakan hari solidariti rakyat palestin diasaskan oleh muhammad nadir alnuri kamarulzaman dan menjalankan operasi sejak tahun 2013 cinta gaza malaysia cgm menjalankan aktiviti kutipan dan sumbangan kepada penduduk gaza terutama kanakkanak ibu tunggal dan warga emas melancarkan projek ramadan 2020 dengan tema ramadan bulan 01 bab berkongsi kebahagiaan merangkumi bantuan perubatan kebajikan bab belia teknologi hijau infrastruktur pendidikan pengajian alquran 10 serta seni dan budaya muslim care malaysia ditubuhkan pada tahun 2006 dan secara aktif menjalankan misi kemanusiaan termasuk di palestin 234rakyat malaysia turut menyatakan sokongan padu kepada rakyat palestin mereka melakukan demonstrasi sebagai tanda sokongan kepada palestin dan menubuhkan tabung palestin untuk mengutip sumbangan kewangan kepada mangsa zionis di palestin selain itu rakyat malaysia turut terlibat menghantar bantuan makanan dan perubatan ke palestin menerusi program freedom flotilla iaitu program kemanusiaan yang digerakkan oleh free gaza movement yang ahlinya datang dari seluruh dunia rakyat malaysia yang menyertai misi kemanusiaan turut menghadapi cabaran seperti ditawan dan dipenjara sebanyak 12 orang sukarelawan malaysia hentian bas bus stop yang berada di dalam kapal mavi marmara ditawan oleh pihak israel pada arahan bulan mei 2010 1 beberapa hentian diwujudkan di dalam kelas dr fauziah mohd hasan turut serta dalam setiap satu hentian disediakan soalan misi kemanusiaan ke palestin dalam 2 murid bergerak secara berkumpulan dari satu hentian ke hentian yang lain untuk program womens boat to gaza pada membincangkan soalan yang disediakan bulan ogos 2016 kapal zaytounaoliva 3 murid berkongsi pendapat dan merekodkan yang dinaiki beliau ditawan oleh pihak komen serta maklumat yang diperoleh israel hentian 1 apakah yang anda faham tentang dr mohd afandi salleh pula terlibat pertubuhan yang berikut dalam misi kemanusiaan ke palestin menaiki kapal alawda pada tahun 2018 kapal tersebut ditawan oleh israel dan beliau ditahan di dalam penjara di israel sebelum dibebaskan kemudiannya hentian 2 terangkan peranan pertubuhan bukan kerajaan ngo di atas hentian 3 jelaskan peranan malaysia dalam menangani isu kemanusiaan di dunia hentian 4 jelaskan peranan rakyat malaysia dalam usaha membantu mangsa penindasan peperangan dan bencana yang melanda dunia kumpulan bergerak dari satu hentian ke satu hentian sambil berbincang dan berkongsi maklumat guru atau murid boleh membuat rumusan pada akhir pembelajaran membuat rasionalisasi sukarelawati malaysia dr fauziah mohd hasan 01 sumber dicapai pada 14 ogos rasionalkan tindakan malaysia membantu rakyat bab 2020 palestin sejak zaman tunku abdul rahman putra bab alhaj sehingga hari ini 10 223355isu syria krisis politik di syria yang bermula pada tahun 2011 menyebabkan rakyat syria mengalami kesengsaraan terutamanya masalah kekurangan makanan dan kemudahan perubatan menyedari keadaan ini malaysia tampil memberikan bantuan dan sokongan kepada rakyat syria pada 1 oktober 2015 kerajaan mengumumkan kesediaan untuk menerima 3000 orang pelarian warganegara syria dalam tempoh tiga tahun secara sukarela atas dasar kemanusiaan pelibatan rakyat malaysia membantu rakyat syria pula dapat dilihat melalui peranan ngo antara ngo yang terlibat membantu syria termasuklah gabungan enam buah ngo kemanusiaan organisasi humanitarian care melancarkan kempen i4syria pada tahun 2011 bagi malaysia mycare menyalurkan pelbagai bantuan kepada pelarian syria mengendalikan aspek pendidikan kesihatan dan kebajikan pelarian syria yang berada di malaysia ditubuhkan pada tahun 2014 memberikan bantuan kemanusiaan kepada pelarian cinta syria malaysia csm syria yang berada di turki lubnan dan malaysia menubuhkan sekolah kita iaitu program pendidikan percuma untuk anakanak pelarian syria ditubuhkan pada tahun 2001 aktif menjalankan pelbagai aktiviti kesukarelawanan global peace mission gpm dan kemanusiaan di 30 buah negara turut aktif memberikan bantuan kemanusiaan kepada pelarian syria berupa makanan ubatan dan peralatan sukarelawan mapim ke syria sumber 01 dicapai pada 30 jun 2020 bab rakyat malaysia memberikan sumbangan melalui tabung kemanusiaan program penempatan bab migran syria yang dilancarkan pada 20 mei 2016 selain itu rakyat malaysia turut menyertai 10 perhimpunan solidariti menyokong syria dan menghantar memorandum bantahan kepada kedutaan syria di kuala lumpur pada tahun 2017 berkaitan dengan kekejaman terhadap rakyat syria 236tsunami di aceh dan sri lanka bencana alam seperti tsunami yang memusnahkan aceh dan sri lanka pada tahun 2004 menarik perhatian malaysia penduduk aceh dan sri lanka kehilangan segalanya dalam sekelip mata keadaan ini menyebabkan malaysia melancarkan bantuan segera termasuklah bantuan perubatan makanan dan keperluan harian rakyat malaysia yang prihatin turut memberikan bantuan melalui badan seperti mercy malaysia antara ngo yang terlibat dalam misi kemanusiaan di aceh dan sri lanka termasuklah ditubuhkan pada tahun 1999 oleh tan sri dr jemilah mahmood aktif dalam bidang kesukarelawanan dan kemanusiaan membabitkan negara yang berkonflik dan ditimpa malaysian medical relief society bencana mercy malaysia bertindak memberikan bantuan perubatan serta membina semula pusat kesihatan komuniti di aceh membangunkan infrastruktur di sri lanka termasuk sekolah dan jambatan bagi kemudahan penduduk ditubuhkan pada tahun 1971 memberikan bantuan kemanusiaan kepada pihak yang memerlukan termasuklah mangsa bencana tsunami angkatan belia islam malaysia di aceh abim mendirikan sekolah dan rumah perlindungan kepada lebih kurang 120 orang anak yatim yang menjadi mangsa tsunami di banda aceh ditubuhkan pada tahun 1998 memberikan bantuan pendidikan percuma kepada yayasan restu warga aceh membangunkan rumah anak yatim babun najah di ulee kareung aceh rakyat malaysia sememangnya prihatin serta sanggup memberikan bantuan kepada golongan yang menghadapi musibah sama ada disebabkan peperangan mahupun 01 bencana alam sikap perikemanusiaan yang tinggi dan bab sanggup melakukan kerja sukarela ini telah menaikkan bab nyatakan bentuk bantuan yang nama baik negara kita 10 disalurkan oleh malaysia kepada rakyat aceh 237</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Usaha Mengekalkan Kelestarian Global </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>104 usaha mengekalkan kelestarian global mengekalkan kelestarian global bermaksud usaha untuk mengekalkan serta memelihara keaslian alam sekitar bagi membolehkannya diwarisi oleh generasi akan datang malaysia turut memberikan komitmen yang tinggi dalam pemeliharaan alam sekitar negara kita juga melibatkan diri dalam pelbagai program bersamasama pertubuhan antarabangsa mengisytiharkan deklarasi langkawi pengisytiharan deklarasi langkawi merupakan bukti jelas komitmen malaysia dan negara komanwel untuk memelihara alam sekitar deklarasi langkawi diadakan pada bulan oktober 1989 bersempena dengan mesyuarat ketuaketua negara komanwel deklarasi langkawi dilaksanakan sebagai usaha menangani isu alam sekitar terutama kesan rumah hijau kerosakan dan penipisan ozon serta pencemaran yang disebabkan aktiviti manusia yang tidak terkawal anugerah langkawi diberikan kepada warganegara malaysia yang menunjukkan komitmen dan sumbangan besar dalam bidang alam sekitar anugerah ini dimulakan pada tahun 1991 malaysia turut melaksanakan dasar alam sekitar negara 2002 yang menjadi asas dalam pembangunan negara pada tahun 2006 kerajaan negeri kedah mengisytiharkan langkawi sebagai geopark bagi memastikan kelestariannya terjamin malaysia telah melancarkan dasar teknologi hijau negara pada tahun 2009 untuk menggalakkan penggunaan produk teknologi hijau bagi mengawal perubahan iklim anugerah langkawi sumber dicapai pada 15 ogos 2020 01 meneroka bukti bab bab buktikan kerajaan negara kita berjaya 10 mengambil inisiatif bagi mewujudkan rumah hijau kelestarian alam sekitar di malaysia 238menyertai sidang kemuncak bumi isu pencemaran alam sekitar merupakan salah satu isu yang mencetuskan sidang kemuncak bumi di rio de janeiro brazil pada tahun 1992 sidang kemuncak bumi ini dianjurkan oleh pbb malaysia menunjukkan kesungguhan dalam memulihara alam sekitar dengan menyertai sidang ini komitmen malaysia terpapar melalui pelibatan negara dalam sidang kemuncak bumi ini yang mengeluarkan deklarasi agenda 21 agenda 21 ini merupakan satu dokumen umum yang penting bagi pengurusan aktiviti manusia dalam sesebuah negara agenda ini menyentuh tindakan pembangunan abad ke21 bagi mengatasi masalah kemiskinan kebuluran dan kemerosotan ekosistem selain itu malaysia turut terlibat dalam protokol kyoto 1997 dan persidangan alam sekitar di bali pada tahun 2007 persidanganpersidangan ini merupakan satu persetujuan sah dan persefahaman negara maju bahawa negara yang terlibat ini akan mengurangkan pembebasan gas rumah hijau secara kolektif dan menggalakkan penggunaan tenaga baharu seperti tenaga solar hasrat malaysia adalah untuk menerapkan dan mengguna pakai segala saranan agenda tersebut dalam program pembangunan bagi memastikan alam sekitar negara tidak terjejas dan dapat diwariskan kepada generasi akan datang sidang kemuncak bumi pbb di rio de janeiro brazil sumber dicapai pada 8 julai 2020 informasi gas rumah hijau 01 peningkatan kadar gas karbon dioksida di atmosfera yang memanaskan bab bumi peningkatan ini berlaku disebabkan aktiviti manusia seperti bab penggunaan penyaman udara dan baja kimia 10 mengapakah isu alam sekitar perlu diberi perhatian oleh masyarakat dunia 239antartika sebagai warisan sejagat malaysia merupakan antara negara yang membangkitkan isu antartika menganggap bahawa penerokaan terhadap benua ais tersebut dilakukan secara tidak adil penerokaan terhadap antartika didominasi oleh hanya sebahagian kecil negara pandangan malaysia ini diutarakan sejak tahun 1983 melalui nam dalam sidang kemuncak nam ketujuh di new delhi india malaysia mendesak pbb mengambil langkah pertama menjadikan antartika sebagai warisan manusia sejagat malaysia mencadangkan pbb mentadbir antartika agar segala bentuk hasil yang terdapat di benua tersebut dapat dikongsi bersamasama oleh semua ekspedisi antartika ypasm 2016 negara pandangan ini mendapat sokongan daripada sumber negara lain dicapai pada 14 jun 2020 keratan akhbar mingguan malaysia pada 20 mei 2018 tentang dr azizan abu samah sumber dicapai pada 15 ogos 2020 01 bab bab 10 antartika perlu dipertahankan sebagai warisan manusia sejagat biodata dr azizan abu samah ulas pernyataan ini dan kedudukan antartika 240 malaysia mengambil inisiatif membentuk pasukan penyelidik dalam pelbagai bidang ke antartika antara anak tempatan yang mencatatkan sejarah terlibat dalam penyelidikan ini termasuklah dr haji omar abdul rahman yang melawat antartika pada tahun 1985 malaysia secara giat melakukan penyelidikan di antartika sejak tahun 1999 terutama dalam bidang perubahan iklim dan kajian gas rumah hijau malaysia juga mewujudkan pusat penyelidikan antartika kebangsaan yang ditempatkan di universiti malaya dan diterajui oleh dr azizan abu samah yayasan penyelidikan antartika sultan mizan ypasm di kuala lumpur turut terlibat melakukan penyelidikan saintifik di antartika komitmen malaysia dalam penyelidikan antartika logo ypasm 2016 membuktikan bahawa negara kecil juga mampu sumber dicapai pada 14 jun 2020 mencapai kejayaan jika diberi peluang dalam penyelidikan di antartika dasar luar malaysia bukan sekadar melibatkan hubungan diplomatik serta hal berkaitan dengan politik dan pertahanan sematamata hubungan ini turut mencakupi subjek yang luas termasuklah penjagaan alam sekitar kelestarian kualiti alam sekitar merupakan amanah yang perlu dijaga bagi kepentingan generasi akan datang sebagai rakyat malaysia kita wajar memastikan bumi dipelihara demi kesejahteraan bersama informasi pada tahun 1959 sebanyak 12 negara iaitu amerika syarikat rusia australia jepun united kingdom norway new zealand china belgium perancis afrika selatan dan argentina mengadakan pakatan untuk meneroka antartika meskipun demikian pakatan ini hanya berkuat kuasa pada tahun 1961 pakatan ini kemudiannya dibekukan selama 30 tahun iaitu sehingga tahun 1991 keadaan ini bermakna hanya selepas tahun 1991 negara tersebut akan melakukan penerokaan mereka di antartika antartika sebagai bumi yang tidak dihuni adalah milik masyarakat antarabangsa negaranegara yang dewasa ini mentadbirkannya hendaklah melepaskannya ypasm untuk diserahkan sama ada kepada pbb bagi ditadbirkan atau penghunipenghuni sekarang bertindak sebagai pemegang amanah kepada semua bangsa di dunia dr mahathir mohamad ucapan di pbb dipetik daripada faridah jaafar 01 bab keperibadian politik tun hussein dan dasar luar malaysia 19761981 dlm bab sejarah no11 2013 hlm 136 10 berdasarkan ucapan di atas apakah faedah yang diperoleh malaysia dalam melakukan penyelidikan antartika hujahkan 241</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wawasan Malaysia Menuju Masa Hadapan </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>105 wawasan malaysia menuju masa hadapan wawasan masa hadapan bermaksud strategi jangka panjang sebagai panduan arah dasar dalam pelbagai aspek berkaitan dengan pembangunan negara dalam keadaan ini dengan melihat kepada perkembangan sejarah serantau dan antarabangsa malaysia lebih yakin untuk menuju masa hadapan yang cemerlang dalam pelbagai bidang oleh itu negara kita merangka pelbagai usaha bagi memastikan generasi akan datang turut menikmati kehidupan yang lebih baik komuniti asean komuniti asean ditubuhkan pada tahun 2015 melalui deklarasi kuala lumpur sewaktu sidang kemuncak asean ke27 komuniti asean merupakan satu langkah menyeluruh strategik dan bersifat memandang ke hadapan serta mencerminkan aspirasi asean wawasan asean memberikan fokus pada ekonomi sosiobudaya dan keselamatan pertumbuhan ekonomi asean diharapkan dapat dipertingkatkan ke tahap yang lebih tinggi melalui komuniti keamanan pula menjadi harapan agar keselamatan rantau asean kekal terjamin dan segala konflik dapat diselesaikan secara damai hasrat komuniti sosiobudaya pula agar integrasi antara negara anggota asean dapat dipertingkatkan ke tahap yang lebih baik komuniti asean keselamatan makanan malaysia serta negara di rantau asia tenggara menyedari bahawa satu isu penting yang perlu dihadapi pada masa hadapan ialah isu keselamatan makanan united nations committee unc pada tahun 1996 menyebut bahawa keselamatan makanan merujuk setiap orang pada setiap masa mempunyai akses kepada sumber makanan yang mencukupi selamat dan berkhasiat yang memenuhi keperluan makanan mereka antara isu tentang keselamatan makanan termasuklah berlaku kenaikan harga barangan yang keterlaluan bekalan barangan terhad kerana masalah pengeluaran bencana alam atau pencemaran makanan 01 bab bab 10 sebagai generasi muda dalam komuniti asean cadangkan usaha anda untuk mengekalkan keamanan dalam kalangan warga asean 242 malaysia bekerjasama dengan negara anggota asean untuk menubuhkan rizab sekuriti makanan asean usaha ini dilakukan untuk mendapatkan maklumat tentang dasar sekuriti makanan bagi negara anggota asean dan membentuk simpanan beras kecemasan asean rizab ini boleh digunakan sewaktu kecemasan dan kadar yang ditetapkan sebanyak 50 000 tan yang disimpan sebagai stok alam sekitar isu alam sekitar yang penting dan perlu ditangani oleh malaysia serta negara di asia tenggara ialah isu jerebu jerebu merupakan fenomena atau pencemaran udara yang menjejaskan jarak penglihatan dan kesihatan hal ini disebabkan pembakaran terbuka yang tidak terkawal terutamanya pembakaran hutan oleh hal yang demikian malaysia bersamasama negara asean mengambil langkah aktif bagi memastikan isu ini dapat diatasi pada masa hadapan langkah ini dilaksanakan melalui perjanjian asean berkaitan dengan pencemaran jerebu merentas sempadan perjanjian ini merupakan sebuah perjanjian serantau pertama di dunia menerusi perjanjian ini negara anggota yang terlibat disarankan untuk mengambil langkah dari aspek undangundang dan pentadbiran serta tindakan lain yang wajar seperti yang termaktub dalam perjanjian tersebut pelaksanaan tersebut amat penting bagi memastikan krisis jerebu tidak akan berlaku lagi di rantau asia tenggara dengan menekankan prinsip asean tanpa jerebu 2020 malaysia dan singapura juga bersetuju bekerjasama untuk melaksanakan penyelidikan dan pembangunan dalam bidang pencegahan kebakaran di tanah gambut bagi mencari penyelesaian menangani isu jerebu di rantau ini 01 bab bab 10 jerebu di kuala lumpur 2014 sumber dicapai pada 15 ogos 2020 243zon bebas nuklear isu pertahanan dan keselamatan merupakan isu penting bagi memastikan rantau asia tenggara berada dalam keadaan aman dan selamat terutamanya daripada persaingan senjata nuklear malaysia menandatangani southeast asian nuclearweaponfreezon seanwfz atau dikenali sebagai perjanjian zon bebas senjata nuklear asia tenggara pada tahun 1995 perjanjian ini menekankan agar negara yang terlibat tidak mengembangkan mengeluarkan memperoleh memiliki atau mengawal senjata nuklear kedudukan asia tenggara yang strategik turut menjadikannya terlibat secara langsung dalam kancah persaingan membabitkan kuasa besar seperti china dan amerika syarikat yang turut memiliki senjata nuklear dalam keadaan ini malaysia tidak boleh berdiam diri dan membiarkan perairan selat melaka dan laut china selatan digunakan oleh kapal perang asing yang membawa senjata nuklear malaysia berasakan bahawa keduadua laluan tersebut perlu bebas daripada senjata nuklear malaysia bertindak untuk tidak membenarkan kapal yang membawa senjata nuklear berlabuh atau mengadakan latihan di perairan negara ini kerana boleh membawa konflik yang buruk kepada rantau asia tenggara kerelevanan organisasi antarabangsa malaysia memandang serius terhadap pertubuhan dunia seperti pbb dan oic yang tidak mampu berfungsi dengan baik dalam menjayakan matlamatnya terutama bagi melindungi hak dan kedudukan negara kecil yang sedang membangun malaysia berpandangan bahawa penggunaan kuasa veto oleh kuasa besar hanya sah jika dua buah negara yang mempunyai kuasa itu bersamasama tiga anggota yang tidak memiliki kuasa veto bersetuju untuk menggunakannya demi memastikan penyalahgunaan kuasa veto dapat dikurangkan negara yang memiliki kuasa veto tidak sepatutnya meletakkan diri mereka terkecuali daripada undangundang antarabangsa malaysia menganjurkan sidang kemuncak kuala lumpur 2019 yang melibatkan kirakira 56 buah negara islam dengan 450 perwakilan matlamat sidang ini adalah untuk merapatkan jurang dan kedudukan masyarakat islam bagi menangani pelbagai isu hak asasi manusia pelarian dan pendatang asing tanpa izin pati malaysia menyedari bahawa isu hak asasi manusia pelarian dan pendatang asing tanpa izin pati merupakan isu yang saling berkait dan penting pada masa hadapan keamanan kemakmuran dan pertumbuhan ekonomi yang pesat menjadi faktor penarik kepada kemasukan pati dan pelarian 01 informasi bab bab negara yang mempunyai kuasa veto di majlis 10 keselamatan pbb ialah amerika syarikat rusia united kingdom perancis dan china 224444 kehadiran pati dan pelarian ini mampu membawa implikasi terhadap sosial ekonomi jenayah politik dan hubungan diplomatik serta berupaya untuk mengancam ketenteraman dan keselamatan negara malaysia turut membendung kemasukan pati melalui pengukuhan mekanisme pengurusan warga asing malaysia terlibat dalam pelbagai program di bawah pbb terutama united nations high commissioner for refugees unhcr suruhanjaya tinggi bangsabangsa bersatu mengenai pelarian malaysia turut dilantik sebagai ahli suruhanjaya ini pada tahun 1993 hingga tahun 1995 sebagai langkah proaktif juga sebuah badan berkaitan dengan hak asasi manusia iaitu suruhanjaya hak asasi manusia malaysia suhakam ditubuhkan pada tahun 1999 mesyuarat berkaitan dengan hak asasi manusia kuala lumpur 1988 sumber arkib negara malaysia malaysia melihat masa hadapan dengan positif wawasan yang merangkumi pelbagai perkara menjadi asas penting bagi menghadapi masa hadapan demi kesejahteraan penduduk pada peringkat serantau satu wawasan jelas dilakukan melalui komuniti asean mahupun kerjasama keselamatan makanan malaysia turut memainkan peranan logo suhakam pada peringkat global melalui isu hak asasi manusia yang sumber menekankan kerelevanan pertubuhan antarabangsa dicapai pada 12 jun 2020 secara keseluruhannya malaysia mengamalkan sikap pragmatik berprinsip dan berkecuali dalam dasar luarnya amalan ini diteruskan melalui pengiktirafan dan kerjasama ekonomi 01 bab politik serta keselamatan dengan negara serantau dan antarabangsa strategi diplomatik dua hala bab dan pelbagai hala yang disokong oleh pelaksanaan dasar luar yang konsisten sejak kemerdekaan 10 mewujudkan imej yang positif pada peringkat antarabangsa kelantangan dan kecemerlangan malaysia dalam menangani isu global menjadi teladan kepada negara lain 245imbas kembali kecemerlangan malaysia di persada dunia 1 malaysia dalam isu global kontemporari penyalahgunaan dadah pertindihan sempadan kempen antiminyak sawit pemerdagangan orang penyakit berjangkit 2 peranan malaysia dalam hubungan ekonomi antarabangsa meluaskan pasaran ekonomi dominasi ekonomi negara maju kerjasama pembangunan ekonomi segi tiga menangani kemelesetan ekonomi mengantarabangsakan sistem kewangan islam 3 pelibatan rakyat dalam isu kemanusiaan dan keamanan isu palestin isu syria tsunami di aceh dan sri lanka 4 usaha mengekalkan kelestarian global mengisytiharkan deklarasi langkawi menyertai sidang kemuncak bumi antartika sebagai warisan sejagat 5 wawasan malaysia menuju masa hadapan komuniti asean keselamatan makanan 01 alam sekitar bab zon bebas nuklear bab kerelevanan organisasi antarabangsa 10 hak asasi manusia pelarian dan pendatang asing tanpa izin pati 246pembelajaran abad ke21 aktiviti 1 fikirpasangkongsi thinkpairshare arahan1 murid dikehendaki memikirkan maksud topik di bawah 2 murid dikehendaki menjawab soalan yang diberikan secara individu 3 bersamasama rakan bincangkan petikan dan soalan yang diberikan 4 kongsi maklumat dan pendapat dengan kumpulan lain warta sawit sumber dicapai pada 13 oktober 2020 pengeluar produk makanan dan bukan makanan eropah kini giat memasarkan lebih banyak produk dengan label tanpa minyak sawit atau no palm oil perkara ini menyebabkan wujud tanggapan negatif terhadap minyak sawit dalam kalangan pengguna di eropah pengguna menganggap minyak sawit tidak baik untuk kesihatan serta merosakkan alam sekitar warta sawit bil 71 januariapril 2019 01 bab bab a apakah maksud sayangi sawitku 10 b mengapakah negara maju melancarkan kempen antiminyak sawit c apakah kesan kempen ini kepada malaysia d cadangkan langkah untuk memajukan ekonomi negara kita 247pembelajaran abad ke21 aktiviti 2 jaring kata kumpulan team wordweb serta teknologi maklumat dan komunikasi arahan 1 murid membentuk kumpulan dan menerima gambar di bawah 2 murid juga boleh melayari laman web di bawah 3 murid menulis idea berkaitan dengan soalan yang dinyatakan atau tambahan soalan pada kertas sebak 4 setiap ahli kumpulan menulis idea dalam bentuk peta minda dengan menggunakan pen yang berlainan warna antara kumpulan untuk menunjukkan idea daripada mereka gua kelawar gua pinang sumber dan geopark dicapai pada 14 ogos 2020 secara berkumpulan lakukan aktiviti yang berikut 1 ceritakan perkara yang anda lihat daripada gambar di atas atau laman web yang dilayari 2 berdasarkan pengetahuan anda dan maklumat dalam laman web yang dilayari mengapakah kehidupan dalam sesebuah masyarakat tidak boleh dipisahkan dengan alam semula jadi budaya 01 bab dan sejarah sosialnya bab 3 geopark merujuk sebuah kawasan yang terdapat tapak warisan geologi yang boleh digunakan 10 oleh semua pihak bagi tujuan pemeliharaan pendidikan dan pembangunan secara lestari atau mapan berdasarkan takrifan ini bincangkan kepentingan pengisytiharan langkawi sebagai unesco geopark pertama di asia tenggara 248pemahaman dan pemikiran kritis 1 mengapakah malaysia menjadi lokasi transit bagi pemerdagangan orang ke negara lain a kedudukan strategik b kemasukan ramai pelancong c kelonggaran syarat imigresen d ketiadaan undangundang jenayah 2 apakah agensi pbb yang mengiktiraf kejayaan malaysia dalam menangani penularan wabak aids di asia a ilo b who c unchr d unesco 3 bincangkan sumbangan malaysia dalam usaha membantu pelarian i palestin ii syria 4 nyatakan punca utama berlakunya jerebu di malaysia 5 jelaskan kepentingan perjanjian zon bebas senjata nuklear asia tenggara 6 pelibatan malaysia dalam perjanjian kawasan perdagangan bebas asean memberikan manfaat kepada negara kita bincangkan 7 maklumat yang berikut merupakan visi agensi antidadah kebangsaan masyarakat malaysia bebas dari dadah a apakah yang anda faham tentang visi ini b pada pendapat anda apakah langkah yang perlu diambil bagi mencegah penyalahgunaan dadah dalam kalangan masyarakat 8 sindrom kurang daya tahan melawan penyakit aids merupakan penyakit berjangkit yang melanda dunia a apakah maksud aids b nyatakan kesan penyakit ini kepada masyarakat dan negara c bincangkan langkah yang perlu diambil bagi mengatasi penyakit ini daripada merebak 01 bab bab 10 249pemahaman dan pemikiran kritis 9 jawab soalan yang berikut berdasarkan gambar di bawah sumber sumber penerbit universiti tun hussein onn dicapai pada 13 oktober 2020 uthm a apakah yang anda faham tentang gambar di atas b pada pendapat anda mengapakah kita perlu menjaga dan mengekalkan keaslian alam sekitar 10 petikan yang berikut tentang isu palestin oleh pertubuhan kebudayaan palestin malaysia pcom pcom ingin berterima kasih terhadap tindakan tegas parlimen malaysia menggesa penyingkiran israel daripada keahlian pertubuhan bangsabangsa bersatu pbb dan membantah rancangan israel menceroboh wilayah palestin di tebing barat tindakan tegas ini mencerminkan prinsip mulia yang diperjuangkan malaysia dan membuktikan penyatuan kukuh kepemimpinan dalam kalangan anggota ahli parlimen malaysia tanpa mengira perbezaan latar belakang parti politik sama ada kerajaan atau pembangkang a apakah yang anda faham tentang petikan di atas b pemimpin malaysia tanpa mengira kaum menentang penindasan rakyat palestin oleh israel sebagai rakyat malaysia cadangkan langkah yang perlu dilakukan untuk membantu kerajaan 01 bab menangani isu palestin bab c berdasarkan pengetahuan anda sejauh manakah pelibatan malaysia dalam menangani 10 isu kemanusiaan 225500cakna dan cerminan sejarah nilai patriotisme dan iktibar pendedahan terhadap kesukarelawanan amat wajar diterapkan pada semua peringkat umur bagi memupuk masyarakat yang mempunyai sifat ingin membantu dan berperikemanusiaan perasaan cinta akan negara bukan sahaja dari segi menjaga perpaduan dan keamanannya malah perasaan cinta akan barangan buatan malaysia turut penting dalam kalangan masyarakat bagi memupuk sikap menghargai dan menyokong produk tempatan diri dan keluarga sebagai ahli dalam keluarga sikap bertoleransi dan berperikemanusiaan mampu mewujudkan sebuah institusi keluarga yang harmoni di samping itu sikap ini dapat melahirkan generasi yang mempunyai sifat belas kasihan dan perasaan ingin membantu antara satu sama lain negarausaha yang ditonjolkan oleh negara kita dalam menangani pelbagai isu dan masalah menunjukkan bahawa negara amat menitikberatkan soal keseimbangan dari segi ekonomi sosial dan politik usaha ini menunjukkan bahawa aspek tersebut penting untuk menjadikan malaysia sebagai sebuah negara bangsa yang maju dan harmoni 01 bab bab 10 malaysia berpendirian tegas dalam menangani isu pemerdagangan orang sumber jabatan penerangan malaysia 225511</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab Kecemerlangan Malaysia di Persada Dunia </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bibliografi </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>bibliografi a aziz deraman 2002 tamadun melayu dan pembinaan bangsa malaysia kuala lumpur dewan bahasa dan pustaka a aziz deraman 2003 masyarakat dan kebudayaan malaysia kuala lumpur dewan bahasa dan pustaka a aziz deraman 2004 pengantarabangsaan bahasa melayu kuala lumpur dewan bahasa dan pustaka a aziz deraman 2006 kebudayaan kebangsaan isu dan cabaran kuala lumpur gapeniaga sdnbhd a aziz deraman 2010 wacana peradaban malaysia kuala lumpur dewan bahasa dan pustaka abd ghapa harun 2017 pemikiran sejarah dan politik pembinaan negara bangsa kuala lumpur persatuan sejarah malaysia abd jalil borhan 2002 pentadbiran undangundang islam negeri johor skudai penerbit universiti teknologi malaysia abd rahim abd rashid 2004 patriotisme agenda pembinaan bangsa kuala lumpur utusan publications and distributors sdn bhd abdul aziz abdul rahman dan sumangala pillai 1997 mahathir kepimpinan dan wawasan dalam sains dan teknologi sintok penerbit universiti utara malaysia abdul aziz abdul rahman abdul razaq ahmad dan mohd mahzan awang 2019 patriotisme dan toleransi kaum antara belia malaysia bangi penerbit univeristi kebangsaan malaysia abdul aziz bari 2006 majlis rajaraja kedudukan dan peranan dalam perlembagaan malaysia kuala lumpur dewan bahasa dan pustaka abdul aziz bari 2006 politik perlembagaan kuala lumpur institut kajian dasar abdul aziz bari 2008 perlembagaan malaysia asasasas dan masalah kuala lumpur dewan bahasa dan pustaka abdul aziz bari 2016 perlembagaan malaysia suatu pengenalan petaling jaya ilham books abdul aziz rahman 2012 100 wira negara kuala lumpur mubarak abdul halim ramli 2009 hubungan kaum di malaysia sejarah dan asas perpaduan shah alam penerbit universiti teknologi mara abdul halim ramli 2015 perlembagaan malaysia isu dan persoalan perhubungan kaum kuala lumpur dewan bahasa dan pustaka abdul karim haron ed 2016 mara perjuangan yang belum selesai bangi penerbit universiti kebangsaan malaysia abdul latif abu bakar 1987 kebudayaan kebangsaan dalam pembinaan negara bangsa malaysia kuala lumpur biro pendidikan umno malaysia abdul qadir djaelani 2001 negara berdaulat dalam perspektif islam shah alam pustaka dini sdn bhd abdul rahim bakar dan awang sariyan 2005 suara pejuang bahasa ampang persatuan linguistik malaysia abdul rahman embong 2015 negara bangsa proses dan perbahasan bangi penerbit universiti kebangsaan malaysia abdul rahman haji ismail dan azmi ariffin 2016 sejarah malaysia wacana kedaulatan bangsa kenegaraan dan kemerdekaan pulau pinang penerbit universiti sains malaysia abdul rahman haji ismail 2007 malaysia sejarah kenegaraan dan politik kuala lumpur dewan bahasa dan pustaka abdul razak baginda ed 2009 malaysias defence and security since 1957 kuala lumpur malaysian strategic research centre abdul razak baginda ed 2009 malaysia at 50 and beyond kuala lumpur malaysian strategic research centre abdullah zakaria ghazali dan zulkanain abdul rahman ed 2008 konflik dunia abad ke20 kuala lumpur dewan bahasa dan pustaka abu zahari abu bakar 1980 perkembangan pendidikan di semenanjung malaysia petaling jaya penerbit fajar bakti sdn bhd ahmad ali seman dan warti kimi 2013 hubungan etnik di malaysia kuala lumpur freemind horizons sdn bhd ahmad atory hussin 1991 kerajaan tempatan teori dan peranan di malaysia kuala lumpur dewan bahasa dan pustaka ahmad farhan abdullah isuisu terpilih malaysia melibatkan pertubuhan bangsabangsa bersatu pbb 19572003 dlm malaysia dari segi sejarah bil 38 2010 ahmad farhan abdullah malaysia dan pertubuhan bangsabangsa bersatu pbb 19572003 dlm malaysia dari segi sejarah bil 36 2008 252ahmad farhan abdullah sumbangan pertubuhan bangsabangsa bersatu pbb dalam pembentukan malaysia dan penglibatan malaysia dalam pbb 19572003 dlm malaysia dari segi sejarah bil 37 2009 ahmad ibrahim ed 2003 perkembangan undangundang perlembagaan persekutuan kuala lumpur dewan bahasa dan pustaka ahmad ibrahim dan ahilemah joned 2015 sistem undangundang di malaysia kuala lumpur dewan bahasa dan pustaka ahmad kamal ariffin mohd rus dan noor ain mat noor ed 2015 dasar dan tadbir dalam sejarah kuala lumpur penerbit universiti malaya ahmad sarji abdul hamid 2008 sports and recreation kuala lumpur editions didier millet ahmad sarji abdul hamid 2011 the encylopedia of malaysia the ruler of malaysia volume editor kuala lumpur archipelago press dan didier millet ahmad sarji abdul hamid 2011 the rulers of malaysia kuala lumpur editions didier millet ahmat adam 1994 isu bahasa dan pembentukan bangsa kuala lumpur dewan bahasa dan pustaka aida idris dan abu hassan hasbullah 2012 membina bangsa malaysia petaling jaya the strategic information and research development ariah judah 2017 raja payung negara daulat sepanjang zaman putrajaya jabatan penerangan malaysia arkib negara malaysia 1980 hari ini dalam sejarah kuala lumpur percetakan negara asmah haji omar 2015 zaba ahli fikir dan ahli bahasa kuala lumpur dewan bahasa dan pustaka asmah haji omar 2015 dasar bahasa kebangsaan kuala lumpur dewan bahasa dan pustaka asri shukor 2009 malaysiasingapore bilateral relations the dependent and interdependent factors disertasi sejarah jabatan sejarah universiti malaya attorney generals chambers of malaysia disarmament and nonproliferation dlm index dicapai pada 16 julai 2020 awang had salleh 1980 pelajaran dan perguruan melayu di malaya zaman british kuala lumpur dewan bahasa dan pustaka awang had salleh 1980 pendidikan ke arah perpaduan sebuah perspektif sejarah petaling jaya penerbit fajar bakti sdnbhd azlizan mat enh ed 2011 sejarah diplomatik kuala lumpur dewan bahasa dan pustaka azlizan mat enh ed 2014 hubungan antara negara dalam sejarah dari era perang dingin ke perang dingin bangi universiti kebangsaan malaysia beefing up to food security dlm the star 19 april 2020 bilcher bala 2016 isu dan cabaran sarawak selepas merdeka dalam malaysia kertas kerja pdf available persatuan sejarah malaysia cawangan sarawak braddel r 1931 the legal of the states singapura malaya publishing house limited co10301105 clandestine communist organisation in sarawak 19601962 public record office state records repository kuching sarawak cfc macaskie the law and legislation of the state of north borneo dlm jurnal of comparative legislation and international law siri ketiga vol 3 no 3 hlm 200222 1921 chamhuri siwar dan mohd haflah piei 1988 isu konsep dan dimensi kemiskinan kuala lumpur dewan bahasa dan pustaka chamhuri siwar mohd yusof kasim dan abdul malik ismail 1992 ekonomi bumiputera selepas 1990 bangi penerbit universiti kebangsaan malaysia chandran jeshurun 2007 malaysia fifty years of diplomacy 19572007 kuala lumpur the other press cheah boon kheng ed 2006 early modern history 18001940 kuala lumpur archipelago press dan didier millet chew hock thye 1975 masalah perpaduan nasional kuala lumpur dewan bahasa dan pustaka danny wong tzeken ed 2006 sejarah sumber dan pendekatan kuala lumpur penerbit universiti malaya danny wong tzeken 2005 sejarah ringkas tuan yang terutama yang dipertua negeri sabah dan gabenor borneo utara kota kinabalu perpustakaan negeri sabah dayu sansalu 2014 sejarah perkembangan pendidikan di sabah 18811981 kuala lumpur dewan bahasa dan pustaka dev143 hammer minor project 19651972 resident and district office kuching state records repository kuching sarawak dewan perniagaan dan perusahaan melayu malaysia 1986 deb beberapa kesan kaunter produktif dalam pelaksanaannya kuala lumpur dewan perniagaan dan perusahaan melayu malaysia dok119 curfew areas travelling programs 19631966 resident and district office kuching state records repository kuching sarawak dzulkifli abdul razak dan rosnani hashim 2019 falsafah pendidikan kebangsaan dan pelaksanaannya pasca 2020 gombak penerbit universiti islam antarabangsa malaysia 253eko prayitno joko 2018 deksripsi mengenai sabah daripada pelbagai perspektif kuala lumpur institut terjemahan dan buku malaysia emerson r 1982 malaysia kuala lumpur dewan bahasa dan pustaka f462 security operation 1st division 19631970 resident and district office kuching state records repository kuching sarawak f46h1 security operation hammer operation 19651966 resident and district office kuching state records repository kuching sarawak f551 psychological operation in sarawak 19641971 resident and district office kuching state records repository kuching sarawak faaland j dan parkinson j ed 2005 dasar ekonomi baru pertumbuhan negara dan pencapaian ekonomi orang melayu kuala lumpur utusan publications and distributions sdn bhd faisal othman wawasan 2020 menurut perspektif islam dlm jurnal tasawwur islam no 1 1994 faridah jaafar peribadi politik tun hussein dan dasar luar malaysia 19761981 dlm sejarah no 11 2013 fco 14112711 communist penetration of suppunions bps postponement of federation public record office state records repository kuching sarawak federation of malayaact of parliament no 26 of 1963 malaysia act sabah lawnet 2016 foreign affairs malaysia dlm ministry of foreign malaysia no 4 bil 8 1975 fujio hara the north kalimantan communist party and the peoples republic of chin dlm the developing economies xliii4 hlm 489513 disember 2005 g281 preservation of public security ordinance 1962 1966 resident and district office kuching state records repository kuching sarawak gan chee keong dan ahmad azam mohd shariff 2018 perlembagaan persekutuan bangi penerbit universiti kebangsaan malaysia ghazali shafie 1981 malaysia nilai politik budaya petaling jaya penerbit pustaka antara ghazali shafie 1985 rukunegara testament of hope kuala lumpur creative enterprise sdnbhd ghazali shafie 1998 malay nationalism and globalisation bangi penerbit universiti kebangsaan malaysia groves harry e 1964 the constitution of malaysia kuala lumpur malaysia publications ltd hanum hassan dan nurul ashikin abdul halim 2020 raja dan rakyat berpisah tiada kuala lumpur dewan bahasa dan pustaka harding andrew dan lee hp ed 2007 constitutional landmark in malaysia kuala lumpur malayan law journal harcharan singh khera 1972 ekonomi malaysia kuala lumpur merican sons sdn bhd hashim ismail 2017 kebudayaan kebangsaan dicabar kuala lumpur dewan bahasa dan pustaka hashim yeop a sani 1980 perlembagaan kita kuala lumpur malaysian law publishers hernandez c g 2003 finding common ground on the coeans the informal meeting of the asean sea law experts on the unclos filipina institute for strategic and development studies inc ho ah chon 1995 sarawak historical events the formation of the federation of malaysia 1961 1963 sarawak pustaka negeri sarawak ho hui ling 2016 pergerakan bersenjata parti komunis malaya kuala lumpur penerbit universiti malaya ho hui ling kebangkitan parti komunis malaya 19681989 penelitian terhadap kegiatan komunis di semenanjung malaysia dlm jebat malaysian journal of history politics strategic studies vol 42 1 hlm 2356 julai 2015 hussain mohamad 2005 belia dan patriotisme melaka institut kajian sejarah dan patriotisme malaysia ibrahim saat 2009 pendidikan negara bangsa malaysia shah alam karisma publications sdn bhd information malaysia incorporating malaysia year book 195776 2012 kuala lumpur berita publishing sdn bhd institut tadbiran awam negara 1993 negara kita sejarah pentadbiran dan dasardasar pembangunan kuala lumpur percetakan negara ishak saat 2016 warisan kepimpinan dan ketuanan melayu batu pahat penerbit universiti tun hussein onn ismail hussein 1984 sejarah pertumbuhan bahasa kebangsaan kita kuala lumpur dewan bahasa dan pustaka jabatan kehakiman 2014 the malaysian judiciary year book 2014 putrajaya jabatan kehakiman jabatan penerangan malaysia 1985 official year book malaysia 1985 kuala lumpur kementerian penerangan malaysia jabatan penerangan malaysia 2007 50 tahun pendakian ke puncak emas kuala lumpur jabatan penerangan malaysia jabatan penerangan malaysia 2017 buku rasmi tahunan putrajaya jabatan penerangan malaysia jabatan perhilitan semenanjung malaysia 2018 laporan tahunan 2018 annual report kuala lumpur jabatan perhilitan semenanjung malaysia jamaie hamil 2005 umno dalam politik dan perniagaan melayu bangi penerbit universiti kebangsaan malaysia james p ongkili 1985 nation building in malaysia 19461974 singapura oxford university press jayum a jawan 2007 hubungan sesama manusia serdang penerbit universiti putra malaysia 254jeniri amir 2009 bahasa negara dan bangsa kuala lumpur dewan bahasa dan pustaka jeshurun c 2007 malaysia fifty years of diplomacy 19572007 kuala lumpur the other press sdn bhd jomo ks 1988 pembangunan ekonomi dan kelas sosial di semenanjung malaysia kuala lumpur dewan bahasa dan pustaka jomo ks 1991 masyarakat malaysia cabaran sosioekonomi petaling jaya institut analisis sosial jomo ks 2010 warisan ekonomi mahathir kuala lumpur utusan publications and distributors sdn bhd jomo ks dan hui wee chong 2002 working paper the political economy of malaysian federalism economic development public policy and conflict containment dlm wider working paper series dp2002113 world institute for development economic research unuwider jonathan barnes 2015 aristotle pengenalan ringkas kuala lumpur institut terjemahan buku negara joseph m fernando dan shanthiah rajagopal politics security and early ideas of greater malaysia 19451961 dlm archipel 94 2017 k ramanathan 1985 politik dalam pendidikan bahasa 19301971 petaling jaya penerbit fajar bakti sdn bhd k ramanathan 1988 konsep asas politik kuala lumpur dewan bahasa dan pustaka kallgren jk ed 1988 asean and china an evolving relationship berkeley university of california kamaruddin mohd said 2015 kesedaran sejarah transformasi sosioekonomi dan kelakuan politik masyarakat kuala terengganu penerbit universiti sultan zainal abidin kamarudin jaafar dan hazami habib 1993 wawasan 2020 kuala lumpur institut kajian dasar kamarulnizam abdullah malaysias role in invigorating nams bandung spirit dlm jebat no 1 bil 40 2013 kartini aboo talib 2017 dasar pandang ke timur pencapaian adaptasi dan cabaran bangi penerbit universiti kebangsaan malaysia kaur a dan metcalfe i 1999 the shaping of malaysia united kingdom palgrave macmillan kee howe yong 2013 the hakkas of sarawak sacrificial gifts in cold war era malaysia toronto university of toronto press kementerian pelajaran malaysia 1974 laporan mengenai pelaksanaan shorshor jawatankuasa penyemak dasar pelajaran 1960 kuala lumpur dewan bahasa dan pustaka kementerian perumahan dan kerajaan tempatan 2018 dasar perumahan negara putrajaya jabatan perumahan negara kementerian perumahan dan kerajaan tempatan kementerian penerangan dan multimedia malaysia 2019 raja dan rakyat berpisah tiada putrajaya kementerian penerangan dan multimedia malaysia khairil anas jusoh 2014 dustur wa salatin perlembagaan dan para sultan shah alam foundation of research on transformation fort khairulmaini osman salleh dan kanthasamy n 2003 malaysia and globalisation issues and challenges in the 21st century kuala lumpur penerbit universiti malaya kumpulan rencana dewan masyarakat 19631972 1979 pembangunan dan masalah sosial kuala lumpur dewan bahasa dan pustaka nombor penerimaan gambar arkib bibliografi negara malaysia dan maklumat lain dari semasa ke semasa 255</t>
+          <t>75 sukan sebagai alat perpaduan sukan merupakan satu medium untuk memupuk perpaduan kaum dan integrasi nasional di malaysia sukan dapat mengeratkan hubungan muhibah dan menerapkan rasa saling hormat dalam kalangan peserta selain itu sukan mampu mewujudkan masyarakat yang sanggup memberikan sumbangan demi kesejahteraan sosial dan kecemerlangan sukan negara sukan dan perpaduan melalui pendidikan sukan merupakan aktiviti kokurikulum yang sangat digalakkan dalam kalangan murid sekolah dasar 1 murid 1 sukan dan rancangan integrasi murid untuk perpaduan rimup menggalakkan murid pelbagai kaum melibatkan diri dalam sukan yang digemari dasar ini juga memberikan peluang kepada murid pelbagai kaum untuk menceburi bidang sukan serta dapat memupuk semangat setia kawan dan berpasukan selain itu dasar ini juga mampu melahirkan atlet yang berkaliber sehingga ke peringkat antarabangsa kejohanan olahraga tahunan sekolah melibatkan murid yang terdiri daripada pelbagai kategori umur dan kaum pusingan robin tiada acara sukan yang dipertandingkan mengikut kaum round robin rakanrakan penyokong serta guru penasihat rumah murid secara berkumpulan bergilirgilir sukan akan bersorak memberikan sokongan kepada atlet memberikan maklum balas terhadap gambar rumah sukan masingmasing tanpa mengira kaum yang berikut 7 bab bab 7 perbarisan rumah sukan bersempena dengan kejohanan olahraga tahunan sekolah sumber ihsan daripada tuan haji ahmad kerjasama ali 2019 dan semangat 1 apakah perasaan anda setelah dipilih bersatu warga sekolah yang sebagai salah seorang ahli perbarisan berbilang kaum rumah sukan diperlihatkan 2 bagaimanakah anda memainkan melalui pelibatan peranan dalam perbarisan rumah sukan dalam kejohanan yang terdiri daripada pelbagai kaum olahraga tahunan 3 jelaskan manfaat yang boleh didapati sekolah daripada kegiatan sukan ini bagi sumber ihsan mengukuhkan hubungan dengan rakan daripada tuan haji kaum lain ahmad ali 2019 115522majlis sukan universiti malaysia masum majlis sukan universiti malaysia masum bermula pada tahun 1974 masum ditubuhkan bertujuan mengadakan pertandingan sukan dalam kalangan penuntut dan staf universiti tempatan bagi memupuk perpaduan dan integrasi nasional masum menjadi medan untuk atlet menunjukkan kebolehan dalam sukan penganjuran masum secara bergilirgilir dapat menggalakkan integrasi antara negeri logo masum sumber kementerian pengajian tinggi sukan malaysia sukma sukan malaysia sukma diadakan secara dwitahunan pada peringkat kebangsaan yang disertai oleh 13 buah negeri dan wilayah persekutuan sukma bertujuan mengeratkan hubungan kaum serta integrasi antara negeri sukma pertama diadakan di kuala lumpur dari 19 april 1986 hingga 26 april 1986 yang disertai oleh 3849 atlet dari 13 buah negeri di malaysia logo sukan malaysia sumber kementerian belia dan sukan penganjuran sukan kejayaan malaysia menganjurkan pelbagai jenis sukan pada peringkat serantau dan antarabangsa juga membuktikan sukan dapat menyatukan masyarakat berbilang kaum di negara kita komitmen pemimpin dan kesungguhan para sukarelawan pelbagai kaum memastikan penganjuran sukan yang cemerlang mendapat pengiktirafan banyak pihak antara sukan antarabangsa yang berjaya dianjurkan oleh malaysia termasuklah hoki piala dunia sukan komanwel piala thomas southeast asian 7 games atau sukan sea sukan permotoran formula 1 dan sukan berbasikal le tour de langkawi bab bab 7 malaysia menganjurkan sukan permotoran formula 1 penganjuran le tour de langkawi setiap tahun sumber dicapai pada mampu menarik minat pasukan ternama dunia 26 oktober 2020 sumber dicapai pada 26 oktober 2020 153kejayaan malaysia kebanggaan bersama kejayaan pasukan negara dalam pertandingan sukan antarabangsa seperti sukan olimpik sukan komanwel sukan asia sukan sea dan pestabola merdeka merupakan hasil kerjasama serta kesungguhan pelbagai pihak dalam pasukan seperti bola sepak hoki badminton renang boling dan olahraga pemain dan jurulatih bekerjasama tanpa mengira kaum kejayaan pasukan negara ini merupakan harapan seluruh rakyat malaysia jelaslah bahawa sukan memainkan peranan yang penting dalam membentuk sebuah pasukan yang bersatu dan saling bekerjasama untuk mencapai kejayaan malaysia turut melakar kejayaan dalam sukan paralimpik seperti kejohanan olahraga paralimpik dunia atlet negara menunjukkan prestasi cemerlang dengan meraih kemenangan dalam pelbagai jenis sukan seperti olahraga dan memanah pasukan hoki kebangsaan dalam pertandingan hoki piala dunia 1975 diperkenalkan kepada 7 seri paduka baginda yang dipertuan agong v bab bab sultan abdul halim muadzam shah ibni almarhum sultan badlishah 7 sumber arkib negara malaysia pasukan bola sepak kebangsaan berjaya melayakkan diri ke sukan olimpik moscow pada tahun 1980 selepas mengalahkan korea selatan 21 sumber ahmad sarji abdul hamid 2008 sports and recreation kuala lumpur editions didier millet senaraikan sukan yang anda ketahui mempunyai pemain dan jurulatih pelbagai kaum di malaysia membuat interpretasi pasukan badminton malaysia menjuarai piala thomas bagaimanakah perpaduan kaum dalam pasukan pada tahun 1967 selepas mengalahkan indonesia 63 membawa kejayaan kepada sukan negara sumber arkib negara malaysia 154laungan malaysia boleh slogan malaysia boleh menunjukkan patriotisme rakyat malaysia tanpa mengira kaum agama dan budaya ketika menyokong pasukan malaysia yang bertanding dalam kejohanan peringkat serantau dan antarabangsa slogan ini asalnya untuk kempen malaysia menjadi tuan rumah kejohanan piala thomas dan uber pada tahun 1992 dan penyertaan malaysia di kejohanan olimpik yang diadakan di sepanyol serta kejohanan sukan sea di singapura 1993 laungan semangat malaysia boleh oleh penyokong dapat dilihat apabila malaysia muncul sebagai juara piala thomas pada tahun 1992 sokongan ini membuktikan bahawa rakyat malaysia bersatu padu untuk kejayaan pasukan badminton malaysia yang menjuarai piala pasukan negara thomas pada tahun 1992 sumber malaysia 2007 jubli emas merdeka 31 ogos 1957 malaysia ku gemilang kuala lumpur kementerian kebudayaan kesenian dan warisan malaysia seri paduka baginda yang dipertuan agong ix sultan azlan muhibbuddin shah ibni almarhum sultan 7 bab yussuf izzuddin shah ghafarullahulah menyampaikan bab pingat kepada pasukan badminton malaysia yang menjuarai piala thomas pada tahun 1992 7 sumber arkib negara malaysia peranan organisasi dalam perkembangan sukan dan slogan malaysia boleh menjadi perangsang semangat kepada rakyat malaysia memupuk perpaduan kaum sumber malaysia 2007 jubli emas merdeka 31 beberapa agensi diberi tanggungjawab untuk ogos 1957 malaysia ku gemilang kuala lumpur kementerian kebudayaan kesenian dan warisan malaysia meningkatkan pencapaian dan kecemerlangan sukan negara pada peringkat antarabangsa antaranya termasuklah kementerian belia dan sukan majlis sukan negara majlis olimpik malaysia serta persatuan sukan peringkat atlet sukan negara kebangsaan dan negeri pegawai pengurusan pakar perubatan sukan pegawai teknikal dan panel kejurulatihan yang terlibat dalam organisasi ini terdiri daripada pelbagai kaum dengan kepakaran dalam bidang masingmasing 155kepemimpinan berwibawa kejayaan sukan di negara kita merupakan hasil pengurusan sukan yang cekap dan teratur kecemerlangan ini juga disebabkan ketokohan pemimpin persatuan sukan jurulatih para atlet dan pegawai sukan keunikan perkembangan sukan di negara kita memperlihatkan pelibatan kerabat diraja dan ahli politik sebagai penaung sultan haji ahmad shah sultan azlan muhibbuddin atau presiden persatuan sukan sementara presiden persatuan bola shah itu bekas atlet pula menjadi pengurus atau sepak malaysia presiden konfederasi jurulatih pasukan peranan mereka penting untuk 19842014 hoki malaysia 19852004 menarik minat dan sokongan rakyat terhadap perkembangan industri sukan negara perbincangan bebas free discussion arahan perbincangan murid dalam kumpulan kecil semasa sesi perbincangan murid bertindak sebagai tunku tan sri imran tuanku dato sieh kok chi pemudah cara jaafar setiausaha agung majlis presiden majlis olimpik olimpik malaysia malaysia 19922015 19982018 7 bab bab 7 berdasarkan simbol tersebut lakukan aktiviti yang berikut1 perbincangan dalam kumpulan kecil tan sri darshan singh gill dato peter velappan a nama tokoh pemain yang anda kenal presiden persekutuan setiausaha agung dalam simbol sukan berkenaan kebangsaan berbasikal konfederasi bola sepak b bincangkan kejayaan yang pernah dicapai malaysia asia malaysia oleh tokoh pemain berkenaan 19861990 19782007 c bagaimanakah kejayaan mereka dapat sukan berupaya untuk mengukuhkan perpaduan menyemarakkan semangat perpaduan antara kaum dalam kalangan masyarakat kaum melalui sukan di malaysia aktiviti sukan memberikan peluang d cadangkan langkah untuk mewujudkan kepada semua yang terlibat membentuk masyarakat perpaduan kaum dan integrasi nasional yang lebih sopan berintegriti bertanggungjawab melalui sukan serta dapat menghargai pentingnya menjaga 2 perbincangan dalam kumpulan besar perpaduan dan keharmonian kaum melalui sukan dengan bimbingan guru sebagai pemudah cara kongsikan maklumat hasil perbincangan dengan juga pemimpin dan rakyat saling bekerjasama serta kumpulan lain dalam bentuk perbincangan berperanan dalam memajukan kegiatan sukan yang bebas membawa kemakmuran negara 156</t>
         </is>
       </c>
     </row>
